--- a/data/sources_list_.xlsx
+++ b/data/sources_list_.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clara/Downloads/RE_ ML for AWH Discussion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clara/Downloads/RE_ ML for AWH Discussion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05574BA-7250-194C-98E2-EECD58201236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="760" windowWidth="17860" windowHeight="17840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="400">
   <si>
     <t xml:space="preserve">Data Source </t>
   </si>
@@ -1221,13 +1221,28 @@
   </si>
   <si>
     <t>Paper 18 (BaBr2)</t>
+  </si>
+  <si>
+    <t>NH4NO3</t>
+  </si>
+  <si>
+    <t>Used by Garin</t>
+  </si>
+  <si>
+    <t>Deliquescence, Efflorescence, and Water Activity in Ammonium Nitrate and Mixed</t>
+  </si>
+  <si>
+    <t>Paper 19 (NH4NO3)</t>
+  </si>
+  <si>
+    <t>mole ratio (water:salt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,6 +1278,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1291,7 +1313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1316,6 +1338,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2786,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:HY34"/>
+  <dimension ref="A1:IC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HT9" zoomScale="143" workbookViewId="0">
-      <selection activeCell="HX16" sqref="HX16"/>
+    <sheetView tabSelected="1" topLeftCell="HX3" zoomScale="143" workbookViewId="0">
+      <selection activeCell="IA11" sqref="IA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2825,7 +2850,7 @@
     <col min="345" max="16384" width="20.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:233" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:237" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>136</v>
       </c>
@@ -2944,6 +2969,9 @@
       <c r="AZ1" s="8" t="s">
         <v>380</v>
       </c>
+      <c r="BA1" s="8" t="s">
+        <v>395</v>
+      </c>
       <c r="BC1" s="4" t="s">
         <v>161</v>
       </c>
@@ -3008,7 +3036,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3147,6 +3175,9 @@
       <c r="AZ2" s="2">
         <v>297.14</v>
       </c>
+      <c r="BA2" s="2">
+        <v>80.043000000000006</v>
+      </c>
       <c r="BD2" s="2" t="s">
         <v>166</v>
       </c>
@@ -3196,7 +3227,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>178</v>
       </c>
@@ -3365,8 +3396,12 @@
         <v>0.20823</v>
       </c>
       <c r="AZ3" s="2">
-        <f t="shared" ref="AZ3" si="13">AZ2/1000</f>
+        <f t="shared" ref="AZ3:BA3" si="13">AZ2/1000</f>
         <v>0.29713999999999996</v>
+      </c>
+      <c r="BA3" s="2">
+        <f t="shared" si="13"/>
+        <v>8.0043000000000003E-2</v>
       </c>
       <c r="CJ3" s="2" t="s">
         <v>148</v>
@@ -3387,7 +3422,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>183</v>
       </c>
@@ -3522,8 +3557,11 @@
       <c r="HU4" s="1" t="s">
         <v>394</v>
       </c>
+      <c r="IA4" s="10" t="s">
+        <v>398</v>
+      </c>
     </row>
-    <row r="5" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="S5" s="2" t="s">
         <v>210</v>
       </c>
@@ -3543,7 +3581,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>212</v>
       </c>
@@ -3662,7 +3700,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O7" s="2">
         <v>0.1</v>
       </c>
@@ -4217,8 +4255,17 @@
       <c r="HY7" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="IA7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="IB7" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="IC7" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
-    <row r="8" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>265</v>
       </c>
@@ -4869,8 +4916,18 @@
         <f>EXP(-2*HU8*HX8/55.51)</f>
         <v>0.95868116900428202</v>
       </c>
+      <c r="IA8" s="2">
+        <f>(1/IB8)/P3</f>
+        <v>15.002512920914251</v>
+      </c>
+      <c r="IB8" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="IC8" s="2">
+        <v>0.73199999999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>272</v>
       </c>
@@ -5277,7 +5334,7 @@
         <v>0.86770000000000003</v>
       </c>
       <c r="EY9">
-        <f t="shared" ref="EY9:EY18" si="62">EXP(-2*EU9*EX9/55.51)</f>
+        <f t="shared" ref="EY9:EY13" si="62">EXP(-2*EU9*EX9/55.51)</f>
         <v>0.99066499358569005</v>
       </c>
       <c r="FA9" s="2">
@@ -5320,18 +5377,18 @@
         <v>1.6080000000000001</v>
       </c>
       <c r="FN9" s="2">
-        <f t="shared" ref="FN9:FN14" si="69">$AP$3*FM9/(1+$AP$3*FM9)</f>
+        <f t="shared" ref="FN9:FN13" si="69">$AP$3*FM9/(1+$AP$3*FM9)</f>
         <v>0.16061751690516321</v>
       </c>
       <c r="FO9" s="2">
-        <f t="shared" ref="FO9:FO14" si="70">FN9*$AP$3/(FN9*$AP$3+(1-FN9)*$P$3)</f>
+        <f t="shared" ref="FO9:FO13" si="70">FN9*$AP$3/(FN9*$AP$3+(1-FN9)*$P$3)</f>
         <v>0.55830310719236997</v>
       </c>
       <c r="FP9" s="2">
         <v>0.96</v>
       </c>
       <c r="FQ9">
-        <f t="shared" ref="FQ9:FQ15" si="71">EXP(-2*FM9*FP9/55.51)</f>
+        <f t="shared" ref="FQ9:FQ13" si="71">EXP(-2*FM9*FP9/55.51)</f>
         <v>0.94590031870385338</v>
       </c>
       <c r="FS9" s="2">
@@ -5356,11 +5413,11 @@
         <v>2.2440000000000002</v>
       </c>
       <c r="FZ9" s="2">
-        <f t="shared" ref="FZ9:FZ16" si="75">$AR$3*FY9/(1+$AR$3*FY9)</f>
+        <f t="shared" ref="FZ9:FZ13" si="75">$AR$3*FY9/(1+$AR$3*FY9)</f>
         <v>0.32320195537242424</v>
       </c>
       <c r="GA9" s="2">
-        <f t="shared" ref="GA9:GA16" si="76">FZ9*$AR$3/(FZ9*$AR$3+(1-FZ9)*$P$3)</f>
+        <f t="shared" ref="GA9:GA13" si="76">FZ9*$AR$3/(FZ9*$AR$3+(1-FZ9)*$P$3)</f>
         <v>0.84942514211339359</v>
       </c>
       <c r="GB9" s="2">
@@ -5385,7 +5442,7 @@
         <v>0.82</v>
       </c>
       <c r="GI9">
-        <f t="shared" ref="GI9:GI13" si="80">EXP(-2*GE9*GH9/55.51)</f>
+        <f t="shared" ref="GI9:GI12" si="80">EXP(-2*GE9*GH9/55.51)</f>
         <v>0.95535204415515373</v>
       </c>
       <c r="GK9" s="2">
@@ -5421,7 +5478,7 @@
         <v>1.25</v>
       </c>
       <c r="GU9">
-        <f t="shared" ref="GU9:GU15" si="86">EXP(-2*GQ9*GT9/55.51)</f>
+        <f t="shared" ref="GU9:GU12" si="86">EXP(-2*GQ9*GT9/55.51)</f>
         <v>0.93619258924061399</v>
       </c>
       <c r="GW9" s="2">
@@ -5493,7 +5550,7 @@
         <v>1.27</v>
       </c>
       <c r="HS9">
-        <f t="shared" ref="HS9:HS15" si="98">EXP(-2*HO9*HR9/55.51)</f>
+        <f t="shared" ref="HS9:HS12" si="98">EXP(-2*HO9*HR9/55.51)</f>
         <v>0.96679475950506333</v>
       </c>
       <c r="HU9" s="2">
@@ -5514,8 +5571,18 @@
         <f t="shared" ref="HY9:HY15" si="101">EXP(-2*HU9*HX9/55.51)</f>
         <v>0.94720752122541474</v>
       </c>
+      <c r="IA9" s="2">
+        <f>(1/IB9)/P3</f>
+        <v>16.326264060994923</v>
+      </c>
+      <c r="IB9" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="IC9" s="2">
+        <v>0.71499999999999997</v>
+      </c>
     </row>
-    <row r="10" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O10" s="2">
         <v>3</v>
       </c>
@@ -6150,8 +6217,18 @@
         <f t="shared" si="101"/>
         <v>0.93748198497898005</v>
       </c>
+      <c r="IA10" s="2">
+        <f>(1/IB10)/P3</f>
+        <v>17.346655564807104</v>
+      </c>
+      <c r="IB10" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="IC10" s="2">
+        <v>0.70599999999999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>281</v>
       </c>
@@ -6798,8 +6875,18 @@
         <f t="shared" si="101"/>
         <v>0.92320282503628792</v>
       </c>
+      <c r="IA11" s="2">
+        <f>(1/IB10)/P3</f>
+        <v>17.346655564807104</v>
+      </c>
+      <c r="IB11" s="2">
+        <v>3</v>
+      </c>
+      <c r="IC11" s="2">
+        <v>0.69699999999999995</v>
+      </c>
     </row>
-    <row r="12" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>289</v>
       </c>
@@ -7429,8 +7516,18 @@
         <f t="shared" si="101"/>
         <v>0.91287906642256578</v>
       </c>
+      <c r="IA12" s="2">
+        <f>(1/IB11)/P3</f>
+        <v>18.503099269127578</v>
+      </c>
+      <c r="IB12" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="IC12" s="2">
+        <v>0.68600000000000005</v>
+      </c>
     </row>
-    <row r="13" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>298</v>
       </c>
@@ -8007,8 +8104,18 @@
         <f t="shared" si="101"/>
         <v>0.89510498339874134</v>
       </c>
+      <c r="IA13" s="2">
+        <f>(1/IB12)/P3</f>
+        <v>19.141137174959567</v>
+      </c>
+      <c r="IB13" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="IC13" s="2">
+        <v>0.67600000000000005</v>
+      </c>
     </row>
-    <row r="14" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>304</v>
       </c>
@@ -8480,8 +8587,18 @@
         <f t="shared" si="101"/>
         <v>0.87980202548305697</v>
       </c>
+      <c r="IA14" s="2">
+        <f>(1/IB13)/P3</f>
+        <v>19.824749216922406</v>
+      </c>
+      <c r="IB14" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="IC14" s="2">
+        <v>0.66500000000000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>311</v>
       </c>
@@ -8950,8 +9067,18 @@
         <f t="shared" si="101"/>
         <v>0.82210642126294919</v>
       </c>
+      <c r="IA15" s="2">
+        <f>(1/IB14)/P3</f>
+        <v>20.558999187919532</v>
+      </c>
+      <c r="IB15" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="IC15" s="2">
+        <v>0.65400000000000003</v>
+      </c>
     </row>
-    <row r="16" spans="1:233" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>318</v>
       </c>
@@ -9295,8 +9422,18 @@
         <v>0.96762275008731913</v>
       </c>
       <c r="EY16"/>
+      <c r="IA16" s="2">
+        <f>(1/IB15)/P3</f>
+        <v>21.349729925916435</v>
+      </c>
+      <c r="IB16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="IC16" s="2">
+        <v>0.64500000000000002</v>
+      </c>
     </row>
-    <row r="17" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>326</v>
       </c>
@@ -9643,8 +9780,18 @@
         <v>0.96114536582444166</v>
       </c>
       <c r="EY17"/>
+      <c r="IA17" s="2">
+        <f>(1/IB16)/P3</f>
+        <v>22.203719122953096</v>
+      </c>
+      <c r="IB17" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="IC17" s="2">
+        <v>0.629</v>
+      </c>
     </row>
-    <row r="18" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V18" s="2">
         <v>5</v>
       </c>
@@ -9965,8 +10112,18 @@
         <v>0.95464461253083843</v>
       </c>
       <c r="EY18"/>
+      <c r="IA18" s="2">
+        <f>(1/IB17)/P3</f>
+        <v>23.128874086409475</v>
+      </c>
+      <c r="IB18" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="IC18" s="2">
+        <v>0.62</v>
+      </c>
     </row>
-    <row r="19" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>338</v>
       </c>
@@ -10270,8 +10427,18 @@
         <f t="shared" si="59"/>
         <v>0.9481058402815703</v>
       </c>
+      <c r="IA19" s="2">
+        <f>(1/IB18)/P3</f>
+        <v>24.134477307557713</v>
+      </c>
+      <c r="IB19" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="IC19" s="2">
+        <v>0.51900000000000002</v>
+      </c>
     </row>
-    <row r="20" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>345</v>
       </c>
@@ -10549,8 +10716,18 @@
         <f t="shared" si="59"/>
         <v>0.94153043639048362</v>
       </c>
+      <c r="IA20" s="2">
+        <f>(1/IB19)/P3</f>
+        <v>37.006198538255155</v>
+      </c>
+      <c r="IB20" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="IC20" s="2">
+        <v>0.39200000000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>351</v>
       </c>
@@ -10752,8 +10929,18 @@
         <f t="shared" si="59"/>
         <v>0.93492517765215333</v>
       </c>
+      <c r="IA21" s="2">
+        <f>(1/IB20)/P3</f>
+        <v>69.386622259228417</v>
+      </c>
+      <c r="IB21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="IC21" s="2">
+        <v>0.29199999999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>355</v>
       </c>
@@ -10956,7 +11143,7 @@
         <v>0.92157439663809559</v>
       </c>
     </row>
-    <row r="23" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>364</v>
       </c>
@@ -11145,7 +11332,7 @@
         <v>0.91147768727147049</v>
       </c>
     </row>
-    <row r="24" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>366</v>
       </c>
@@ -11249,7 +11436,19 @@
         <v>0.90126166538009622</v>
       </c>
     </row>
-    <row r="25" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>396</v>
+      </c>
       <c r="BC25" s="2">
         <v>6.9850000000000003</v>
       </c>
@@ -11327,7 +11526,7 @@
         <v>0.88750605177911046</v>
       </c>
     </row>
-    <row r="26" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BC26" s="2">
         <v>7.4950000000000001</v>
       </c>
@@ -11391,7 +11590,7 @@
         <v>0.87710984737211428</v>
       </c>
     </row>
-    <row r="27" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BC27" s="2">
         <v>7.9480000000000004</v>
       </c>
@@ -11455,7 +11654,7 @@
         <v>0.8667217477376794</v>
       </c>
     </row>
-    <row r="28" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BC28" s="2">
         <v>7.9969999999999999</v>
       </c>
@@ -11519,7 +11718,7 @@
         <v>0.8490882556844872</v>
       </c>
     </row>
-    <row r="29" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BC29" s="2">
         <v>8.9870000000000001</v>
       </c>
@@ -11583,7 +11782,7 @@
         <v>0.83139404553783947</v>
       </c>
     </row>
-    <row r="30" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BC30" s="2">
         <v>9.9670000000000005</v>
       </c>
@@ -11647,7 +11846,7 @@
         <v>0.81356716887718761</v>
       </c>
     </row>
-    <row r="31" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BC31" s="2">
         <v>11.013</v>
       </c>
@@ -11711,7 +11910,7 @@
         <v>0.79572679892361964</v>
       </c>
     </row>
-    <row r="32" spans="1:155" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BC32" s="2">
         <v>11.999000000000001</v>
       </c>

--- a/data/sources_list_.xlsx
+++ b/data/sources_list_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clara/Downloads/RE_ ML for AWH Discussion/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/peterbaz_stanford_edu/Documents/DiazMarin2026/hygroscopic-salts-main/hygroscopic-salts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{989B469D-EB29-4C37-8146-2D70258328C0}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="760" windowWidth="17860" windowHeight="17840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12730" yWindow="2770" windowWidth="25800" windowHeight="15740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="425">
   <si>
     <t xml:space="preserve">Data Source </t>
   </si>
@@ -431,21 +431,12 @@
     <t>Entropy of Mixing of Nonideal Solutions</t>
   </si>
   <si>
-    <t>Heavy math on entropy of mixing</t>
-  </si>
-  <si>
     <t>International Equations for the Saturation Properties of Ordinary Water Substance. Revised According to the International Temperature Scale of 1990. Addendum to J. Phys. Chem. Ref. Data 16, 893 (1987)</t>
   </si>
   <si>
-    <t>Reference values for pure water logic</t>
-  </si>
-  <si>
     <t>Dynamic water absorption-desorption by aqueous salt solutions</t>
   </si>
   <si>
-    <t>AD modelling and several plots for activity coefficient and uptake</t>
-  </si>
-  <si>
     <t>List of endothermic salts, NaCl, KCl, NH4OH, NH4Cl, KBr, NH4ClO3, KNO3, NaNO3</t>
   </si>
   <si>
@@ -1236,6 +1227,90 @@
   </si>
   <si>
     <t>mole ratio (water:salt)</t>
+  </si>
+  <si>
+    <t>Molecular dynamics simulations of aqueous LiCl solutions at room temperature through the entire concentration range</t>
+  </si>
+  <si>
+    <t>Provides RDFs, uses FFs</t>
+  </si>
+  <si>
+    <t>Structural, Dynamical, and Rheological Properties of KCl–Water Systems Across Varying Concentrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provides RDFs, uses SPC/E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference values for pure water </t>
+  </si>
+  <si>
+    <t>CDM: AD modelling and several plots for activity coefficient and uptake</t>
+  </si>
+  <si>
+    <t>Ab Initio Molecular Dynamics Simulations of the Influence of Lithium Bromide on the Structure of the Aqueous Solution–Air Interface</t>
+  </si>
+  <si>
+    <t>Provides (surface) RDFs, uses AIMD</t>
+  </si>
+  <si>
+    <t>Computer Simulation Study of the Structure of LiCl Aqueous Solutions: Test of Non-Standard Mixing Rules in the Ion Interaction</t>
+  </si>
+  <si>
+    <t>Provides RDFs, uses TIP4P-Ew</t>
+  </si>
+  <si>
+    <t>Ion–Ion Structural Correlation and Dynamics of Water in Aqueous NaCl Solutions with a Wide Range of Concentrations</t>
+  </si>
+  <si>
+    <t>System-Size Dependence of Electrolyte Activity Coefficients in Molecular Simulations</t>
+  </si>
+  <si>
+    <t>Size effects strongest at low solute concentrations, then screened</t>
+  </si>
+  <si>
+    <t>Anomalous water diffusion in salt solutions</t>
+  </si>
+  <si>
+    <t>Uses AIMD, says dynamics need quantum</t>
+  </si>
+  <si>
+    <t>Identification of Ion Pairs in Aqueous NaCl and KCl Solutions in Combination with Raman Spectroscopy, Molecular Dynamics, and Quantum Chemical Calculations</t>
+  </si>
+  <si>
+    <t>KCl forms more pairs than NaCl</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Concentration-dependent structure and dynamics of aqueous LiCl solutions: A molecular dynamics study</t>
+  </si>
+  <si>
+    <t>Accurate Simulations of Water and Aqueous Solutions through Fine-Tuned Dispersion-Corrected Density Functional Theory and Machine-Learning Interatomic Potentials</t>
+  </si>
+  <si>
+    <t>Trains and uses MLIPs, provides one for MgCl2</t>
+  </si>
+  <si>
+    <t>MLIPs</t>
+  </si>
+  <si>
+    <t>Machine learning potentials for complex aqueous systems made simple</t>
+  </si>
+  <si>
+    <t>Trains and uses MLIPs</t>
+  </si>
+  <si>
+    <t>Why Dissolving Salt in Water Decreases Its Dielectric Permittivity</t>
+  </si>
+  <si>
+    <t>Disruption of dipolar correlations among water</t>
+  </si>
+  <si>
+    <t>THERMODYNAMICS OF ELECTROLYTES. II. ACTIVITY AND OSMOTIC COEFFICIENTS FOR STRONG</t>
+  </si>
+  <si>
+    <t>Pitzer chapter</t>
   </si>
 </sst>
 </file>
@@ -2067,15 +2142,15 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="25.5" style="2" customWidth="1"/>
-    <col min="5" max="8" width="13.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="25.5" style="2"/>
+    <col min="1" max="4" width="25.453125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="13.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="25.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2139,7 +2214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2168,7 +2243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -2188,7 +2263,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2211,7 +2286,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2225,7 +2300,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -2236,7 +2311,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2253,7 +2328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -2279,7 +2354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="160" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -2308,7 +2383,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -2331,10 +2406,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -2348,7 +2423,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -2369,7 +2444,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -2378,7 +2453,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
@@ -2386,12 +2461,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
@@ -2414,7 +2489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -2443,10 +2518,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
@@ -2474,24 +2549,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView topLeftCell="A10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="25.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="2" customWidth="1"/>
-    <col min="7" max="9" width="13.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="25.5" style="2"/>
+    <col min="1" max="3" width="25.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="25.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2514,7 +2589,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
@@ -2531,7 +2606,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -2548,7 +2623,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>101</v>
       </c>
@@ -2568,7 +2643,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>104</v>
       </c>
@@ -2585,7 +2660,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="320" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="320" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>107</v>
       </c>
@@ -2605,7 +2680,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -2622,10 +2697,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -2642,7 +2717,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>116</v>
       </c>
@@ -2665,7 +2740,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>121</v>
       </c>
@@ -2694,7 +2769,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>126</v>
       </c>
@@ -2715,6 +2790,40 @@
       </c>
       <c r="G12" s="4" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -2734,6 +2843,8 @@
     <hyperlink ref="I11" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
     <hyperlink ref="A12" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
     <hyperlink ref="G12" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A13" r:id="rId16" xr:uid="{35B3FE1E-225F-4F11-A434-FED1F127508A}"/>
+    <hyperlink ref="A14" r:id="rId17" location="data-availability" xr:uid="{1C0C64C2-D76C-4F34-B64D-29511E5CFC85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2741,21 +2852,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="25.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="25.5" style="2"/>
+    <col min="1" max="2" width="25.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="25.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2766,37 +2877,169 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="C2" s="2">
         <v>1972</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2">
         <v>1992</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>402</v>
       </c>
       <c r="C4" s="2">
         <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1973</v>
       </c>
     </row>
   </sheetData>
@@ -2804,6 +3047,17 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="A4" r:id="rId3" location="mmc1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{08F127F5-9EA7-4FFF-BB51-B323DA2E844A}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{68F40AC7-4022-400A-AE40-067AD66439A3}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{A0E763A8-4A6D-4AA7-97CB-644D3FFFC184}"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://pubs.acs.org/doi/10.1021/jp500937h" xr:uid="{081DD732-8280-40F7-B7E4-17777DC7D77E}"/>
+    <hyperlink ref="A11" r:id="rId8" xr:uid="{23FEF26C-03DA-4871-B3DA-C07B7A66C697}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{4A838306-8DF7-4F9A-BE51-F9587D71DDCE}"/>
+    <hyperlink ref="A13" r:id="rId10" location="r42" xr:uid="{1749335F-75E3-4FA8-AAD4-5D4CE3AF6265}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{78859ADF-B73D-488A-9E68-8E2538811979}"/>
+    <hyperlink ref="A6" r:id="rId12" location="f0020" xr:uid="{3D127DDF-15D8-4D0F-B660-EA132649BB31}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{E7BCA44C-3428-44F3-B154-B94112E922FB}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{04B3FA29-0EB6-40C4-8E37-737739683077}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2813,250 +3067,250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IC34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="HX3" zoomScale="143" workbookViewId="0">
+    <sheetView topLeftCell="HX3" zoomScale="143" workbookViewId="0">
       <selection activeCell="IA11" sqref="IA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
-    <col min="2" max="3" width="7.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="2" customWidth="1"/>
-    <col min="8" max="13" width="8.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="6" customWidth="1"/>
-    <col min="15" max="65" width="8.5" style="2" customWidth="1"/>
-    <col min="66" max="66" width="8.33203125" style="2" customWidth="1"/>
-    <col min="67" max="120" width="8.5" style="2" customWidth="1"/>
-    <col min="121" max="121" width="8.33203125" style="2" customWidth="1"/>
-    <col min="122" max="127" width="8.5" style="2" customWidth="1"/>
-    <col min="128" max="128" width="8.33203125" style="2" customWidth="1"/>
-    <col min="129" max="131" width="8.5" style="2" customWidth="1"/>
-    <col min="132" max="133" width="8.33203125" style="2" customWidth="1"/>
-    <col min="134" max="135" width="8.5" style="2" customWidth="1"/>
-    <col min="136" max="136" width="8.33203125" style="2" customWidth="1"/>
-    <col min="137" max="138" width="8.5" style="2" customWidth="1"/>
-    <col min="139" max="140" width="8.33203125" style="2" customWidth="1"/>
-    <col min="141" max="143" width="8.5" style="2" customWidth="1"/>
-    <col min="144" max="144" width="8.33203125" style="2" customWidth="1"/>
-    <col min="145" max="147" width="8.5" style="2" customWidth="1"/>
-    <col min="148" max="148" width="8.33203125" style="2" customWidth="1"/>
-    <col min="149" max="149" width="8.5" style="2" customWidth="1"/>
-    <col min="150" max="151" width="8.33203125" style="2" customWidth="1"/>
-    <col min="152" max="152" width="8.5" style="2" customWidth="1"/>
-    <col min="153" max="153" width="8.33203125" style="2" customWidth="1"/>
-    <col min="154" max="344" width="8.5" style="2" customWidth="1"/>
-    <col min="345" max="16384" width="20.5" style="2"/>
+    <col min="1" max="1" width="20.453125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="7.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" style="2" customWidth="1"/>
+    <col min="8" max="13" width="8.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" style="6" customWidth="1"/>
+    <col min="15" max="65" width="8.453125" style="2" customWidth="1"/>
+    <col min="66" max="66" width="8.36328125" style="2" customWidth="1"/>
+    <col min="67" max="120" width="8.453125" style="2" customWidth="1"/>
+    <col min="121" max="121" width="8.36328125" style="2" customWidth="1"/>
+    <col min="122" max="127" width="8.453125" style="2" customWidth="1"/>
+    <col min="128" max="128" width="8.36328125" style="2" customWidth="1"/>
+    <col min="129" max="131" width="8.453125" style="2" customWidth="1"/>
+    <col min="132" max="133" width="8.36328125" style="2" customWidth="1"/>
+    <col min="134" max="135" width="8.453125" style="2" customWidth="1"/>
+    <col min="136" max="136" width="8.36328125" style="2" customWidth="1"/>
+    <col min="137" max="138" width="8.453125" style="2" customWidth="1"/>
+    <col min="139" max="140" width="8.36328125" style="2" customWidth="1"/>
+    <col min="141" max="143" width="8.453125" style="2" customWidth="1"/>
+    <col min="144" max="144" width="8.36328125" style="2" customWidth="1"/>
+    <col min="145" max="147" width="8.453125" style="2" customWidth="1"/>
+    <col min="148" max="148" width="8.36328125" style="2" customWidth="1"/>
+    <col min="149" max="149" width="8.453125" style="2" customWidth="1"/>
+    <col min="150" max="151" width="8.36328125" style="2" customWidth="1"/>
+    <col min="152" max="152" width="8.453125" style="2" customWidth="1"/>
+    <col min="153" max="153" width="8.36328125" style="2" customWidth="1"/>
+    <col min="154" max="344" width="8.453125" style="2" customWidth="1"/>
+    <col min="345" max="16384" width="20.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:237" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:237" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N1" s="5"/>
       <c r="O1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AK1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="BD1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BO1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="BN1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BT1" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BU1" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BV1" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="BU1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="BV1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="BW1" s="8" t="s">
-        <v>158</v>
-      </c>
     </row>
-    <row r="2" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3179,75 +3433,75 @@
         <v>80.043000000000006</v>
       </c>
       <c r="BD2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BH2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="BF2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BK2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BL2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BJ2" s="2" t="s">
+      <c r="BM2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BK2" s="2" t="s">
+      <c r="BN2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BL2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="BN2" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2">
         <v>2024</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -3404,303 +3658,303 @@
         <v>8.0043000000000003E-2</v>
       </c>
       <c r="CJ3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CK3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CM3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="CK3" s="2" t="s">
+      <c r="CN3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="CM3" s="2" t="s">
+      <c r="CO3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="CP3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="CN3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="CO3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="CP3" s="2" t="s">
-        <v>154</v>
-      </c>
     </row>
-    <row r="4" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2">
         <v>2007</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="P4" s="1"/>
       <c r="V4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="BA4" s="7"/>
       <c r="BB4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CA4" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="CF4" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BV4" s="1" t="s">
+      <c r="CK4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CA4" s="1" t="s">
+      <c r="CP4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CF4" s="1" t="s">
+      <c r="CU4" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CK4" s="1" t="s">
+      <c r="CZ4" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CP4" s="1" t="s">
+      <c r="DE4" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CU4" s="1" t="s">
+      <c r="DJ4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CZ4" s="1" t="s">
+      <c r="DO4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DE4" s="1" t="s">
+      <c r="DT4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DJ4" s="1" t="s">
+      <c r="DY4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DO4" s="1" t="s">
+      <c r="ED4" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DT4" s="1" t="s">
+      <c r="EI4" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DY4" s="1" t="s">
+      <c r="EO4" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="EU4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="FA4" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="FG4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="FM4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="FS4" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="FY4" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="GE4" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="GK4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="GQ4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="GW4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="HC4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="HI4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="HO4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="HU4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="IA4" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="S5" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="ED4" s="1" t="s">
+      <c r="T5" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="EI4" s="1" t="s">
+      <c r="Y5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="EO4" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="EU4" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="FA4" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="FG4" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="FM4" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="FS4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="FY4" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="GE4" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="GK4" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="GQ4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="GW4" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="HC4" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="HI4" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="HO4" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="HU4" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="IA4" s="10" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="S5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C6" s="2">
         <v>2001</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Y6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AD6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK6" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AI6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AN6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP6" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AR6" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AN6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="BC6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BF6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BH6" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AR6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BG6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH6" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="BI6" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O7" s="2">
         <v>0.1</v>
       </c>
@@ -3782,504 +4036,504 @@
         <v>0.99329999999999996</v>
       </c>
       <c r="AQ7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU7" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AX7" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AW7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AX7" s="2" t="s">
+      <c r="BC7" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="BD7" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BC7" s="2" t="s">
+      <c r="BF7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BG7" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="BE7" s="2" t="s">
+      <c r="BH7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BJ7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BL7" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="BF7" s="2" t="s">
+      <c r="BM7" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="BG7" s="2" t="s">
+      <c r="BN7" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="BH7" s="2" t="s">
+      <c r="BO7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BI7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BJ7" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="BL7" s="2" t="s">
+      <c r="BP7" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="BM7" s="2" t="s">
+      <c r="BQ7" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="BN7" s="2" t="s">
+      <c r="BR7" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="BO7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="BP7" s="2" t="s">
+      <c r="BS7" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="BQ7" s="2" t="s">
+      <c r="BT7" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="BR7" s="2" t="s">
+      <c r="BV7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW7" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="BS7" s="2" t="s">
+      <c r="BX7" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="BT7" s="2" t="s">
+      <c r="BY7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CA7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CB7" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="BV7" s="2" t="s">
+      <c r="CC7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="CD7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BW7" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="BX7" s="2" t="s">
+      <c r="CF7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CG7" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="BY7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CA7" s="2" t="s">
+      <c r="CH7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CI7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="CB7" s="2" t="s">
+      <c r="CK7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CL7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM7" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="CC7" s="2" t="s">
+      <c r="CN7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CP7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CQ7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CR7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CS7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CU7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="CV7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CW7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="CX7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="CZ7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DA7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DB7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DC7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DE7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DF7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DG7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DH7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DJ7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DK7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DM7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DO7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DP7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DQ7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DR7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DT7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DU7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DV7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="DW7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="DY7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="DZ7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EA7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EB7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="ED7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="EE7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EF7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EG7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="EI7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="EJ7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EK7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EL7" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="CD7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CF7" s="2" t="s">
+      <c r="EM7" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="CG7" s="2" t="s">
+      <c r="EO7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="EP7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EQ7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="ER7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="ES7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="EU7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="EV7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EW7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="EX7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="EY7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="FA7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="FB7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FC7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FD7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FE7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="FG7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="FH7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FI7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FJ7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FK7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="FM7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="FN7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FO7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FP7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FQ7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="FS7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="FT7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FU7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="FV7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="FW7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="FY7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="FZ7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="GA7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GB7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="GC7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="GE7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="GF7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="GG7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GH7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="GI7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="GK7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="GL7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="GM7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GN7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="GO7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="GQ7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="GR7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="GS7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GT7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="GU7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="GW7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="GX7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="GY7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="GZ7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="HA7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="HC7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="HD7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="HE7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HF7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="HG7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="HI7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="HJ7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="HK7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HL7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="HM7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="HO7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="HP7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="HQ7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HR7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="HS7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="HU7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="HV7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="HW7" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="HX7" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="HY7" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="IA7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="IB7" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="IC7" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="CH7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="CI7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CK7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="CL7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CM7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CN7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CP7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="CQ7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CR7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CS7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CU7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CW7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CX7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CZ7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DA7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DB7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="DC7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="DE7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DF7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DG7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="DH7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="DJ7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DK7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DL7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="DM7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="DO7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DP7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DQ7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="DR7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="DT7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DU7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DV7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="DW7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="DY7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="DZ7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="EA7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EB7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="ED7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="EE7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="EF7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EG7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="EI7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="EJ7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="EK7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EL7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EM7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="EO7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="EP7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="EQ7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="ER7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="ES7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="EU7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="EV7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="EW7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EX7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="EY7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="FA7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="FB7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FC7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="FD7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FE7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="FG7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="FH7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FI7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="FJ7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FK7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="FM7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="FN7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FO7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="FP7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FQ7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="FS7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="FT7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FU7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="FV7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="FW7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="FY7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="FZ7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="GA7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GB7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GC7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="GE7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="GF7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="GG7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GH7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GI7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="GK7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="GL7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="GM7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GN7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GO7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="GQ7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="GR7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="GS7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GT7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="GU7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="GW7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="GX7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="GY7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GZ7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HA7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="HC7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="HD7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="HE7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="HF7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HG7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="HI7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="HJ7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="HK7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="HL7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HM7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="HO7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="HP7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="HQ7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="HR7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HS7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="HU7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="HV7" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="HW7" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="HX7" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="HY7" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="IA7" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="IB7" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="IC7" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="C8" s="2">
         <v>2002</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="O8" s="2">
         <v>1</v>
@@ -4362,10 +4616,10 @@
         <v>0.98980000000000001</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AT8" s="2">
         <v>1.0200000000000001E-2</v>
@@ -4388,7 +4642,7 @@
         <v>0.96589999999999998</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="BC8" s="2">
         <v>0.499</v>
@@ -4927,12 +5181,12 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C9" s="2">
         <v>1937</v>
@@ -5018,10 +5272,10 @@
         <v>0.98270000000000002</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AT9" s="2">
         <v>5.0099999999999999E-2</v>
@@ -5044,7 +5298,7 @@
         <v>0.9355</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="BC9" s="2">
         <v>0.999</v>
@@ -5582,7 +5836,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O10" s="2">
         <v>3</v>
       </c>
@@ -5664,10 +5918,10 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="AT10" s="2">
         <v>0.1003</v>
@@ -5690,7 +5944,7 @@
         <v>0.91769999999999996</v>
       </c>
       <c r="AZ10" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="BC10" s="2">
         <v>1.4990000000000001</v>
@@ -5742,10 +5996,10 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="BS10" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="BT10" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="BV10" s="2">
         <v>0.3</v>
@@ -6228,18 +6482,18 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C11" s="2">
         <v>1962</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O11" s="2">
         <v>4</v>
@@ -6322,10 +6576,10 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AT11" s="2">
         <v>0.2001</v>
@@ -6348,7 +6602,7 @@
         <v>0.89759999999999995</v>
       </c>
       <c r="AZ11" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="BC11" s="2">
         <v>1.9970000000000001</v>
@@ -6400,10 +6654,10 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="BS11" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="BT11" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="BV11" s="2">
         <v>0.4</v>
@@ -6886,18 +7140,18 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="O12" s="2">
         <v>5</v>
@@ -6980,10 +7234,10 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AT12" s="2">
         <v>0.29980000000000001</v>
@@ -7006,7 +7260,7 @@
         <v>0.88480000000000003</v>
       </c>
       <c r="AZ12" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="BC12" s="2">
         <v>2</v>
@@ -7055,10 +7309,10 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="BS12" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="BT12" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BV12" s="2">
         <v>0.5</v>
@@ -7527,15 +7781,15 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C13" s="2">
         <v>1951</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O13" s="2">
         <v>6</v>
@@ -7618,10 +7872,10 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="AQ13" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AT13" s="2">
         <v>0.4002</v>
@@ -7644,7 +7898,7 @@
         <v>0.875</v>
       </c>
       <c r="AZ13" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BC13" s="2">
         <v>2.4969999999999999</v>
@@ -7696,10 +7950,10 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="BS13" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BT13" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="BV13" s="2">
         <v>0.6</v>
@@ -8115,21 +8369,21 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2">
         <v>2024</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V14" s="2">
         <v>3</v>
@@ -8191,10 +8445,10 @@
         <v>0.871</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AT14" s="2">
         <v>0.50019999999999998</v>
@@ -8217,7 +8471,7 @@
         <v>0.86719999999999997</v>
       </c>
       <c r="AZ14" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="BC14" s="2">
         <v>2.5009999999999999</v>
@@ -8269,10 +8523,10 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="BS14" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="BT14" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="BV14" s="2">
         <v>0.7</v>
@@ -8598,18 +8852,18 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C15" s="2">
         <v>2014</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="V15" s="2">
         <v>3.5</v>
@@ -8671,10 +8925,10 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="AQ15" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="AR15" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AT15" s="2">
         <v>0.59989999999999999</v>
@@ -8697,7 +8951,7 @@
         <v>0.86050000000000004</v>
       </c>
       <c r="AZ15" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="BC15" s="2">
         <v>2.9940000000000002</v>
@@ -8749,10 +9003,10 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="BS15" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="BT15" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="BV15" s="2">
         <v>0.8</v>
@@ -9078,15 +9332,15 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="V16" s="2">
         <v>4</v>
@@ -9148,10 +9402,10 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="AQ16" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AR16" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AT16" s="2">
         <v>0.70020000000000004</v>
@@ -9174,7 +9428,7 @@
         <v>0.85470000000000002</v>
       </c>
       <c r="AZ16" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BC16" s="2">
         <v>2.9990000000000001</v>
@@ -9226,10 +9480,10 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="BS16" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BT16" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="BV16" s="2">
         <v>1</v>
@@ -9433,18 +9687,18 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="2">
         <v>2025</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="V17" s="2">
         <v>4.5</v>
@@ -9506,10 +9760,10 @@
         <v>0.78</v>
       </c>
       <c r="AQ17" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AR17" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AT17" s="2">
         <v>0.80020000000000002</v>
@@ -9532,7 +9786,7 @@
         <v>0.84950000000000003</v>
       </c>
       <c r="AZ17" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BC17" s="2">
         <v>3.496</v>
@@ -9584,10 +9838,10 @@
         <v>0.89700000000000002</v>
       </c>
       <c r="BS17" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="BT17" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="BV17" s="2">
         <v>1.5</v>
@@ -9791,7 +10045,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="18" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="V18" s="2">
         <v>5</v>
       </c>
@@ -9838,10 +10092,10 @@
         <v>0.748</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AT18" s="2">
         <v>0.90010000000000001</v>
@@ -9864,7 +10118,7 @@
         <v>0.8448</v>
       </c>
       <c r="AZ18" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BC18" s="2">
         <v>3.9950000000000001</v>
@@ -9916,10 +10170,10 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="BS18" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="BT18" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="BV18" s="2">
         <v>2</v>
@@ -10123,21 +10377,21 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2">
         <v>2022</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V19" s="2">
         <v>5.5</v>
@@ -10185,7 +10439,7 @@
         <v>0.71399999999999997</v>
       </c>
       <c r="AR19" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="AT19" s="2">
         <v>1.002</v>
@@ -10208,7 +10462,7 @@
         <v>0.84040000000000004</v>
       </c>
       <c r="AZ19" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="BC19" s="2">
         <v>4.4969999999999999</v>
@@ -10260,10 +10514,10 @@
         <v>0.90200000000000002</v>
       </c>
       <c r="BS19" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="BT19" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="BV19" s="2">
         <v>2.5</v>
@@ -10438,18 +10692,18 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C20" s="2">
         <v>2003</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="V20" s="2">
         <v>6</v>
@@ -10497,7 +10751,7 @@
         <v>0.68</v>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="BC20" s="2">
         <v>4.9859999999999998</v>
@@ -10549,10 +10803,10 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="BS20" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="BT20" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="BV20" s="2">
         <v>3</v>
@@ -10727,18 +10981,18 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C21" s="2">
         <v>2003</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="BC21" s="2">
         <v>4.9909999999999997</v>
@@ -10790,10 +11044,10 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="BS21" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BT21" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="CF21" s="2">
         <v>3.5</v>
@@ -10940,18 +11194,18 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C22" s="2">
         <v>1947</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BC22" s="2">
         <v>5.4969999999999999</v>
@@ -11003,10 +11257,10 @@
         <v>0.92100000000000004</v>
       </c>
       <c r="BS22" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="BT22" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="CF22" s="2">
         <v>4</v>
@@ -11143,18 +11397,18 @@
         <v>0.92157439663809559</v>
       </c>
     </row>
-    <row r="23" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C23" s="2">
         <v>1944</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BC23" s="2">
         <v>6.0090000000000003</v>
@@ -11206,10 +11460,10 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="BS23" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="BT23" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="CF23" s="2">
         <v>4.5</v>
@@ -11332,18 +11586,18 @@
         <v>0.91147768727147049</v>
       </c>
     </row>
-    <row r="24" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C24" s="2">
         <v>1991</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BC24" s="2">
         <v>6.5</v>
@@ -11436,18 +11690,18 @@
         <v>0.90126166538009622</v>
       </c>
     </row>
-    <row r="25" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C25" s="2">
         <v>2000</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="BC25" s="2">
         <v>6.9850000000000003</v>
@@ -11526,7 +11780,7 @@
         <v>0.88750605177911046</v>
       </c>
     </row>
-    <row r="26" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BC26" s="2">
         <v>7.4950000000000001</v>
       </c>
@@ -11590,7 +11844,7 @@
         <v>0.87710984737211428</v>
       </c>
     </row>
-    <row r="27" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BC27" s="2">
         <v>7.9480000000000004</v>
       </c>
@@ -11654,7 +11908,7 @@
         <v>0.8667217477376794</v>
       </c>
     </row>
-    <row r="28" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BC28" s="2">
         <v>7.9969999999999999</v>
       </c>
@@ -11718,7 +11972,7 @@
         <v>0.8490882556844872</v>
       </c>
     </row>
-    <row r="29" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BC29" s="2">
         <v>8.9870000000000001</v>
       </c>
@@ -11782,7 +12036,7 @@
         <v>0.83139404553783947</v>
       </c>
     </row>
-    <row r="30" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BC30" s="2">
         <v>9.9670000000000005</v>
       </c>
@@ -11846,7 +12100,7 @@
         <v>0.81356716887718761</v>
       </c>
     </row>
-    <row r="31" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BC31" s="2">
         <v>11.013</v>
       </c>
@@ -11910,7 +12164,7 @@
         <v>0.79572679892361964</v>
       </c>
     </row>
-    <row r="32" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:237" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BC32" s="2">
         <v>11.999000000000001</v>
       </c>
@@ -11974,8 +12228,8 @@
         <v>0.77752510639851602</v>
       </c>
     </row>
-    <row r="33" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="O1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/data/sources_list_.xlsx
+++ b/data/sources_list_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/peterbaz_stanford_edu/Documents/DiazMarin2026/hygroscopic-salts-main/hygroscopic-salts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B8488F8-69F1-4E50-86A1-3151FD60EB0F}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C77F5915-02D9-49E9-ACDB-8363D46C9911}"/>
   <bookViews>
     <workbookView xWindow="14160" yWindow="480" windowWidth="19560" windowHeight="19485" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3056,8 +3056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:GS34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CI9" zoomScale="75" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="CU25" sqref="CU25"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="75" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="BL4" sqref="BL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="48.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4590,7 +4590,7 @@
         <v>0.2</v>
       </c>
       <c r="CR8" s="2">
-        <f t="shared" ref="CR8:CR18" si="18">$BW$3*CQ8/(1+$BW$3*CQ8)</f>
+        <f>$BW$3*CQ8/(1+$BW$3*CQ8)</f>
         <v>3.0934245671270493E-2</v>
       </c>
       <c r="CS8" s="2">
@@ -4600,7 +4600,7 @@
         <v>0.2</v>
       </c>
       <c r="CV8" s="2">
-        <f t="shared" ref="CV8:CV23" si="19">$BX$3*CU8/(1+$BX$3*CU8)</f>
+        <f t="shared" ref="CV8:CV23" si="18">$BX$3*CU8/(1+$BX$3*CU8)</f>
         <v>3.1278580914568345E-2</v>
       </c>
       <c r="CW8" s="2">
@@ -4610,7 +4610,7 @@
         <v>0.1</v>
       </c>
       <c r="CZ8" s="2">
-        <f t="shared" ref="CZ8:CZ20" si="20">$BY$3*CY8/(1+$BY$3*CY8)</f>
+        <f t="shared" ref="CZ8:CZ20" si="19">$BY$3*CY8/(1+$BY$3*CY8)</f>
         <v>6.8487708760388358E-3</v>
       </c>
       <c r="DA8" s="2">
@@ -4620,7 +4620,7 @@
         <v>0.1</v>
       </c>
       <c r="DD8" s="2">
-        <f t="shared" ref="DD8:DD18" si="21">$BZ$3*DC8/(1+$BZ$3*DC8)</f>
+        <f t="shared" ref="DD8:DD18" si="20">$BZ$3*DC8/(1+$BZ$3*DC8)</f>
         <v>1.0008810921582798E-2</v>
       </c>
       <c r="DE8" s="2">
@@ -4640,7 +4640,7 @@
         <v>0.1</v>
       </c>
       <c r="DL8" s="2">
-        <f t="shared" ref="DL8:DL23" si="22">$CB$3*DK8/(1+$CB$3*DK8)</f>
+        <f t="shared" ref="DL8:DL23" si="21">$CB$3*DK8/(1+$CB$3*DK8)</f>
         <v>1.6145059572416642E-2</v>
       </c>
       <c r="DM8" s="2">
@@ -4657,7 +4657,7 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="DR8">
-        <f t="shared" ref="DR8:DR32" si="23">EXP(-2*DO8*DQ8/55.51)</f>
+        <f t="shared" ref="DR8:DR32" si="22">EXP(-2*DO8*DQ8/55.51)</f>
         <v>0.9933996484160329</v>
       </c>
       <c r="DS8"/>
@@ -4665,98 +4665,98 @@
         <v>0.2</v>
       </c>
       <c r="DU8" s="2">
-        <f t="shared" ref="DU8:DU32" si="24">$CD$3*DT8/(1+$CD$3*DT8)</f>
+        <f t="shared" ref="DU8:DU32" si="23">$CD$3*DT8/(1+$CD$3*DT8)</f>
         <v>2.3902671383168955E-2</v>
       </c>
       <c r="DV8" s="2">
         <v>0.95750000000000002</v>
       </c>
       <c r="DW8">
-        <f t="shared" ref="DW8:DW32" si="25">EXP(-2*DT8*DV8/55.51)</f>
+        <f t="shared" ref="DW8:DW32" si="24">EXP(-2*DT8*DV8/55.51)</f>
         <v>0.99312409026993709</v>
       </c>
       <c r="DY8" s="2">
         <v>0.2</v>
       </c>
       <c r="DZ8" s="2">
-        <f t="shared" ref="DZ8:DZ13" si="26">$CE$3*DY8/(1+$CE$3*DY8)</f>
+        <f t="shared" ref="DZ8:DZ13" si="25">$CE$3*DY8/(1+$CE$3*DY8)</f>
         <v>2.3923631784950855E-2</v>
       </c>
       <c r="EA8" s="2">
         <v>0.88759999999999994</v>
       </c>
       <c r="EB8">
-        <f t="shared" ref="EB8:EB13" si="27">EXP(-2*DY8*EA8/55.51)</f>
+        <f t="shared" ref="EB8:EB13" si="26">EXP(-2*DY8*EA8/55.51)</f>
         <v>0.99362444595268207</v>
       </c>
       <c r="ED8" s="2">
         <v>2.0030000000000001</v>
       </c>
       <c r="EE8" s="2">
-        <f t="shared" ref="EE8:EE13" si="28">$CF$3*ED8/(1+$CF$3*ED8)</f>
+        <f t="shared" ref="EE8:EE13" si="27">$CF$3*ED8/(1+$CF$3*ED8)</f>
         <v>0.17087356437897722</v>
       </c>
       <c r="EF8" s="2">
         <v>1.02</v>
       </c>
       <c r="EG8">
-        <f t="shared" ref="EG8:EG13" si="29">EXP(-2*ED8*EF8/55.51)</f>
+        <f t="shared" ref="EG8:EG13" si="28">EXP(-2*ED8*EF8/55.51)</f>
         <v>0.92903346275659915</v>
       </c>
       <c r="EI8" s="2">
         <v>1.004</v>
       </c>
       <c r="EJ8" s="2">
-        <f t="shared" ref="EJ8:EJ15" si="30">$CG$3*EI8/(1+$CG$3*EI8)</f>
+        <f t="shared" ref="EJ8:EJ15" si="29">$CG$3*EI8/(1+$CG$3*EI8)</f>
         <v>0.13080480278326037</v>
       </c>
       <c r="EK8" s="2">
         <v>0.93</v>
       </c>
       <c r="EL8">
-        <f t="shared" ref="EL8:EL15" si="31">EXP(-2*EI8*EK8/55.51)</f>
+        <f t="shared" ref="EL8:EL15" si="30">EXP(-2*EI8*EK8/55.51)</f>
         <v>0.96691807680701369</v>
       </c>
       <c r="EN8" s="2">
         <v>1.2549999999999999</v>
       </c>
       <c r="EO8" s="2">
-        <f t="shared" ref="EO8:EO13" si="32">$CH$3*EN8/(1+$CH$3*EN8)</f>
+        <f t="shared" ref="EO8:EO13" si="31">$CH$3*EN8/(1+$CH$3*EN8)</f>
         <v>0.12993922625495388</v>
       </c>
       <c r="EP8" s="2">
         <v>1.07</v>
       </c>
       <c r="EQ8">
-        <f t="shared" ref="EQ8:EQ13" si="33">EXP(-2*EN8*EP8/55.51)</f>
+        <f t="shared" ref="EQ8:EQ13" si="32">EXP(-2*EN8*EP8/55.51)</f>
         <v>0.95276949895611107</v>
       </c>
       <c r="ES8" s="2">
         <v>1.4930000000000001</v>
       </c>
       <c r="ET8" s="2">
-        <f t="shared" ref="ET8:ET13" si="34">$CI$3*ES8/(1+$CI$3*ES8)</f>
+        <f t="shared" ref="ET8:ET13" si="33">$CI$3*ES8/(1+$CI$3*ES8)</f>
         <v>0.15292539417515585</v>
       </c>
       <c r="EU8" s="2">
         <v>0.9</v>
       </c>
       <c r="EV8">
-        <f t="shared" ref="EV8:EV13" si="35">EXP(-2*ES8*EU8/55.51)</f>
+        <f t="shared" ref="EV8:EV13" si="34">EXP(-2*ES8*EU8/55.51)</f>
         <v>0.95274032072972648</v>
       </c>
       <c r="EX8" s="2">
         <v>1.57</v>
       </c>
       <c r="EY8" s="2">
-        <f t="shared" ref="EY8:EY13" si="36">$CJ$3*EX8/(1+$CJ$3*EX8)</f>
+        <f t="shared" ref="EY8:EY13" si="35">$CJ$3*EX8/(1+$CJ$3*EX8)</f>
         <v>0.25043757580418491</v>
       </c>
       <c r="EZ8" s="2">
         <v>0.94</v>
       </c>
       <c r="FA8">
-        <f t="shared" ref="FA8:FA13" si="37">EXP(-2*EX8*EZ8/55.51)</f>
+        <f t="shared" ref="FA8:FA13" si="36">EXP(-2*EX8*EZ8/55.51)</f>
         <v>0.9482165245628732</v>
       </c>
       <c r="FC8" s="2">
@@ -4777,14 +4777,14 @@
         <v>1.006</v>
       </c>
       <c r="FI8" s="2">
-        <f t="shared" ref="FI8:FI15" si="38">$CL$3*FH8/(1+$CL$3*FH8)</f>
+        <f t="shared" ref="FI8:FI15" si="37">$CL$3*FH8/(1+$CL$3*FH8)</f>
         <v>0.16742246667512675</v>
       </c>
       <c r="FJ8" s="2">
         <v>1.3</v>
       </c>
       <c r="FK8">
-        <f t="shared" ref="FK8:FK15" si="39">EXP(-2*FH8*FJ8/55.51)</f>
+        <f t="shared" ref="FK8:FK15" si="38">EXP(-2*FH8*FJ8/55.51)</f>
         <v>0.95397345016283042</v>
       </c>
       <c r="FM8" s="2">
@@ -4805,42 +4805,42 @@
         <v>0.66200000000000003</v>
       </c>
       <c r="FS8" s="2">
-        <f t="shared" ref="FS8:FS15" si="40">$CN$3*FR8/(1+$CN$3*FR8)</f>
+        <f t="shared" ref="FS8:FS15" si="39">$CN$3*FR8/(1+$CN$3*FR8)</f>
         <v>9.4979101528918766E-2</v>
       </c>
       <c r="FT8" s="2">
         <v>0.94</v>
       </c>
       <c r="FU8">
-        <f t="shared" ref="FU8:FU15" si="41">EXP(-2*FR8*FT8/55.51)</f>
+        <f t="shared" ref="FU8:FU15" si="40">EXP(-2*FR8*FT8/55.51)</f>
         <v>0.97782900594463251</v>
       </c>
       <c r="FW8" s="2">
         <v>0.8</v>
       </c>
       <c r="FX8" s="2">
-        <f t="shared" ref="FX8:FX15" si="42">$CO$3*FW8/(1+$CO$3*FW8)</f>
+        <f t="shared" ref="FX8:FX15" si="41">$CO$3*FW8/(1+$CO$3*FW8)</f>
         <v>0.16523643843117874</v>
       </c>
       <c r="FY8" s="2">
         <v>1.52</v>
       </c>
       <c r="FZ8">
-        <f t="shared" ref="FZ8:FZ15" si="43">EXP(-2*FW8*FY8/55.51)</f>
+        <f t="shared" ref="FZ8:FZ15" si="42">EXP(-2*FW8*FY8/55.51)</f>
         <v>0.95713395276870528</v>
       </c>
       <c r="GB8" s="2">
         <v>0.97</v>
       </c>
       <c r="GC8" s="2">
-        <f t="shared" ref="GC8:GC15" si="44">$CP$3*GB8/(1+$CP$3*GB8)</f>
+        <f t="shared" ref="GC8:GC15" si="43">$CP$3*GB8/(1+$CP$3*GB8)</f>
         <v>0.24879079732668685</v>
       </c>
       <c r="GD8" s="2">
         <v>1.26</v>
       </c>
       <c r="GE8">
-        <f t="shared" ref="GE8:GE15" si="45">EXP(-2*GB8*GD8/55.51)</f>
+        <f t="shared" ref="GE8:GE15" si="44">EXP(-2*GB8*GD8/55.51)</f>
         <v>0.95692016902693289</v>
       </c>
       <c r="GG8" s="2">
@@ -4861,14 +4861,14 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="GM8" s="2">
-        <f t="shared" ref="GM8:GM15" si="46">$CR$3*GL8/(1+$CR$3*GL8)</f>
+        <f t="shared" ref="GM8:GM15" si="45">$CR$3*GL8/(1+$CR$3*GL8)</f>
         <v>0.22924975001101011</v>
       </c>
       <c r="GN8" s="2">
         <v>1.17</v>
       </c>
       <c r="GO8">
-        <f t="shared" ref="GO8:GO15" si="47">EXP(-2*GL8*GN8/55.51)</f>
+        <f t="shared" ref="GO8:GO15" si="46">EXP(-2*GL8*GN8/55.51)</f>
         <v>0.95868116900428202</v>
       </c>
       <c r="GQ8" s="2">
@@ -5102,7 +5102,7 @@
         <v>0.3</v>
       </c>
       <c r="CR9" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="CR8:CR18" si="47">$BW$3*CQ9/(1+$BW$3*CQ9)</f>
         <v>4.5694604446998244E-2</v>
       </c>
       <c r="CS9" s="2">
@@ -5112,7 +5112,7 @@
         <v>0.3</v>
       </c>
       <c r="CV9" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>4.6195407968835159E-2</v>
       </c>
       <c r="CW9" s="2">
@@ -5122,7 +5122,7 @@
         <v>0.2</v>
       </c>
       <c r="CZ9" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1.3604368548972569E-2</v>
       </c>
       <c r="DA9" s="2">
@@ -5132,7 +5132,7 @@
         <v>0.2</v>
       </c>
       <c r="DD9" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1.9819254670561254E-2</v>
       </c>
       <c r="DE9" s="2">
@@ -5152,7 +5152,7 @@
         <v>0.2</v>
       </c>
       <c r="DL9" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>3.1777076354059755E-2</v>
       </c>
       <c r="DM9" s="2">
@@ -5169,105 +5169,105 @@
         <v>0.91420000000000001</v>
       </c>
       <c r="DR9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.99016719844072409</v>
       </c>
       <c r="DT9" s="2">
         <v>0.3</v>
       </c>
       <c r="DU9" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>3.5430564504616423E-2</v>
       </c>
       <c r="DV9" s="2">
         <v>0.97099999999999997</v>
       </c>
       <c r="DW9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.98955947836302427</v>
       </c>
       <c r="DY9" s="2">
         <v>0.3</v>
       </c>
       <c r="DZ9" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3.5461266535810915E-2</v>
       </c>
       <c r="EA9" s="2">
         <v>0.86770000000000003</v>
       </c>
       <c r="EB9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.99066499358569005</v>
       </c>
       <c r="ED9" s="2">
         <v>2.9940000000000002</v>
       </c>
       <c r="EE9" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.23550478464681998</v>
       </c>
       <c r="EF9" s="2">
         <v>1.19</v>
       </c>
       <c r="EG9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.87952945746590139</v>
       </c>
       <c r="EI9" s="2">
         <v>1.673</v>
       </c>
       <c r="EJ9" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.20048992058842152</v>
       </c>
       <c r="EK9" s="2">
         <v>1.01</v>
       </c>
       <c r="EL9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.94093595549059772</v>
       </c>
       <c r="EN9" s="2">
         <v>1.6080000000000001</v>
       </c>
       <c r="EO9" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.16061751690516321</v>
       </c>
       <c r="EP9" s="2">
         <v>0.96</v>
       </c>
       <c r="EQ9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.94590031870385338</v>
       </c>
       <c r="ES9" s="2">
         <v>2.968</v>
       </c>
       <c r="ET9" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.26410556564614002</v>
       </c>
       <c r="EU9" s="2">
         <v>0.95</v>
       </c>
       <c r="EV9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.90340086081526783</v>
       </c>
       <c r="EX9" s="2">
         <v>2.2440000000000002</v>
       </c>
       <c r="EY9" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.32320195537242424</v>
       </c>
       <c r="EZ9" s="2">
         <v>0.88</v>
       </c>
       <c r="FA9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.93132380235784307</v>
       </c>
       <c r="FC9" s="2">
@@ -5288,14 +5288,14 @@
         <v>1.238</v>
       </c>
       <c r="FI9" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.19837354481350811</v>
       </c>
       <c r="FJ9" s="2">
         <v>1.37</v>
       </c>
       <c r="FK9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.94072138350529388</v>
       </c>
       <c r="FM9" s="2">
@@ -5316,42 +5316,42 @@
         <v>0.871</v>
       </c>
       <c r="FS9" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.12132686181194545</v>
       </c>
       <c r="FT9" s="2">
         <v>0.82</v>
       </c>
       <c r="FU9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.97459525126863267</v>
       </c>
       <c r="FW9" s="2">
         <v>1.0129999999999999</v>
       </c>
       <c r="FX9" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.20041360365441047</v>
       </c>
       <c r="FY9" s="2">
         <v>1.29</v>
       </c>
       <c r="FZ9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0.95400885318520878</v>
       </c>
       <c r="GB9" s="2">
         <v>1.264</v>
       </c>
       <c r="GC9" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.3014650122824804</v>
       </c>
       <c r="GD9" s="2">
         <v>1.37</v>
       </c>
       <c r="GE9">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0.93951486205196444</v>
       </c>
       <c r="GG9" s="2">
@@ -5372,14 +5372,14 @@
         <v>1.2649999999999999</v>
       </c>
       <c r="GM9" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.27319353889406656</v>
       </c>
       <c r="GN9" s="2">
         <v>1.19</v>
       </c>
       <c r="GO9">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.94720752122541474</v>
       </c>
       <c r="GQ9" s="2">
@@ -5604,7 +5604,7 @@
         <v>0.4</v>
       </c>
       <c r="CR10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>6.001206342918277E-2</v>
       </c>
       <c r="CS10" s="2">
@@ -5614,7 +5614,7 @@
         <v>0.4</v>
       </c>
       <c r="CV10" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>6.0659809082487817E-2</v>
       </c>
       <c r="CW10" s="2">
@@ -5624,7 +5624,7 @@
         <v>0.3</v>
       </c>
       <c r="CZ10" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.0268681516780834E-2</v>
       </c>
       <c r="DA10" s="2">
@@ -5634,7 +5634,7 @@
         <v>0.3</v>
       </c>
       <c r="DD10" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>2.9437170615239774E-2</v>
       </c>
       <c r="DE10" s="2">
@@ -5654,7 +5654,7 @@
         <v>0.3</v>
       </c>
       <c r="DL10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>4.6920122375456279E-2</v>
       </c>
       <c r="DM10" s="2">
@@ -5671,105 +5671,105 @@
         <v>0.91149999999999998</v>
       </c>
       <c r="DR10">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.98694953373358874</v>
       </c>
       <c r="DT10" s="2">
         <v>0.4</v>
       </c>
       <c r="DU10" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>4.668934274950047E-2</v>
       </c>
       <c r="DV10" s="2">
         <v>0.98550000000000004</v>
       </c>
       <c r="DW10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.98589753827697413</v>
       </c>
       <c r="DY10" s="2">
         <v>0.4</v>
       </c>
       <c r="DZ10" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>4.6729328325484737E-2</v>
       </c>
       <c r="EA10" s="2">
         <v>0.84989999999999999</v>
       </c>
       <c r="EB10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.98782610495573842</v>
       </c>
       <c r="ED10" s="2">
         <v>4.0119999999999996</v>
       </c>
       <c r="EE10" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.29218306512875597</v>
       </c>
       <c r="EF10" s="2">
         <v>1.23</v>
       </c>
       <c r="EG10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.83711221141098335</v>
       </c>
       <c r="EI10" s="2">
         <v>2.1579999999999999</v>
       </c>
       <c r="EJ10" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.24440631349300973</v>
       </c>
       <c r="EK10" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="EL10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.91731491250019648</v>
       </c>
       <c r="EN10" s="2">
         <v>2.2200000000000002</v>
       </c>
       <c r="EO10" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.20897340568589917</v>
       </c>
       <c r="EP10" s="2">
         <v>0.95</v>
       </c>
       <c r="EQ10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.92682889589713979</v>
       </c>
       <c r="ES10" s="2">
         <v>3.55</v>
       </c>
       <c r="ET10" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.30034017460710605</v>
       </c>
       <c r="EU10" s="2">
         <v>0.98</v>
       </c>
       <c r="EV10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.88219091951636441</v>
       </c>
       <c r="EX10" s="2">
         <v>2.7679999999999998</v>
       </c>
       <c r="EY10" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.37069638134309096</v>
       </c>
       <c r="EZ10" s="2">
         <v>0.81</v>
       </c>
       <c r="FA10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.92239556281327817</v>
       </c>
       <c r="FC10" s="2">
@@ -5790,14 +5790,14 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="FI10" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.25462802021278863</v>
       </c>
       <c r="FJ10" s="2">
         <v>1.47</v>
       </c>
       <c r="FK10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.91346108689128158</v>
       </c>
       <c r="FM10" s="2">
@@ -5818,42 +5818,42 @@
         <v>1.2989999999999999</v>
       </c>
       <c r="FS10" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.17076479541975584</v>
       </c>
       <c r="FT10" s="2">
         <v>1.1200000000000001</v>
       </c>
       <c r="FU10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.94893150087008038</v>
       </c>
       <c r="FW10" s="2">
         <v>1.345</v>
       </c>
       <c r="FX10" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.24969613631400547</v>
       </c>
       <c r="FY10" s="2">
         <v>1.22</v>
       </c>
       <c r="FZ10">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0.94259282247862319</v>
       </c>
       <c r="GB10" s="2">
         <v>1.534</v>
       </c>
       <c r="GC10" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.34372592335498442</v>
       </c>
       <c r="GD10" s="2">
         <v>1.42</v>
       </c>
       <c r="GE10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0.92451829840074184</v>
       </c>
       <c r="GG10" s="2">
@@ -5874,14 +5874,14 @@
         <v>1.4450000000000001</v>
       </c>
       <c r="GM10" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.30038975986088384</v>
       </c>
       <c r="GN10" s="2">
         <v>1.24</v>
       </c>
       <c r="GO10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.93748198497898005</v>
       </c>
       <c r="GQ10" s="2">
@@ -6118,7 +6118,7 @@
         <v>0.5</v>
       </c>
       <c r="CR11" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>7.3906262458854816E-2</v>
       </c>
       <c r="CS11" s="2">
@@ -6128,7 +6128,7 @@
         <v>0.5</v>
       </c>
       <c r="CV11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>7.4692059830781532E-2</v>
       </c>
       <c r="CW11" s="2">
@@ -6138,7 +6138,7 @@
         <v>0.4</v>
       </c>
       <c r="CZ11" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>2.6843547583457892E-2</v>
       </c>
       <c r="DA11" s="2">
@@ -6148,7 +6148,7 @@
         <v>0.4</v>
       </c>
       <c r="DD11" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3.8868171158356085E-2</v>
       </c>
       <c r="DE11" s="2">
@@ -6168,7 +6168,7 @@
         <v>0.4</v>
       </c>
       <c r="DL11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>6.1596786907398379E-2</v>
       </c>
       <c r="DM11" s="2">
@@ -6185,105 +6185,105 @@
         <v>0.91020000000000001</v>
       </c>
       <c r="DR11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.98373665421648882</v>
       </c>
       <c r="DT11" s="2">
         <v>0.5</v>
       </c>
       <c r="DU11" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>5.7688320989050329E-2</v>
       </c>
       <c r="DV11" s="2">
         <v>0.99950000000000006</v>
       </c>
       <c r="DW11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.98215537048432389</v>
       </c>
       <c r="DY11" s="2">
         <v>0.5</v>
       </c>
       <c r="DZ11" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5.7737155779604719E-2</v>
       </c>
       <c r="EA11" s="2">
         <v>0.83330000000000004</v>
       </c>
       <c r="EB11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.98510040440198543</v>
       </c>
       <c r="ED11" s="2">
         <v>4.9889999999999999</v>
       </c>
       <c r="EE11" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.33920044482911493</v>
       </c>
       <c r="EF11" s="2">
         <v>1.26</v>
       </c>
       <c r="EG11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.79732989957467659</v>
       </c>
       <c r="EI11" s="2">
         <v>3.3029999999999999</v>
       </c>
       <c r="EJ11" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.33114245477153503</v>
       </c>
       <c r="EK11" s="2">
         <v>1.26</v>
       </c>
       <c r="EL11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.86075356367894651</v>
       </c>
       <c r="EN11" s="2">
         <v>3.0209999999999999</v>
       </c>
       <c r="EO11" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.26443491315550799</v>
       </c>
       <c r="EP11" s="2">
         <v>0.96</v>
       </c>
       <c r="EQ11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.90078250538489457</v>
       </c>
       <c r="ES11" s="2">
         <v>4.4630000000000001</v>
       </c>
       <c r="ET11" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.35050847003203212</v>
       </c>
       <c r="EU11" s="2">
         <v>0.98</v>
       </c>
       <c r="EV11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.85420517801429519</v>
       </c>
       <c r="EX11" s="2">
         <v>3.4849999999999999</v>
       </c>
       <c r="EY11" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.42582946899819329</v>
       </c>
       <c r="EZ11" s="2">
         <v>0.81</v>
       </c>
       <c r="FA11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.90329508236438283</v>
       </c>
       <c r="FC11" s="2">
@@ -6304,14 +6304,14 @@
         <v>2.254</v>
       </c>
       <c r="FI11" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.31060730078174514</v>
       </c>
       <c r="FJ11" s="2">
         <v>1.71</v>
       </c>
       <c r="FK11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.87034106667801636</v>
       </c>
       <c r="FM11" s="2">
@@ -6332,42 +6332,42 @@
         <v>1.5029999999999999</v>
       </c>
       <c r="FS11" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.192422069880542</v>
       </c>
       <c r="FT11" s="2">
         <v>1.31</v>
       </c>
       <c r="FU11">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.93151810707080429</v>
       </c>
       <c r="FW11" s="2">
         <v>1.746</v>
       </c>
       <c r="FX11" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.3016822098473172</v>
       </c>
       <c r="FY11" s="2">
         <v>1.36</v>
       </c>
       <c r="FZ11">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0.91800328077604243</v>
       </c>
       <c r="GB11" s="2">
         <v>1.96</v>
       </c>
       <c r="GC11" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.40091162080485371</v>
       </c>
       <c r="GD11" s="2">
         <v>1.6</v>
       </c>
       <c r="GE11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0.89316079681406857</v>
       </c>
       <c r="GG11" s="2">
@@ -6388,14 +6388,14 @@
         <v>1.706</v>
       </c>
       <c r="GM11" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.33639513539410604</v>
       </c>
       <c r="GN11" s="2">
         <v>1.3</v>
       </c>
       <c r="GO11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.92320282503628792</v>
       </c>
       <c r="GQ11" s="2">
@@ -6629,7 +6629,7 @@
         <v>0.6</v>
       </c>
       <c r="CR12" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>8.7395697085313417E-2</v>
       </c>
       <c r="CS12" s="2">
@@ -6639,7 +6639,7 @@
         <v>0.6</v>
       </c>
       <c r="CV12" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>8.8311242081481708E-2</v>
       </c>
       <c r="CW12" s="2">
@@ -6649,7 +6649,7 @@
         <v>0.5</v>
       </c>
       <c r="CZ12" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>3.3330755548681458E-2</v>
       </c>
       <c r="DA12" s="2">
@@ -6659,7 +6659,7 @@
         <v>0.5</v>
       </c>
       <c r="DD12" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>4.8117652658131449E-2</v>
       </c>
       <c r="DE12" s="2">
@@ -6669,7 +6669,7 @@
         <v>0.5</v>
       </c>
       <c r="DL12" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7.5828288896076887E-2</v>
       </c>
       <c r="DM12" s="2">
@@ -6686,105 +6686,105 @@
         <v>0.90959999999999996</v>
       </c>
       <c r="DR12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.98052858129423781</v>
       </c>
       <c r="DT12" s="2">
         <v>0.6</v>
       </c>
       <c r="DU12" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>6.8436389110394E-2</v>
       </c>
       <c r="DV12" s="2">
         <v>1.0135000000000001</v>
       </c>
       <c r="DW12">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.97832870538154948</v>
       </c>
       <c r="DY12" s="2">
         <v>0.6</v>
       </c>
       <c r="DZ12" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>6.8493661099363778E-2</v>
       </c>
       <c r="EA12" s="2">
         <v>0.81730000000000003</v>
       </c>
       <c r="EB12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.98248699899859548</v>
       </c>
       <c r="ED12" s="2">
         <v>5.8010000000000002</v>
       </c>
       <c r="EE12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.37377294330768335</v>
       </c>
       <c r="EF12" s="2">
         <v>1.35</v>
       </c>
       <c r="EG12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.75415303213518359</v>
       </c>
       <c r="EI12" s="2">
         <v>3.9580000000000002</v>
       </c>
       <c r="EJ12" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.372357869843366</v>
       </c>
       <c r="EK12" s="2">
         <v>1.34</v>
       </c>
       <c r="EL12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.82605773211349576</v>
       </c>
       <c r="EN12" s="2">
         <v>3.81</v>
       </c>
       <c r="EO12" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.31195343300834599</v>
       </c>
       <c r="EP12" s="2">
         <v>0.97</v>
       </c>
       <c r="EQ12">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.87532994246531504</v>
       </c>
       <c r="ES12" s="2">
         <v>5.9960000000000004</v>
       </c>
       <c r="ET12" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.42030206065458381</v>
       </c>
       <c r="EU12" s="2">
         <v>1.07</v>
       </c>
       <c r="EV12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.7936160749499328</v>
       </c>
       <c r="EX12" s="2">
         <v>4.32</v>
       </c>
       <c r="EY12" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.47898735148013444</v>
       </c>
       <c r="EZ12" s="2">
         <v>0.79</v>
       </c>
       <c r="FA12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.88429759370363636</v>
       </c>
       <c r="FC12" s="2">
@@ -6805,14 +6805,14 @@
         <v>3.0219999999999998</v>
       </c>
       <c r="FI12" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.37658486932327373</v>
       </c>
       <c r="FJ12" s="2">
         <v>2.06</v>
       </c>
       <c r="FK12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.79907901777861967</v>
       </c>
       <c r="FM12" s="2">
@@ -6833,42 +6833,42 @@
         <v>1.7969999999999999</v>
       </c>
       <c r="FS12" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.22171624006041163</v>
       </c>
       <c r="FT12" s="2">
         <v>1.35</v>
       </c>
       <c r="FU12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.9163051168124039</v>
       </c>
       <c r="FW12" s="2">
         <v>1.996</v>
       </c>
       <c r="FX12" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.33059783477317722</v>
       </c>
       <c r="FY12" s="2">
         <v>1.54</v>
       </c>
       <c r="FZ12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0.89516335820863435</v>
       </c>
       <c r="GB12" s="2">
         <v>2.37</v>
       </c>
       <c r="GC12" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.44726618129636092</v>
       </c>
       <c r="GD12" s="2">
         <v>1.79</v>
       </c>
       <c r="GE12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0.85826005117329662</v>
       </c>
       <c r="GG12" s="2">
@@ -6889,14 +6889,14 @@
         <v>1.8879999999999999</v>
       </c>
       <c r="GM12" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.35938514093321899</v>
       </c>
       <c r="GN12" s="2">
         <v>1.34</v>
       </c>
       <c r="GO12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.91287906642256578</v>
       </c>
       <c r="GQ12" s="2">
@@ -7130,7 +7130,7 @@
         <v>0.7</v>
       </c>
       <c r="CR13" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>0.10049780070812771</v>
       </c>
       <c r="CS13" s="2">
@@ -7140,7 +7140,7 @@
         <v>0.7</v>
       </c>
       <c r="CV13" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.10153533056878149</v>
       </c>
       <c r="CW13" s="2">
@@ -7150,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="CZ13" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>6.4511300703487498E-2</v>
       </c>
       <c r="DA13" s="2">
@@ -7160,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="DD13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>9.1817273635455457E-2</v>
       </c>
       <c r="DE13" s="2">
@@ -7170,7 +7170,7 @@
         <v>1</v>
       </c>
       <c r="DL13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.14096727085301949</v>
       </c>
       <c r="DM13" s="2">
@@ -7187,105 +7187,105 @@
         <v>0.91</v>
       </c>
       <c r="DR13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.97731054704451703</v>
       </c>
       <c r="DT13" s="2">
         <v>0.7</v>
       </c>
       <c r="DU13" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>7.8942035980208311E-2</v>
       </c>
       <c r="DV13" s="2">
         <v>1.0285</v>
       </c>
       <c r="DW13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.97439406754034741</v>
       </c>
       <c r="DY13" s="2">
         <v>0.7</v>
       </c>
       <c r="DZ13" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>7.9007354126277282E-2</v>
       </c>
       <c r="EA13" s="2">
         <v>0.80169999999999997</v>
       </c>
       <c r="EB13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.97998362178217957</v>
       </c>
       <c r="ED13" s="2">
         <v>7.9809999999999999</v>
       </c>
       <c r="EE13" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.45090096142793945</v>
       </c>
       <c r="EF13" s="2">
         <v>1.7</v>
       </c>
       <c r="EG13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.61333865086347206</v>
       </c>
       <c r="EI13" s="2">
         <v>5.0730000000000004</v>
       </c>
       <c r="EJ13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.43194469354458598</v>
       </c>
       <c r="EK13" s="2">
         <v>1.47</v>
       </c>
       <c r="EL13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.76438516020631775</v>
       </c>
       <c r="EN13" s="2">
         <v>4.3490000000000002</v>
       </c>
       <c r="EO13" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.34103487836492302</v>
       </c>
       <c r="EP13" s="2">
         <v>1.17</v>
       </c>
       <c r="EQ13">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.83249321211796445</v>
       </c>
       <c r="ES13" s="2">
         <v>6.9489999999999998</v>
       </c>
       <c r="ET13" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.45660238642408441</v>
       </c>
       <c r="EU13" s="2">
         <v>1.19</v>
       </c>
       <c r="EV13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.74234627233627271</v>
       </c>
       <c r="EX13" s="2">
         <v>5.8879999999999999</v>
       </c>
       <c r="EY13" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.5561523393115233</v>
       </c>
       <c r="EZ13" s="2">
         <v>0.78</v>
       </c>
       <c r="FA13">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.84749467240479803</v>
       </c>
       <c r="FF13"/>
@@ -7293,70 +7293,70 @@
         <v>3.3759999999999999</v>
       </c>
       <c r="FI13" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.40292399107767829</v>
       </c>
       <c r="FJ13" s="2">
         <v>2.21</v>
       </c>
       <c r="FK13" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.76428464417717057</v>
       </c>
       <c r="FR13" s="2">
         <v>2.2130000000000001</v>
       </c>
       <c r="FS13" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.25971269345992959</v>
       </c>
       <c r="FT13" s="2">
         <v>1.39</v>
       </c>
       <c r="FU13" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.89509143840689942</v>
       </c>
       <c r="FW13" s="2">
         <v>2.395</v>
       </c>
       <c r="FX13" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.37209391327618574</v>
       </c>
       <c r="FY13" s="2">
         <v>1.62</v>
       </c>
       <c r="FZ13" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0.86953992535188906</v>
       </c>
       <c r="GB13" s="2">
         <v>2.9329999999999998</v>
       </c>
       <c r="GC13" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.50035329768497339</v>
       </c>
       <c r="GD13" s="2">
         <v>1.96</v>
       </c>
       <c r="GE13" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0.81292020725998193</v>
       </c>
       <c r="GL13" s="2">
         <v>2.2450000000000001</v>
       </c>
       <c r="GM13" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.40014851123158923</v>
       </c>
       <c r="GN13" s="2">
         <v>1.37</v>
       </c>
       <c r="GO13" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.89510498339874134</v>
       </c>
       <c r="GQ13" s="2">
@@ -7575,7 +7575,7 @@
         <v>0.8</v>
       </c>
       <c r="CR14" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>0.11322901974349477</v>
       </c>
       <c r="CS14" s="2">
@@ -7585,7 +7585,7 @@
         <v>0.8</v>
       </c>
       <c r="CV14" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.11438127204039329</v>
       </c>
       <c r="CW14" s="2">
@@ -7595,7 +7595,7 @@
         <v>1.5</v>
       </c>
       <c r="CZ14" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>9.3743203074023049E-2</v>
       </c>
       <c r="DA14" s="2">
@@ -7605,7 +7605,7 @@
         <v>1.5</v>
       </c>
       <c r="DD14" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.1316806321364998</v>
       </c>
       <c r="DE14" s="2">
@@ -7615,7 +7615,7 @@
         <v>1.5</v>
       </c>
       <c r="DL14" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.19752838743329451</v>
       </c>
       <c r="DM14" s="2">
@@ -7632,21 +7632,21 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="DR14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.97408342034845929</v>
       </c>
       <c r="DT14" s="2">
         <v>0.8</v>
       </c>
       <c r="DU14" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>8.9213371804960501E-2</v>
       </c>
       <c r="DV14" s="2">
         <v>0.91100000000000003</v>
       </c>
       <c r="DW14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.97408342034845929</v>
       </c>
       <c r="EB14"/>
@@ -7654,84 +7654,84 @@
         <v>6.6929999999999996</v>
       </c>
       <c r="EJ14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.50080215353152246</v>
       </c>
       <c r="EK14" s="2">
         <v>1.66</v>
       </c>
       <c r="EL14" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.67011768847610276</v>
       </c>
       <c r="FH14" s="2">
         <v>3.9489999999999998</v>
       </c>
       <c r="FI14" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.44114271873147265</v>
       </c>
       <c r="FJ14" s="2">
         <v>2.4500000000000002</v>
       </c>
       <c r="FK14" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.70568406484515256</v>
       </c>
       <c r="FR14" s="2">
         <v>2.6930000000000001</v>
       </c>
       <c r="FS14" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.29919049704556583</v>
       </c>
       <c r="FT14" s="2">
         <v>1.54</v>
       </c>
       <c r="FU14" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.86120522499020669</v>
       </c>
       <c r="FW14" s="2">
         <v>2.6560000000000001</v>
       </c>
       <c r="FX14" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.39656309372157211</v>
       </c>
       <c r="FY14" s="2">
         <v>1.81</v>
       </c>
       <c r="FZ14" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0.8409635260134265</v>
       </c>
       <c r="GB14" s="2">
         <v>3.5169999999999999</v>
       </c>
       <c r="GC14" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.54562169677481054</v>
       </c>
       <c r="GD14" s="2">
         <v>2.2599999999999998</v>
       </c>
       <c r="GE14" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0.75097872995281467</v>
       </c>
       <c r="GL14" s="2">
         <v>2.5030000000000001</v>
       </c>
       <c r="GM14" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.42652047572512208</v>
       </c>
       <c r="GN14" s="2">
         <v>1.42</v>
       </c>
       <c r="GO14" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.87980202548305697</v>
       </c>
       <c r="GQ14" s="2">
@@ -7947,7 +7947,7 @@
         <v>0.9</v>
       </c>
       <c r="CR15" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>0.12560488249642324</v>
       </c>
       <c r="CS15" s="2">
@@ -7957,7 +7957,7 @@
         <v>0.9</v>
       </c>
       <c r="CV15" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.12686505771063983</v>
       </c>
       <c r="CW15" s="2">
@@ -7967,7 +7967,7 @@
         <v>2</v>
       </c>
       <c r="CZ15" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.12120359955005623</v>
       </c>
       <c r="DA15" s="2">
@@ -7977,7 +7977,7 @@
         <v>2</v>
       </c>
       <c r="DD15" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.1681916486441524</v>
       </c>
       <c r="DE15" s="2">
@@ -7987,7 +7987,7 @@
         <v>2</v>
       </c>
       <c r="DL15" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.24710134015961449</v>
       </c>
       <c r="DM15" s="2">
@@ -8004,21 +8004,21 @@
         <v>0.91220000000000001</v>
       </c>
       <c r="DR15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.97085365751222485</v>
       </c>
       <c r="DT15" s="2">
         <v>0.9</v>
       </c>
       <c r="DU15" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>9.9258149011525895E-2</v>
       </c>
       <c r="DV15" s="2">
         <v>0.91220000000000001</v>
       </c>
       <c r="DW15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.97085365751222485</v>
       </c>
       <c r="EB15"/>
@@ -8026,84 +8026,84 @@
         <v>8.3979999999999997</v>
       </c>
       <c r="EJ15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.55728239426922954</v>
       </c>
       <c r="EK15" s="2">
         <v>1.8</v>
       </c>
       <c r="EL15" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.58005230275597131</v>
       </c>
       <c r="FH15" s="2">
         <v>4.5960000000000001</v>
       </c>
       <c r="FI15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.47881226986825476</v>
       </c>
       <c r="FJ15" s="2">
         <v>2.7</v>
       </c>
       <c r="FK15" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0.63948135101347503</v>
       </c>
       <c r="FR15" s="2">
         <v>3.2029999999999998</v>
       </c>
       <c r="FS15" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>0.33676956998506646</v>
       </c>
       <c r="FT15" s="2">
         <v>1.87</v>
       </c>
       <c r="FU15" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.80589411313039805</v>
       </c>
       <c r="FW15" s="2">
         <v>3.34</v>
       </c>
       <c r="FX15" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0.45247967029639791</v>
       </c>
       <c r="FY15" s="2">
         <v>2.09</v>
       </c>
       <c r="FZ15" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0.7776273637667005</v>
       </c>
       <c r="GB15" s="2">
         <v>4.1559999999999997</v>
       </c>
       <c r="GC15" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0.58660314399553382</v>
       </c>
       <c r="GD15" s="2">
         <v>2.59</v>
       </c>
       <c r="GE15" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>0.6785321239859966</v>
       </c>
       <c r="GL15" s="2">
         <v>3.3980000000000001</v>
       </c>
       <c r="GM15" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="45"/>
         <v>0.50240876948415492</v>
       </c>
       <c r="GN15" s="2">
         <v>1.6</v>
       </c>
       <c r="GO15" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>0.82210642126294919</v>
       </c>
       <c r="GQ15" s="2">
@@ -8306,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="CR16" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>0.13764006234517406</v>
       </c>
       <c r="CS16" s="2">
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="CV16" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.13900178967087998</v>
       </c>
       <c r="CW16" s="2">
@@ -8326,7 +8326,7 @@
         <v>2.5</v>
       </c>
       <c r="CZ16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.1470487888092801</v>
       </c>
       <c r="DA16" s="2">
@@ -8336,7 +8336,7 @@
         <v>2.5</v>
       </c>
       <c r="DD16" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.20175613649970064</v>
       </c>
       <c r="DE16" s="2">
@@ -8346,7 +8346,7 @@
         <v>2.5</v>
       </c>
       <c r="DL16" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.29090586775394434</v>
       </c>
       <c r="DM16" s="2">
@@ -8363,21 +8363,21 @@
         <v>0.91349999999999998</v>
       </c>
       <c r="DR16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.96762275008731913</v>
       </c>
       <c r="DT16" s="2">
         <v>1</v>
       </c>
       <c r="DU16" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.10908378176116316</v>
       </c>
       <c r="DV16" s="2">
         <v>0.91349999999999998</v>
       </c>
       <c r="DW16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.96762275008731913</v>
       </c>
       <c r="EB16"/>
@@ -8584,7 +8584,7 @@
         <v>1.2</v>
       </c>
       <c r="CR17" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>0.16074313576846283</v>
       </c>
       <c r="CS17" s="2">
@@ -8594,7 +8594,7 @@
         <v>1.2</v>
       </c>
       <c r="CV17" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.16229041595229585</v>
       </c>
       <c r="CW17" s="2">
@@ -8604,7 +8604,7 @@
         <v>3</v>
       </c>
       <c r="CZ17" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.1714172080074241</v>
       </c>
       <c r="DA17" s="2">
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="DD17" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.23271694928259035</v>
       </c>
       <c r="DE17" s="2">
@@ -8624,7 +8624,7 @@
         <v>3</v>
       </c>
       <c r="DL17" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.32989345305903639</v>
       </c>
       <c r="DM17" s="2">
@@ -8641,21 +8641,21 @@
         <v>0.91659999999999997</v>
       </c>
       <c r="DR17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.96114536582444166</v>
       </c>
       <c r="DT17" s="2">
         <v>1.2</v>
       </c>
       <c r="DU17" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.12810568754097901</v>
       </c>
       <c r="DV17" s="2">
         <v>0.91659999999999997</v>
       </c>
       <c r="DW17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.96114536582444166</v>
       </c>
       <c r="EB17"/>
@@ -8840,7 +8840,7 @@
         <v>1.4</v>
       </c>
       <c r="CR18" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="47"/>
         <v>0.18264062071448259</v>
       </c>
       <c r="CS18" s="2">
@@ -8850,7 +8850,7 @@
         <v>1.4</v>
       </c>
       <c r="CV18" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.18435238117392636</v>
       </c>
       <c r="CW18" s="2">
@@ -8860,7 +8860,7 @@
         <v>3.5</v>
       </c>
       <c r="CZ18" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.19443191338531929</v>
       </c>
       <c r="DA18" s="2">
@@ -8870,7 +8870,7 @@
         <v>3.5</v>
       </c>
       <c r="DD18" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0.26136573475643538</v>
       </c>
       <c r="DE18" s="2">
@@ -8880,7 +8880,7 @@
         <v>3.5</v>
       </c>
       <c r="DL18" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.36481722615682666</v>
       </c>
       <c r="DM18" s="2">
@@ -8897,21 +8897,21 @@
         <v>0.92020000000000002</v>
       </c>
       <c r="DR18">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.95464461253083843</v>
       </c>
       <c r="DT18" s="2">
         <v>1.4</v>
       </c>
       <c r="DU18" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.14633230210275425</v>
       </c>
       <c r="DV18" s="2">
         <v>0.92020000000000002</v>
       </c>
       <c r="DW18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.95464461253083843</v>
       </c>
       <c r="EB18"/>
@@ -9108,7 +9108,7 @@
         <v>1.6</v>
       </c>
       <c r="CV19" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.2052821146769008</v>
       </c>
       <c r="CW19" s="2">
@@ -9118,7 +9118,7 @@
         <v>4</v>
       </c>
       <c r="CZ19" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.21620265864058186</v>
       </c>
       <c r="DA19" s="2">
@@ -9128,7 +9128,7 @@
         <v>4</v>
       </c>
       <c r="DL19" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.39628109152378649</v>
       </c>
       <c r="DM19" s="2">
@@ -9145,21 +9145,21 @@
         <v>0.9244</v>
       </c>
       <c r="DR19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.9481058402815703</v>
       </c>
       <c r="DT19" s="2">
         <v>1.6</v>
       </c>
       <c r="DU19" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.1638124799314995</v>
       </c>
       <c r="DV19" s="2">
         <v>0.9244</v>
       </c>
       <c r="DW19">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.9481058402815703</v>
       </c>
       <c r="GQ19" s="2">
@@ -9333,7 +9333,7 @@
         <v>1.8</v>
       </c>
       <c r="CV20" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.22516459596037394</v>
       </c>
       <c r="CW20" s="2">
@@ -9343,7 +9343,7 @@
         <v>4.5</v>
       </c>
       <c r="CZ20" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0.23682764515538191</v>
       </c>
       <c r="DA20" s="2">
@@ -9353,7 +9353,7 @@
         <v>4.5</v>
       </c>
       <c r="DL20" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.42477494319652565</v>
       </c>
       <c r="DM20" s="2">
@@ -9370,21 +9370,21 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="DR20">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.94153043639048362</v>
       </c>
       <c r="DT20" s="2">
         <v>1.8</v>
       </c>
       <c r="DU20" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.18059115431762909</v>
       </c>
       <c r="DV20" s="2">
         <v>0.92900000000000005</v>
       </c>
       <c r="DW20">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.94153043639048362</v>
       </c>
       <c r="GQ20" s="2">
@@ -9502,7 +9502,7 @@
         <v>2</v>
       </c>
       <c r="CV21" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.24407650792374122</v>
       </c>
       <c r="CW21" s="2">
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="DL21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.45070035704476791</v>
       </c>
       <c r="DM21" s="2">
@@ -9529,21 +9529,21 @@
         <v>0.93379999999999996</v>
       </c>
       <c r="DR21">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.93492517765215333</v>
       </c>
       <c r="DT21" s="2">
         <v>2</v>
       </c>
       <c r="DU21" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.19670972302551248</v>
       </c>
       <c r="DV21" s="2">
         <v>0.93379999999999996</v>
       </c>
       <c r="DW21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.93492517765215333</v>
       </c>
       <c r="GQ21" s="2">
@@ -9661,7 +9661,7 @@
         <v>2.5</v>
       </c>
       <c r="CV22" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.28754960881130143</v>
       </c>
       <c r="CW22" s="2">
@@ -9681,7 +9681,7 @@
         <v>5.5</v>
       </c>
       <c r="DL22" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.47438963496360148</v>
       </c>
       <c r="DM22" s="2">
@@ -9698,21 +9698,21 @@
         <v>0.94450000000000001</v>
       </c>
       <c r="DR22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.92157439663809559</v>
       </c>
       <c r="DT22" s="2">
         <v>2.4</v>
       </c>
       <c r="DU22" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.22711646427423143</v>
       </c>
       <c r="DV22" s="2">
         <v>0.94450000000000001</v>
       </c>
       <c r="DW22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.92157439663809559</v>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="CV23" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>0.32629436705288412</v>
       </c>
       <c r="CW23" s="11">
@@ -9833,7 +9833,7 @@
         <v>6</v>
       </c>
       <c r="DL23" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.49612012496220897</v>
       </c>
       <c r="DM23" s="2">
@@ -9850,21 +9850,21 @@
         <v>0.95279999999999998</v>
       </c>
       <c r="DR23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.91147768727147049</v>
       </c>
       <c r="DT23" s="2">
         <v>2.7</v>
       </c>
       <c r="DU23" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.24845256382892372</v>
       </c>
       <c r="DV23" s="2">
         <v>0.95279999999999998</v>
       </c>
       <c r="DW23">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.91147768727147049</v>
       </c>
     </row>
@@ -9934,21 +9934,21 @@
         <v>0.96179999999999999</v>
       </c>
       <c r="DR24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.90126166538009622</v>
       </c>
       <c r="DT24" s="2">
         <v>3</v>
       </c>
       <c r="DU24" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.26864230757979113</v>
       </c>
       <c r="DV24" s="2">
         <v>0.96179999999999999</v>
       </c>
       <c r="DW24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.90126166538009622</v>
       </c>
     </row>
@@ -10008,21 +10008,21 @@
         <v>0.97419999999999995</v>
       </c>
       <c r="DR25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.88750605177911046</v>
       </c>
       <c r="DT25" s="2">
         <v>3.4</v>
       </c>
       <c r="DU25" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.29393290668052435</v>
       </c>
       <c r="DV25" s="2">
         <v>0.97419999999999995</v>
       </c>
       <c r="DW25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.88750605177911046</v>
       </c>
     </row>
@@ -10060,21 +10060,21 @@
         <v>0.98360000000000003</v>
       </c>
       <c r="DR26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.87710984737211428</v>
       </c>
       <c r="DT26" s="2">
         <v>3.7</v>
       </c>
       <c r="DU26" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.31178201658880628</v>
       </c>
       <c r="DV26" s="2">
         <v>0.98360000000000003</v>
       </c>
       <c r="DW26">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.87710984737211428</v>
       </c>
     </row>
@@ -10112,21 +10112,21 @@
         <v>0.99250000000000005</v>
       </c>
       <c r="DR27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.8667217477376794</v>
       </c>
       <c r="DT27" s="2">
         <v>4</v>
       </c>
       <c r="DU27" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.32875093974868436</v>
       </c>
       <c r="DV27" s="2">
         <v>0.99250000000000005</v>
       </c>
       <c r="DW27">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.8667217477376794</v>
       </c>
     </row>
@@ -10164,21 +10164,21 @@
         <v>1.0089999999999999</v>
       </c>
       <c r="DR28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.8490882556844872</v>
       </c>
       <c r="DT28" s="2">
         <v>4.5</v>
       </c>
       <c r="DU28" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.35524636036570428</v>
       </c>
       <c r="DV28" s="2">
         <v>1.0089999999999999</v>
       </c>
       <c r="DW28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.8490882556844872</v>
       </c>
     </row>
@@ -10216,21 +10216,21 @@
         <v>1.0249999999999999</v>
       </c>
       <c r="DR29">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.83139404553783947</v>
       </c>
       <c r="DT29" s="2">
         <v>5</v>
       </c>
       <c r="DU29" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.37972956208907077</v>
       </c>
       <c r="DV29" s="2">
         <v>1.0249999999999999</v>
       </c>
       <c r="DW29">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.83139404553783947</v>
       </c>
     </row>
@@ -10268,21 +10268,21 @@
         <v>1.0411999999999999</v>
       </c>
       <c r="DR30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.81356716887718761</v>
       </c>
       <c r="DT30" s="2">
         <v>5.5</v>
       </c>
       <c r="DU30" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.40242138853366155</v>
       </c>
       <c r="DV30" s="2">
         <v>1.0411999999999999</v>
       </c>
       <c r="DW30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.81356716887718761</v>
       </c>
     </row>
@@ -10320,21 +10320,21 @@
         <v>1.0569999999999999</v>
       </c>
       <c r="DR31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.79572679892361964</v>
       </c>
       <c r="DT31" s="2">
         <v>6</v>
       </c>
       <c r="DU31" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.42351150671032606</v>
       </c>
       <c r="DV31" s="2">
         <v>1.0569999999999999</v>
       </c>
       <c r="DW31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.79572679892361964</v>
       </c>
     </row>
@@ -10372,21 +10372,21 @@
         <v>1.0745</v>
       </c>
       <c r="DR32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.77752510639851602</v>
       </c>
       <c r="DT32" s="2">
         <v>6.5</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.44316372100275075</v>
       </c>
       <c r="DV32" s="2">
         <v>1.0745</v>
       </c>
       <c r="DW32">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>0.77752510639851602</v>
       </c>
     </row>

--- a/data/sources_list_.xlsx
+++ b/data/sources_list_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/peterbaz_stanford_edu/Documents/DiazMarin2026/hygroscopic-salts-main/hygroscopic-salts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C77F5915-02D9-49E9-ACDB-8363D46C9911}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8420147E-298E-438C-B9E9-FF5A4EF8E1F6}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="480" windowWidth="19560" windowHeight="19485" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8538" yWindow="3186" windowWidth="13224" windowHeight="9444" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="417">
   <si>
     <t xml:space="preserve">Data Source </t>
   </si>
@@ -1284,6 +1284,9 @@
   </si>
   <si>
     <t>notused</t>
+  </si>
+  <si>
+    <t>Deliquescence limits</t>
   </si>
 </sst>
 </file>
@@ -2131,15 +2134,15 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="25.42578125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="13.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="25.42578125" style="2"/>
+    <col min="1" max="4" width="25.41796875" style="2" customWidth="1"/>
+    <col min="5" max="8" width="13.15625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.41796875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="25.41796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -2252,7 +2255,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="160" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -2395,10 +2398,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -2412,7 +2415,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -2433,7 +2436,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -2442,7 +2445,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
@@ -2450,12 +2453,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
@@ -2478,7 +2481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -2507,10 +2510,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
@@ -2544,18 +2547,18 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="25.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="9" width="13.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="25.42578125" style="2"/>
+    <col min="1" max="3" width="25.41796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.41796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.41796875" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.15625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.41796875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="25.41796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -2612,7 +2615,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>101</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>104</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="320.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="320.10000000000002" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>107</v>
       </c>
@@ -2669,7 +2672,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -2686,10 +2689,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>116</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>121</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>126</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>405</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>408</v>
       </c>
@@ -2847,15 +2850,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="25.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="25.42578125" style="2"/>
+    <col min="1" max="2" width="25.41796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.15625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.41796875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="25.41796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2866,7 +2869,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2874,7 +2877,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>131</v>
       </c>
@@ -2885,7 +2888,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>132</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>404</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>386</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>388</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>392</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>394</v>
       </c>
@@ -2951,7 +2954,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>396</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>397</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="9" t="s">
         <v>399</v>
       </c>
@@ -2984,7 +2987,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="9" t="s">
         <v>401</v>
       </c>
@@ -2998,7 +3001,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>405</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="9" t="s">
         <v>410</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>412</v>
       </c>
@@ -3056,24 +3059,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:GS34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScale="75" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="BL4" sqref="BL4"/>
+    <sheetView tabSelected="1" topLeftCell="EI7" zoomScale="75" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="DZ1" sqref="DZ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="48.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.41796875" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="7.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
-    <col min="8" max="13" width="8.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="6" customWidth="1"/>
-    <col min="15" max="308" width="8.42578125" style="2" customWidth="1"/>
-    <col min="309" max="16384" width="20.42578125" style="2"/>
+    <col min="1" max="1" width="20.41796875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="7.41796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.41796875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.41796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.41796875" style="2" customWidth="1"/>
+    <col min="8" max="13" width="8.41796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.41796875" style="6" customWidth="1"/>
+    <col min="15" max="308" width="8.41796875" style="2" customWidth="1"/>
+    <col min="309" max="16384" width="20.41796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:201" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:201" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3258,8 +3261,11 @@
       <c r="DW1" s="8" t="s">
         <v>155</v>
       </c>
+      <c r="DY1" s="1" t="s">
+        <v>416</v>
+      </c>
     </row>
-    <row r="2" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3450,7 +3456,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
@@ -3627,7 +3633,7 @@
         <v>8.0043000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>180</v>
       </c>
@@ -3778,7 +3784,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="S5" s="2" t="s">
         <v>207</v>
       </c>
@@ -3804,7 +3810,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>209</v>
       </c>
@@ -3911,7 +3917,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O7" s="2">
         <v>0.1</v>
       </c>
@@ -4364,7 +4370,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>251</v>
       </c>
@@ -4882,7 +4888,7 @@
         <v>0.73199999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>258</v>
       </c>
@@ -5102,7 +5108,7 @@
         <v>0.3</v>
       </c>
       <c r="CR9" s="2">
-        <f t="shared" ref="CR8:CR18" si="47">$BW$3*CQ9/(1+$BW$3*CQ9)</f>
+        <f t="shared" ref="CR9:CR18" si="47">$BW$3*CQ9/(1+$BW$3*CQ9)</f>
         <v>4.5694604446998244E-2</v>
       </c>
       <c r="CS9" s="2">
@@ -5393,7 +5399,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O10" s="2">
         <v>3</v>
       </c>
@@ -5895,7 +5901,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>267</v>
       </c>
@@ -6409,7 +6415,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>275</v>
       </c>
@@ -6910,7 +6916,7 @@
         <v>0.68600000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>284</v>
       </c>
@@ -7370,7 +7376,7 @@
         <v>0.67600000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>290</v>
       </c>
@@ -7745,7 +7751,7 @@
         <v>0.66500000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>297</v>
       </c>
@@ -8117,7 +8123,7 @@
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>304</v>
       </c>
@@ -8392,7 +8398,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>312</v>
       </c>
@@ -8670,7 +8676,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="18" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="V18" s="2">
         <v>5</v>
       </c>
@@ -8926,7 +8932,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="19" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>324</v>
       </c>
@@ -9173,7 +9179,7 @@
         <v>0.51900000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>331</v>
       </c>
@@ -9398,7 +9404,7 @@
         <v>0.39200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>337</v>
       </c>
@@ -9557,7 +9563,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>341</v>
       </c>
@@ -9716,7 +9722,7 @@
         <v>0.92157439663809559</v>
       </c>
     </row>
-    <row r="23" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>350</v>
       </c>
@@ -9868,7 +9874,7 @@
         <v>0.91147768727147049</v>
       </c>
     </row>
-    <row r="24" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9" t="s">
         <v>352</v>
       </c>
@@ -9952,7 +9958,7 @@
         <v>0.90126166538009622</v>
       </c>
     </row>
-    <row r="25" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>383</v>
       </c>
@@ -10026,7 +10032,7 @@
         <v>0.88750605177911046</v>
       </c>
     </row>
-    <row r="26" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX26" s="2">
         <v>7.4950000000000001</v>
       </c>
@@ -10078,7 +10084,7 @@
         <v>0.87710984737211428</v>
       </c>
     </row>
-    <row r="27" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX27" s="2">
         <v>7.9480000000000004</v>
       </c>
@@ -10130,7 +10136,7 @@
         <v>0.8667217477376794</v>
       </c>
     </row>
-    <row r="28" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX28" s="2">
         <v>7.9969999999999999</v>
       </c>
@@ -10182,7 +10188,7 @@
         <v>0.8490882556844872</v>
       </c>
     </row>
-    <row r="29" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX29" s="2">
         <v>8.9870000000000001</v>
       </c>
@@ -10234,7 +10240,7 @@
         <v>0.83139404553783947</v>
       </c>
     </row>
-    <row r="30" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX30" s="2">
         <v>9.9670000000000005</v>
       </c>
@@ -10286,7 +10292,7 @@
         <v>0.81356716887718761</v>
       </c>
     </row>
-    <row r="31" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX31" s="2">
         <v>11.013</v>
       </c>
@@ -10338,7 +10344,7 @@
         <v>0.79572679892361964</v>
       </c>
     </row>
-    <row r="32" spans="1:201" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX32" s="2">
         <v>11.999000000000001</v>
       </c>
@@ -10390,8 +10396,8 @@
         <v>0.77752510639851602</v>
       </c>
     </row>
-    <row r="33" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="34" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="BG1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/data/sources_list_.xlsx
+++ b/data/sources_list_.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/peterbaz_stanford_edu/Documents/DiazMarin2026/hygroscopic-salts-main/hygroscopic-salts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8420147E-298E-438C-B9E9-FF5A4EF8E1F6}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50822A1E-8030-415A-B182-4B98766878BD}"/>
   <bookViews>
-    <workbookView xWindow="8538" yWindow="3186" windowWidth="13224" windowHeight="9444" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9222" yWindow="930" windowWidth="13116" windowHeight="10650" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="418">
   <si>
     <t xml:space="preserve">Data Source </t>
   </si>
@@ -1287,6 +1287,9 @@
   </si>
   <si>
     <t>Deliquescence limits</t>
+  </si>
+  <si>
+    <t>mass fraction</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +1810,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3057,10 +3056,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:GS34"/>
+  <dimension ref="A1:GV34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EI7" zoomScale="75" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="DZ1" sqref="DZ1"/>
+    <sheetView tabSelected="1" topLeftCell="GF20" zoomScale="57" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="GV8" sqref="GV8:GV29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.41796875" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3072,11 +3071,11 @@
     <col min="7" max="7" width="7.41796875" style="2" customWidth="1"/>
     <col min="8" max="13" width="8.41796875" style="2" customWidth="1"/>
     <col min="14" max="14" width="8.41796875" style="6" customWidth="1"/>
-    <col min="15" max="308" width="8.41796875" style="2" customWidth="1"/>
-    <col min="309" max="16384" width="20.41796875" style="2"/>
+    <col min="15" max="309" width="8.41796875" style="2" customWidth="1"/>
+    <col min="310" max="16384" width="20.41796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:201" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:204" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3265,7 +3264,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>8.0043000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>180</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="S5" s="2" t="s">
         <v>207</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>209</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O7" s="2">
         <v>0.1</v>
       </c>
@@ -4367,10 +4366,13 @@
         <v>385</v>
       </c>
       <c r="GS7" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="GT7" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="8" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>251</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>0.1</v>
       </c>
       <c r="DL8" s="2">
-        <f t="shared" ref="DL8:DL23" si="21">$CB$3*DK8/(1+$CB$3*DK8)</f>
+        <f>$CB$3*DK8/(1+$CB$3*DK8)</f>
         <v>1.6145059572416642E-2</v>
       </c>
       <c r="DM8" s="2">
@@ -4663,7 +4665,7 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="DR8">
-        <f t="shared" ref="DR8:DR32" si="22">EXP(-2*DO8*DQ8/55.51)</f>
+        <f t="shared" ref="DR8:DR32" si="21">EXP(-2*DO8*DQ8/55.51)</f>
         <v>0.9933996484160329</v>
       </c>
       <c r="DS8"/>
@@ -4671,98 +4673,98 @@
         <v>0.2</v>
       </c>
       <c r="DU8" s="2">
-        <f t="shared" ref="DU8:DU32" si="23">$CD$3*DT8/(1+$CD$3*DT8)</f>
+        <f t="shared" ref="DU8:DU32" si="22">$CD$3*DT8/(1+$CD$3*DT8)</f>
         <v>2.3902671383168955E-2</v>
       </c>
       <c r="DV8" s="2">
         <v>0.95750000000000002</v>
       </c>
       <c r="DW8">
-        <f t="shared" ref="DW8:DW32" si="24">EXP(-2*DT8*DV8/55.51)</f>
+        <f t="shared" ref="DW8:DW32" si="23">EXP(-2*DT8*DV8/55.51)</f>
         <v>0.99312409026993709</v>
       </c>
       <c r="DY8" s="2">
         <v>0.2</v>
       </c>
       <c r="DZ8" s="2">
-        <f t="shared" ref="DZ8:DZ13" si="25">$CE$3*DY8/(1+$CE$3*DY8)</f>
+        <f t="shared" ref="DZ8:DZ13" si="24">$CE$3*DY8/(1+$CE$3*DY8)</f>
         <v>2.3923631784950855E-2</v>
       </c>
       <c r="EA8" s="2">
         <v>0.88759999999999994</v>
       </c>
       <c r="EB8">
-        <f t="shared" ref="EB8:EB13" si="26">EXP(-2*DY8*EA8/55.51)</f>
+        <f t="shared" ref="EB8:EB13" si="25">EXP(-2*DY8*EA8/55.51)</f>
         <v>0.99362444595268207</v>
       </c>
       <c r="ED8" s="2">
         <v>2.0030000000000001</v>
       </c>
       <c r="EE8" s="2">
-        <f t="shared" ref="EE8:EE13" si="27">$CF$3*ED8/(1+$CF$3*ED8)</f>
+        <f t="shared" ref="EE8:EE13" si="26">$CF$3*ED8/(1+$CF$3*ED8)</f>
         <v>0.17087356437897722</v>
       </c>
       <c r="EF8" s="2">
         <v>1.02</v>
       </c>
       <c r="EG8">
-        <f t="shared" ref="EG8:EG13" si="28">EXP(-2*ED8*EF8/55.51)</f>
+        <f t="shared" ref="EG8:EG13" si="27">EXP(-2*ED8*EF8/55.51)</f>
         <v>0.92903346275659915</v>
       </c>
       <c r="EI8" s="2">
         <v>1.004</v>
       </c>
       <c r="EJ8" s="2">
-        <f t="shared" ref="EJ8:EJ15" si="29">$CG$3*EI8/(1+$CG$3*EI8)</f>
+        <f t="shared" ref="EJ8:EJ15" si="28">$CG$3*EI8/(1+$CG$3*EI8)</f>
         <v>0.13080480278326037</v>
       </c>
       <c r="EK8" s="2">
         <v>0.93</v>
       </c>
       <c r="EL8">
-        <f t="shared" ref="EL8:EL15" si="30">EXP(-2*EI8*EK8/55.51)</f>
+        <f t="shared" ref="EL8:EL15" si="29">EXP(-2*EI8*EK8/55.51)</f>
         <v>0.96691807680701369</v>
       </c>
       <c r="EN8" s="2">
         <v>1.2549999999999999</v>
       </c>
       <c r="EO8" s="2">
-        <f t="shared" ref="EO8:EO13" si="31">$CH$3*EN8/(1+$CH$3*EN8)</f>
+        <f t="shared" ref="EO8:EO13" si="30">$CH$3*EN8/(1+$CH$3*EN8)</f>
         <v>0.12993922625495388</v>
       </c>
       <c r="EP8" s="2">
         <v>1.07</v>
       </c>
       <c r="EQ8">
-        <f t="shared" ref="EQ8:EQ13" si="32">EXP(-2*EN8*EP8/55.51)</f>
+        <f t="shared" ref="EQ8:EQ13" si="31">EXP(-2*EN8*EP8/55.51)</f>
         <v>0.95276949895611107</v>
       </c>
       <c r="ES8" s="2">
         <v>1.4930000000000001</v>
       </c>
       <c r="ET8" s="2">
-        <f t="shared" ref="ET8:ET13" si="33">$CI$3*ES8/(1+$CI$3*ES8)</f>
+        <f t="shared" ref="ET8:ET13" si="32">$CI$3*ES8/(1+$CI$3*ES8)</f>
         <v>0.15292539417515585</v>
       </c>
       <c r="EU8" s="2">
         <v>0.9</v>
       </c>
       <c r="EV8">
-        <f t="shared" ref="EV8:EV13" si="34">EXP(-2*ES8*EU8/55.51)</f>
+        <f t="shared" ref="EV8:EV13" si="33">EXP(-2*ES8*EU8/55.51)</f>
         <v>0.95274032072972648</v>
       </c>
       <c r="EX8" s="2">
         <v>1.57</v>
       </c>
       <c r="EY8" s="2">
-        <f t="shared" ref="EY8:EY13" si="35">$CJ$3*EX8/(1+$CJ$3*EX8)</f>
+        <f t="shared" ref="EY8:EY13" si="34">$CJ$3*EX8/(1+$CJ$3*EX8)</f>
         <v>0.25043757580418491</v>
       </c>
       <c r="EZ8" s="2">
         <v>0.94</v>
       </c>
       <c r="FA8">
-        <f t="shared" ref="FA8:FA13" si="36">EXP(-2*EX8*EZ8/55.51)</f>
+        <f t="shared" ref="FA8:FA13" si="35">EXP(-2*EX8*EZ8/55.51)</f>
         <v>0.9482165245628732</v>
       </c>
       <c r="FC8" s="2">
@@ -4783,15 +4785,15 @@
         <v>1.006</v>
       </c>
       <c r="FI8" s="2">
-        <f t="shared" ref="FI8:FI15" si="37">$CL$3*FH8/(1+$CL$3*FH8)</f>
+        <f t="shared" ref="FI8:FI15" si="36">$CL$3*FH8/(1+$CL$3*FH8)</f>
         <v>0.16742246667512675</v>
       </c>
       <c r="FJ8" s="2">
         <v>1.3</v>
       </c>
       <c r="FK8">
-        <f t="shared" ref="FK8:FK15" si="38">EXP(-2*FH8*FJ8/55.51)</f>
-        <v>0.95397345016283042</v>
+        <f>EXP(-3*FH8*FJ8/55.51)</f>
+        <v>0.93176079318812899</v>
       </c>
       <c r="FM8" s="2">
         <v>1.1379999999999999</v>
@@ -4804,50 +4806,50 @@
         <v>1.19</v>
       </c>
       <c r="FP8">
-        <f>EXP(-2*FM8*FO8/55.51)</f>
-        <v>0.95237927122752064</v>
+        <f>EXP(-3*FM8*FO8/55.51)</f>
+        <v>0.92942617994781596</v>
       </c>
       <c r="FR8" s="2">
         <v>0.66200000000000003</v>
       </c>
       <c r="FS8" s="2">
-        <f t="shared" ref="FS8:FS15" si="39">$CN$3*FR8/(1+$CN$3*FR8)</f>
+        <f t="shared" ref="FS8:FS15" si="37">$CN$3*FR8/(1+$CN$3*FR8)</f>
         <v>9.4979101528918766E-2</v>
       </c>
       <c r="FT8" s="2">
         <v>0.94</v>
       </c>
       <c r="FU8">
-        <f t="shared" ref="FU8:FU15" si="40">EXP(-2*FR8*FT8/55.51)</f>
-        <v>0.97782900594463251</v>
+        <f>EXP(-3*FR8*FT8/55.51)</f>
+        <v>0.96692852814878061</v>
       </c>
       <c r="FW8" s="2">
         <v>0.8</v>
       </c>
       <c r="FX8" s="2">
-        <f t="shared" ref="FX8:FX15" si="41">$CO$3*FW8/(1+$CO$3*FW8)</f>
+        <f t="shared" ref="FX8:FX15" si="38">$CO$3*FW8/(1+$CO$3*FW8)</f>
         <v>0.16523643843117874</v>
       </c>
       <c r="FY8" s="2">
         <v>1.52</v>
       </c>
       <c r="FZ8">
-        <f t="shared" ref="FZ8:FZ15" si="42">EXP(-2*FW8*FY8/55.51)</f>
-        <v>0.95713395276870528</v>
+        <f>EXP(-3*FW8*FY8/55.51)</f>
+        <v>0.93639499467134213</v>
       </c>
       <c r="GB8" s="2">
         <v>0.97</v>
       </c>
       <c r="GC8" s="2">
-        <f t="shared" ref="GC8:GC15" si="43">$CP$3*GB8/(1+$CP$3*GB8)</f>
+        <f t="shared" ref="GC8:GC15" si="39">$CP$3*GB8/(1+$CP$3*GB8)</f>
         <v>0.24879079732668685</v>
       </c>
       <c r="GD8" s="2">
         <v>1.26</v>
       </c>
       <c r="GE8">
-        <f t="shared" ref="GE8:GE15" si="44">EXP(-2*GB8*GD8/55.51)</f>
-        <v>0.95692016902693289</v>
+        <f>EXP(-3*GB8*GD8/55.51)</f>
+        <v>0.93608128490306408</v>
       </c>
       <c r="GG8" s="2">
         <v>0.504</v>
@@ -4860,35 +4862,47 @@
         <v>1.5</v>
       </c>
       <c r="GJ8">
-        <f>EXP(-2*GG8*GI8/55.51)</f>
-        <v>0.97312928269247323</v>
+        <f>EXP(-3*GG8*GI8/55.51)</f>
+        <v>0.9599659123181703</v>
       </c>
       <c r="GL8" s="2">
         <v>1.0009999999999999</v>
       </c>
       <c r="GM8" s="2">
-        <f t="shared" ref="GM8:GM15" si="45">$CR$3*GL8/(1+$CR$3*GL8)</f>
+        <f t="shared" ref="GM8:GM15" si="40">$CR$3*GL8/(1+$CR$3*GL8)</f>
         <v>0.22924975001101011</v>
       </c>
       <c r="GN8" s="2">
         <v>1.17</v>
       </c>
       <c r="GO8">
-        <f t="shared" ref="GO8:GO15" si="46">EXP(-2*GL8*GN8/55.51)</f>
-        <v>0.95868116900428202</v>
+        <f>EXP(-3*GL8*GN8/55.51)</f>
+        <v>0.93866644927627962</v>
       </c>
       <c r="GQ8" s="2">
-        <f>(1/GR8)/BH3</f>
-        <v>15.002512920914251</v>
+        <f>(1/GR8)/$BH$3</f>
+        <v>1.8140293401105472</v>
       </c>
       <c r="GR8" s="2">
-        <v>3.7</v>
+        <v>30.6</v>
       </c>
       <c r="GS8" s="2">
-        <v>0.73199999999999998</v>
+        <f>$CS$3*GQ8/(1+$CS$3*GQ8)</f>
+        <v>0.12679034756740831</v>
+      </c>
+      <c r="GT8" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="GU8" s="2">
+        <f>1-(GQ8/(55.51))/(GQ8/(55.51) +1)</f>
+        <v>0.96835481802321177</v>
+      </c>
+      <c r="GV8" s="2">
+        <f>GT8/GU8</f>
+        <v>0.98104535891019662</v>
       </c>
     </row>
-    <row r="9" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>258</v>
       </c>
@@ -5108,7 +5122,7 @@
         <v>0.3</v>
       </c>
       <c r="CR9" s="2">
-        <f t="shared" ref="CR9:CR18" si="47">$BW$3*CQ9/(1+$BW$3*CQ9)</f>
+        <f t="shared" ref="CR9:CR18" si="41">$BW$3*CQ9/(1+$BW$3*CQ9)</f>
         <v>4.5694604446998244E-2</v>
       </c>
       <c r="CS9" s="2">
@@ -5158,7 +5172,7 @@
         <v>0.2</v>
       </c>
       <c r="DL9" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="DL9:DL23" si="42">$CB$3*DK9/(1+$CB$3*DK9)</f>
         <v>3.1777076354059755E-2</v>
       </c>
       <c r="DM9" s="2">
@@ -5175,105 +5189,105 @@
         <v>0.91420000000000001</v>
       </c>
       <c r="DR9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.99016719844072409</v>
       </c>
       <c r="DT9" s="2">
         <v>0.3</v>
       </c>
       <c r="DU9" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>3.5430564504616423E-2</v>
       </c>
       <c r="DV9" s="2">
         <v>0.97099999999999997</v>
       </c>
       <c r="DW9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.98955947836302427</v>
       </c>
       <c r="DY9" s="2">
         <v>0.3</v>
       </c>
       <c r="DZ9" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3.5461266535810915E-2</v>
       </c>
       <c r="EA9" s="2">
         <v>0.86770000000000003</v>
       </c>
       <c r="EB9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.99066499358569005</v>
       </c>
       <c r="ED9" s="2">
         <v>2.9940000000000002</v>
       </c>
       <c r="EE9" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.23550478464681998</v>
       </c>
       <c r="EF9" s="2">
         <v>1.19</v>
       </c>
       <c r="EG9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.87952945746590139</v>
       </c>
       <c r="EI9" s="2">
         <v>1.673</v>
       </c>
       <c r="EJ9" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.20048992058842152</v>
       </c>
       <c r="EK9" s="2">
         <v>1.01</v>
       </c>
       <c r="EL9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.94093595549059772</v>
       </c>
       <c r="EN9" s="2">
         <v>1.6080000000000001</v>
       </c>
       <c r="EO9" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.16061751690516321</v>
       </c>
       <c r="EP9" s="2">
         <v>0.96</v>
       </c>
       <c r="EQ9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.94590031870385338</v>
       </c>
       <c r="ES9" s="2">
         <v>2.968</v>
       </c>
       <c r="ET9" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.26410556564614002</v>
       </c>
       <c r="EU9" s="2">
         <v>0.95</v>
       </c>
       <c r="EV9">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.90340086081526783</v>
       </c>
       <c r="EX9" s="2">
         <v>2.2440000000000002</v>
       </c>
       <c r="EY9" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.32320195537242424</v>
       </c>
       <c r="EZ9" s="2">
         <v>0.88</v>
       </c>
       <c r="FA9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.93132380235784307</v>
       </c>
       <c r="FC9" s="2">
@@ -5294,15 +5308,15 @@
         <v>1.238</v>
       </c>
       <c r="FI9" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.19837354481350811</v>
       </c>
       <c r="FJ9" s="2">
         <v>1.37</v>
       </c>
       <c r="FK9">
-        <f t="shared" si="38"/>
-        <v>0.94072138350529388</v>
+        <f t="shared" ref="FK9:FK15" si="43">EXP(-3*FH9*FJ9/55.51)</f>
+        <v>0.91241312533455632</v>
       </c>
       <c r="FM9" s="2">
         <v>1.464</v>
@@ -5315,50 +5329,50 @@
         <v>1.25</v>
       </c>
       <c r="FP9">
-        <f>EXP(-2*FM9*FO9/55.51)</f>
-        <v>0.93619258924061399</v>
+        <f t="shared" ref="FP9:FP12" si="44">EXP(-3*FM9*FO9/55.51)</f>
+        <v>0.90583229140256794</v>
       </c>
       <c r="FR9" s="2">
         <v>0.871</v>
       </c>
       <c r="FS9" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0.12132686181194545</v>
       </c>
       <c r="FT9" s="2">
         <v>0.82</v>
       </c>
       <c r="FU9">
-        <f t="shared" si="40"/>
-        <v>0.97459525126863267</v>
+        <f t="shared" ref="FU9:FU15" si="45">EXP(-3*FR9*FT9/55.51)</f>
+        <v>0.96213593702938704</v>
       </c>
       <c r="FW9" s="2">
         <v>1.0129999999999999</v>
       </c>
       <c r="FX9" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.20041360365441047</v>
       </c>
       <c r="FY9" s="2">
         <v>1.29</v>
       </c>
       <c r="FZ9">
-        <f t="shared" si="42"/>
-        <v>0.95400885318520878</v>
+        <f t="shared" ref="FZ9:FZ15" si="46">EXP(-3*FW9*FY9/55.51)</f>
+        <v>0.9318126616980742</v>
       </c>
       <c r="GB9" s="2">
         <v>1.264</v>
       </c>
       <c r="GC9" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>0.3014650122824804</v>
       </c>
       <c r="GD9" s="2">
         <v>1.37</v>
       </c>
       <c r="GE9">
-        <f t="shared" si="44"/>
-        <v>0.93951486205196444</v>
+        <f t="shared" ref="GE9:GE15" si="47">EXP(-3*GB9*GD9/55.51)</f>
+        <v>0.91065836619725982</v>
       </c>
       <c r="GG9" s="2">
         <v>0.73799999999999999</v>
@@ -5371,35 +5385,47 @@
         <v>1.27</v>
       </c>
       <c r="GJ9">
-        <f>EXP(-2*GG9*GI9/55.51)</f>
-        <v>0.96679475950506333</v>
+        <f t="shared" ref="GJ9:GJ12" si="48">EXP(-3*GG9*GI9/55.51)</f>
+        <v>0.95060792696283825</v>
       </c>
       <c r="GL9" s="2">
         <v>1.2649999999999999</v>
       </c>
       <c r="GM9" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0.27319353889406656</v>
       </c>
       <c r="GN9" s="2">
         <v>1.19</v>
       </c>
       <c r="GO9">
-        <f t="shared" si="46"/>
-        <v>0.94720752122541474</v>
+        <f t="shared" ref="GO9:GO15" si="49">EXP(-3*GL9*GN9/55.51)</f>
+        <v>0.92186580697230458</v>
       </c>
       <c r="GQ9" s="2">
-        <f>(1/GR9)/BH3</f>
-        <v>16.326264060994923</v>
+        <f t="shared" ref="GQ9:GQ29" si="50">(1/GR9)/$BH$3</f>
+        <v>2.6432998955896538</v>
       </c>
       <c r="GR9" s="2">
-        <v>3.4</v>
+        <v>21</v>
       </c>
       <c r="GS9" s="2">
-        <v>0.71499999999999997</v>
+        <f t="shared" ref="GS9:GS29" si="51">$CS$3*GQ9/(1+$CS$3*GQ9)</f>
+        <v>0.17462987446493788</v>
+      </c>
+      <c r="GT9" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="GU9" s="2">
+        <f t="shared" ref="GU9:GU28" si="52">1-(GQ9/(55.51))/(GQ9/(55.51) +1)</f>
+        <v>0.95454600340246343</v>
+      </c>
+      <c r="GV9" s="2">
+        <f t="shared" ref="GV9:GV29" si="53">GT9/GU9</f>
+        <v>0.97428515407851524</v>
       </c>
     </row>
-    <row r="10" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="O10" s="2">
         <v>3</v>
       </c>
@@ -5610,7 +5636,7 @@
         <v>0.4</v>
       </c>
       <c r="CR10" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>6.001206342918277E-2</v>
       </c>
       <c r="CS10" s="2">
@@ -5660,7 +5686,7 @@
         <v>0.3</v>
       </c>
       <c r="DL10" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>4.6920122375456279E-2</v>
       </c>
       <c r="DM10" s="2">
@@ -5677,105 +5703,105 @@
         <v>0.91149999999999998</v>
       </c>
       <c r="DR10">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.98694953373358874</v>
       </c>
       <c r="DT10" s="2">
         <v>0.4</v>
       </c>
       <c r="DU10" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>4.668934274950047E-2</v>
       </c>
       <c r="DV10" s="2">
         <v>0.98550000000000004</v>
       </c>
       <c r="DW10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.98589753827697413</v>
       </c>
       <c r="DY10" s="2">
         <v>0.4</v>
       </c>
       <c r="DZ10" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>4.6729328325484737E-2</v>
       </c>
       <c r="EA10" s="2">
         <v>0.84989999999999999</v>
       </c>
       <c r="EB10">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.98782610495573842</v>
       </c>
       <c r="ED10" s="2">
         <v>4.0119999999999996</v>
       </c>
       <c r="EE10" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.29218306512875597</v>
       </c>
       <c r="EF10" s="2">
         <v>1.23</v>
       </c>
       <c r="EG10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.83711221141098335</v>
       </c>
       <c r="EI10" s="2">
         <v>2.1579999999999999</v>
       </c>
       <c r="EJ10" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.24440631349300973</v>
       </c>
       <c r="EK10" s="2">
         <v>1.1100000000000001</v>
       </c>
       <c r="EL10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.91731491250019648</v>
       </c>
       <c r="EN10" s="2">
         <v>2.2200000000000002</v>
       </c>
       <c r="EO10" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.20897340568589917</v>
       </c>
       <c r="EP10" s="2">
         <v>0.95</v>
       </c>
       <c r="EQ10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.92682889589713979</v>
       </c>
       <c r="ES10" s="2">
         <v>3.55</v>
       </c>
       <c r="ET10" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.30034017460710605</v>
       </c>
       <c r="EU10" s="2">
         <v>0.98</v>
       </c>
       <c r="EV10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.88219091951636441</v>
       </c>
       <c r="EX10" s="2">
         <v>2.7679999999999998</v>
       </c>
       <c r="EY10" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.37069638134309096</v>
       </c>
       <c r="EZ10" s="2">
         <v>0.81</v>
       </c>
       <c r="FA10">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.92239556281327817</v>
       </c>
       <c r="FC10" s="2">
@@ -5796,15 +5822,15 @@
         <v>1.7090000000000001</v>
       </c>
       <c r="FI10" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.25462802021278863</v>
       </c>
       <c r="FJ10" s="2">
         <v>1.47</v>
       </c>
       <c r="FK10">
-        <f t="shared" si="38"/>
-        <v>0.91346108689128158</v>
+        <f t="shared" si="43"/>
+        <v>0.87304187908091491</v>
       </c>
       <c r="FM10" s="2">
         <v>1.875</v>
@@ -5817,50 +5843,50 @@
         <v>1.37</v>
       </c>
       <c r="FP10">
-        <f>EXP(-2*FM10*FO10/55.51)</f>
-        <v>0.91160281673840204</v>
+        <f t="shared" si="44"/>
+        <v>0.87037916747218236</v>
       </c>
       <c r="FR10" s="2">
         <v>1.2989999999999999</v>
       </c>
       <c r="FS10" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0.17076479541975584</v>
       </c>
       <c r="FT10" s="2">
         <v>1.1200000000000001</v>
       </c>
       <c r="FU10">
-        <f t="shared" si="40"/>
-        <v>0.94893150087008038</v>
+        <f t="shared" si="45"/>
+        <v>0.92438373590379708</v>
       </c>
       <c r="FW10" s="2">
         <v>1.345</v>
       </c>
       <c r="FX10" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.24969613631400547</v>
       </c>
       <c r="FY10" s="2">
         <v>1.22</v>
       </c>
       <c r="FZ10">
-        <f t="shared" si="42"/>
-        <v>0.94259282247862319</v>
+        <f t="shared" si="46"/>
+        <v>0.91513716422800773</v>
       </c>
       <c r="GB10" s="2">
         <v>1.534</v>
       </c>
       <c r="GC10" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>0.34372592335498442</v>
       </c>
       <c r="GD10" s="2">
         <v>1.42</v>
       </c>
       <c r="GE10">
-        <f t="shared" si="44"/>
-        <v>0.92451829840074184</v>
+        <f t="shared" si="47"/>
+        <v>0.88894167468778684</v>
       </c>
       <c r="GG10" s="2">
         <v>0.97499999999999998</v>
@@ -5873,35 +5899,47 @@
         <v>1.2</v>
       </c>
       <c r="GJ10">
-        <f>EXP(-2*GG10*GI10/55.51)</f>
-        <v>0.95872158264541152</v>
+        <f t="shared" si="48"/>
+        <v>0.93872580476906919</v>
       </c>
       <c r="GL10" s="2">
         <v>1.4450000000000001</v>
       </c>
       <c r="GM10" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0.30038975986088384</v>
       </c>
       <c r="GN10" s="2">
         <v>1.24</v>
       </c>
       <c r="GO10">
-        <f t="shared" si="46"/>
-        <v>0.93748198497898005</v>
+        <f t="shared" si="49"/>
+        <v>0.907704307439411</v>
       </c>
       <c r="GQ10" s="2">
-        <f>(1/GR10)/BH3</f>
-        <v>17.346655564807104</v>
+        <f t="shared" si="50"/>
+        <v>3.5812450198311443</v>
       </c>
       <c r="GR10" s="2">
-        <v>3.2</v>
+        <v>15.5</v>
       </c>
       <c r="GS10" s="2">
-        <v>0.70599999999999996</v>
+        <f t="shared" si="51"/>
+        <v>0.22279003160527228</v>
+      </c>
+      <c r="GT10" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="GU10" s="2">
+        <f t="shared" si="52"/>
+        <v>0.93939465958740132</v>
+      </c>
+      <c r="GV10" s="2">
+        <f t="shared" si="53"/>
+        <v>0.96870893475133024</v>
       </c>
     </row>
-    <row r="11" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>267</v>
       </c>
@@ -6124,7 +6162,7 @@
         <v>0.5</v>
       </c>
       <c r="CR11" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>7.3906262458854816E-2</v>
       </c>
       <c r="CS11" s="2">
@@ -6174,7 +6212,7 @@
         <v>0.4</v>
       </c>
       <c r="DL11" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>6.1596786907398379E-2</v>
       </c>
       <c r="DM11" s="2">
@@ -6191,105 +6229,105 @@
         <v>0.91020000000000001</v>
       </c>
       <c r="DR11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.98373665421648882</v>
       </c>
       <c r="DT11" s="2">
         <v>0.5</v>
       </c>
       <c r="DU11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>5.7688320989050329E-2</v>
       </c>
       <c r="DV11" s="2">
         <v>0.99950000000000006</v>
       </c>
       <c r="DW11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.98215537048432389</v>
       </c>
       <c r="DY11" s="2">
         <v>0.5</v>
       </c>
       <c r="DZ11" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>5.7737155779604719E-2</v>
       </c>
       <c r="EA11" s="2">
         <v>0.83330000000000004</v>
       </c>
       <c r="EB11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.98510040440198543</v>
       </c>
       <c r="ED11" s="2">
         <v>4.9889999999999999</v>
       </c>
       <c r="EE11" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.33920044482911493</v>
       </c>
       <c r="EF11" s="2">
         <v>1.26</v>
       </c>
       <c r="EG11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.79732989957467659</v>
       </c>
       <c r="EI11" s="2">
         <v>3.3029999999999999</v>
       </c>
       <c r="EJ11" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.33114245477153503</v>
       </c>
       <c r="EK11" s="2">
         <v>1.26</v>
       </c>
       <c r="EL11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.86075356367894651</v>
       </c>
       <c r="EN11" s="2">
         <v>3.0209999999999999</v>
       </c>
       <c r="EO11" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.26443491315550799</v>
       </c>
       <c r="EP11" s="2">
         <v>0.96</v>
       </c>
       <c r="EQ11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.90078250538489457</v>
       </c>
       <c r="ES11" s="2">
         <v>4.4630000000000001</v>
       </c>
       <c r="ET11" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.35050847003203212</v>
       </c>
       <c r="EU11" s="2">
         <v>0.98</v>
       </c>
       <c r="EV11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.85420517801429519</v>
       </c>
       <c r="EX11" s="2">
         <v>3.4849999999999999</v>
       </c>
       <c r="EY11" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.42582946899819329</v>
       </c>
       <c r="EZ11" s="2">
         <v>0.81</v>
       </c>
       <c r="FA11">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.90329508236438283</v>
       </c>
       <c r="FC11" s="2">
@@ -6310,15 +6348,15 @@
         <v>2.254</v>
       </c>
       <c r="FI11" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.31060730078174514</v>
       </c>
       <c r="FJ11" s="2">
         <v>1.71</v>
       </c>
       <c r="FK11">
-        <f t="shared" si="38"/>
-        <v>0.87034106667801636</v>
+        <f t="shared" si="43"/>
+        <v>0.81195921311206065</v>
       </c>
       <c r="FM11" s="2">
         <v>2.2730000000000001</v>
@@ -6331,50 +6369,50 @@
         <v>1.38</v>
       </c>
       <c r="FP11">
-        <f>EXP(-2*FM11*FO11/55.51)</f>
-        <v>0.89313698380096151</v>
+        <f t="shared" si="44"/>
+        <v>0.8440673670140969</v>
       </c>
       <c r="FR11" s="2">
         <v>1.5029999999999999</v>
       </c>
       <c r="FS11" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0.192422069880542</v>
       </c>
       <c r="FT11" s="2">
         <v>1.31</v>
       </c>
       <c r="FU11">
-        <f t="shared" si="40"/>
-        <v>0.93151810707080429</v>
+        <f t="shared" si="45"/>
+        <v>0.89905643086863507</v>
       </c>
       <c r="FW11" s="2">
         <v>1.746</v>
       </c>
       <c r="FX11" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.3016822098473172</v>
       </c>
       <c r="FY11" s="2">
         <v>1.36</v>
       </c>
       <c r="FZ11">
-        <f t="shared" si="42"/>
-        <v>0.91800328077604243</v>
+        <f t="shared" si="46"/>
+        <v>0.87956178088623849</v>
       </c>
       <c r="GB11" s="2">
         <v>1.96</v>
       </c>
       <c r="GC11" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>0.40091162080485371</v>
       </c>
       <c r="GD11" s="2">
         <v>1.6</v>
       </c>
       <c r="GE11">
-        <f t="shared" si="44"/>
-        <v>0.89316079681406857</v>
+        <f t="shared" si="47"/>
+        <v>0.84410112430152451</v>
       </c>
       <c r="GG11" s="2">
         <v>1.214</v>
@@ -6387,35 +6425,47 @@
         <v>1.27</v>
       </c>
       <c r="GJ11">
-        <f>EXP(-2*GG11*GI11/55.51)</f>
-        <v>0.94596507359925908</v>
+        <f t="shared" si="48"/>
+        <v>0.92005259136495299</v>
       </c>
       <c r="GL11" s="2">
         <v>1.706</v>
       </c>
       <c r="GM11" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0.33639513539410604</v>
       </c>
       <c r="GN11" s="2">
         <v>1.3</v>
       </c>
       <c r="GO11">
-        <f t="shared" si="46"/>
-        <v>0.92320282503628792</v>
+        <f t="shared" si="49"/>
+        <v>0.88704507129596977</v>
       </c>
       <c r="GQ11" s="2">
-        <f>(1/GR10)/BH3</f>
-        <v>17.346655564807104</v>
+        <f t="shared" si="50"/>
+        <v>4.6257748172818944</v>
       </c>
       <c r="GR11" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="GS11" s="2">
-        <v>0.69699999999999995</v>
+        <f t="shared" si="51"/>
+        <v>0.27021196868575359</v>
+      </c>
+      <c r="GT11" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="GU11" s="2">
+        <f t="shared" si="52"/>
+        <v>0.92307782129128679</v>
+      </c>
+      <c r="GV11" s="2">
+        <f t="shared" si="53"/>
+        <v>0.96416572847020154</v>
       </c>
     </row>
-    <row r="12" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>275</v>
       </c>
@@ -6635,7 +6685,7 @@
         <v>0.6</v>
       </c>
       <c r="CR12" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>8.7395697085313417E-2</v>
       </c>
       <c r="CS12" s="2">
@@ -6675,7 +6725,7 @@
         <v>0.5</v>
       </c>
       <c r="DL12" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>7.5828288896076887E-2</v>
       </c>
       <c r="DM12" s="2">
@@ -6692,105 +6742,105 @@
         <v>0.90959999999999996</v>
       </c>
       <c r="DR12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.98052858129423781</v>
       </c>
       <c r="DT12" s="2">
         <v>0.6</v>
       </c>
       <c r="DU12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>6.8436389110394E-2</v>
       </c>
       <c r="DV12" s="2">
         <v>1.0135000000000001</v>
       </c>
       <c r="DW12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.97832870538154948</v>
       </c>
       <c r="DY12" s="2">
         <v>0.6</v>
       </c>
       <c r="DZ12" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>6.8493661099363778E-2</v>
       </c>
       <c r="EA12" s="2">
         <v>0.81730000000000003</v>
       </c>
       <c r="EB12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.98248699899859548</v>
       </c>
       <c r="ED12" s="2">
         <v>5.8010000000000002</v>
       </c>
       <c r="EE12" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.37377294330768335</v>
       </c>
       <c r="EF12" s="2">
         <v>1.35</v>
       </c>
       <c r="EG12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.75415303213518359</v>
       </c>
       <c r="EI12" s="2">
         <v>3.9580000000000002</v>
       </c>
       <c r="EJ12" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.372357869843366</v>
       </c>
       <c r="EK12" s="2">
         <v>1.34</v>
       </c>
       <c r="EL12">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.82605773211349576</v>
       </c>
       <c r="EN12" s="2">
         <v>3.81</v>
       </c>
       <c r="EO12" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.31195343300834599</v>
       </c>
       <c r="EP12" s="2">
         <v>0.97</v>
       </c>
       <c r="EQ12">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.87532994246531504</v>
       </c>
       <c r="ES12" s="2">
         <v>5.9960000000000004</v>
       </c>
       <c r="ET12" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.42030206065458381</v>
       </c>
       <c r="EU12" s="2">
         <v>1.07</v>
       </c>
       <c r="EV12">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.7936160749499328</v>
       </c>
       <c r="EX12" s="2">
         <v>4.32</v>
       </c>
       <c r="EY12" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.47898735148013444</v>
       </c>
       <c r="EZ12" s="2">
         <v>0.79</v>
       </c>
       <c r="FA12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.88429759370363636</v>
       </c>
       <c r="FC12" s="2">
@@ -6811,15 +6861,15 @@
         <v>3.0219999999999998</v>
       </c>
       <c r="FI12" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.37658486932327373</v>
       </c>
       <c r="FJ12" s="2">
         <v>2.06</v>
       </c>
       <c r="FK12">
-        <f t="shared" si="38"/>
-        <v>0.79907901777861967</v>
+        <f t="shared" si="43"/>
+        <v>0.71430648117847162</v>
       </c>
       <c r="FM12" s="2">
         <v>2.915</v>
@@ -6832,50 +6882,50 @@
         <v>1.75</v>
       </c>
       <c r="FP12">
-        <f>EXP(-2*FM12*FO12/55.51)</f>
-        <v>0.83210577528624219</v>
+        <f t="shared" si="44"/>
+        <v>0.75904549040402636</v>
       </c>
       <c r="FR12" s="2">
         <v>1.7969999999999999</v>
       </c>
       <c r="FS12" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0.22171624006041163</v>
       </c>
       <c r="FT12" s="2">
         <v>1.35</v>
       </c>
       <c r="FU12">
-        <f t="shared" si="40"/>
-        <v>0.9163051168124039</v>
+        <f t="shared" si="45"/>
+        <v>0.87712233019881447</v>
       </c>
       <c r="FW12" s="2">
         <v>1.996</v>
       </c>
       <c r="FX12" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.33059783477317722</v>
       </c>
       <c r="FY12" s="2">
         <v>1.54</v>
       </c>
       <c r="FZ12">
-        <f t="shared" si="42"/>
-        <v>0.89516335820863435</v>
+        <f t="shared" si="46"/>
+        <v>0.84694156155146061</v>
       </c>
       <c r="GB12" s="2">
         <v>2.37</v>
       </c>
       <c r="GC12" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>0.44726618129636092</v>
       </c>
       <c r="GD12" s="2">
         <v>1.79</v>
       </c>
       <c r="GE12">
-        <f t="shared" si="44"/>
-        <v>0.85826005117329662</v>
+        <f t="shared" si="47"/>
+        <v>0.79511207199004585</v>
       </c>
       <c r="GG12" s="2">
         <v>1.3879999999999999</v>
@@ -6888,35 +6938,47 @@
         <v>1.29</v>
       </c>
       <c r="GJ12">
-        <f>EXP(-2*GG12*GI12/55.51)</f>
-        <v>0.93752522059819665</v>
+        <f t="shared" si="48"/>
+        <v>0.90776710162251328</v>
       </c>
       <c r="GL12" s="2">
         <v>1.8879999999999999</v>
       </c>
       <c r="GM12" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0.35938514093321899</v>
       </c>
       <c r="GN12" s="2">
         <v>1.34</v>
       </c>
       <c r="GO12">
-        <f t="shared" si="46"/>
-        <v>0.91287906642256578</v>
+        <f t="shared" si="49"/>
+        <v>0.87220761153081561</v>
       </c>
       <c r="GQ12" s="2">
-        <f>(1/GR11)/BH3</f>
-        <v>18.503099269127578</v>
+        <f t="shared" si="50"/>
+        <v>5.7226080213796644</v>
       </c>
       <c r="GR12" s="2">
-        <v>2.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="GS12" s="2">
-        <v>0.68600000000000005</v>
+        <f t="shared" si="51"/>
+        <v>0.31415468123561313</v>
+      </c>
+      <c r="GT12" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="GU12" s="2">
+        <f t="shared" si="52"/>
+        <v>0.90654312781546742</v>
+      </c>
+      <c r="GV12" s="2">
+        <f t="shared" si="53"/>
+        <v>0.95968958707620799</v>
       </c>
     </row>
-    <row r="13" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>284</v>
       </c>
@@ -7136,7 +7198,7 @@
         <v>0.7</v>
       </c>
       <c r="CR13" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0.10049780070812771</v>
       </c>
       <c r="CS13" s="2">
@@ -7176,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="DL13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.14096727085301949</v>
       </c>
       <c r="DM13" s="2">
@@ -7186,112 +7248,112 @@
         <v>0.7</v>
       </c>
       <c r="DP13" s="2">
-        <f t="shared" ref="DP13:DP32" si="48">$CC$3*DO13/(1+$CC$3*DO13)</f>
+        <f t="shared" ref="DP13:DP32" si="54">$CC$3*DO13/(1+$CC$3*DO13)</f>
         <v>6.9311187903279087E-2</v>
       </c>
       <c r="DQ13" s="2">
         <v>0.91</v>
       </c>
       <c r="DR13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.97731054704451703</v>
       </c>
       <c r="DT13" s="2">
         <v>0.7</v>
       </c>
       <c r="DU13" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>7.8942035980208311E-2</v>
       </c>
       <c r="DV13" s="2">
         <v>1.0285</v>
       </c>
       <c r="DW13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.97439406754034741</v>
       </c>
       <c r="DY13" s="2">
         <v>0.7</v>
       </c>
       <c r="DZ13" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>7.9007354126277282E-2</v>
       </c>
       <c r="EA13" s="2">
         <v>0.80169999999999997</v>
       </c>
       <c r="EB13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>0.97998362178217957</v>
       </c>
       <c r="ED13" s="2">
         <v>7.9809999999999999</v>
       </c>
       <c r="EE13" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>0.45090096142793945</v>
       </c>
       <c r="EF13" s="2">
         <v>1.7</v>
       </c>
       <c r="EG13">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>0.61333865086347206</v>
       </c>
       <c r="EI13" s="2">
         <v>5.0730000000000004</v>
       </c>
       <c r="EJ13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.43194469354458598</v>
       </c>
       <c r="EK13" s="2">
         <v>1.47</v>
       </c>
       <c r="EL13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.76438516020631775</v>
       </c>
       <c r="EN13" s="2">
         <v>4.3490000000000002</v>
       </c>
       <c r="EO13" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="30"/>
         <v>0.34103487836492302</v>
       </c>
       <c r="EP13" s="2">
         <v>1.17</v>
       </c>
       <c r="EQ13">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>0.83249321211796445</v>
       </c>
       <c r="ES13" s="2">
         <v>6.9489999999999998</v>
       </c>
       <c r="ET13" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.45660238642408441</v>
       </c>
       <c r="EU13" s="2">
         <v>1.19</v>
       </c>
       <c r="EV13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.74234627233627271</v>
       </c>
       <c r="EX13" s="2">
         <v>5.8879999999999999</v>
       </c>
       <c r="EY13" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0.5561523393115233</v>
       </c>
       <c r="EZ13" s="2">
         <v>0.78</v>
       </c>
       <c r="FA13">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0.84749467240479803</v>
       </c>
       <c r="FF13"/>
@@ -7299,84 +7361,96 @@
         <v>3.3759999999999999</v>
       </c>
       <c r="FI13" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.40292399107767829</v>
       </c>
       <c r="FJ13" s="2">
         <v>2.21</v>
       </c>
-      <c r="FK13" s="2">
-        <f t="shared" si="38"/>
-        <v>0.76428464417717057</v>
+      <c r="FK13">
+        <f t="shared" si="43"/>
+        <v>0.66816342815893837</v>
       </c>
       <c r="FR13" s="2">
         <v>2.2130000000000001</v>
       </c>
       <c r="FS13" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0.25971269345992959</v>
       </c>
       <c r="FT13" s="2">
         <v>1.39</v>
       </c>
-      <c r="FU13" s="2">
-        <f t="shared" si="40"/>
-        <v>0.89509143840689942</v>
+      <c r="FU13">
+        <f t="shared" si="45"/>
+        <v>0.84683949529982472</v>
       </c>
       <c r="FW13" s="2">
         <v>2.395</v>
       </c>
       <c r="FX13" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.37209391327618574</v>
       </c>
       <c r="FY13" s="2">
         <v>1.62</v>
       </c>
-      <c r="FZ13" s="2">
-        <f t="shared" si="42"/>
-        <v>0.86953992535188906</v>
+      <c r="FZ13">
+        <f t="shared" si="46"/>
+        <v>0.81083836913062435</v>
       </c>
       <c r="GB13" s="2">
         <v>2.9329999999999998</v>
       </c>
       <c r="GC13" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>0.50035329768497339</v>
       </c>
       <c r="GD13" s="2">
         <v>1.96</v>
       </c>
-      <c r="GE13" s="2">
-        <f t="shared" si="44"/>
-        <v>0.81292020725998193</v>
+      <c r="GE13">
+        <f t="shared" si="47"/>
+        <v>0.7329458308398954</v>
       </c>
       <c r="GL13" s="2">
         <v>2.2450000000000001</v>
       </c>
       <c r="GM13" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0.40014851123158923</v>
       </c>
       <c r="GN13" s="2">
         <v>1.37</v>
       </c>
-      <c r="GO13" s="2">
-        <f t="shared" si="46"/>
-        <v>0.89510498339874134</v>
+      <c r="GO13">
+        <f t="shared" si="49"/>
+        <v>0.8468587175998441</v>
       </c>
       <c r="GQ13" s="2">
-        <f>(1/GR12)/BH3</f>
-        <v>19.141137174959567</v>
+        <f t="shared" si="50"/>
+        <v>6.9386622259228421</v>
       </c>
       <c r="GR13" s="2">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="GS13" s="2">
-        <v>0.67600000000000005</v>
+        <f t="shared" si="51"/>
+        <v>0.3570749856131476</v>
+      </c>
+      <c r="GT13" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="GU13" s="2">
+        <f t="shared" si="52"/>
+        <v>0.88889013825755647</v>
+      </c>
+      <c r="GV13" s="2">
+        <f t="shared" si="53"/>
+        <v>0.95624865595450215</v>
       </c>
     </row>
-    <row r="14" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>290</v>
       </c>
@@ -7581,7 +7655,7 @@
         <v>0.8</v>
       </c>
       <c r="CR14" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0.11322901974349477</v>
       </c>
       <c r="CS14" s="2">
@@ -7621,7 +7695,7 @@
         <v>1.5</v>
       </c>
       <c r="DL14" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.19752838743329451</v>
       </c>
       <c r="DM14" s="2">
@@ -7631,28 +7705,28 @@
         <v>0.8</v>
       </c>
       <c r="DP14" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>7.843614299722057E-2</v>
       </c>
       <c r="DQ14" s="2">
         <v>0.91100000000000003</v>
       </c>
       <c r="DR14">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.97408342034845929</v>
       </c>
       <c r="DT14" s="2">
         <v>0.8</v>
       </c>
       <c r="DU14" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>8.9213371804960501E-2</v>
       </c>
       <c r="DV14" s="2">
         <v>0.91100000000000003</v>
       </c>
       <c r="DW14">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.97408342034845929</v>
       </c>
       <c r="EB14"/>
@@ -7660,98 +7734,110 @@
         <v>6.6929999999999996</v>
       </c>
       <c r="EJ14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.50080215353152246</v>
       </c>
       <c r="EK14" s="2">
         <v>1.66</v>
       </c>
       <c r="EL14" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.67011768847610276</v>
       </c>
       <c r="FH14" s="2">
         <v>3.9489999999999998</v>
       </c>
       <c r="FI14" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.44114271873147265</v>
       </c>
       <c r="FJ14" s="2">
         <v>2.4500000000000002</v>
       </c>
-      <c r="FK14" s="2">
-        <f t="shared" si="38"/>
-        <v>0.70568406484515256</v>
+      <c r="FK14">
+        <f t="shared" si="43"/>
+        <v>0.59280992485969486</v>
       </c>
       <c r="FR14" s="2">
         <v>2.6930000000000001</v>
       </c>
       <c r="FS14" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0.29919049704556583</v>
       </c>
       <c r="FT14" s="2">
         <v>1.54</v>
       </c>
-      <c r="FU14" s="2">
-        <f t="shared" si="40"/>
-        <v>0.86120522499020669</v>
+      <c r="FU14">
+        <f t="shared" si="45"/>
+        <v>0.79920829736841181</v>
       </c>
       <c r="FW14" s="2">
         <v>2.6560000000000001</v>
       </c>
       <c r="FX14" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.39656309372157211</v>
       </c>
       <c r="FY14" s="2">
         <v>1.81</v>
       </c>
-      <c r="FZ14" s="2">
-        <f t="shared" si="42"/>
-        <v>0.8409635260134265</v>
+      <c r="FZ14">
+        <f t="shared" si="46"/>
+        <v>0.77119772580275148</v>
       </c>
       <c r="GB14" s="2">
         <v>3.5169999999999999</v>
       </c>
       <c r="GC14" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>0.54562169677481054</v>
       </c>
       <c r="GD14" s="2">
         <v>2.2599999999999998</v>
       </c>
-      <c r="GE14" s="2">
-        <f t="shared" si="44"/>
-        <v>0.75097872995281467</v>
+      <c r="GE14">
+        <f t="shared" si="47"/>
+        <v>0.65079087504023392</v>
       </c>
       <c r="GL14" s="2">
         <v>2.5030000000000001</v>
       </c>
       <c r="GM14" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0.42652047572512208</v>
       </c>
       <c r="GN14" s="2">
         <v>1.42</v>
       </c>
-      <c r="GO14" s="2">
-        <f t="shared" si="46"/>
-        <v>0.87980202548305697</v>
+      <c r="GO14">
+        <f t="shared" si="49"/>
+        <v>0.82523461455903513</v>
       </c>
       <c r="GQ14" s="2">
-        <f>(1/GR13)/BH3</f>
-        <v>19.824749216922406</v>
+        <f t="shared" si="50"/>
+        <v>8.1631320304974615</v>
       </c>
       <c r="GR14" s="2">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="GS14" s="2">
-        <v>0.66500000000000004</v>
+        <f t="shared" si="51"/>
+        <v>0.39518625490631709</v>
+      </c>
+      <c r="GT14" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="GU14" s="2">
+        <f t="shared" si="52"/>
+        <v>0.87179628565173184</v>
+      </c>
+      <c r="GV14" s="2">
+        <f t="shared" si="53"/>
+        <v>0.95205727950482599</v>
       </c>
     </row>
-    <row r="15" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>297</v>
       </c>
@@ -7953,7 +8039,7 @@
         <v>0.9</v>
       </c>
       <c r="CR15" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0.12560488249642324</v>
       </c>
       <c r="CS15" s="2">
@@ -7993,7 +8079,7 @@
         <v>2</v>
       </c>
       <c r="DL15" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.24710134015961449</v>
       </c>
       <c r="DM15" s="2">
@@ -8003,28 +8089,28 @@
         <v>0.9</v>
       </c>
       <c r="DP15" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>8.7383903824865328E-2</v>
       </c>
       <c r="DQ15" s="2">
         <v>0.91220000000000001</v>
       </c>
       <c r="DR15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.97085365751222485</v>
       </c>
       <c r="DT15" s="2">
         <v>0.9</v>
       </c>
       <c r="DU15" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>9.9258149011525895E-2</v>
       </c>
       <c r="DV15" s="2">
         <v>0.91220000000000001</v>
       </c>
       <c r="DW15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.97085365751222485</v>
       </c>
       <c r="EB15"/>
@@ -8032,98 +8118,110 @@
         <v>8.3979999999999997</v>
       </c>
       <c r="EJ15" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>0.55728239426922954</v>
       </c>
       <c r="EK15" s="2">
         <v>1.8</v>
       </c>
       <c r="EL15" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.58005230275597131</v>
       </c>
       <c r="FH15" s="2">
         <v>4.5960000000000001</v>
       </c>
       <c r="FI15" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="36"/>
         <v>0.47881226986825476</v>
       </c>
       <c r="FJ15" s="2">
         <v>2.7</v>
       </c>
-      <c r="FK15" s="2">
-        <f t="shared" si="38"/>
-        <v>0.63948135101347503</v>
+      <c r="FK15">
+        <f t="shared" si="43"/>
+        <v>0.51137774732544228</v>
       </c>
       <c r="FR15" s="2">
         <v>3.2029999999999998</v>
       </c>
       <c r="FS15" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0.33676956998506646</v>
       </c>
       <c r="FT15" s="2">
         <v>1.87</v>
       </c>
-      <c r="FU15" s="2">
-        <f t="shared" si="40"/>
-        <v>0.80589411313039805</v>
+      <c r="FU15">
+        <f t="shared" si="45"/>
+        <v>0.72346408296627762</v>
       </c>
       <c r="FW15" s="2">
         <v>3.34</v>
       </c>
       <c r="FX15" s="2">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.45247967029639791</v>
       </c>
       <c r="FY15" s="2">
         <v>2.09</v>
       </c>
-      <c r="FZ15" s="2">
-        <f t="shared" si="42"/>
-        <v>0.7776273637667005</v>
+      <c r="FZ15">
+        <f t="shared" si="46"/>
+        <v>0.68573655567773595</v>
       </c>
       <c r="GB15" s="2">
         <v>4.1559999999999997</v>
       </c>
       <c r="GC15" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="39"/>
         <v>0.58660314399553382</v>
       </c>
       <c r="GD15" s="2">
         <v>2.59</v>
       </c>
-      <c r="GE15" s="2">
-        <f t="shared" si="44"/>
-        <v>0.6785321239859966</v>
+      <c r="GE15">
+        <f t="shared" si="47"/>
+        <v>0.55892768292238448</v>
       </c>
       <c r="GL15" s="2">
         <v>3.3980000000000001</v>
       </c>
       <c r="GM15" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="40"/>
         <v>0.50240876948415492</v>
       </c>
       <c r="GN15" s="2">
         <v>1.6</v>
       </c>
-      <c r="GO15" s="2">
-        <f t="shared" si="46"/>
-        <v>0.82210642126294919</v>
+      <c r="GO15">
+        <f t="shared" si="49"/>
+        <v>0.74540458635814377</v>
       </c>
       <c r="GQ15" s="2">
-        <f>(1/GR14)/BH3</f>
-        <v>20.558999187919532</v>
+        <f t="shared" si="50"/>
+        <v>9.3292937491399552</v>
       </c>
       <c r="GR15" s="2">
-        <v>2.6</v>
+        <v>5.95</v>
       </c>
       <c r="GS15" s="2">
-        <v>0.65400000000000003</v>
+        <f t="shared" si="51"/>
+        <v>0.4275064792523724</v>
+      </c>
+      <c r="GT15" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="GU15" s="2">
+        <f t="shared" si="52"/>
+        <v>0.85611666614947202</v>
+      </c>
+      <c r="GV15" s="2">
+        <f t="shared" si="53"/>
+        <v>0.9461327317024566</v>
       </c>
     </row>
-    <row r="16" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>304</v>
       </c>
@@ -8312,7 +8410,7 @@
         <v>1</v>
       </c>
       <c r="CR16" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0.13764006234517406</v>
       </c>
       <c r="CS16" s="2">
@@ -8352,7 +8450,7 @@
         <v>2.5</v>
       </c>
       <c r="DL16" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.29090586775394434</v>
       </c>
       <c r="DM16" s="2">
@@ -8362,43 +8460,55 @@
         <v>1</v>
       </c>
       <c r="DP16" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>9.6159582064190743E-2</v>
       </c>
       <c r="DQ16" s="2">
         <v>0.91349999999999998</v>
       </c>
       <c r="DR16">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.96762275008731913</v>
       </c>
       <c r="DT16" s="2">
         <v>1</v>
       </c>
       <c r="DU16" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.10908378176116316</v>
       </c>
       <c r="DV16" s="2">
         <v>0.91349999999999998</v>
       </c>
       <c r="DW16">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.96762275008731913</v>
       </c>
       <c r="EB16"/>
       <c r="GQ16" s="2">
-        <f>(1/GR15)/BH3</f>
-        <v>21.349729925916435</v>
+        <f t="shared" si="50"/>
+        <v>10.674864962958218</v>
       </c>
       <c r="GR16" s="2">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="GS16" s="2">
-        <v>0.64500000000000002</v>
+        <f t="shared" si="51"/>
+        <v>0.46075603985701208</v>
+      </c>
+      <c r="GT16" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="GU16" s="2">
+        <f t="shared" si="52"/>
+        <v>0.83871138863949279</v>
+      </c>
+      <c r="GV16" s="2">
+        <f t="shared" si="53"/>
+        <v>0.9419211551204647</v>
       </c>
     </row>
-    <row r="17" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>312</v>
       </c>
@@ -8590,7 +8700,7 @@
         <v>1.2</v>
       </c>
       <c r="CR17" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0.16074313576846283</v>
       </c>
       <c r="CS17" s="2">
@@ -8630,7 +8740,7 @@
         <v>3</v>
       </c>
       <c r="DL17" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.32989345305903639</v>
       </c>
       <c r="DM17" s="2">
@@ -8640,43 +8750,55 @@
         <v>1.2</v>
       </c>
       <c r="DP17" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.11321417296580201</v>
       </c>
       <c r="DQ17" s="2">
         <v>0.91659999999999997</v>
       </c>
       <c r="DR17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.96114536582444166</v>
       </c>
       <c r="DT17" s="2">
         <v>1.2</v>
       </c>
       <c r="DU17" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.12810568754097901</v>
       </c>
       <c r="DV17" s="2">
         <v>0.91659999999999997</v>
       </c>
       <c r="DW17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.96114536582444166</v>
       </c>
       <c r="EB17"/>
       <c r="GQ17" s="2">
-        <f>(1/GR16)/BH3</f>
-        <v>22.203719122953096</v>
+        <f t="shared" si="50"/>
+        <v>11.937483399437147</v>
       </c>
       <c r="GR17" s="2">
-        <v>2.4</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="GS17" s="2">
-        <v>0.629</v>
+        <f t="shared" si="51"/>
+        <v>0.48862496966811186</v>
+      </c>
+      <c r="GT17" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="GU17" s="2">
+        <f t="shared" si="52"/>
+        <v>0.82301069220416956</v>
+      </c>
+      <c r="GV17" s="2">
+        <f t="shared" si="53"/>
+        <v>0.93558930314477762</v>
       </c>
     </row>
-    <row r="18" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="V18" s="2">
         <v>5</v>
       </c>
@@ -8846,7 +8968,7 @@
         <v>1.4</v>
       </c>
       <c r="CR18" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="41"/>
         <v>0.18264062071448259</v>
       </c>
       <c r="CS18" s="2">
@@ -8886,7 +9008,7 @@
         <v>3.5</v>
       </c>
       <c r="DL18" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.36481722615682666</v>
       </c>
       <c r="DM18" s="2">
@@ -8896,43 +9018,55 @@
         <v>1.4</v>
       </c>
       <c r="DP18" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.12963707606797881</v>
       </c>
       <c r="DQ18" s="2">
         <v>0.92020000000000002</v>
       </c>
       <c r="DR18">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.95464461253083843</v>
       </c>
       <c r="DT18" s="2">
         <v>1.4</v>
       </c>
       <c r="DU18" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.14633230210275425</v>
       </c>
       <c r="DV18" s="2">
         <v>0.92020000000000002</v>
       </c>
       <c r="DW18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.95464461253083843</v>
       </c>
       <c r="EB18"/>
       <c r="GQ18" s="2">
-        <f>(1/GR17)/BH3</f>
-        <v>23.128874086409475</v>
+        <f t="shared" si="50"/>
+        <v>13.705999458613022</v>
       </c>
       <c r="GR18" s="2">
-        <v>2.2999999999999998</v>
+        <v>4.05</v>
       </c>
       <c r="GS18" s="2">
-        <v>0.62</v>
+        <f t="shared" si="51"/>
+        <v>0.52314404058724051</v>
+      </c>
+      <c r="GT18" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="GU18" s="2">
+        <f t="shared" si="52"/>
+        <v>0.80198220692011568</v>
+      </c>
+      <c r="GV18" s="2">
+        <f t="shared" si="53"/>
+        <v>0.93518284262222595</v>
       </c>
     </row>
-    <row r="19" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>324</v>
       </c>
@@ -9134,7 +9268,7 @@
         <v>4</v>
       </c>
       <c r="DL19" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.39628109152378649</v>
       </c>
       <c r="DM19" s="2">
@@ -9144,42 +9278,54 @@
         <v>1.6</v>
       </c>
       <c r="DP19" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.14546274901215495</v>
       </c>
       <c r="DQ19" s="2">
         <v>0.9244</v>
       </c>
       <c r="DR19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.9481058402815703</v>
       </c>
       <c r="DT19" s="2">
         <v>1.6</v>
       </c>
       <c r="DU19" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.1638124799314995</v>
       </c>
       <c r="DV19" s="2">
         <v>0.9244</v>
       </c>
       <c r="DW19">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.9481058402815703</v>
       </c>
       <c r="GQ19" s="2">
-        <f>(1/GR18)/BH3</f>
-        <v>24.134477307557713</v>
+        <f t="shared" si="50"/>
+        <v>15.002512920914251</v>
       </c>
       <c r="GR19" s="2">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="GS19" s="2">
-        <v>0.51900000000000002</v>
+        <f t="shared" si="51"/>
+        <v>0.54562930091309736</v>
+      </c>
+      <c r="GT19" s="2">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="GU19" s="2">
+        <f t="shared" si="52"/>
+        <v>0.78723616136414198</v>
+      </c>
+      <c r="GV19" s="2">
+        <f t="shared" si="53"/>
+        <v>0.92983533522084727</v>
       </c>
     </row>
-    <row r="20" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>331</v>
       </c>
@@ -9359,7 +9505,7 @@
         <v>4.5</v>
       </c>
       <c r="DL20" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.42477494319652565</v>
       </c>
       <c r="DM20" s="2">
@@ -9369,42 +9515,54 @@
         <v>1.8</v>
       </c>
       <c r="DP20" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.16072318804332683</v>
       </c>
       <c r="DQ20" s="2">
         <v>0.92900000000000005</v>
       </c>
       <c r="DR20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.94153043639048362</v>
       </c>
       <c r="DT20" s="2">
         <v>1.8</v>
       </c>
       <c r="DU20" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.18059115431762909</v>
       </c>
       <c r="DV20" s="2">
         <v>0.92900000000000005</v>
       </c>
       <c r="DW20">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.94153043639048362</v>
       </c>
       <c r="GQ20" s="2">
-        <f>(1/GR19)/BH3</f>
-        <v>37.006198538255155</v>
+        <f t="shared" si="50"/>
+        <v>16.326264060994923</v>
       </c>
       <c r="GR20" s="2">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="GS20" s="2">
-        <v>0.39200000000000002</v>
+        <f t="shared" si="51"/>
+        <v>0.56649963905049039</v>
+      </c>
+      <c r="GT20" s="2">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="GU20" s="2">
+        <f t="shared" si="52"/>
+        <v>0.77272949429646598</v>
+      </c>
+      <c r="GV20" s="2">
+        <f t="shared" si="53"/>
+        <v>0.92529145746012187</v>
       </c>
     </row>
-    <row r="21" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>337</v>
       </c>
@@ -9518,7 +9676,7 @@
         <v>5</v>
       </c>
       <c r="DL21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.45070035704476791</v>
       </c>
       <c r="DM21" s="2">
@@ -9528,42 +9686,54 @@
         <v>2</v>
       </c>
       <c r="DP21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.17544814393377201</v>
       </c>
       <c r="DQ21" s="2">
         <v>0.93379999999999996</v>
       </c>
       <c r="DR21">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.93492517765215333</v>
       </c>
       <c r="DT21" s="2">
         <v>2</v>
       </c>
       <c r="DU21" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.19670972302551248</v>
       </c>
       <c r="DV21" s="2">
         <v>0.93379999999999996</v>
       </c>
       <c r="DW21">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.93492517765215333</v>
       </c>
       <c r="GQ21" s="2">
-        <f>(1/GR20)/BH3</f>
-        <v>69.386622259228417</v>
+        <f t="shared" si="50"/>
+        <v>17.346655564807104</v>
       </c>
       <c r="GR21" s="2">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="GS21" s="2">
-        <v>0.29199999999999998</v>
+        <f t="shared" si="51"/>
+        <v>0.58132339804344513</v>
+      </c>
+      <c r="GT21" s="2">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="GU21" s="2">
+        <f>1-(GQ21/(55.51))/(GQ21/(55.51) +1)</f>
+        <v>0.76190705666722525</v>
+      </c>
+      <c r="GV21" s="2">
+        <f t="shared" si="53"/>
+        <v>0.92662220912905446</v>
       </c>
     </row>
-    <row r="22" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>341</v>
       </c>
@@ -9687,7 +9857,7 @@
         <v>5.5</v>
       </c>
       <c r="DL22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.47438963496360148</v>
       </c>
       <c r="DM22" s="2">
@@ -9697,32 +9867,54 @@
         <v>2.4</v>
       </c>
       <c r="DP22" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.20340052384381552</v>
       </c>
       <c r="DQ22" s="2">
         <v>0.94450000000000001</v>
       </c>
       <c r="DR22">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.92157439663809559</v>
       </c>
       <c r="DT22" s="2">
         <v>2.4</v>
       </c>
       <c r="DU22" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.22711646427423143</v>
       </c>
       <c r="DV22" s="2">
         <v>0.94450000000000001</v>
       </c>
       <c r="DW22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.92157439663809559</v>
       </c>
+      <c r="GQ22" s="2">
+        <f t="shared" si="50"/>
+        <v>18.503099269127578</v>
+      </c>
+      <c r="GR22" s="2">
+        <v>3</v>
+      </c>
+      <c r="GS22" s="2">
+        <f>$CS$3*GQ22/(1+$CS$3*GQ22)</f>
+        <v>0.59694379810273845</v>
+      </c>
+      <c r="GT22" s="2">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="GU22" s="2">
+        <f t="shared" si="52"/>
+        <v>0.75000237185249707</v>
+      </c>
+      <c r="GV22" s="2">
+        <f t="shared" si="53"/>
+        <v>0.92933039435384468</v>
+      </c>
     </row>
-    <row r="23" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>350</v>
       </c>
@@ -9839,7 +10031,7 @@
         <v>6</v>
       </c>
       <c r="DL23" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.49612012496220897</v>
       </c>
       <c r="DM23" s="2">
@@ -9849,32 +10041,54 @@
         <v>2.7</v>
       </c>
       <c r="DP23" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.22315193672106418</v>
       </c>
       <c r="DQ23" s="2">
         <v>0.95279999999999998</v>
       </c>
       <c r="DR23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.91147768727147049</v>
       </c>
       <c r="DT23" s="2">
         <v>2.7</v>
       </c>
       <c r="DU23" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.24845256382892372</v>
       </c>
       <c r="DV23" s="2">
         <v>0.95279999999999998</v>
       </c>
       <c r="DW23">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.91147768727147049</v>
       </c>
+      <c r="GQ23" s="2">
+        <f t="shared" si="50"/>
+        <v>19.141137174959567</v>
+      </c>
+      <c r="GR23" s="2">
+        <v>2.9</v>
+      </c>
+      <c r="GS23" s="2">
+        <f t="shared" si="51"/>
+        <v>0.60507308001950311</v>
+      </c>
+      <c r="GT23" s="2">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="GU23" s="2">
+        <f t="shared" si="52"/>
+        <v>0.74359215546712221</v>
+      </c>
+      <c r="GV23" s="2">
+        <f t="shared" si="53"/>
+        <v>0.9225487317964739</v>
+      </c>
     </row>
-    <row r="24" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9" t="s">
         <v>352</v>
       </c>
@@ -9933,32 +10147,54 @@
         <v>3</v>
       </c>
       <c r="DP24" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.24194758825625207</v>
       </c>
       <c r="DQ24" s="2">
         <v>0.96179999999999999</v>
       </c>
       <c r="DR24">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.90126166538009622</v>
       </c>
       <c r="DT24" s="2">
         <v>3</v>
       </c>
       <c r="DU24" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.26864230757979113</v>
       </c>
       <c r="DV24" s="2">
         <v>0.96179999999999999</v>
       </c>
       <c r="DW24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.90126166538009622</v>
       </c>
+      <c r="GQ24" s="2">
+        <f t="shared" si="50"/>
+        <v>19.824749216922406</v>
+      </c>
+      <c r="GR24" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="GS24" s="2">
+        <f t="shared" si="51"/>
+        <v>0.61342683067019199</v>
+      </c>
+      <c r="GT24" s="2">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="GU24" s="2">
+        <f t="shared" si="52"/>
+        <v>0.73684455814888161</v>
+      </c>
+      <c r="GV24" s="2">
+        <f t="shared" si="53"/>
+        <v>0.91742551739577649</v>
+      </c>
     </row>
-    <row r="25" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>383</v>
       </c>
@@ -10007,32 +10243,54 @@
         <v>3.4</v>
       </c>
       <c r="DP25" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.26563787428601643</v>
       </c>
       <c r="DQ25" s="2">
         <v>0.97419999999999995</v>
       </c>
       <c r="DR25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.88750605177911046</v>
       </c>
       <c r="DT25" s="2">
         <v>3.4</v>
       </c>
       <c r="DU25" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.29393290668052435</v>
       </c>
       <c r="DV25" s="2">
         <v>0.97419999999999995</v>
       </c>
       <c r="DW25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.88750605177911046</v>
       </c>
+      <c r="GQ25" s="2">
+        <f t="shared" si="50"/>
+        <v>20.558999187919532</v>
+      </c>
+      <c r="GR25" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="GS25" s="2">
+        <f t="shared" si="51"/>
+        <v>0.62201447738054993</v>
+      </c>
+      <c r="GT25" s="2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="GU25" s="2">
+        <f>1-(GQ25/(55.51))/(GQ25/(55.51) +1)</f>
+        <v>0.72973222459347808</v>
+      </c>
+      <c r="GV25" s="2">
+        <f t="shared" si="53"/>
+        <v>0.91129318068756071</v>
+      </c>
     </row>
-    <row r="26" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX26" s="2">
         <v>7.4950000000000001</v>
       </c>
@@ -10059,32 +10317,54 @@
         <v>3.7</v>
       </c>
       <c r="DP26" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.28245612398584147</v>
       </c>
       <c r="DQ26" s="2">
         <v>0.98360000000000003</v>
       </c>
       <c r="DR26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.87710984737211428</v>
       </c>
       <c r="DT26" s="2">
         <v>3.7</v>
       </c>
       <c r="DU26" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.31178201658880628</v>
       </c>
       <c r="DV26" s="2">
         <v>0.98360000000000003</v>
       </c>
       <c r="DW26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.87710984737211428</v>
       </c>
+      <c r="GQ26" s="2">
+        <f t="shared" si="50"/>
+        <v>21.349729925916435</v>
+      </c>
+      <c r="GR26" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="GS26" s="2">
+        <f t="shared" si="51"/>
+        <v>0.63084598288173266</v>
+      </c>
+      <c r="GT26" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="GU26" s="2">
+        <f t="shared" si="52"/>
+        <v>0.72222476000767877</v>
+      </c>
+      <c r="GV26" s="2">
+        <f t="shared" si="53"/>
+        <v>0.90553527961717439</v>
+      </c>
     </row>
-    <row r="27" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX27" s="2">
         <v>7.9480000000000004</v>
       </c>
@@ -10111,32 +10391,54 @@
         <v>4</v>
       </c>
       <c r="DP27" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.29852128286427793</v>
       </c>
       <c r="DQ27" s="2">
         <v>0.99250000000000005</v>
       </c>
       <c r="DR27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.8667217477376794</v>
       </c>
       <c r="DT27" s="2">
         <v>4</v>
       </c>
       <c r="DU27" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.32875093974868436</v>
       </c>
       <c r="DV27" s="2">
         <v>0.99250000000000005</v>
       </c>
       <c r="DW27">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.8667217477376794</v>
       </c>
+      <c r="GQ27" s="2">
+        <f t="shared" si="50"/>
+        <v>22.203719122953096</v>
+      </c>
+      <c r="GR27" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="GS27" s="2">
+        <f t="shared" si="51"/>
+        <v>0.63993188386678979</v>
+      </c>
+      <c r="GT27" s="2">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="GU27" s="2">
+        <f t="shared" si="52"/>
+        <v>0.71428829589504061</v>
+      </c>
+      <c r="GV27" s="2">
+        <f t="shared" si="53"/>
+        <v>0.90299673634128541</v>
+      </c>
     </row>
-    <row r="28" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX28" s="2">
         <v>7.9969999999999999</v>
       </c>
@@ -10163,32 +10465,54 @@
         <v>4.5</v>
       </c>
       <c r="DP28" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.32375545644816078</v>
       </c>
       <c r="DQ28" s="2">
         <v>1.0089999999999999</v>
       </c>
       <c r="DR28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.8490882556844872</v>
       </c>
       <c r="DT28" s="2">
         <v>4.5</v>
       </c>
       <c r="DU28" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.35524636036570428</v>
       </c>
       <c r="DV28" s="2">
         <v>1.0089999999999999</v>
       </c>
       <c r="DW28">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.8490882556844872</v>
       </c>
+      <c r="GQ28" s="2">
+        <f t="shared" si="50"/>
+        <v>23.128874086409475</v>
+      </c>
+      <c r="GR28" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="GS28" s="2">
+        <f t="shared" si="51"/>
+        <v>0.64928333292774931</v>
+      </c>
+      <c r="GT28" s="2">
+        <v>0.629</v>
+      </c>
+      <c r="GU28" s="2">
+        <f t="shared" si="52"/>
+        <v>0.70588497921530324</v>
+      </c>
+      <c r="GV28" s="2">
+        <f t="shared" si="53"/>
+        <v>0.89108001802110537</v>
+      </c>
     </row>
-    <row r="29" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX29" s="2">
         <v>8.9870000000000001</v>
       </c>
@@ -10215,32 +10539,54 @@
         <v>5</v>
       </c>
       <c r="DP29" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.34723718137014914</v>
       </c>
       <c r="DQ29" s="2">
         <v>1.0249999999999999</v>
       </c>
       <c r="DR29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.83139404553783947</v>
       </c>
       <c r="DT29" s="2">
         <v>5</v>
       </c>
       <c r="DU29" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.37972956208907077</v>
       </c>
       <c r="DV29" s="2">
         <v>1.0249999999999999</v>
       </c>
       <c r="DW29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.83139404553783947</v>
       </c>
+      <c r="GQ29" s="2">
+        <f t="shared" si="50"/>
+        <v>24.134477307557713</v>
+      </c>
+      <c r="GR29" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="GS29" s="2">
+        <f t="shared" si="51"/>
+        <v>0.65891214422423905</v>
+      </c>
+      <c r="GT29" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="GU29" s="2">
+        <f>1-(GQ29/(55.51))/(GQ29/(55.51) +1)</f>
+        <v>0.69697236866331325</v>
+      </c>
+      <c r="GV29" s="2">
+        <f t="shared" si="53"/>
+        <v>0.88956180743444035</v>
+      </c>
     </row>
-    <row r="30" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX30" s="2">
         <v>9.9670000000000005</v>
       </c>
@@ -10267,32 +10613,32 @@
         <v>5.5</v>
       </c>
       <c r="DP30" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.36914288598203948</v>
       </c>
       <c r="DQ30" s="2">
         <v>1.0411999999999999</v>
       </c>
       <c r="DR30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.81356716887718761</v>
       </c>
       <c r="DT30" s="2">
         <v>5.5</v>
       </c>
       <c r="DU30" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.40242138853366155</v>
       </c>
       <c r="DV30" s="2">
         <v>1.0411999999999999</v>
       </c>
       <c r="DW30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.81356716887718761</v>
       </c>
     </row>
-    <row r="31" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX31" s="2">
         <v>11.013</v>
       </c>
@@ -10319,32 +10665,32 @@
         <v>6</v>
       </c>
       <c r="DP31" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.38962608493963408</v>
       </c>
       <c r="DQ31" s="2">
         <v>1.0569999999999999</v>
       </c>
       <c r="DR31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.79572679892361964</v>
       </c>
       <c r="DT31" s="2">
         <v>6</v>
       </c>
       <c r="DU31" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.42351150671032606</v>
       </c>
       <c r="DV31" s="2">
         <v>1.0569999999999999</v>
       </c>
       <c r="DW31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.79572679892361964</v>
       </c>
     </row>
-    <row r="32" spans="1:201" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:204" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AX32" s="2">
         <v>11.999000000000001</v>
       </c>
@@ -10371,28 +10717,28 @@
         <v>6.5</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>0.40882098212570239</v>
       </c>
       <c r="DQ32" s="2">
         <v>1.0745</v>
       </c>
       <c r="DR32">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.77752510639851602</v>
       </c>
       <c r="DT32" s="2">
         <v>6.5</v>
       </c>
       <c r="DU32" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0.44316372100275075</v>
       </c>
       <c r="DV32" s="2">
         <v>1.0745</v>
       </c>
       <c r="DW32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0.77752510639851602</v>
       </c>
     </row>

--- a/data/sources_list_.xlsx
+++ b/data/sources_list_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://office365stanford-my.sharepoint.com/personal/peterbaz_stanford_edu/Documents/DiazMarin2026/hygroscopic-salts-main/hygroscopic-salts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="854" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09375291-F4F8-4C11-91EA-E90996A29A5B}"/>
+  <xr:revisionPtr revIDLastSave="868" documentId="13_ncr:1_{B1905FFE-40A5-1548-B975-09D0200E2583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3A7AB8-C2BC-47E3-9A02-F0B8310E5627}"/>
   <bookViews>
-    <workbookView xWindow="4356" yWindow="414" windowWidth="18612" windowHeight="11826" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16575" yWindow="525" windowWidth="11745" windowHeight="13950" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="454">
   <si>
     <t xml:space="preserve">Data Source </t>
   </si>
@@ -1395,6 +1395,9 @@
   </si>
   <si>
     <t>mass frac</t>
+  </si>
+  <si>
+    <t>NOT USED</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1510,9 +1513,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2245,15 +2245,15 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="25.41796875" style="2" customWidth="1"/>
-    <col min="5" max="8" width="13.15625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="25.41796875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="25.41796875" style="2"/>
+    <col min="1" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="13.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="25.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>43</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>46</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="160" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -2509,10 +2509,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -2547,7 +2547,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
@@ -2564,12 +2564,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>76</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -2621,10 +2621,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
     </row>
@@ -2658,18 +2658,18 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.41796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.41796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.41796875" style="2" customWidth="1"/>
-    <col min="7" max="9" width="13.15625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.41796875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="25.41796875" style="2"/>
+    <col min="1" max="3" width="25.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="25.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>95</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>101</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>104</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="320.10000000000002" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="320.10000000000002" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>107</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -2800,10 +2800,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>116</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="64" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>121</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>126</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>405</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>408</v>
       </c>
@@ -2961,15 +2961,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.41796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.15625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.41796875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="25.41796875" style="2"/>
+    <col min="1" max="2" width="25.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="25.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>90</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="112" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>131</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>132</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>404</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>386</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>388</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>392</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>394</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>396</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>397</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>399</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>401</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>405</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>410</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>412</v>
       </c>
@@ -3170,24 +3170,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:KQ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KD7" zoomScale="89" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="KI11" sqref="KI11"/>
+    <sheetView tabSelected="1" topLeftCell="KE1" zoomScale="74" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="KQ6" sqref="KQ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.41796875" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="48.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.41796875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="7.41796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="20.41796875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.41796875" style="2" customWidth="1"/>
-    <col min="8" max="13" width="8.41796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.41796875" style="6" customWidth="1"/>
-    <col min="15" max="312" width="8.41796875" style="2" customWidth="1"/>
-    <col min="313" max="16384" width="20.41796875" style="2"/>
+    <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="7.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="2" customWidth="1"/>
+    <col min="8" max="13" width="8.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="6" customWidth="1"/>
+    <col min="15" max="312" width="8.42578125" style="2" customWidth="1"/>
+    <col min="313" max="16384" width="20.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:303" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:303" s="1" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3378,34 +3378,34 @@
       <c r="GW1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="GX1" s="12">
+      <c r="GX1" s="2">
         <v>117.48902</v>
       </c>
-      <c r="HC1" s="12">
+      <c r="HC1" s="2">
         <v>132.05625000000001</v>
       </c>
-      <c r="HD1" s="12"/>
-      <c r="HE1" s="12"/>
-      <c r="HF1" s="12"/>
-      <c r="HG1" s="12"/>
-      <c r="HH1" s="12"/>
-      <c r="HI1" s="12"/>
-      <c r="HJ1" s="12">
+      <c r="HD1" s="2"/>
+      <c r="HE1" s="2"/>
+      <c r="HF1" s="2"/>
+      <c r="HG1" s="2"/>
+      <c r="HH1" s="2"/>
+      <c r="HI1" s="2"/>
+      <c r="HJ1" s="2">
         <v>180.16593</v>
       </c>
-      <c r="HK1" s="12"/>
-      <c r="HL1" s="12"/>
-      <c r="HM1" s="12"/>
-      <c r="HN1" s="12"/>
-      <c r="HO1" s="12"/>
-      <c r="HP1" s="12"/>
-      <c r="HQ1" s="12">
+      <c r="HK1" s="2"/>
+      <c r="HL1" s="2"/>
+      <c r="HM1" s="2"/>
+      <c r="HN1" s="2"/>
+      <c r="HO1" s="2"/>
+      <c r="HP1" s="2"/>
+      <c r="HQ1" s="2">
         <v>154.26661999999999</v>
       </c>
-      <c r="HR1" s="12"/>
-      <c r="HS1" s="12"/>
-      <c r="HT1" s="12"/>
-      <c r="HU1" s="12"/>
+      <c r="HR1" s="2"/>
+      <c r="HS1" s="2"/>
+      <c r="HT1" s="2"/>
+      <c r="HU1" s="2"/>
       <c r="HX1" s="1">
         <v>190.05117000000001</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>223.20616999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>90</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>0.22320616999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>8.0043000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>180</v>
       </c>
@@ -4063,9 +4063,11 @@
       <c r="KO4" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="KP4" s="1"/>
+      <c r="KP4" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="5" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="S5" s="2" t="s">
         <v>207</v>
       </c>
@@ -4091,7 +4093,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>209</v>
       </c>
@@ -4197,8 +4199,11 @@
       <c r="BH6" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="KO6" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="7" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O7" s="2">
         <v>0.1</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>251</v>
       </c>
@@ -5649,7 +5654,7 @@
         <v>0.96079999999999999</v>
       </c>
       <c r="JX8" s="2">
-        <f>$JU$2*JU8/(1+$JU$2*JU8)</f>
+        <f t="shared" ref="JX8:JX41" si="43">$JU$2*JU8/(1+$JU$2*JU8)</f>
         <v>2.9373263578830926E-4</v>
       </c>
       <c r="JY8" s="2">
@@ -5705,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>258</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>0.3</v>
       </c>
       <c r="CR9" s="2">
-        <f t="shared" ref="CR9:CR18" si="43">$BW$3*CQ9/(1+$BW$3*CQ9)</f>
+        <f t="shared" ref="CR9:CR18" si="44">$BW$3*CQ9/(1+$BW$3*CQ9)</f>
         <v>4.5694604446998244E-2</v>
       </c>
       <c r="CS9" s="2">
@@ -5975,7 +5980,7 @@
         <v>0.2</v>
       </c>
       <c r="DL9" s="2">
-        <f t="shared" ref="DL9:DL23" si="44">$CB$3*DK9/(1+$CB$3*DK9)</f>
+        <f t="shared" ref="DL9:DL23" si="45">$CB$3*DK9/(1+$CB$3*DK9)</f>
         <v>3.1777076354059755E-2</v>
       </c>
       <c r="DM9" s="2">
@@ -6118,7 +6123,7 @@
         <v>1.37</v>
       </c>
       <c r="FK9">
-        <f t="shared" ref="FK9:FK15" si="45">EXP(-3*FH9*FJ9/55.51)</f>
+        <f t="shared" ref="FK9:FK15" si="46">EXP(-3*FH9*FJ9/55.51)</f>
         <v>0.91241312533455632</v>
       </c>
       <c r="FM9" s="2">
@@ -6132,7 +6137,7 @@
         <v>1.25</v>
       </c>
       <c r="FP9">
-        <f t="shared" ref="FP9:FP12" si="46">EXP(-3*FM9*FO9/55.51)</f>
+        <f t="shared" ref="FP9:FP12" si="47">EXP(-3*FM9*FO9/55.51)</f>
         <v>0.90583229140256794</v>
       </c>
       <c r="FR9" s="2">
@@ -6146,7 +6151,7 @@
         <v>0.82</v>
       </c>
       <c r="FU9">
-        <f t="shared" ref="FU9:FU15" si="47">EXP(-3*FR9*FT9/55.51)</f>
+        <f t="shared" ref="FU9:FU15" si="48">EXP(-3*FR9*FT9/55.51)</f>
         <v>0.96213593702938704</v>
       </c>
       <c r="FW9" s="2">
@@ -6160,7 +6165,7 @@
         <v>1.29</v>
       </c>
       <c r="FZ9">
-        <f t="shared" ref="FZ9:FZ15" si="48">EXP(-3*FW9*FY9/55.51)</f>
+        <f t="shared" ref="FZ9:FZ15" si="49">EXP(-3*FW9*FY9/55.51)</f>
         <v>0.9318126616980742</v>
       </c>
       <c r="GB9" s="2">
@@ -6174,7 +6179,7 @@
         <v>1.37</v>
       </c>
       <c r="GE9">
-        <f t="shared" ref="GE9:GE15" si="49">EXP(-3*GB9*GD9/55.51)</f>
+        <f t="shared" ref="GE9:GE15" si="50">EXP(-3*GB9*GD9/55.51)</f>
         <v>0.91065836619725982</v>
       </c>
       <c r="GG9" s="2">
@@ -6188,7 +6193,7 @@
         <v>1.27</v>
       </c>
       <c r="GJ9">
-        <f t="shared" ref="GJ9:GJ12" si="50">EXP(-3*GG9*GI9/55.51)</f>
+        <f t="shared" ref="GJ9:GJ12" si="51">EXP(-3*GG9*GI9/55.51)</f>
         <v>0.95060792696283825</v>
       </c>
       <c r="GL9" s="2">
@@ -6202,29 +6207,29 @@
         <v>1.19</v>
       </c>
       <c r="GO9">
-        <f t="shared" ref="GO9:GO15" si="51">EXP(-3*GL9*GN9/55.51)</f>
+        <f t="shared" ref="GO9:GO15" si="52">EXP(-3*GL9*GN9/55.51)</f>
         <v>0.92186580697230458</v>
       </c>
       <c r="GQ9" s="2">
-        <f t="shared" ref="GQ9:GQ29" si="52">(1/GR9)/$BH$3</f>
+        <f t="shared" ref="GQ9:GQ29" si="53">(1/GR9)/$BH$3</f>
         <v>2.6432998955896538</v>
       </c>
       <c r="GR9" s="2">
         <v>21</v>
       </c>
       <c r="GS9" s="2">
-        <f t="shared" ref="GS9:GS29" si="53">$CS$3*GQ9/(1+$CS$3*GQ9)</f>
+        <f t="shared" ref="GS9:GS29" si="54">$CS$3*GQ9/(1+$CS$3*GQ9)</f>
         <v>0.17462987446493788</v>
       </c>
       <c r="GT9" s="2">
         <v>0.93</v>
       </c>
       <c r="GU9" s="2">
-        <f t="shared" ref="GU9:GU28" si="54">1-(GQ9/(55.51))/(GQ9/(55.51) +1)</f>
+        <f t="shared" ref="GU9:GU28" si="55">1-(GQ9/(55.51))/(GQ9/(55.51) +1)</f>
         <v>0.95454600340246343</v>
       </c>
       <c r="GV9" s="2">
-        <f t="shared" ref="GV9:GV29" si="55">GT9/GU9</f>
+        <f t="shared" ref="GV9:GV29" si="56">GT9/GU9</f>
         <v>0.97428515407851524</v>
       </c>
       <c r="GX9" s="2">
@@ -6234,11 +6239,11 @@
         <v>0.879</v>
       </c>
       <c r="GZ9" s="2">
-        <f t="shared" ref="GZ9:GZ23" si="56">$GX$2*GX9/(1+$GX$2*GX9)</f>
+        <f t="shared" ref="GZ9:GZ23" si="57">$GX$2*GX9/(1+$GX$2*GX9)</f>
         <v>2.295833357743091E-2</v>
       </c>
       <c r="HA9" s="2">
-        <f t="shared" ref="HA9:HA23" si="57">EXP(-2*GX9*GY9/55.51)</f>
+        <f t="shared" ref="HA9:HA23" si="58">EXP(-2*GX9*GY9/55.51)</f>
         <v>0.99368602357845226</v>
       </c>
       <c r="HC9" s="2">
@@ -6251,7 +6256,7 @@
         <v>0.94279999999999997</v>
       </c>
       <c r="HF9" s="2">
-        <f t="shared" ref="HF9:HF41" si="58">$HC$2*HC9/(1+$HC$2*HC9)</f>
+        <f t="shared" ref="HF9:HF41" si="59">$HC$2*HC9/(1+$HC$2*HC9)</f>
         <v>2.6404276300575567E-4</v>
       </c>
       <c r="HG9" s="2">
@@ -6270,7 +6275,7 @@
         <v>0.94430000000000003</v>
       </c>
       <c r="HM9" s="2">
-        <f t="shared" ref="HM9:HM42" si="59">$HJ$2*HJ9/(1+$HJ$2*HJ9)</f>
+        <f t="shared" ref="HM9:HM42" si="60">$HJ$2*HJ9/(1+$HJ$2*HJ9)</f>
         <v>3.6020206771896298E-4</v>
       </c>
       <c r="HN9" s="2">
@@ -6289,7 +6294,7 @@
         <v>0.94750000000000001</v>
       </c>
       <c r="HT9" s="2">
-        <f t="shared" ref="HT9:HT47" si="60">$HQ$2*HQ9/(1+$HQ$2*HQ9)</f>
+        <f t="shared" ref="HT9:HT47" si="61">$HQ$2*HQ9/(1+$HQ$2*HQ9)</f>
         <v>3.08438076600887E-4</v>
       </c>
       <c r="HU9" s="2">
@@ -6308,7 +6313,7 @@
         <v>0.95050000000000001</v>
       </c>
       <c r="IA9" s="2">
-        <f t="shared" ref="IA9:IA41" si="61">$HX$2*HX9/(1+$HX$2*HX9)</f>
+        <f t="shared" ref="IA9:IA41" si="62">$HX$2*HX9/(1+$HX$2*HX9)</f>
         <v>3.7995791710660626E-4</v>
       </c>
       <c r="IB9" s="2">
@@ -6327,7 +6332,7 @@
         <v>0.95050000000000001</v>
       </c>
       <c r="IH9" s="2">
-        <f t="shared" ref="IH9:IH53" si="62">$IE$2*IE9/(1+$IE$2*IE9)</f>
+        <f t="shared" ref="IH9:IH53" si="63">$IE$2*IE9/(1+$IE$2*IE9)</f>
         <v>3.8025079433177988E-4</v>
       </c>
       <c r="II9" s="2">
@@ -6346,7 +6351,7 @@
         <v>0.9506</v>
       </c>
       <c r="IO9" s="2">
-        <f t="shared" ref="IO9:IO39" si="63">$IL$2*IL9/(1+$IL$2*IL9)</f>
+        <f t="shared" ref="IO9:IO39" si="64">$IL$2*IL9/(1+$IL$2*IL9)</f>
         <v>4.7625439367784457E-4</v>
       </c>
       <c r="IP9" s="2">
@@ -6365,7 +6370,7 @@
         <v>0.94750000000000001</v>
       </c>
       <c r="IV9" s="2">
-        <f t="shared" ref="IV9:IV48" si="64">$IS$2*IS9/(1+$IS$2*IS9)</f>
+        <f t="shared" ref="IV9:IV48" si="65">$IS$2*IS9/(1+$IS$2*IS9)</f>
         <v>3.1611987662319337E-4</v>
       </c>
       <c r="IW9" s="2">
@@ -6384,7 +6389,7 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="JC9" s="2">
-        <f t="shared" ref="JC9:JC43" si="65">$IZ$2*IZ9/(1+$IZ$2*IZ9)</f>
+        <f t="shared" ref="JC9:JC43" si="66">$IZ$2*IZ9/(1+$IZ$2*IZ9)</f>
         <v>3.1996954672004101E-4</v>
       </c>
       <c r="JD9" s="2">
@@ -6403,7 +6408,7 @@
         <v>0.95069999999999999</v>
       </c>
       <c r="JJ9" s="2">
-        <f t="shared" ref="JJ9:JJ43" si="66">$JG$2*JG9/(1+$JG$2*JG9)</f>
+        <f t="shared" ref="JJ9:JJ43" si="67">$JG$2*JG9/(1+$JG$2*JG9)</f>
         <v>5.640902625820588E-4</v>
       </c>
       <c r="JK9" s="2">
@@ -6422,7 +6427,7 @@
         <v>0.95069999999999999</v>
       </c>
       <c r="JQ9" s="2">
-        <f t="shared" ref="JQ9:JQ38" si="67">$JN$2*JN9/(1+$JN$2*JN9)</f>
+        <f t="shared" ref="JQ9:JQ38" si="68">$JN$2*JN9/(1+$JN$2*JN9)</f>
         <v>3.7547328685667917E-4</v>
       </c>
       <c r="JR9" s="2">
@@ -6441,7 +6446,7 @@
         <v>0.9466</v>
       </c>
       <c r="JX9" s="2">
-        <f>$JU$2*JU9/(1+$JU$2*JU9)</f>
+        <f t="shared" si="43"/>
         <v>5.8729276452491516E-4</v>
       </c>
       <c r="JY9" s="2">
@@ -6460,7 +6465,7 @@
         <v>0.94720000000000004</v>
       </c>
       <c r="KE9" s="2">
-        <f t="shared" ref="KE9:KE45" si="68">$KB$2*KB9/(1+$KB$2*KB9)</f>
+        <f t="shared" ref="KE9:KE45" si="69">$KB$2*KB9/(1+$KB$2*KB9)</f>
         <v>3.8822993897677467E-4</v>
       </c>
       <c r="KF9" s="2">
@@ -6479,25 +6484,25 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="KL9" s="2">
-        <f t="shared" ref="KL9:KL30" si="69">$KI$2*KI9/(1+$KI$2*KI9)</f>
+        <f t="shared" ref="KL9:KL30" si="70">$KI$2*KI9/(1+$KI$2*KI9)</f>
         <v>1.9212064435437017E-2</v>
       </c>
       <c r="KM9" s="2">
-        <f t="shared" ref="KM9:KM30" si="70">EXP(-2*KI9*KK9/55.51)</f>
+        <f t="shared" ref="KM9:KM30" si="71">EXP(-2*KI9*KK9/55.51)</f>
         <v>0.99340680678913751</v>
       </c>
       <c r="KO9" s="2">
         <v>0.127</v>
       </c>
       <c r="KP9" s="2">
-        <f t="shared" ref="KP9:KP14" si="71">$KO$2*KO9/(1+$KO$2*KO9)</f>
+        <f t="shared" ref="KP9:KP14" si="72">$KO$2*KO9/(1+$KO$2*KO9)</f>
         <v>2.7565771601609175E-2</v>
       </c>
       <c r="KQ9" s="2">
         <v>1.004</v>
       </c>
     </row>
-    <row r="10" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O10" s="2">
         <v>3</v>
       </c>
@@ -6708,7 +6713,7 @@
         <v>0.4</v>
       </c>
       <c r="CR10" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>6.001206342918277E-2</v>
       </c>
       <c r="CS10" s="2">
@@ -6758,7 +6763,7 @@
         <v>0.3</v>
       </c>
       <c r="DL10" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>4.6920122375456279E-2</v>
       </c>
       <c r="DM10" s="2">
@@ -6796,7 +6801,7 @@
         <v>0.4</v>
       </c>
       <c r="DZ10" s="2">
-        <f t="shared" ref="DZ10:DZ13" si="72">$CE$3*DY10/(1+$CE$3*DY10)</f>
+        <f t="shared" ref="DZ10:DZ13" si="73">$CE$3*DY10/(1+$CE$3*DY10)</f>
         <v>4.6729328325484737E-2</v>
       </c>
       <c r="EA10" s="2">
@@ -6901,7 +6906,7 @@
         <v>1.47</v>
       </c>
       <c r="FK10">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.87304187908091491</v>
       </c>
       <c r="FM10" s="2">
@@ -6915,7 +6920,7 @@
         <v>1.37</v>
       </c>
       <c r="FP10">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.87037916747218236</v>
       </c>
       <c r="FR10" s="2">
@@ -6929,7 +6934,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="FU10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.92438373590379708</v>
       </c>
       <c r="FW10" s="2">
@@ -6943,7 +6948,7 @@
         <v>1.22</v>
       </c>
       <c r="FZ10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.91513716422800773</v>
       </c>
       <c r="GB10" s="2">
@@ -6957,7 +6962,7 @@
         <v>1.42</v>
       </c>
       <c r="GE10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.88894167468778684</v>
       </c>
       <c r="GG10" s="2">
@@ -6971,7 +6976,7 @@
         <v>1.2</v>
       </c>
       <c r="GJ10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.93872580476906919</v>
       </c>
       <c r="GL10" s="2">
@@ -6985,29 +6990,29 @@
         <v>1.24</v>
       </c>
       <c r="GO10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.907704307439411</v>
       </c>
       <c r="GQ10" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>3.5812450198311443</v>
       </c>
       <c r="GR10" s="2">
         <v>15.5</v>
       </c>
       <c r="GS10" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.22279003160527228</v>
       </c>
       <c r="GT10" s="2">
         <v>0.91</v>
       </c>
       <c r="GU10" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.93939465958740132</v>
       </c>
       <c r="GV10" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.96870893475133024</v>
       </c>
       <c r="GX10" s="2">
@@ -7017,11 +7022,11 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="GZ10" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.4046672928993604E-2</v>
       </c>
       <c r="HA10" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.99073673953203889</v>
       </c>
       <c r="HC10" s="2">
@@ -7034,7 +7039,7 @@
         <v>0.93089999999999995</v>
       </c>
       <c r="HF10" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3.9601186247545796E-4</v>
       </c>
       <c r="HG10" s="2">
@@ -7053,7 +7058,7 @@
         <v>0.93310000000000004</v>
       </c>
       <c r="HM10" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>5.4020580995357489E-4</v>
       </c>
       <c r="HN10" s="2">
@@ -7072,7 +7077,7 @@
         <v>0.93759999999999999</v>
       </c>
       <c r="HT10" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4.6258577536792173E-4</v>
       </c>
       <c r="HU10" s="2">
@@ -7091,7 +7096,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="IA10" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5.6982862021208761E-4</v>
       </c>
       <c r="IB10" s="2">
@@ -7110,7 +7115,7 @@
         <v>0.94189999999999996</v>
       </c>
       <c r="IH10" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5.7026776911157657E-4</v>
       </c>
       <c r="II10" s="2">
@@ -7129,7 +7134,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="IO10" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.1421151733019482E-4</v>
       </c>
       <c r="IP10" s="2">
@@ -7148,7 +7153,7 @@
         <v>0.93759999999999999</v>
       </c>
       <c r="IV10" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.7410487794702849E-4</v>
       </c>
       <c r="IW10" s="2">
@@ -7167,7 +7172,7 @@
         <v>0.9345</v>
       </c>
       <c r="JC10" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4.7987754697946739E-4</v>
       </c>
       <c r="JD10" s="2">
@@ -7186,7 +7191,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="JJ10" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>8.4589681279546467E-4</v>
       </c>
       <c r="JK10" s="2">
@@ -7205,7 +7210,7 @@
         <v>0.94230000000000003</v>
       </c>
       <c r="JQ10" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>5.6310421498979607E-4</v>
       </c>
       <c r="JR10" s="2">
@@ -7224,7 +7229,7 @@
         <v>0.93630000000000002</v>
       </c>
       <c r="JX10" s="2">
-        <f>$JU$2*JU10/(1+$JU$2*JU10)</f>
+        <f t="shared" si="43"/>
         <v>8.8068053813342097E-4</v>
       </c>
       <c r="JY10" s="2">
@@ -7243,7 +7248,7 @@
         <v>0.93720000000000003</v>
       </c>
       <c r="KE10" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>5.8223188853988295E-4</v>
       </c>
       <c r="KF10" s="2">
@@ -7262,25 +7267,25 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="KL10" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2.8543903001305552E-2</v>
       </c>
       <c r="KM10" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.99018004162224837</v>
       </c>
       <c r="KO10" s="2">
         <v>0.25600000000000001</v>
       </c>
       <c r="KP10" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>5.4052194964936504E-2</v>
       </c>
       <c r="KQ10" s="2">
         <v>1.002</v>
       </c>
     </row>
-    <row r="11" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>267</v>
       </c>
@@ -7503,7 +7508,7 @@
         <v>0.5</v>
       </c>
       <c r="CR11" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>7.3906262458854816E-2</v>
       </c>
       <c r="CS11" s="2">
@@ -7553,7 +7558,7 @@
         <v>0.4</v>
       </c>
       <c r="DL11" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6.1596786907398379E-2</v>
       </c>
       <c r="DM11" s="2">
@@ -7591,7 +7596,7 @@
         <v>0.5</v>
       </c>
       <c r="DZ11" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>5.7737155779604719E-2</v>
       </c>
       <c r="EA11" s="2">
@@ -7696,7 +7701,7 @@
         <v>1.71</v>
       </c>
       <c r="FK11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.81195921311206065</v>
       </c>
       <c r="FM11" s="2">
@@ -7710,7 +7715,7 @@
         <v>1.38</v>
       </c>
       <c r="FP11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.8440673670140969</v>
       </c>
       <c r="FR11" s="2">
@@ -7724,7 +7729,7 @@
         <v>1.31</v>
       </c>
       <c r="FU11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.89905643086863507</v>
       </c>
       <c r="FW11" s="2">
@@ -7738,7 +7743,7 @@
         <v>1.36</v>
       </c>
       <c r="FZ11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.87956178088623849</v>
       </c>
       <c r="GB11" s="2">
@@ -7752,7 +7757,7 @@
         <v>1.6</v>
       </c>
       <c r="GE11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.84410112430152451</v>
       </c>
       <c r="GG11" s="2">
@@ -7766,7 +7771,7 @@
         <v>1.27</v>
       </c>
       <c r="GJ11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.92005259136495299</v>
       </c>
       <c r="GL11" s="2">
@@ -7780,29 +7785,29 @@
         <v>1.3</v>
       </c>
       <c r="GO11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.88704507129596977</v>
       </c>
       <c r="GQ11" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>4.6257748172818944</v>
       </c>
       <c r="GR11" s="2">
         <v>12</v>
       </c>
       <c r="GS11" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.27021196868575359</v>
       </c>
       <c r="GT11" s="2">
         <v>0.89</v>
       </c>
       <c r="GU11" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.92307782129128679</v>
       </c>
       <c r="GV11" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.96416572847020154</v>
       </c>
       <c r="GX11" s="2">
@@ -7812,11 +7817,11 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="GZ11" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.4886155816615425E-2</v>
       </c>
       <c r="HA11" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.9878531544285728</v>
       </c>
       <c r="HC11" s="2">
@@ -7829,7 +7834,7 @@
         <v>0.92110000000000003</v>
       </c>
       <c r="HF11" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>5.279461256577745E-4</v>
       </c>
       <c r="HG11" s="2">
@@ -7848,7 +7853,7 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="HM11" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>7.2014473781430838E-4</v>
       </c>
       <c r="HN11" s="2">
@@ -7867,7 +7872,7 @@
         <v>0.92979999999999996</v>
       </c>
       <c r="HT11" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>6.1668594377540902E-4</v>
       </c>
       <c r="HU11" s="2">
@@ -7886,7 +7891,7 @@
         <v>0.93540000000000001</v>
       </c>
       <c r="IA11" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>7.596272078415437E-4</v>
       </c>
       <c r="IB11" s="2">
@@ -7905,7 +7910,7 @@
         <v>0.93530000000000002</v>
       </c>
       <c r="IH11" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.6021251725001443E-4</v>
       </c>
       <c r="II11" s="2">
@@ -7924,7 +7929,7 @@
         <v>0.93559999999999999</v>
       </c>
       <c r="IO11" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>9.5205536680422408E-4</v>
       </c>
       <c r="IP11" s="2">
@@ -7943,7 +7948,7 @@
         <v>0.92969999999999997</v>
       </c>
       <c r="IV11" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>6.3203995285446952E-4</v>
       </c>
       <c r="IW11" s="2">
@@ -7962,7 +7967,7 @@
         <v>0.92579999999999996</v>
       </c>
       <c r="JC11" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>6.3973439791476015E-4</v>
       </c>
       <c r="JD11" s="2">
@@ -7981,7 +7986,7 @@
         <v>0.9355</v>
       </c>
       <c r="JJ11" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.1275444882976409E-3</v>
       </c>
       <c r="JK11" s="2">
@@ -8000,7 +8005,7 @@
         <v>0.93579999999999997</v>
       </c>
       <c r="JQ11" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>7.506647191639265E-4</v>
       </c>
       <c r="JR11" s="2">
@@ -8019,7 +8024,7 @@
         <v>0.92820000000000003</v>
       </c>
       <c r="JX11" s="2">
-        <f>$JU$2*JU11/(1+$JU$2*JU11)</f>
+        <f t="shared" si="43"/>
         <v>1.1738961083590871E-3</v>
       </c>
       <c r="JY11" s="2">
@@ -8038,7 +8043,7 @@
         <v>0.92930000000000001</v>
       </c>
       <c r="KE11" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7.761585499670593E-4</v>
       </c>
       <c r="KF11" s="2">
@@ -8057,25 +8062,25 @@
         <v>0.91</v>
       </c>
       <c r="KL11" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>3.7699837169959297E-2</v>
       </c>
       <c r="KM11" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.98697086956932889</v>
       </c>
       <c r="KO11" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="KP11" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>7.9701523684246697E-2</v>
       </c>
       <c r="KQ11" s="2">
         <v>0.95899999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>275</v>
       </c>
@@ -8295,7 +8300,7 @@
         <v>0.6</v>
       </c>
       <c r="CR12" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>8.7395697085313417E-2</v>
       </c>
       <c r="CS12" s="2">
@@ -8335,7 +8340,7 @@
         <v>0.5</v>
       </c>
       <c r="DL12" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>7.5828288896076887E-2</v>
       </c>
       <c r="DM12" s="2">
@@ -8373,7 +8378,7 @@
         <v>0.6</v>
       </c>
       <c r="DZ12" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>6.8493661099363778E-2</v>
       </c>
       <c r="EA12" s="2">
@@ -8478,7 +8483,7 @@
         <v>2.06</v>
       </c>
       <c r="FK12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.71430648117847162</v>
       </c>
       <c r="FM12" s="2">
@@ -8492,7 +8497,7 @@
         <v>1.75</v>
       </c>
       <c r="FP12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.75904549040402636</v>
       </c>
       <c r="FR12" s="2">
@@ -8506,7 +8511,7 @@
         <v>1.35</v>
       </c>
       <c r="FU12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.87712233019881447</v>
       </c>
       <c r="FW12" s="2">
@@ -8520,7 +8525,7 @@
         <v>1.54</v>
       </c>
       <c r="FZ12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.84694156155146061</v>
       </c>
       <c r="GB12" s="2">
@@ -8534,7 +8539,7 @@
         <v>1.79</v>
       </c>
       <c r="GE12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.79511207199004585</v>
       </c>
       <c r="GG12" s="2">
@@ -8548,7 +8553,7 @@
         <v>1.29</v>
       </c>
       <c r="GJ12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>0.90776710162251328</v>
       </c>
       <c r="GL12" s="2">
@@ -8562,29 +8567,29 @@
         <v>1.34</v>
       </c>
       <c r="GO12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.87220761153081561</v>
       </c>
       <c r="GQ12" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>5.7226080213796644</v>
       </c>
       <c r="GR12" s="2">
         <v>9.6999999999999993</v>
       </c>
       <c r="GS12" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.31415468123561313</v>
       </c>
       <c r="GT12" s="2">
         <v>0.87</v>
       </c>
       <c r="GU12" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.90654312781546742</v>
       </c>
       <c r="GV12" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.95968958707620799</v>
       </c>
       <c r="GX12" s="2">
@@ -8594,11 +8599,11 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="GZ12" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5.5485066930831127E-2</v>
       </c>
       <c r="HA12" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.98501700004425385</v>
       </c>
       <c r="HC12" s="2">
@@ -8611,7 +8616,7 @@
         <v>0.91259999999999997</v>
       </c>
       <c r="HF12" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6.5984556634464701E-4</v>
       </c>
       <c r="HG12" s="2">
@@ -8630,7 +8635,7 @@
         <v>0.91620000000000001</v>
       </c>
       <c r="HM12" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>9.000188863016596E-4</v>
       </c>
       <c r="HN12" s="2">
@@ -8649,7 +8654,7 @@
         <v>0.92330000000000001</v>
       </c>
       <c r="HT12" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>7.7073860380343854E-4</v>
       </c>
       <c r="HU12" s="2">
@@ -8668,7 +8673,7 @@
         <v>0.93</v>
       </c>
       <c r="IA12" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>9.4935372107283122E-4</v>
       </c>
       <c r="IB12" s="2">
@@ -8687,7 +8692,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="IH12" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.5008507991996608E-4</v>
       </c>
       <c r="II12" s="2">
@@ -8706,7 +8711,7 @@
         <v>0.93020000000000003</v>
       </c>
       <c r="IO12" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.1897860229631522E-3</v>
       </c>
       <c r="IP12" s="2">
@@ -8725,7 +8730,7 @@
         <v>0.92310000000000003</v>
       </c>
       <c r="IV12" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>7.8992512500839461E-4</v>
       </c>
       <c r="IW12" s="2">
@@ -8744,7 +8749,7 @@
         <v>0.91849999999999998</v>
       </c>
       <c r="JC12" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.9954012406348101E-4</v>
       </c>
       <c r="JD12" s="2">
@@ -8763,7 +8768,7 @@
         <v>0.93010000000000004</v>
       </c>
       <c r="JJ12" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.4090334234044544E-3</v>
       </c>
       <c r="JK12" s="2">
@@ -8782,7 +8787,7 @@
         <v>0.93049999999999999</v>
       </c>
       <c r="JQ12" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9.3815483902021666E-4</v>
       </c>
       <c r="JR12" s="2">
@@ -8801,7 +8806,7 @@
         <v>0.92130000000000001</v>
       </c>
       <c r="JX12" s="2">
-        <f>$JU$2*JU12/(1+$JU$2*JU12)</f>
+        <f t="shared" si="43"/>
         <v>1.4669396267690934E-3</v>
       </c>
       <c r="JY12" s="2">
@@ -8820,7 +8825,7 @@
         <v>0.92259999999999998</v>
       </c>
       <c r="KE12" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>9.7000996707644917E-4</v>
       </c>
       <c r="KF12" s="2">
@@ -8839,25 +8844,25 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="KL12" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.6684794177745598E-2</v>
       </c>
       <c r="KM12" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.98375792059632738</v>
       </c>
       <c r="KO12" s="2">
         <v>0.52300000000000002</v>
       </c>
       <c r="KP12" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.10453387413846615</v>
       </c>
       <c r="KQ12" s="2">
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>284</v>
       </c>
@@ -9077,7 +9082,7 @@
         <v>0.7</v>
       </c>
       <c r="CR13" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.10049780070812771</v>
       </c>
       <c r="CS13" s="2">
@@ -9117,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="DL13" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.14096727085301949</v>
       </c>
       <c r="DM13" s="2">
@@ -9127,7 +9132,7 @@
         <v>0.7</v>
       </c>
       <c r="DP13" s="2">
-        <f t="shared" ref="DP13:DP32" si="73">$CC$3*DO13/(1+$CC$3*DO13)</f>
+        <f t="shared" ref="DP13:DP32" si="74">$CC$3*DO13/(1+$CC$3*DO13)</f>
         <v>6.9311187903279087E-2</v>
       </c>
       <c r="DQ13" s="2">
@@ -9155,7 +9160,7 @@
         <v>0.7</v>
       </c>
       <c r="DZ13" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7.9007354126277282E-2</v>
       </c>
       <c r="EA13" s="2">
@@ -9247,7 +9252,7 @@
         <v>2.21</v>
       </c>
       <c r="FK13">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.66816342815893837</v>
       </c>
       <c r="FR13" s="2">
@@ -9261,7 +9266,7 @@
         <v>1.39</v>
       </c>
       <c r="FU13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.84683949529982472</v>
       </c>
       <c r="FW13" s="2">
@@ -9275,7 +9280,7 @@
         <v>1.62</v>
       </c>
       <c r="FZ13">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.81083836913062435</v>
       </c>
       <c r="GB13" s="2">
@@ -9289,7 +9294,7 @@
         <v>1.96</v>
       </c>
       <c r="GE13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.7329458308398954</v>
       </c>
       <c r="GL13" s="2">
@@ -9303,29 +9308,29 @@
         <v>1.37</v>
       </c>
       <c r="GO13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.8468587175998441</v>
       </c>
       <c r="GQ13" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.9386622259228421</v>
       </c>
       <c r="GR13" s="2">
         <v>8</v>
       </c>
       <c r="GS13" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.3570749856131476</v>
       </c>
       <c r="GT13" s="2">
         <v>0.85</v>
       </c>
       <c r="GU13" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.88889013825755647</v>
       </c>
       <c r="GV13" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.95624865595450215</v>
       </c>
       <c r="GX13" s="2">
@@ -9335,11 +9340,11 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="GZ13" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>6.5851327256930367E-2</v>
       </c>
       <c r="HA13" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.98213236945692517</v>
       </c>
       <c r="HC13" s="2">
@@ -9352,7 +9357,7 @@
         <v>0.90510000000000002</v>
       </c>
       <c r="HF13" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.9171019832073814E-4</v>
       </c>
       <c r="HG13" s="2">
@@ -9371,7 +9376,7 @@
         <v>0.9093</v>
       </c>
       <c r="HM13" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.0798282903909284E-3</v>
       </c>
       <c r="HN13" s="2">
@@ -9390,7 +9395,7 @@
         <v>0.91759999999999997</v>
       </c>
       <c r="HT13" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>9.2474377741854968E-4</v>
       </c>
       <c r="HU13" s="2">
@@ -9409,7 +9414,7 @@
         <v>0.9254</v>
       </c>
       <c r="IA13" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.1390082009526163E-3</v>
       </c>
       <c r="IB13" s="2">
@@ -9428,7 +9433,7 @@
         <v>0.9254</v>
       </c>
       <c r="IH13" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.1398854982630161E-3</v>
       </c>
       <c r="II13" s="2">
@@ -9447,7 +9452,7 @@
         <v>0.92569999999999997</v>
       </c>
       <c r="IO13" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.4274035665932507E-3</v>
       </c>
       <c r="IP13" s="2">
@@ -9466,7 +9471,7 @@
         <v>0.91739999999999999</v>
       </c>
       <c r="IV13" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>9.4776041805673134E-4</v>
       </c>
       <c r="IW13" s="2">
@@ -9485,7 +9490,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="JC13" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>9.5929474994749979E-4</v>
       </c>
       <c r="JD13" s="2">
@@ -9504,7 +9509,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="JJ13" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.6903637522804103E-3</v>
       </c>
       <c r="JK13" s="2">
@@ -9523,7 +9528,7 @@
         <v>0.92610000000000003</v>
       </c>
       <c r="JQ13" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.1255746141700677E-3</v>
       </c>
       <c r="JR13" s="2">
@@ -9542,7 +9547,7 @@
         <v>0.9153</v>
       </c>
       <c r="JX13" s="2">
-        <f>$JU$2*JU13/(1+$JU$2*JU13)</f>
+        <f t="shared" si="43"/>
         <v>1.7598112447527999E-3</v>
       </c>
       <c r="JY13" s="2">
@@ -9561,7 +9566,7 @@
         <v>0.91679999999999995</v>
       </c>
       <c r="KE13" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1637861836522013E-3</v>
       </c>
       <c r="KF13" s="2">
@@ -9580,25 +9585,25 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="KL13" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>5.5503518941707859E-2</v>
       </c>
       <c r="KM13" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.98054129945595747</v>
       </c>
       <c r="KO13" s="2">
         <v>1.097</v>
       </c>
       <c r="KP13" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.19669499014654782</v>
       </c>
       <c r="KQ13" s="2">
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>290</v>
       </c>
@@ -9803,7 +9808,7 @@
         <v>0.8</v>
       </c>
       <c r="CR14" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.11322901974349477</v>
       </c>
       <c r="CS14" s="2">
@@ -9843,7 +9848,7 @@
         <v>1.5</v>
       </c>
       <c r="DL14" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.19752838743329451</v>
       </c>
       <c r="DM14" s="2">
@@ -9853,7 +9858,7 @@
         <v>0.8</v>
       </c>
       <c r="DP14" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>7.843614299722057E-2</v>
       </c>
       <c r="DQ14" s="2">
@@ -9903,7 +9908,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="FK14">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.59280992485969486</v>
       </c>
       <c r="FR14" s="2">
@@ -9917,7 +9922,7 @@
         <v>1.54</v>
       </c>
       <c r="FU14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.79920829736841181</v>
       </c>
       <c r="FW14" s="2">
@@ -9931,7 +9936,7 @@
         <v>1.81</v>
       </c>
       <c r="FZ14">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.77119772580275148</v>
       </c>
       <c r="GB14" s="2">
@@ -9945,7 +9950,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="GE14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.65079087504023392</v>
       </c>
       <c r="GL14" s="2">
@@ -9959,29 +9964,29 @@
         <v>1.42</v>
       </c>
       <c r="GO14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.82523461455903513</v>
       </c>
       <c r="GQ14" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8.1631320304974615</v>
       </c>
       <c r="GR14" s="2">
         <v>6.8</v>
       </c>
       <c r="GS14" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.39518625490631709</v>
       </c>
       <c r="GT14" s="2">
         <v>0.83</v>
       </c>
       <c r="GU14" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.87179628565173184</v>
       </c>
       <c r="GV14" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.95205727950482599</v>
       </c>
       <c r="GX14" s="2">
@@ -9991,11 +9996,11 @@
         <v>0.82550000000000001</v>
       </c>
       <c r="GZ14" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>7.599251381701197E-2</v>
       </c>
       <c r="HA14" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.97939556096062719</v>
       </c>
       <c r="HC14" s="2">
@@ -10008,7 +10013,7 @@
         <v>0.89829999999999999</v>
       </c>
       <c r="HF14" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.235400353634352E-4</v>
       </c>
       <c r="HG14" s="2">
@@ -10027,7 +10032,7 @@
         <v>0.90310000000000001</v>
       </c>
       <c r="HM14" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.2595729850322416E-3</v>
       </c>
       <c r="HN14" s="2">
@@ -10046,7 +10051,7 @@
         <v>0.91259999999999997</v>
       </c>
       <c r="HT14" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.078701486573741E-3</v>
       </c>
       <c r="HU14" s="2">
@@ -10065,7 +10070,7 @@
         <v>0.92149999999999999</v>
       </c>
       <c r="IA14" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.3285906884964013E-3</v>
       </c>
       <c r="IB14" s="2">
@@ -10084,7 +10089,7 @@
         <v>0.9214</v>
       </c>
       <c r="IH14" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.32961381338949E-3</v>
       </c>
       <c r="II14" s="2">
@@ -10103,7 +10108,7 @@
         <v>0.92190000000000005</v>
       </c>
       <c r="IO14" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.6649080784039317E-3</v>
       </c>
       <c r="IP14" s="2">
@@ -10122,7 +10127,7 @@
         <v>0.91239999999999999</v>
       </c>
       <c r="IV14" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.1055458556324671E-3</v>
       </c>
       <c r="IW14" s="2">
@@ -10141,7 +10146,7 @@
         <v>0.90620000000000001</v>
       </c>
       <c r="JC14" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.1189983000730063E-3</v>
       </c>
       <c r="JD14" s="2">
@@ -10160,7 +10165,7 @@
         <v>0.92159999999999997</v>
       </c>
       <c r="JJ14" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.9715356089388659E-3</v>
       </c>
       <c r="JK14" s="2">
@@ -10179,7 +10184,7 @@
         <v>0.92230000000000001</v>
       </c>
       <c r="JQ14" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.3129240841951619E-3</v>
       </c>
       <c r="JR14" s="2">
@@ -10198,7 +10203,7 @@
         <v>0.91</v>
       </c>
       <c r="JX14" s="2">
-        <f>$JU$2*JU14/(1+$JU$2*JU14)</f>
+        <f t="shared" si="43"/>
         <v>2.0525111135220068E-3</v>
       </c>
       <c r="JY14" s="2">
@@ -10217,7 +10222,7 @@
         <v>0.91169999999999995</v>
       </c>
       <c r="KE14" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.3574872434445008E-3</v>
       </c>
       <c r="KF14" s="2">
@@ -10236,25 +10241,25 @@
         <v>0.91</v>
       </c>
       <c r="KL14" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>6.4160582415094633E-2</v>
       </c>
       <c r="KM14" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.97731054704451703</v>
       </c>
       <c r="KO14" s="2">
         <v>1.7509999999999999</v>
       </c>
       <c r="KP14" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.28100693730431126</v>
       </c>
       <c r="KQ14" s="2">
         <v>0.79</v>
       </c>
     </row>
-    <row r="15" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>297</v>
       </c>
@@ -10456,7 +10461,7 @@
         <v>0.9</v>
       </c>
       <c r="CR15" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.12560488249642324</v>
       </c>
       <c r="CS15" s="2">
@@ -10496,7 +10501,7 @@
         <v>2</v>
       </c>
       <c r="DL15" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.24710134015961449</v>
       </c>
       <c r="DM15" s="2">
@@ -10506,7 +10511,7 @@
         <v>0.9</v>
       </c>
       <c r="DP15" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>8.7383903824865328E-2</v>
       </c>
       <c r="DQ15" s="2">
@@ -10556,7 +10561,7 @@
         <v>2.7</v>
       </c>
       <c r="FK15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0.51137774732544228</v>
       </c>
       <c r="FR15" s="2">
@@ -10570,7 +10575,7 @@
         <v>1.87</v>
       </c>
       <c r="FU15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0.72346408296627762</v>
       </c>
       <c r="FW15" s="2">
@@ -10584,7 +10589,7 @@
         <v>2.09</v>
       </c>
       <c r="FZ15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0.68573655567773595</v>
       </c>
       <c r="GB15" s="2">
@@ -10598,7 +10603,7 @@
         <v>2.59</v>
       </c>
       <c r="GE15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.55892768292238448</v>
       </c>
       <c r="GL15" s="2">
@@ -10612,29 +10617,29 @@
         <v>1.6</v>
       </c>
       <c r="GO15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0.74540458635814377</v>
       </c>
       <c r="GQ15" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>9.3292937491399552</v>
       </c>
       <c r="GR15" s="2">
         <v>5.95</v>
       </c>
       <c r="GS15" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.4275064792523724</v>
       </c>
       <c r="GT15" s="2">
         <v>0.81</v>
       </c>
       <c r="GU15" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.85611666614947202</v>
       </c>
       <c r="GV15" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.9461327317024566</v>
       </c>
       <c r="GX15" s="2">
@@ -10644,11 +10649,11 @@
         <v>0.82</v>
       </c>
       <c r="GZ15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>8.5915878139921006E-2</v>
       </c>
       <c r="HA15" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.9766417469699995</v>
       </c>
       <c r="HC15" s="2">
@@ -10661,7 +10666,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="HF15" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1.0553350912428567E-3</v>
       </c>
       <c r="HG15" s="2">
@@ -10680,7 +10685,7 @@
         <v>0.89749999999999996</v>
       </c>
       <c r="HM15" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.4392530051505739E-3</v>
       </c>
       <c r="HN15" s="2">
@@ -10699,7 +10704,7 @@
         <v>0.90820000000000001</v>
       </c>
       <c r="HT15" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.2326117532084819E-3</v>
       </c>
       <c r="HU15" s="2">
@@ -10718,7 +10723,7 @@
         <v>0.91810000000000003</v>
       </c>
       <c r="IA15" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.5181012246885562E-3</v>
       </c>
       <c r="IB15" s="2">
@@ -10737,7 +10742,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="IH15" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.5192700663784846E-3</v>
       </c>
       <c r="II15" s="2">
@@ -10756,7 +10761,7 @@
         <v>0.91849999999999998</v>
       </c>
       <c r="IO15" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.9022996390278418E-3</v>
       </c>
       <c r="IP15" s="2">
@@ -10775,7 +10780,7 @@
         <v>0.90780000000000005</v>
       </c>
       <c r="IV15" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.263281461353663E-3</v>
       </c>
       <c r="IW15" s="2">
@@ -10794,7 +10799,7 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="JC15" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.278650798930523E-3</v>
       </c>
       <c r="JD15" s="2">
@@ -10813,7 +10818,7 @@
         <v>0.91810000000000003</v>
       </c>
       <c r="JJ15" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.2525491272422401E-3</v>
       </c>
       <c r="JK15" s="2">
@@ -10832,7 +10837,7 @@
         <v>0.91890000000000005</v>
       </c>
       <c r="JQ15" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.5002032886474916E-3</v>
       </c>
       <c r="JR15" s="2">
@@ -10851,7 +10856,7 @@
         <v>0.9052</v>
       </c>
       <c r="JX15" s="2">
-        <f>$JU$2*JU15/(1+$JU$2*JU15)</f>
+        <f t="shared" si="43"/>
         <v>2.3450393841112174E-3</v>
       </c>
       <c r="JY15" s="2">
@@ -10870,7 +10875,7 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="KE15" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.5511131901696017E-3</v>
       </c>
       <c r="KF15" s="2">
@@ -10889,15 +10894,15 @@
         <v>0.91</v>
       </c>
       <c r="KL15" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>7.2660389487532784E-2</v>
       </c>
       <c r="KM15" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.97411149737843716</v>
       </c>
     </row>
-    <row r="16" spans="1:303" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:303" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>304</v>
       </c>
@@ -11086,7 +11091,7 @@
         <v>1</v>
       </c>
       <c r="CR16" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.13764006234517406</v>
       </c>
       <c r="CS16" s="2">
@@ -11126,7 +11131,7 @@
         <v>2.5</v>
       </c>
       <c r="DL16" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.29090586775394434</v>
       </c>
       <c r="DM16" s="2">
@@ -11136,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="DP16" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>9.6159582064190743E-2</v>
       </c>
       <c r="DQ16" s="2">
@@ -11162,25 +11167,25 @@
       </c>
       <c r="EB16"/>
       <c r="GQ16" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>10.674864962958218</v>
       </c>
       <c r="GR16" s="2">
         <v>5.2</v>
       </c>
       <c r="GS16" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.46075603985701208</v>
       </c>
       <c r="GT16" s="2">
         <v>0.79</v>
       </c>
       <c r="GU16" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.83871138863949279</v>
       </c>
       <c r="GV16" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.9419211551204647</v>
       </c>
       <c r="GX16" s="2">
@@ -11190,11 +11195,11 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="GZ16" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>9.5628363553686327E-2</v>
       </c>
       <c r="HA16" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.97388690379687926</v>
       </c>
       <c r="HC16" s="2">
@@ -11207,7 +11212,7 @@
         <v>0.88629999999999998</v>
       </c>
       <c r="HF16" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1.1870953797218544E-3</v>
       </c>
       <c r="HG16" s="2">
@@ -11226,7 +11231,7 @@
         <v>0.89229999999999998</v>
       </c>
       <c r="HM16" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.6188683856457726E-3</v>
       </c>
       <c r="HN16" s="2">
@@ -11245,7 +11250,7 @@
         <v>0.90410000000000001</v>
       </c>
       <c r="HT16" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.3864745992487224E-3</v>
       </c>
       <c r="HU16" s="2">
@@ -11264,7 +11269,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="IA16" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.7075398504823478E-3</v>
       </c>
       <c r="IB16" s="2">
@@ -11283,7 +11288,7 @@
         <v>0.91490000000000005</v>
       </c>
       <c r="IH16" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.7088542982778981E-3</v>
       </c>
       <c r="II16" s="2">
@@ -11302,7 +11307,7 @@
         <v>0.91549999999999998</v>
       </c>
       <c r="IO16" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.1395783290209507E-3</v>
       </c>
       <c r="IP16" s="2">
@@ -11321,7 +11326,7 @@
         <v>0.90369999999999995</v>
       </c>
       <c r="IV16" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.4209672588234631E-3</v>
       </c>
       <c r="IW16" s="2">
@@ -11340,7 +11345,7 @@
         <v>0.8962</v>
       </c>
       <c r="JC16" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.4382522709949167E-3</v>
       </c>
       <c r="JD16" s="2">
@@ -11359,7 +11364,7 @@
         <v>0.91490000000000005</v>
       </c>
       <c r="JJ16" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.5334044409022318E-3</v>
       </c>
       <c r="JK16" s="2">
@@ -11378,7 +11383,7 @@
         <v>0.91590000000000005</v>
       </c>
       <c r="JQ16" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.6874122670493864E-3</v>
       </c>
       <c r="JR16" s="2">
@@ -11397,7 +11402,7 @@
         <v>0.90090000000000003</v>
       </c>
       <c r="JX16" s="2">
-        <f>$JU$2*JU16/(1+$JU$2*JU16)</f>
+        <f t="shared" si="43"/>
         <v>2.6373962073778933E-3</v>
       </c>
       <c r="JY16" s="2">
@@ -11416,7 +11421,7 @@
         <v>0.90280000000000005</v>
       </c>
       <c r="KE16" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.7446640675098607E-3</v>
       </c>
       <c r="KF16" s="2">
@@ -11435,15 +11440,15 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="KL16" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>8.1007186458553412E-2</v>
       </c>
       <c r="KM16" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.97089143601521077</v>
       </c>
     </row>
-    <row r="17" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>312</v>
       </c>
@@ -11635,7 +11640,7 @@
         <v>1.2</v>
       </c>
       <c r="CR17" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.16074313576846283</v>
       </c>
       <c r="CS17" s="2">
@@ -11675,7 +11680,7 @@
         <v>3</v>
       </c>
       <c r="DL17" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.32989345305903639</v>
       </c>
       <c r="DM17" s="2">
@@ -11685,7 +11690,7 @@
         <v>1.2</v>
       </c>
       <c r="DP17" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.11321417296580201</v>
       </c>
       <c r="DQ17" s="2">
@@ -11711,25 +11716,25 @@
       </c>
       <c r="EB17"/>
       <c r="GQ17" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>11.937483399437147</v>
       </c>
       <c r="GR17" s="2">
         <v>4.6500000000000004</v>
       </c>
       <c r="GS17" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.48862496966811186</v>
       </c>
       <c r="GT17" s="2">
         <v>0.77</v>
       </c>
       <c r="GU17" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.82301069220416956</v>
       </c>
       <c r="GV17" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.93558930314477762</v>
       </c>
       <c r="GX17" s="2">
@@ -11739,11 +11744,11 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="GZ17" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.10513662138711662</v>
       </c>
       <c r="HA17" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.97120281484217019</v>
       </c>
       <c r="HC17" s="2">
@@ -11756,7 +11761,7 @@
         <v>0.88090000000000002</v>
       </c>
       <c r="HF17" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1.3188209145560219E-3</v>
       </c>
       <c r="HG17" s="2">
@@ -11775,7 +11780,7 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="HM17" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.7984191613925787E-3</v>
       </c>
       <c r="HN17" s="2">
@@ -11794,7 +11799,7 @@
         <v>0.90039999999999998</v>
       </c>
       <c r="HT17" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.5402900466069029E-3</v>
       </c>
       <c r="HU17" s="2">
@@ -11813,7 +11818,7 @@
         <v>0.91220000000000001</v>
       </c>
       <c r="IA17" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.8969066067999697E-3</v>
       </c>
       <c r="IB17" s="2">
@@ -11832,7 +11837,7 @@
         <v>0.91220000000000001</v>
       </c>
       <c r="IH17" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.898366550104459E-3</v>
       </c>
       <c r="II17" s="2">
@@ -11851,7 +11856,7 @@
         <v>0.91279999999999994</v>
       </c>
       <c r="IO17" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.3767442288626455E-3</v>
       </c>
       <c r="IP17" s="2">
@@ -11870,7 +11875,7 @@
         <v>0.89990000000000003</v>
       </c>
       <c r="IV17" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.5786032716301082E-3</v>
       </c>
       <c r="IW17" s="2">
@@ -11889,7 +11894,7 @@
         <v>0.89180000000000004</v>
       </c>
       <c r="JC17" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.5978027407254132E-3</v>
       </c>
       <c r="JD17" s="2">
@@ -11908,7 +11913,7 @@
         <v>0.91210000000000002</v>
       </c>
       <c r="JJ17" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.8141016834800272E-3</v>
       </c>
       <c r="JK17" s="2">
@@ -11927,7 +11932,7 @@
         <v>0.9133</v>
       </c>
       <c r="JQ17" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.8745510588935421E-3</v>
       </c>
       <c r="JR17" s="2">
@@ -11946,7 +11951,7 @@
         <v>0.89690000000000003</v>
       </c>
       <c r="JX17" s="2">
-        <f>$JU$2*JU17/(1+$JU$2*JU17)</f>
+        <f t="shared" si="43"/>
         <v>2.929581734002719E-3</v>
       </c>
       <c r="JY17" s="2">
@@ -11965,7 +11970,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="KE17" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.9381399191137694E-3</v>
       </c>
       <c r="KF17" s="2">
@@ -11984,15 +11989,15 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="KL17" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>8.9205068111112146E-2</v>
       </c>
       <c r="KM17" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.96764018174766664</v>
       </c>
     </row>
-    <row r="18" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="V18" s="2">
         <v>5</v>
       </c>
@@ -12162,7 +12167,7 @@
         <v>1.4</v>
       </c>
       <c r="CR18" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0.18264062071448259</v>
       </c>
       <c r="CS18" s="2">
@@ -12202,7 +12207,7 @@
         <v>3.5</v>
       </c>
       <c r="DL18" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.36481722615682666</v>
       </c>
       <c r="DM18" s="2">
@@ -12212,7 +12217,7 @@
         <v>1.4</v>
       </c>
       <c r="DP18" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.12963707606797881</v>
       </c>
       <c r="DQ18" s="2">
@@ -12238,25 +12243,25 @@
       </c>
       <c r="EB18"/>
       <c r="GQ18" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>13.705999458613022</v>
       </c>
       <c r="GR18" s="2">
         <v>4.05</v>
       </c>
       <c r="GS18" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.52314404058724051</v>
       </c>
       <c r="GT18" s="2">
         <v>0.75</v>
       </c>
       <c r="GU18" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.80198220692011568</v>
       </c>
       <c r="GV18" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.93518284262222595</v>
       </c>
       <c r="GX18" s="2">
@@ -12266,11 +12271,11 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="GZ18" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.12356568983481966</v>
       </c>
       <c r="HA18" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.96596121284483361</v>
       </c>
       <c r="HC18" s="2">
@@ -12283,7 +12288,7 @@
         <v>0.84</v>
       </c>
       <c r="HF18" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2.634167833480798E-3</v>
       </c>
       <c r="HG18" s="2">
@@ -12302,7 +12307,7 @@
         <v>0.8518</v>
       </c>
       <c r="HM18" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3.5903813122365258E-3</v>
       </c>
       <c r="HN18" s="2">
@@ -12321,7 +12326,7 @@
         <v>0.87429999999999997</v>
       </c>
       <c r="HT18" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>3.0758424037743409E-3</v>
       </c>
       <c r="HU18" s="2">
@@ -12340,7 +12345,7 @@
         <v>0.89459999999999995</v>
       </c>
       <c r="IA18" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3.7866303295103813E-3</v>
       </c>
       <c r="IB18" s="2">
@@ -12359,7 +12364,7 @@
         <v>0.89459999999999995</v>
       </c>
       <c r="IH18" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3.7895391658162221E-3</v>
       </c>
       <c r="II18" s="2">
@@ -12378,7 +12383,7 @@
         <v>0.89570000000000005</v>
       </c>
       <c r="IO18" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4.7422174198406726E-3</v>
       </c>
       <c r="IP18" s="2">
@@ -12397,7 +12402,7 @@
         <v>0.87290000000000001</v>
       </c>
       <c r="IV18" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3.1522304220031102E-3</v>
       </c>
       <c r="IW18" s="2">
@@ -12416,7 +12421,7 @@
         <v>0.85970000000000002</v>
       </c>
       <c r="JC18" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3.1905076795361587E-3</v>
       </c>
       <c r="JD18" s="2">
@@ -12435,7 +12440,7 @@
         <v>0.89349999999999996</v>
       </c>
       <c r="JJ18" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5.6124094760052479E-3</v>
       </c>
       <c r="JK18" s="2">
@@ -12454,7 +12459,7 @@
         <v>0.89680000000000004</v>
       </c>
       <c r="JQ18" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3.7420873839190869E-3</v>
       </c>
       <c r="JR18" s="2">
@@ -12473,7 +12478,7 @@
         <v>0.86860000000000004</v>
       </c>
       <c r="JX18" s="2">
-        <f>$JU$2*JU18/(1+$JU$2*JU18)</f>
+        <f t="shared" si="43"/>
         <v>5.8420487088189279E-3</v>
       </c>
       <c r="JY18" s="2">
@@ -12492,7 +12497,7 @@
         <v>0.87150000000000005</v>
       </c>
       <c r="KE18" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3.8687815981737852E-3</v>
       </c>
       <c r="KF18" s="2">
@@ -12511,15 +12516,15 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="KL18" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.10516974684718819</v>
       </c>
       <c r="KM18" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.96121185701281087</v>
       </c>
     </row>
-    <row r="19" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>324</v>
       </c>
@@ -12721,7 +12726,7 @@
         <v>4</v>
       </c>
       <c r="DL19" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.39628109152378649</v>
       </c>
       <c r="DM19" s="2">
@@ -12731,7 +12736,7 @@
         <v>1.6</v>
       </c>
       <c r="DP19" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.14546274901215495</v>
       </c>
       <c r="DQ19" s="2">
@@ -12756,25 +12761,25 @@
         <v>0.9481058402815703</v>
       </c>
       <c r="GQ19" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>15.002512920914251</v>
       </c>
       <c r="GR19" s="2">
         <v>3.7</v>
       </c>
       <c r="GS19" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.54562930091309736</v>
       </c>
       <c r="GT19" s="2">
         <v>0.73199999999999998</v>
       </c>
       <c r="GU19" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.78723616136414198</v>
       </c>
       <c r="GV19" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.92983533522084727</v>
       </c>
       <c r="GX19" s="2">
@@ -12784,11 +12789,11 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="GZ19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.14125100842464705</v>
       </c>
       <c r="HA19" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.96088637109727248</v>
       </c>
       <c r="HC19" s="2">
@@ -12801,7 +12806,7 @@
         <v>0.81140000000000001</v>
       </c>
       <c r="HF19" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3.9460544653503026E-3</v>
       </c>
       <c r="HG19" s="2">
@@ -12820,7 +12825,7 @@
         <v>0.8276</v>
       </c>
       <c r="HM19" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>5.3759211649115103E-3</v>
       </c>
       <c r="HN19" s="2">
@@ -12839,7 +12844,7 @@
         <v>0.85819999999999996</v>
       </c>
       <c r="HT19" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4.606678896516273E-3</v>
       </c>
       <c r="HU19" s="2">
@@ -12858,7 +12863,7 @@
         <v>0.88570000000000004</v>
       </c>
       <c r="IA19" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5.6692118894231171E-3</v>
       </c>
       <c r="IB19" s="2">
@@ -12877,7 +12882,7 @@
         <v>0.88570000000000004</v>
       </c>
       <c r="IH19" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5.6735586623440767E-3</v>
       </c>
       <c r="II19" s="2">
@@ -12896,7 +12901,7 @@
         <v>0.88739999999999997</v>
       </c>
       <c r="IO19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>7.0964995578494464E-3</v>
       </c>
       <c r="IP19" s="2">
@@ -12915,7 +12920,7 @@
         <v>0.85570000000000002</v>
       </c>
       <c r="IV19" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.7209049429144459E-3</v>
       </c>
       <c r="IW19" s="2">
@@ -12934,7 +12939,7 @@
         <v>0.83879999999999999</v>
       </c>
       <c r="JC19" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4.7781391744392667E-3</v>
       </c>
       <c r="JD19" s="2">
@@ -12953,7 +12958,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="JJ19" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>8.3950559681741851E-3</v>
       </c>
       <c r="JK19" s="2">
@@ -12972,7 +12977,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="JQ19" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>5.6026482761632468E-3</v>
       </c>
       <c r="JR19" s="2">
@@ -12991,7 +12996,7 @@
         <v>0.85089999999999999</v>
       </c>
       <c r="JX19" s="2">
-        <f>$JU$2*JU19/(1+$JU$2*JU19)</f>
+        <f t="shared" si="43"/>
         <v>8.7375504655207246E-3</v>
       </c>
       <c r="JY19" s="2">
@@ -13010,7 +13015,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="KE19" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>5.7919684667499952E-3</v>
       </c>
       <c r="KF19" s="2">
@@ -13029,15 +13034,15 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="KL19" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.12058439952640092</v>
       </c>
       <c r="KM19" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.95470239856898775</v>
       </c>
     </row>
-    <row r="20" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>331</v>
       </c>
@@ -13217,7 +13222,7 @@
         <v>4.5</v>
       </c>
       <c r="DL20" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.42477494319652565</v>
       </c>
       <c r="DM20" s="2">
@@ -13227,7 +13232,7 @@
         <v>1.8</v>
       </c>
       <c r="DP20" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.16072318804332683</v>
       </c>
       <c r="DQ20" s="2">
@@ -13252,25 +13257,25 @@
         <v>0.94153043639048362</v>
       </c>
       <c r="GQ20" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>16.326264060994923</v>
       </c>
       <c r="GR20" s="2">
         <v>3.4</v>
       </c>
       <c r="GS20" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.56649963905049039</v>
       </c>
       <c r="GT20" s="2">
         <v>0.71499999999999997</v>
       </c>
       <c r="GU20" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.77272949429646598</v>
       </c>
       <c r="GV20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.92529145746012187</v>
       </c>
       <c r="GX20" s="2">
@@ -13280,11 +13285,11 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="GZ20" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.15823671035566289</v>
       </c>
       <c r="HA20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.955865742023702</v>
       </c>
       <c r="HC20" s="2">
@@ -13297,7 +13302,7 @@
         <v>0.78890000000000005</v>
       </c>
       <c r="HF20" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>5.2544944467088723E-3</v>
       </c>
       <c r="HG20" s="2">
@@ -13316,7 +13321,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="HM20" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>7.1550731834275887E-3</v>
       </c>
       <c r="HN20" s="2">
@@ -13335,7 +13340,7 @@
         <v>0.84689999999999999</v>
       </c>
       <c r="HT20" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>6.1328212159977493E-3</v>
       </c>
       <c r="HU20" s="2">
@@ -13354,7 +13359,7 @@
         <v>0.88060000000000005</v>
       </c>
       <c r="IA20" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>7.544691700600464E-3</v>
       </c>
       <c r="IB20" s="2">
@@ -13373,7 +13378,7 @@
         <v>0.88080000000000003</v>
       </c>
       <c r="IH20" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.5504655467229899E-3</v>
       </c>
       <c r="II20" s="2">
@@ -13392,7 +13397,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="IO20" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>9.4396698727731362E-3</v>
       </c>
       <c r="IP20" s="2">
@@ -13411,7 +13416,7 @@
         <v>0.84319999999999995</v>
       </c>
       <c r="IV20" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>6.2846501785218372E-3</v>
       </c>
       <c r="IW20" s="2">
@@ -13430,7 +13435,7 @@
         <v>0.82340000000000002</v>
       </c>
       <c r="JC20" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>6.3607214285072737E-3</v>
       </c>
       <c r="JD20" s="2">
@@ -13449,7 +13454,7 @@
         <v>0.87660000000000005</v>
       </c>
       <c r="JJ20" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.1162172270586255E-2</v>
       </c>
       <c r="JK20" s="2">
@@ -13468,7 +13473,7 @@
         <v>0.8851</v>
       </c>
       <c r="JQ20" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>7.4562727436730154E-3</v>
       </c>
       <c r="JR20" s="2">
@@ -13487,7 +13492,7 @@
         <v>0.83819999999999995</v>
       </c>
       <c r="JX20" s="2">
-        <f>$JU$2*JU20/(1+$JU$2*JU20)</f>
+        <f t="shared" si="43"/>
         <v>1.1616234808075998E-2</v>
       </c>
       <c r="JY20" s="2">
@@ -13506,7 +13511,7 @@
         <v>0.84130000000000005</v>
       </c>
       <c r="KE20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7.7077436196683552E-3</v>
       </c>
       <c r="KF20" s="2">
@@ -13525,15 +13530,15 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="KL20" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.13547696959751918</v>
       </c>
       <c r="KM20" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.9482370230699626</v>
       </c>
     </row>
-    <row r="21" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>337</v>
       </c>
@@ -13647,7 +13652,7 @@
         <v>5</v>
       </c>
       <c r="DL21" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.45070035704476791</v>
       </c>
       <c r="DM21" s="2">
@@ -13657,7 +13662,7 @@
         <v>2</v>
       </c>
       <c r="DP21" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.17544814393377201</v>
       </c>
       <c r="DQ21" s="2">
@@ -13682,14 +13687,14 @@
         <v>0.93492517765215333</v>
       </c>
       <c r="GQ21" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>17.346655564807104</v>
       </c>
       <c r="GR21" s="2">
         <v>3.2</v>
       </c>
       <c r="GS21" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.58132339804344513</v>
       </c>
       <c r="GT21" s="2">
@@ -13700,7 +13705,7 @@
         <v>0.76190705666722525</v>
       </c>
       <c r="GV21" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.92662220912905446</v>
       </c>
       <c r="GX21" s="2">
@@ -13710,11 +13715,11 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="GZ21" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.17456350480652827</v>
       </c>
       <c r="HA21" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.95098098232144823</v>
       </c>
       <c r="HC21" s="2">
@@ -13727,7 +13732,7 @@
         <v>0.77039999999999997</v>
       </c>
       <c r="HF21" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6.5595013425417004E-3</v>
       </c>
       <c r="HG21" s="2">
@@ -13746,7 +13751,7 @@
         <v>0.79369999999999996</v>
       </c>
       <c r="HM21" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>8.927871585642606E-3</v>
       </c>
       <c r="HN21" s="2">
@@ -13765,7 +13770,7 @@
         <v>0.83830000000000005</v>
       </c>
       <c r="HT21" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>7.654290920559431E-3</v>
       </c>
       <c r="HU21" s="2">
@@ -13784,7 +13789,7 @@
         <v>0.87770000000000004</v>
       </c>
       <c r="IA21" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>9.4131098727671045E-3</v>
       </c>
       <c r="IB21" s="2">
@@ -13803,7 +13808,7 @@
         <v>0.878</v>
       </c>
       <c r="IH21" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>9.4203000207171844E-3</v>
       </c>
       <c r="II21" s="2">
@@ -13822,7 +13827,7 @@
         <v>0.88070000000000004</v>
       </c>
       <c r="IO21" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.1771806848352797E-2</v>
       </c>
       <c r="IP21" s="2">
@@ -13841,7 +13846,7 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="IV21" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>7.8434893265032848E-3</v>
       </c>
       <c r="IW21" s="2">
@@ -13860,7 +13865,7 @@
         <v>0.81130000000000002</v>
       </c>
       <c r="JC21" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.9382784911081299E-3</v>
       </c>
       <c r="JD21" s="2">
@@ -13879,7 +13884,7 @@
         <v>0.87209999999999999</v>
       </c>
       <c r="JJ21" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.3913888034434319E-2</v>
       </c>
       <c r="JK21" s="2">
@@ -13898,7 +13903,7 @@
         <v>0.88339999999999996</v>
       </c>
       <c r="JQ21" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9.3029995041819091E-3</v>
       </c>
       <c r="JR21" s="2">
@@ -13917,7 +13922,7 @@
         <v>0.8286</v>
       </c>
       <c r="JX21" s="2">
-        <f>$JU$2*JU21/(1+$JU$2*JU21)</f>
+        <f t="shared" si="43"/>
         <v>1.447824782849866E-2</v>
       </c>
       <c r="JY21" s="2">
@@ -13936,7 +13941,7 @@
         <v>0.83130000000000004</v>
       </c>
       <c r="KE21" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>9.6161498202297826E-3</v>
       </c>
       <c r="KF21" s="2">
@@ -13955,15 +13960,15 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="KL21" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.14987353918328328</v>
       </c>
       <c r="KM21" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.94177471304333682</v>
       </c>
     </row>
-    <row r="22" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>341</v>
       </c>
@@ -14087,7 +14092,7 @@
         <v>5.5</v>
       </c>
       <c r="DL22" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.47438963496360148</v>
       </c>
       <c r="DM22" s="2">
@@ -14097,7 +14102,7 @@
         <v>2.4</v>
       </c>
       <c r="DP22" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.20340052384381552</v>
       </c>
       <c r="DQ22" s="2">
@@ -14122,7 +14127,7 @@
         <v>0.92157439663809559</v>
       </c>
       <c r="GQ22" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>18.503099269127578</v>
       </c>
       <c r="GR22" s="2">
@@ -14136,11 +14141,11 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="GU22" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.75000237185249707</v>
       </c>
       <c r="GV22" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.92933039435384468</v>
       </c>
       <c r="GX22" s="2">
@@ -14150,11 +14155,11 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="GZ22" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.19026900267797472</v>
       </c>
       <c r="HA22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.94623027409842497</v>
       </c>
       <c r="HC22" s="2">
@@ -14167,7 +14172,7 @@
         <v>0.75449999999999995</v>
       </c>
       <c r="HF22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.861088646743607E-3</v>
       </c>
       <c r="HG22" s="2">
@@ -14186,7 +14191,7 @@
         <v>0.78069999999999995</v>
       </c>
       <c r="HM22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.0694350345455905E-2</v>
       </c>
       <c r="HN22" s="2">
@@ -14205,7 +14210,7 @@
         <v>0.83150000000000002</v>
       </c>
       <c r="HT22" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>9.1711094367327092E-3</v>
       </c>
       <c r="HU22" s="2">
@@ -14224,7 +14229,7 @@
         <v>0.87619999999999998</v>
       </c>
       <c r="IA22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.1274506214169488E-2</v>
       </c>
       <c r="IB22" s="2">
@@ -14243,7 +14248,7 @@
         <v>0.87670000000000003</v>
       </c>
       <c r="IH22" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.1283101983690477E-2</v>
       </c>
       <c r="II22" s="2">
@@ -14262,7 +14267,7 @@
         <v>0.87980000000000003</v>
       </c>
       <c r="IO22" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.4092988230949184E-2</v>
       </c>
       <c r="IP22" s="2">
@@ -14281,7 +14286,7 @@
         <v>0.82520000000000004</v>
       </c>
       <c r="IV22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>9.3974454392041825E-3</v>
       </c>
       <c r="IW22" s="2">
@@ -14300,7 +14305,7 @@
         <v>0.8014</v>
       </c>
       <c r="JC22" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>9.5108342591234164E-3</v>
       </c>
       <c r="JD22" s="2">
@@ -14319,7 +14324,7 @@
         <v>0.86880000000000002</v>
       </c>
       <c r="JJ22" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.6650331471754338E-2</v>
       </c>
       <c r="JK22" s="2">
@@ -14338,7 +14343,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="JQ22" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.1142866987805745E-2</v>
       </c>
       <c r="JR22" s="2">
@@ -14357,7 +14362,7 @@
         <v>0.82089999999999996</v>
       </c>
       <c r="JX22" s="2">
-        <f>$JU$2*JU22/(1+$JU$2*JU22)</f>
+        <f t="shared" si="43"/>
         <v>1.7323733931563161E-2</v>
       </c>
       <c r="JY22" s="2">
@@ -14376,7 +14381,7 @@
         <v>0.82320000000000004</v>
       </c>
       <c r="KE22" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.1517229503392019E-2</v>
       </c>
       <c r="KF22" s="2">
@@ -14395,15 +14400,15 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="KL22" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.16379848152159376</v>
       </c>
       <c r="KM22" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.93524860889286388</v>
       </c>
     </row>
-    <row r="23" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>350</v>
       </c>
@@ -14520,7 +14525,7 @@
         <v>6</v>
       </c>
       <c r="DL23" s="2">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0.49612012496220897</v>
       </c>
       <c r="DM23" s="2">
@@ -14530,7 +14535,7 @@
         <v>2.7</v>
       </c>
       <c r="DP23" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.22315193672106418</v>
       </c>
       <c r="DQ23" s="2">
@@ -14555,25 +14560,25 @@
         <v>0.91147768727147049</v>
       </c>
       <c r="GQ23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>19.141137174959567</v>
       </c>
       <c r="GR23" s="2">
         <v>2.9</v>
       </c>
       <c r="GS23" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.60507308001950311</v>
       </c>
       <c r="GT23" s="2">
         <v>0.68600000000000005</v>
       </c>
       <c r="GU23" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.74359215546712221</v>
       </c>
       <c r="GV23" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.9225487317964739</v>
       </c>
       <c r="GX23" s="2">
@@ -14583,11 +14588,11 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="GZ23" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0.19789974347085218</v>
       </c>
       <c r="HA23" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>0.9444046930725627</v>
       </c>
       <c r="HC23" s="2">
@@ -14600,7 +14605,7 @@
         <v>0.74050000000000005</v>
       </c>
       <c r="HF23" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.1592697825841566E-3</v>
       </c>
       <c r="HG23" s="2">
@@ -14619,7 +14624,7 @@
         <v>0.76939999999999997</v>
       </c>
       <c r="HM23" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.2454543194978606E-2</v>
       </c>
       <c r="HN23" s="2">
@@ -14638,7 +14643,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="HT23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.0683298060245537E-2</v>
       </c>
       <c r="HU23" s="2">
@@ -14657,7 +14662,7 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="IA23" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.3128920234403055E-2</v>
       </c>
       <c r="IB23" s="2">
@@ -14676,7 +14681,7 @@
         <v>0.87629999999999997</v>
       </c>
       <c r="IH23" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.3138911035444298E-2</v>
       </c>
       <c r="II23" s="2">
@@ -14695,7 +14700,7 @@
         <v>0.87990000000000002</v>
       </c>
       <c r="IO23" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.6403291038182395E-2</v>
       </c>
       <c r="IP23" s="2">
@@ -14714,7 +14719,7 @@
         <v>0.81830000000000003</v>
       </c>
       <c r="IV23" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.0946541424773663E-2</v>
       </c>
       <c r="IW23" s="2">
@@ -14733,7 +14738,7 @@
         <v>0.79310000000000003</v>
       </c>
       <c r="JC23" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.1078412478154998E-2</v>
       </c>
       <c r="JD23" s="2">
@@ -14752,7 +14757,7 @@
         <v>0.86639999999999995</v>
       </c>
       <c r="JJ23" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>1.9371629375338838E-2</v>
       </c>
       <c r="JK23" s="2">
@@ -14771,7 +14776,7 @@
         <v>0.88370000000000004</v>
       </c>
       <c r="JQ23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.2975913339708427E-2</v>
       </c>
       <c r="JR23" s="2">
@@ -14790,7 +14795,7 @@
         <v>0.81469999999999998</v>
       </c>
       <c r="JX23" s="2">
-        <f>$JU$2*JU23/(1+$JU$2*JU23)</f>
+        <f t="shared" si="43"/>
         <v>2.0152835859092128E-2</v>
       </c>
       <c r="JY23" s="2">
@@ -14809,7 +14814,7 @@
         <v>0.81630000000000003</v>
       </c>
       <c r="KE23" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.3411024778914954E-2</v>
       </c>
       <c r="KF23" s="2">
@@ -14828,15 +14833,15 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="KL23" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.19669357468728438</v>
       </c>
       <c r="KM23" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.91906428563337328</v>
       </c>
     </row>
-    <row r="24" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>352</v>
       </c>
@@ -14895,7 +14900,7 @@
         <v>3</v>
       </c>
       <c r="DP24" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.24194758825625207</v>
       </c>
       <c r="DQ24" s="2">
@@ -14920,25 +14925,25 @@
         <v>0.90126166538009622</v>
       </c>
       <c r="GQ24" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>19.824749216922406</v>
       </c>
       <c r="GR24" s="2">
         <v>2.8</v>
       </c>
       <c r="GS24" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.61342683067019199</v>
       </c>
       <c r="GT24" s="2">
         <v>0.67600000000000005</v>
       </c>
       <c r="GU24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.73684455814888161</v>
       </c>
       <c r="GV24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.91742551739577649</v>
       </c>
       <c r="HC24" s="2">
@@ -14951,7 +14956,7 @@
         <v>0.72809999999999997</v>
       </c>
       <c r="HF24" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1.0454058103169071E-2</v>
       </c>
       <c r="HG24" s="2">
@@ -14970,7 +14975,7 @@
         <v>0.75929999999999997</v>
       </c>
       <c r="HM24" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.4208483626680743E-2</v>
       </c>
       <c r="HN24" s="2">
@@ -14989,7 +14994,7 @@
         <v>0.82140000000000002</v>
       </c>
       <c r="HT24" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.2190877957019054E-2</v>
       </c>
       <c r="HU24" s="2">
@@ -15008,7 +15013,7 @@
         <v>0.87570000000000003</v>
       </c>
       <c r="IA24" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.4976391147207646E-2</v>
       </c>
       <c r="IB24" s="2">
@@ -15027,7 +15032,7 @@
         <v>0.87660000000000005</v>
       </c>
       <c r="IH24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.4987766479023784E-2</v>
       </c>
       <c r="II24" s="2">
@@ -15046,7 +15051,7 @@
         <v>0.88049999999999995</v>
       </c>
       <c r="IO24" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>1.8702791567450257E-2</v>
       </c>
       <c r="IP24" s="2">
@@ -15065,7 +15070,7 @@
         <v>0.81240000000000001</v>
       </c>
       <c r="IV24" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.2490800048290306E-2</v>
       </c>
       <c r="IW24" s="2">
@@ -15084,7 +15089,7 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="JC24" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.2641036743720217E-2</v>
       </c>
       <c r="JD24" s="2">
@@ -15103,7 +15108,7 @@
         <v>0.86470000000000002</v>
       </c>
       <c r="JJ24" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.2077907138320568E-2</v>
       </c>
       <c r="JK24" s="2">
@@ -15122,7 +15127,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="JQ24" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.4802176422738128E-2</v>
       </c>
       <c r="JR24" s="2">
@@ -15141,7 +15146,7 @@
         <v>0.80959999999999999</v>
       </c>
       <c r="JX24" s="2">
-        <f>$JU$2*JU24/(1+$JU$2*JU24)</f>
+        <f t="shared" si="43"/>
         <v>2.2965694713825608E-2</v>
       </c>
       <c r="JY24" s="2">
@@ -15160,7 +15165,7 @@
         <v>0.81030000000000002</v>
       </c>
       <c r="KE24" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.5297577434469797E-2</v>
       </c>
       <c r="KF24" s="2">
@@ -15179,15 +15184,15 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="KL24" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.22709852546861461</v>
       </c>
       <c r="KM24" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.90280215545979536</v>
       </c>
     </row>
-    <row r="25" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>383</v>
       </c>
@@ -15236,7 +15241,7 @@
         <v>3.4</v>
       </c>
       <c r="DP25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.26563787428601643</v>
       </c>
       <c r="DQ25" s="2">
@@ -15261,14 +15266,14 @@
         <v>0.88750605177911046</v>
       </c>
       <c r="GQ25" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>20.558999187919532</v>
       </c>
       <c r="GR25" s="2">
         <v>2.7</v>
       </c>
       <c r="GS25" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.62201447738054993</v>
       </c>
       <c r="GT25" s="2">
@@ -15279,7 +15284,7 @@
         <v>0.72973222459347808</v>
       </c>
       <c r="GV25" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.91129318068756071</v>
       </c>
       <c r="HC25" s="2">
@@ -15292,7 +15297,7 @@
         <v>0.71689999999999998</v>
       </c>
       <c r="HF25" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1.1745466891898112E-2</v>
       </c>
       <c r="HG25" s="2">
@@ -15311,7 +15316,7 @@
         <v>0.75009999999999999</v>
       </c>
       <c r="HM25" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.5956204895515601E-2</v>
       </c>
       <c r="HN25" s="2">
@@ -15330,7 +15335,7 @@
         <v>0.8175</v>
       </c>
       <c r="HT25" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.3693870164155122E-2</v>
       </c>
       <c r="HU25" s="2">
@@ -15349,7 +15354,7 @@
         <v>0.87629999999999997</v>
       </c>
       <c r="IA25" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.6816957873231651E-2</v>
       </c>
       <c r="IB25" s="2">
@@ -15368,7 +15373,7 @@
         <v>0.87739999999999996</v>
       </c>
       <c r="IH25" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.6829707323492399E-2</v>
       </c>
       <c r="II25" s="2">
@@ -15387,7 +15392,7 @@
         <v>0.88170000000000004</v>
       </c>
       <c r="IO25" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.0991565404327586E-2</v>
       </c>
       <c r="IP25" s="2">
@@ -15406,7 +15411,7 @@
         <v>0.80720000000000003</v>
       </c>
       <c r="IV25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.4030243932877304E-2</v>
       </c>
       <c r="IW25" s="2">
@@ -15425,7 +15430,7 @@
         <v>0.77990000000000004</v>
       </c>
       <c r="JC25" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.4198730502435813E-2</v>
       </c>
       <c r="JD25" s="2">
@@ -15444,7 +15449,7 @@
         <v>0.86339999999999995</v>
       </c>
       <c r="JJ25" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.4769288773432877E-2</v>
       </c>
       <c r="JK25" s="2">
@@ -15463,7 +15468,7 @@
         <v>0.88680000000000003</v>
       </c>
       <c r="JQ25" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.6621693820034283E-2</v>
       </c>
       <c r="JR25" s="2">
@@ -15482,7 +15487,7 @@
         <v>0.80520000000000003</v>
       </c>
       <c r="JX25" s="2">
-        <f>$JU$2*JU25/(1+$JU$2*JU25)</f>
+        <f t="shared" si="43"/>
         <v>2.5762449982880433E-2</v>
       </c>
       <c r="JY25" s="2">
@@ -15501,7 +15506,7 @@
         <v>0.80510000000000004</v>
       </c>
       <c r="KE25" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.7176928938712727E-2</v>
       </c>
       <c r="KF25" s="2">
@@ -15520,15 +15525,15 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="KL25" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.25528577583581297</v>
       </c>
       <c r="KM25" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.88665205248376588</v>
       </c>
     </row>
-    <row r="26" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>443</v>
       </c>
@@ -15564,7 +15569,7 @@
         <v>3.7</v>
       </c>
       <c r="DP26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.28245612398584147</v>
       </c>
       <c r="DQ26" s="2">
@@ -15589,25 +15594,25 @@
         <v>0.87710984737211428</v>
       </c>
       <c r="GQ26" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>21.349729925916435</v>
       </c>
       <c r="GR26" s="2">
         <v>2.6</v>
       </c>
       <c r="GS26" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.63084598288173266</v>
       </c>
       <c r="GT26" s="2">
         <v>0.65400000000000003</v>
       </c>
       <c r="GU26" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.72222476000767877</v>
       </c>
       <c r="GV26" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.90553527961717439</v>
       </c>
       <c r="HC26" s="2">
@@ -15620,7 +15625,7 @@
         <v>0.70679999999999998</v>
       </c>
       <c r="HF26" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>1.3033509362919299E-2</v>
       </c>
       <c r="HG26" s="2">
@@ -15639,7 +15644,7 @@
         <v>0.74170000000000003</v>
       </c>
       <c r="HM26" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>1.7697740021021445E-2</v>
       </c>
       <c r="HN26" s="2">
@@ -15658,7 +15663,7 @@
         <v>0.81420000000000003</v>
       </c>
       <c r="HT26" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>1.5192295590914865E-2</v>
       </c>
       <c r="HU26" s="2">
@@ -15677,7 +15682,7 @@
         <v>0.87729999999999997</v>
       </c>
       <c r="IA26" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1.8650659042765142E-2</v>
       </c>
       <c r="IB26" s="2">
@@ -15696,7 +15701,7 @@
         <v>0.87870000000000004</v>
       </c>
       <c r="IH26" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.8664772286675516E-2</v>
       </c>
       <c r="II26" s="2">
@@ -15715,7 +15720,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="IO26" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.3269687430848108E-2</v>
       </c>
       <c r="IP26" s="2">
@@ -15734,7 +15739,7 @@
         <v>0.80249999999999999</v>
       </c>
       <c r="IV26" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>1.556489556080724E-2</v>
       </c>
       <c r="IW26" s="2">
@@ -15753,7 +15758,7 @@
         <v>0.77449999999999997</v>
       </c>
       <c r="JC26" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>1.5751517053190594E-2</v>
       </c>
       <c r="JD26" s="2">
@@ -15772,7 +15777,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="JJ26" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>2.7445896931952821E-2</v>
       </c>
       <c r="JK26" s="2">
@@ -15791,7 +15796,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="JQ26" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1.8434502837605737E-2</v>
       </c>
       <c r="JR26" s="2">
@@ -15810,7 +15815,7 @@
         <v>0.80159999999999998</v>
       </c>
       <c r="JX26" s="2">
-        <f>$JU$2*JU26/(1+$JU$2*JU26)</f>
+        <f t="shared" si="43"/>
         <v>2.8543239560807742E-2</v>
       </c>
       <c r="JY26" s="2">
@@ -15829,7 +15834,7 @@
         <v>0.80049999999999999</v>
       </c>
       <c r="KE26" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1.9049120444323352E-2</v>
       </c>
       <c r="KF26" s="2">
@@ -15848,15 +15853,15 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="KL26" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.2814894229926086</v>
       </c>
       <c r="KM26" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.87066536871969902</v>
       </c>
     </row>
-    <row r="27" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>445</v>
       </c>
@@ -15892,7 +15897,7 @@
         <v>4</v>
       </c>
       <c r="DP27" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.29852128286427793</v>
       </c>
       <c r="DQ27" s="2">
@@ -15917,25 +15922,25 @@
         <v>0.8667217477376794</v>
       </c>
       <c r="GQ27" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>22.203719122953096</v>
       </c>
       <c r="GR27" s="2">
         <v>2.5</v>
       </c>
       <c r="GS27" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.63993188386678979</v>
       </c>
       <c r="GT27" s="2">
         <v>0.64500000000000002</v>
       </c>
       <c r="GU27" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.71428829589504061</v>
       </c>
       <c r="GV27" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.90299673634128541</v>
       </c>
       <c r="HC27" s="2">
@@ -15948,7 +15953,7 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="HF27" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>2.5731645088652336E-2</v>
       </c>
       <c r="HG27" s="2">
@@ -15967,7 +15972,7 @@
         <v>0.68120000000000003</v>
       </c>
       <c r="HM27" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3.4779953467629562E-2</v>
       </c>
       <c r="HN27" s="2">
@@ -15986,7 +15991,7 @@
         <v>0.79749999999999999</v>
       </c>
       <c r="HT27" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>2.9929887484167441E-2</v>
       </c>
       <c r="HU27" s="2">
@@ -16005,7 +16010,7 @@
         <v>0.89759999999999995</v>
       </c>
       <c r="IA27" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>3.6618361510297022E-2</v>
       </c>
       <c r="IB27" s="2">
@@ -16024,7 +16029,7 @@
         <v>0.90210000000000001</v>
       </c>
       <c r="IH27" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3.6645563475759077E-2</v>
       </c>
       <c r="II27" s="2">
@@ -16043,7 +16048,7 @@
         <v>0.90780000000000005</v>
       </c>
       <c r="IO27" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4.5481045156867614E-2</v>
       </c>
       <c r="IP27" s="2">
@@ -16062,7 +16067,7 @@
         <v>0.77190000000000003</v>
       </c>
       <c r="IV27" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>3.065268527662551E-2</v>
       </c>
       <c r="IW27" s="2">
@@ -16081,7 +16086,7 @@
         <v>0.74390000000000001</v>
       </c>
       <c r="JC27" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>3.1014508546120645E-2</v>
       </c>
       <c r="JD27" s="2">
@@ -16100,7 +16105,7 @@
         <v>0.86309999999999998</v>
       </c>
       <c r="JJ27" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>5.3425483548883247E-2</v>
       </c>
       <c r="JK27" s="2">
@@ -16119,7 +16124,7 @@
         <v>0.92230000000000001</v>
       </c>
       <c r="JQ27" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3.6201646323337902E-2</v>
       </c>
       <c r="JR27" s="2">
@@ -16138,7 +16143,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="JX27" s="2">
-        <f>$JU$2*JU27/(1+$JU$2*JU27)</f>
+        <f t="shared" si="43"/>
         <v>5.550226468455681E-2</v>
       </c>
       <c r="JY27" s="2">
@@ -16157,7 +16162,7 @@
         <v>0.77090000000000003</v>
       </c>
       <c r="KE27" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>3.738606915438502E-2</v>
       </c>
       <c r="KF27" s="2">
@@ -16176,15 +16181,15 @@
         <v>0.96799999999999997</v>
       </c>
       <c r="KL27" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.3059117361062817</v>
       </c>
       <c r="KM27" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.8547513298322934</v>
       </c>
     </row>
-    <row r="28" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX28" s="2">
         <v>7.9969999999999999</v>
       </c>
@@ -16211,7 +16216,7 @@
         <v>4.5</v>
       </c>
       <c r="DP28" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.32375545644816078</v>
       </c>
       <c r="DQ28" s="2">
@@ -16236,25 +16241,25 @@
         <v>0.8490882556844872</v>
       </c>
       <c r="GQ28" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>23.128874086409475</v>
       </c>
       <c r="GR28" s="2">
         <v>2.4</v>
       </c>
       <c r="GS28" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.64928333292774931</v>
       </c>
       <c r="GT28" s="2">
         <v>0.629</v>
       </c>
       <c r="GU28" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0.70588497921530324</v>
       </c>
       <c r="GV28" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.89108001802110537</v>
       </c>
       <c r="HC28" s="2">
@@ -16267,7 +16272,7 @@
         <v>0.59540000000000004</v>
       </c>
       <c r="HF28" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>3.8107187323214622E-2</v>
       </c>
       <c r="HG28" s="2">
@@ -16286,7 +16291,7 @@
         <v>0.63980000000000004</v>
       </c>
       <c r="HM28" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>5.1278203436727815E-2</v>
       </c>
       <c r="HN28" s="2">
@@ -16305,7 +16310,7 @@
         <v>0.79259999999999997</v>
       </c>
       <c r="HT28" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4.4232888537734098E-2</v>
       </c>
       <c r="HU28" s="2">
@@ -16324,7 +16329,7 @@
         <v>0.92459999999999998</v>
       </c>
       <c r="IA28" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5.3939946043413713E-2</v>
       </c>
       <c r="IB28" s="2">
@@ -16343,7 +16348,7 @@
         <v>0.93330000000000002</v>
       </c>
       <c r="IH28" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>5.3979294384270869E-2</v>
       </c>
       <c r="II28" s="2">
@@ -16362,7 +16367,7 @@
         <v>0.93720000000000003</v>
       </c>
       <c r="IO28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>6.6704668710405493E-2</v>
       </c>
       <c r="IP28" s="2">
@@ -16381,7 +16386,7 @@
         <v>0.754</v>
       </c>
       <c r="IV28" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>4.5284974873657208E-2</v>
       </c>
       <c r="IW28" s="2">
@@ -16400,7 +16405,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="JC28" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>4.5811354496411792E-2</v>
       </c>
       <c r="JD28" s="2">
@@ -16419,7 +16424,7 @@
         <v>0.87</v>
       </c>
       <c r="JJ28" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>7.8053210077849045E-2</v>
       </c>
       <c r="JK28" s="2">
@@ -16438,7 +16443,7 @@
         <v>0.96309999999999996</v>
       </c>
       <c r="JQ28" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>5.3337025419911581E-2</v>
       </c>
       <c r="JR28" s="2">
@@ -16457,7 +16462,7 @@
         <v>0.78129999999999999</v>
       </c>
       <c r="JX28" s="2">
-        <f>$JU$2*JU28/(1+$JU$2*JU28)</f>
+        <f t="shared" si="43"/>
         <v>8.10054053038093E-2</v>
       </c>
       <c r="JY28" s="2">
@@ -16476,7 +16481,7 @@
         <v>0.75429999999999997</v>
       </c>
       <c r="KE28" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>5.5050051220633993E-2</v>
       </c>
       <c r="KF28" s="2">
@@ -16495,15 +16500,15 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="KL28" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.32872838769721585</v>
       </c>
       <c r="KM28" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.83891656091088329</v>
       </c>
     </row>
-    <row r="29" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX29" s="2">
         <v>8.9870000000000001</v>
       </c>
@@ -16530,7 +16535,7 @@
         <v>5</v>
       </c>
       <c r="DP29" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.34723718137014914</v>
       </c>
       <c r="DQ29" s="2">
@@ -16555,14 +16560,14 @@
         <v>0.83139404553783947</v>
       </c>
       <c r="GQ29" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>24.134477307557713</v>
       </c>
       <c r="GR29" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="GS29" s="2">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.65891214422423905</v>
       </c>
       <c r="GT29" s="2">
@@ -16573,7 +16578,7 @@
         <v>0.69697236866331325</v>
       </c>
       <c r="GV29" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0.88956180743444035</v>
       </c>
       <c r="HC29" s="2">
@@ -16586,7 +16591,7 @@
         <v>0.56640000000000001</v>
       </c>
       <c r="HF29" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>5.0172275003621224E-2</v>
       </c>
       <c r="HG29" s="2">
@@ -16605,7 +16610,7 @@
         <v>0.60709999999999997</v>
       </c>
       <c r="HM29" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>6.7221931292888268E-2</v>
       </c>
       <c r="HN29" s="2">
@@ -16624,7 +16629,7 @@
         <v>0.79169999999999996</v>
       </c>
       <c r="HT29" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5.8120242645405391E-2</v>
       </c>
       <c r="HU29" s="2">
@@ -16643,7 +16648,7 @@
         <v>0.95320000000000005</v>
       </c>
       <c r="IA29" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>7.0649648645902896E-2</v>
       </c>
       <c r="IB29" s="2">
@@ -16662,7 +16667,7 @@
         <v>0.96709999999999996</v>
       </c>
       <c r="IH29" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>7.0700275517295449E-2</v>
       </c>
       <c r="II29" s="2">
@@ -16681,7 +16686,7 @@
         <v>0.96730000000000005</v>
       </c>
       <c r="IO29" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>8.7005011458707954E-2</v>
       </c>
       <c r="IP29" s="2">
@@ -16700,7 +16705,7 @@
         <v>0.74150000000000005</v>
       </c>
       <c r="IV29" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>5.9482084924463913E-2</v>
       </c>
       <c r="IW29" s="2">
@@ -16719,7 +16724,7 @@
         <v>0.72750000000000004</v>
       </c>
       <c r="JC29" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>6.0163088470705575E-2</v>
       </c>
       <c r="JD29" s="2">
@@ -16738,7 +16743,7 @@
         <v>0.879</v>
       </c>
       <c r="JJ29" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.10143191783988029</v>
       </c>
       <c r="JK29" s="2">
@@ -16757,7 +16762,7 @@
         <v>1.0065999999999999</v>
       </c>
       <c r="JQ29" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>6.9873747936589334E-2</v>
       </c>
       <c r="JR29" s="2">
@@ -16776,7 +16781,7 @@
         <v>0.78400000000000003</v>
       </c>
       <c r="JX29" s="2">
-        <f>$JU$2*JU29/(1+$JU$2*JU29)</f>
+        <f t="shared" si="43"/>
         <v>0.10516749521355882</v>
       </c>
       <c r="JY29" s="2">
@@ -16795,7 +16800,7 @@
         <v>0.74280000000000002</v>
       </c>
       <c r="KE29" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7.2077445930732231E-2</v>
       </c>
       <c r="KF29" s="2">
@@ -16814,15 +16819,15 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="KL29" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.35009268604414934</v>
       </c>
       <c r="KM29" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.8233306428123488</v>
       </c>
     </row>
-    <row r="30" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX30" s="2">
         <v>9.9670000000000005</v>
       </c>
@@ -16849,7 +16854,7 @@
         <v>5.5</v>
       </c>
       <c r="DP30" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.36914288598203948</v>
       </c>
       <c r="DQ30" s="2">
@@ -16883,7 +16888,7 @@
         <v>0.54449999999999998</v>
       </c>
       <c r="HF30" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>6.1938445573375467E-2</v>
       </c>
       <c r="HG30" s="2">
@@ -16902,7 +16907,7 @@
         <v>0.57989999999999997</v>
       </c>
       <c r="HM30" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>8.2638632005408885E-2</v>
       </c>
       <c r="HN30" s="2">
@@ -16921,7 +16926,7 @@
         <v>0.79269999999999996</v>
       </c>
       <c r="HT30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>7.1609808446087331E-2</v>
       </c>
       <c r="HU30" s="2">
@@ -16940,7 +16945,7 @@
         <v>0.98219999999999996</v>
       </c>
       <c r="IA30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>8.6779328539615827E-2</v>
       </c>
       <c r="IB30" s="2">
@@ -16959,7 +16964,7 @@
         <v>1.0022</v>
       </c>
       <c r="IH30" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>8.6840433748602397E-2</v>
       </c>
       <c r="II30" s="2">
@@ -16978,7 +16983,7 @@
         <v>0.99729999999999996</v>
       </c>
       <c r="IO30" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.10644103838235162</v>
       </c>
       <c r="IP30" s="2">
@@ -16997,7 +17002,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="IV30" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>7.3263145002363916E-2</v>
       </c>
       <c r="IW30" s="2">
@@ -17016,7 +17021,7 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="JC30" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>7.408949734253964E-2</v>
       </c>
       <c r="JD30" s="2">
@@ -17035,7 +17040,7 @@
         <v>0.88890000000000002</v>
       </c>
       <c r="JJ30" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.12365427474083478</v>
       </c>
       <c r="JK30" s="2">
@@ -17054,7 +17059,7 @@
         <v>1.0513999999999999</v>
       </c>
       <c r="JQ30" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>8.5842648033019497E-2</v>
       </c>
       <c r="JR30" s="2">
@@ -17073,7 +17078,7 @@
         <v>0.7893</v>
       </c>
       <c r="JX30" s="2">
-        <f>$JU$2*JU30/(1+$JU$2*JU30)</f>
+        <f t="shared" si="43"/>
         <v>0.12809160081309642</v>
       </c>
       <c r="JY30" s="2">
@@ -17092,7 +17097,7 @@
         <v>0.73409999999999997</v>
       </c>
       <c r="KE30" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8.8502056858913561E-2</v>
       </c>
       <c r="KF30" s="2">
@@ -17111,15 +17116,15 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="KL30" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>0.37013902430025059</v>
       </c>
       <c r="KM30" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.80803428967687863</v>
       </c>
     </row>
-    <row r="31" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX31" s="2">
         <v>11.013</v>
       </c>
@@ -17146,7 +17151,7 @@
         <v>6</v>
       </c>
       <c r="DP31" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.38962608493963408</v>
       </c>
       <c r="DQ31" s="2">
@@ -17180,7 +17185,7 @@
         <v>0.5272</v>
       </c>
       <c r="HF31" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>7.3416671782178797E-2</v>
       </c>
       <c r="HG31" s="2">
@@ -17199,7 +17204,7 @@
         <v>0.55669999999999997</v>
       </c>
       <c r="HM31" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>9.7554012380537389E-2</v>
       </c>
       <c r="HN31" s="2">
@@ -17218,7 +17223,7 @@
         <v>0.79449999999999998</v>
       </c>
       <c r="HT31" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>8.4718435941381884E-2</v>
       </c>
       <c r="HU31" s="2">
@@ -17237,7 +17242,7 @@
         <v>1.0113000000000001</v>
       </c>
       <c r="IA31" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.10235867090133394</v>
       </c>
       <c r="IB31" s="2">
@@ -17256,7 +17261,7 @@
         <v>1.0382</v>
       </c>
       <c r="IH31" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.10242951578248087</v>
       </c>
       <c r="II31" s="2">
@@ -17275,7 +17280,7 @@
         <v>1.0274000000000001</v>
       </c>
       <c r="IO31" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.1250667980876998</v>
       </c>
       <c r="IP31" s="2">
@@ -17294,7 +17299,7 @@
         <v>0.72470000000000001</v>
       </c>
       <c r="IV31" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>8.6646179677710905E-2</v>
       </c>
       <c r="IW31" s="2">
@@ -17313,7 +17318,7 @@
         <v>0.72870000000000001</v>
       </c>
       <c r="JC31" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>8.7609212310515175E-2</v>
       </c>
       <c r="JD31" s="2">
@@ -17332,7 +17337,7 @@
         <v>0.89939999999999998</v>
       </c>
       <c r="JJ31" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.14480400289743142</v>
       </c>
       <c r="JK31" s="2">
@@ -17351,7 +17356,7 @@
         <v>1.0972</v>
       </c>
       <c r="JQ31" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.10127247810101203</v>
       </c>
       <c r="JR31" s="2">
@@ -17370,7 +17375,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="JX31" s="2">
-        <f>$JU$2*JU31/(1+$JU$2*JU31)</f>
+        <f t="shared" si="43"/>
         <v>0.14987049076048475</v>
       </c>
       <c r="JY31" s="2">
@@ -17389,7 +17394,7 @@
         <v>0.72740000000000005</v>
       </c>
       <c r="KE31" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.10435533585718357</v>
       </c>
       <c r="KF31" s="2">
@@ -17399,7 +17404,7 @@
         <v>-4469</v>
       </c>
     </row>
-    <row r="32" spans="1:299" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:299" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX32" s="2">
         <v>11.999000000000001</v>
       </c>
@@ -17426,7 +17431,7 @@
         <v>6.5</v>
       </c>
       <c r="DP32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.40882098212570239</v>
       </c>
       <c r="DQ32" s="2">
@@ -17460,7 +17465,7 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="HF32" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>8.4617395816587074E-2</v>
       </c>
       <c r="HG32" s="2">
@@ -17479,7 +17484,7 @@
         <v>0.53669999999999995</v>
       </c>
       <c r="HM32" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.11199213410446858</v>
       </c>
       <c r="HN32" s="2">
@@ -17498,7 +17503,7 @@
         <v>0.79669999999999996</v>
       </c>
       <c r="HT32" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>9.7462036712619757E-2</v>
       </c>
       <c r="HU32" s="2">
@@ -17517,7 +17522,7 @@
         <v>1.0402</v>
       </c>
       <c r="IA32" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.11741536919584357</v>
       </c>
       <c r="IB32" s="2">
@@ -17536,7 +17541,7 @@
         <v>1.0746</v>
       </c>
       <c r="IH32" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.11749527112488546</v>
       </c>
       <c r="II32" s="2">
@@ -17555,7 +17560,7 @@
         <v>1.0577000000000001</v>
       </c>
       <c r="IO32" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.14293192474035177</v>
       </c>
       <c r="IP32" s="2">
@@ -17574,7 +17579,7 @@
         <v>0.71919999999999995</v>
       </c>
       <c r="IV32" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>9.9648187168995553E-2</v>
       </c>
       <c r="IW32" s="2">
@@ -17593,7 +17598,7 @@
         <v>0.7319</v>
       </c>
       <c r="JC32" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.10073979205719176</v>
       </c>
       <c r="JD32" s="2">
@@ -17612,7 +17617,7 @@
         <v>0.91020000000000001</v>
       </c>
       <c r="JJ32" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.16495693268720504</v>
       </c>
       <c r="JK32" s="2">
@@ -17631,7 +17636,7 @@
         <v>1.1437999999999999</v>
       </c>
       <c r="JQ32" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.11619008153652036</v>
       </c>
       <c r="JR32" s="2">
@@ -17650,7 +17655,7 @@
         <v>0.80359999999999998</v>
       </c>
       <c r="JX32" s="2">
-        <f>$JU$2*JU32/(1+$JU$2*JU32)</f>
+        <f t="shared" si="43"/>
         <v>0.17058789073681185</v>
       </c>
       <c r="JY32" s="2">
@@ -17669,7 +17674,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="KE32" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.11966658407143803</v>
       </c>
       <c r="KF32" s="2">
@@ -17679,7 +17684,7 @@
         <v>-5435</v>
       </c>
     </row>
-    <row r="33" spans="211:293" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="211:293" ht="15" x14ac:dyDescent="0.25">
       <c r="HC33" s="2">
         <v>0.8</v>
       </c>
@@ -17690,7 +17695,7 @@
         <v>0.50109999999999999</v>
       </c>
       <c r="HF33" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>9.5550560984764568E-2</v>
       </c>
       <c r="HG33" s="2">
@@ -17709,7 +17714,7 @@
         <v>0.51949999999999996</v>
       </c>
       <c r="HM33" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.12597554327140209</v>
       </c>
       <c r="HN33" s="2">
@@ -17728,7 +17733,7 @@
         <v>0.79910000000000003</v>
       </c>
       <c r="HT33" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.1098556483525899</v>
       </c>
       <c r="HU33" s="2">
@@ -17747,7 +17752,7 @@
         <v>1.0689</v>
       </c>
       <c r="IA33" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.13197528946141546</v>
       </c>
       <c r="IB33" s="2">
@@ -17766,7 +17771,7 @@
         <v>1.1113999999999999</v>
       </c>
       <c r="IH33" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.13206361693170857</v>
       </c>
       <c r="II33" s="2">
@@ -17785,7 +17790,7 @@
         <v>1.0885</v>
       </c>
       <c r="IO33" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.16008207973567931</v>
       </c>
       <c r="IP33" s="2">
@@ -17804,7 +17809,7 @@
         <v>0.71509999999999996</v>
       </c>
       <c r="IV33" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.11228521137043052</v>
       </c>
       <c r="IW33" s="2">
@@ -17823,7 +17828,7 @@
         <v>0.73619999999999997</v>
       </c>
       <c r="JC33" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.11349779882921852</v>
       </c>
       <c r="JD33" s="2">
@@ -17842,7 +17847,7 @@
         <v>0.92130000000000001</v>
       </c>
       <c r="JJ33" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.18418191119576011</v>
       </c>
       <c r="JK33" s="2">
@@ -17861,7 +17866,7 @@
         <v>1.1911</v>
       </c>
       <c r="JQ33" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.1306205485859453</v>
       </c>
       <c r="JR33" s="2">
@@ -17880,7 +17885,7 @@
         <v>0.81169999999999998</v>
       </c>
       <c r="JX33" s="2">
-        <f>$JU$2*JU33/(1+$JU$2*JU33)</f>
+        <f t="shared" si="43"/>
         <v>0.19031955910581069</v>
       </c>
       <c r="JY33" s="2">
@@ -17899,7 +17904,7 @@
         <v>0.71779999999999999</v>
       </c>
       <c r="KE33" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.13446313268563848</v>
       </c>
       <c r="KF33" s="2">
@@ -17909,7 +17914,7 @@
         <v>-6434</v>
       </c>
     </row>
-    <row r="34" spans="211:293" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="211:293" ht="15" x14ac:dyDescent="0.25">
       <c r="HC34" s="2">
         <v>0.9</v>
       </c>
@@ -17920,7 +17925,7 @@
         <v>0.4909</v>
       </c>
       <c r="HF34" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.10622564115741545</v>
       </c>
       <c r="HG34" s="2">
@@ -17939,7 +17944,7 @@
         <v>0.50470000000000004</v>
       </c>
       <c r="HM34" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.13952538786329832</v>
       </c>
       <c r="HN34" s="2">
@@ -17958,7 +17963,7 @@
         <v>0.80169999999999997</v>
       </c>
       <c r="HT34" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.12191349366053768</v>
       </c>
       <c r="HU34" s="2">
@@ -17977,7 +17982,7 @@
         <v>1.0972</v>
       </c>
       <c r="IA34" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.14606261859797245</v>
       </c>
       <c r="IB34" s="2">
@@ -17996,7 +18001,7 @@
         <v>1.1485000000000001</v>
       </c>
       <c r="IH34" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.14615878679437022</v>
       </c>
       <c r="II34" s="2">
@@ -18015,7 +18020,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="IO34" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.17655934138199036</v>
       </c>
       <c r="IP34" s="2">
@@ -18034,7 +18039,7 @@
         <v>0.71230000000000004</v>
       </c>
       <c r="IV34" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.12457240789776876</v>
       </c>
       <c r="IW34" s="2">
@@ -18053,7 +18058,7 @@
         <v>0.74119999999999997</v>
       </c>
       <c r="JC34" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.12589886813186377</v>
       </c>
       <c r="JD34" s="2">
@@ -18072,7 +18077,7 @@
         <v>0.93269999999999997</v>
       </c>
       <c r="JJ34" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.20254158799845759</v>
       </c>
       <c r="JK34" s="2">
@@ -18091,7 +18096,7 @@
         <v>1.2390000000000001</v>
       </c>
       <c r="JQ34" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.14458735717016852</v>
       </c>
       <c r="JR34" s="2">
@@ -18110,7 +18115,7 @@
         <v>0.82020000000000004</v>
       </c>
       <c r="JX34" s="2">
-        <f>$JU$2*JU34/(1+$JU$2*JU34)</f>
+        <f t="shared" si="43"/>
         <v>0.209134212601993</v>
       </c>
       <c r="JY34" s="2">
@@ -18129,7 +18134,7 @@
         <v>0.7147</v>
       </c>
       <c r="KE34" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.14877050573971962</v>
       </c>
       <c r="KF34" s="2">
@@ -18139,7 +18144,7 @@
         <v>-7462</v>
       </c>
     </row>
-    <row r="35" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC35" s="2">
         <v>1</v>
       </c>
@@ -18150,7 +18155,7 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="HF35" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.11665166814811545</v>
       </c>
       <c r="HG35" s="2">
@@ -18169,7 +18174,7 @@
         <v>0.4919</v>
       </c>
       <c r="HM35" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.15266152446885159</v>
       </c>
       <c r="HN35" s="2">
@@ -18188,7 +18193,7 @@
         <v>0.80420000000000003</v>
       </c>
       <c r="HT35" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.13364903509035025</v>
       </c>
       <c r="HU35" s="2">
@@ -18207,11 +18212,11 @@
         <v>1.1253</v>
       </c>
       <c r="IA35" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.1596999984462853</v>
       </c>
       <c r="IB35" s="2">
-        <v>0.94999299999999998</v>
+        <v>0.94099299999999997</v>
       </c>
       <c r="IC35" s="2">
         <v>-4358</v>
@@ -18226,7 +18231,7 @@
         <v>1.1857</v>
       </c>
       <c r="IH35" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.1598034652595369</v>
       </c>
       <c r="II35" s="2">
@@ -18245,7 +18250,7 @@
         <v>1.1525000000000001</v>
       </c>
       <c r="IO35" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.19240254959807249</v>
       </c>
       <c r="IP35" s="2">
@@ -18264,7 +18269,7 @@
         <v>0.7107</v>
       </c>
       <c r="IV35" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.13652410472401444</v>
       </c>
       <c r="IW35" s="2">
@@ -18283,7 +18288,7 @@
         <v>0.74690000000000001</v>
       </c>
       <c r="JC35" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.13795777265460335</v>
       </c>
       <c r="JD35" s="2">
@@ -18302,7 +18307,7 @@
         <v>0.94420000000000004</v>
       </c>
       <c r="JJ35" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.22009309717502748</v>
       </c>
       <c r="JK35" s="2">
@@ -18321,7 +18326,7 @@
         <v>1.2876000000000001</v>
       </c>
       <c r="JQ35" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.15811250034896238</v>
       </c>
       <c r="JR35" s="2">
@@ -18340,7 +18345,7 @@
         <v>0.82889999999999997</v>
       </c>
       <c r="JX35" s="2">
-        <f>$JU$2*JU35/(1+$JU$2*JU35)</f>
+        <f t="shared" si="43"/>
         <v>0.22709432588767017</v>
       </c>
       <c r="JY35" s="2">
@@ -18359,7 +18364,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="KE35" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.16261256706175389</v>
       </c>
       <c r="KF35" s="2">
@@ -18369,7 +18374,7 @@
         <v>-8515</v>
       </c>
     </row>
-    <row r="36" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC36" s="2">
         <v>1.25</v>
       </c>
@@ -18380,7 +18385,7 @@
         <v>0.46389999999999998</v>
       </c>
       <c r="HF36" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.14168270423592999</v>
       </c>
       <c r="HG36" s="2">
@@ -18399,7 +18404,7 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="HM36" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.18381166339866556</v>
       </c>
       <c r="HN36" s="2">
@@ -18418,7 +18423,7 @@
         <v>0.81030000000000002</v>
       </c>
       <c r="HT36" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.16165987237403318</v>
       </c>
       <c r="HU36" s="2">
@@ -18437,7 +18442,7 @@
         <v>1.1942999999999999</v>
       </c>
       <c r="IA36" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.1919609569271051</v>
       </c>
       <c r="IB36" s="2">
@@ -18456,7 +18461,7 @@
         <v>1.2789999999999999</v>
       </c>
       <c r="IH36" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.19208054730725899</v>
       </c>
       <c r="II36" s="2">
@@ -18475,7 +18480,7 @@
         <v>1.2378</v>
       </c>
       <c r="IO36" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.22946573870455045</v>
       </c>
       <c r="IP36" s="2">
@@ -18494,7 +18499,7 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="IV36" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.16502273559593245</v>
       </c>
       <c r="IW36" s="2">
@@ -18513,7 +18518,7 @@
         <v>0.76270000000000004</v>
       </c>
       <c r="JC36" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.16669789813502614</v>
       </c>
       <c r="JD36" s="2">
@@ -18532,7 +18537,7 @@
         <v>0.97370000000000001</v>
       </c>
       <c r="JJ36" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.26076805902974032</v>
       </c>
       <c r="JK36" s="2">
@@ -18551,7 +18556,7 @@
         <v>1.4117999999999999</v>
       </c>
       <c r="JQ36" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.19012532770060098</v>
       </c>
       <c r="JR36" s="2">
@@ -18570,7 +18575,7 @@
         <v>0.85119999999999996</v>
       </c>
       <c r="JX36" s="2">
-        <f>$JU$2*JU36/(1+$JU$2*JU36)</f>
+        <f t="shared" si="43"/>
         <v>0.26861752823552315</v>
       </c>
       <c r="JY36" s="2">
@@ -18589,7 +18594,7 @@
         <v>0.71050000000000002</v>
       </c>
       <c r="KE36" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.19532512868058791</v>
       </c>
       <c r="KF36" s="2">
@@ -18599,7 +18604,7 @@
         <v>-11243</v>
       </c>
     </row>
-    <row r="37" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC37" s="2">
         <v>1.5</v>
       </c>
@@ -18610,7 +18615,7 @@
         <v>0.44969999999999999</v>
       </c>
       <c r="HF37" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.16533424451011641</v>
       </c>
       <c r="HG37" s="2">
@@ -18629,7 +18634,7 @@
         <v>0.44940000000000002</v>
       </c>
       <c r="HM37" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.21275271016866346</v>
       </c>
       <c r="HN37" s="2">
@@ -18648,7 +18653,7 @@
         <v>0.81579999999999997</v>
       </c>
       <c r="HT37" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.18791614678750224</v>
       </c>
       <c r="HU37" s="2">
@@ -18667,7 +18672,7 @@
         <v>1.2615000000000001</v>
       </c>
       <c r="IA37" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.22183636416332192</v>
       </c>
       <c r="IB37" s="2">
@@ -18686,7 +18691,7 @@
         <v>1.3720000000000001</v>
       </c>
       <c r="IH37" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.22196945392945808</v>
       </c>
       <c r="II37" s="2">
@@ -18705,7 +18710,7 @@
         <v>1.3278000000000001</v>
       </c>
       <c r="IO37" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.26327630794811624</v>
       </c>
       <c r="IP37" s="2">
@@ -18724,7 +18729,7 @@
         <v>0.71660000000000001</v>
       </c>
       <c r="IV37" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.19170030109487102</v>
       </c>
       <c r="IW37" s="2">
@@ -18743,7 +18748,7 @@
         <v>0.78049999999999997</v>
       </c>
       <c r="JC37" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.1935834857252221</v>
       </c>
       <c r="JD37" s="2">
@@ -18762,7 +18767,7 @@
         <v>1.0036</v>
       </c>
       <c r="JJ37" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.2974106321781097</v>
       </c>
       <c r="JK37" s="2">
@@ -18781,7 +18786,7 @@
         <v>1.5401</v>
       </c>
       <c r="JQ37" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.21979275916810995</v>
       </c>
       <c r="JR37" s="2">
@@ -18800,7 +18805,7 @@
         <v>0.87380000000000002</v>
       </c>
       <c r="JX37" s="2">
-        <f>$JU$2*JU37/(1+$JU$2*JU37)</f>
+        <f t="shared" si="43"/>
         <v>0.30590665592552585</v>
       </c>
       <c r="JY37" s="2">
@@ -18819,7 +18824,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="KE37" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.22557794614504859</v>
       </c>
       <c r="KF37" s="2">
@@ -18829,7 +18834,7 @@
         <v>-14079</v>
       </c>
     </row>
-    <row r="38" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC38" s="2">
         <v>1.75</v>
       </c>
@@ -18840,7 +18845,7 @@
         <v>0.43809999999999999</v>
       </c>
       <c r="HF38" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.1877172697654407</v>
       </c>
       <c r="HG38" s="2">
@@ -18859,7 +18864,7 @@
         <v>0.4365</v>
       </c>
       <c r="HM38" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.23971161265490212</v>
       </c>
       <c r="HN38" s="2">
@@ -18878,7 +18883,7 @@
         <v>0.82069999999999999</v>
       </c>
       <c r="HT38" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.2125777073103069</v>
       </c>
       <c r="HU38" s="2">
@@ -18897,7 +18902,7 @@
         <v>1.3269</v>
       </c>
       <c r="IA38" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.24958138694990778</v>
       </c>
       <c r="IB38" s="2">
@@ -18916,7 +18921,7 @@
         <v>1.4637</v>
       </c>
       <c r="IH38" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.24972578039979282</v>
       </c>
       <c r="II38" s="2">
@@ -18935,7 +18940,7 @@
         <v>1.4180999999999999</v>
       </c>
       <c r="IO38" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.29424442815944829</v>
       </c>
       <c r="IP38" s="2">
@@ -18954,7 +18959,7 @@
         <v>0.72689999999999999</v>
       </c>
       <c r="IV38" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.21672594641359016</v>
       </c>
       <c r="IW38" s="2">
@@ -18973,7 +18978,7 @@
         <v>0.79959999999999998</v>
       </c>
       <c r="JC38" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.21878842889576139</v>
       </c>
       <c r="JD38" s="2">
@@ -18992,7 +18997,7 @@
         <v>1.0335000000000001</v>
       </c>
       <c r="JJ38" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.33059213490207195</v>
       </c>
       <c r="JK38" s="2">
@@ -19011,7 +19016,7 @@
         <v>1.6612</v>
       </c>
       <c r="JQ38" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0.24512268841903323</v>
       </c>
       <c r="JR38" s="2">
@@ -19030,7 +19035,7 @@
         <v>0.89649999999999996</v>
       </c>
       <c r="JX38" s="2">
-        <f>$JU$2*JU38/(1+$JU$2*JU38)</f>
+        <f t="shared" si="43"/>
         <v>0.3395779081928692</v>
       </c>
       <c r="JY38" s="2">
@@ -19049,7 +19054,7 @@
         <v>0.71940000000000004</v>
       </c>
       <c r="KE38" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.25363839898480495</v>
       </c>
       <c r="KF38" s="2">
@@ -19059,7 +19064,7 @@
         <v>-16996</v>
       </c>
     </row>
-    <row r="39" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC39" s="2">
         <v>2</v>
       </c>
@@ -19070,7 +19075,7 @@
         <v>0.42830000000000001</v>
       </c>
       <c r="HF39" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.20893116712317933</v>
       </c>
       <c r="HG39" s="2">
@@ -19089,7 +19094,7 @@
         <v>0.4264</v>
       </c>
       <c r="HM39" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.26488526115972905</v>
       </c>
       <c r="HN39" s="2">
@@ -19108,7 +19113,7 @@
         <v>0.82469999999999999</v>
       </c>
       <c r="HT39" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.23578555788158653</v>
       </c>
       <c r="HU39" s="2">
@@ -19127,7 +19132,7 @@
         <v>1.3908</v>
       </c>
       <c r="IA39" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.27541605356599858</v>
       </c>
       <c r="IB39" s="2">
@@ -19146,7 +19151,7 @@
         <v>1.5536000000000001</v>
       </c>
       <c r="IH39" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.27556990480930599</v>
       </c>
       <c r="II39" s="2">
@@ -19165,7 +19170,7 @@
         <v>1.4355</v>
       </c>
       <c r="IO39" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0.30012823862263199</v>
       </c>
       <c r="IP39" s="2">
@@ -19184,7 +19189,7 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="IV39" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.24024849830557179</v>
       </c>
       <c r="IW39" s="2">
@@ -19203,7 +19208,7 @@
         <v>0.81969999999999998</v>
       </c>
       <c r="JC39" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.24246553953013289</v>
       </c>
       <c r="JD39" s="2">
@@ -19222,7 +19227,7 @@
         <v>1.0628</v>
       </c>
       <c r="JJ39" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.36078082514297544</v>
       </c>
       <c r="JK39" s="2">
@@ -19241,7 +19246,7 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="JX39" s="2">
-        <f>$JU$2*JU39/(1+$JU$2*JU39)</f>
+        <f t="shared" si="43"/>
         <v>0.37013344629947981</v>
       </c>
       <c r="JY39" s="2">
@@ -19260,7 +19265,7 @@
         <v>0.72909999999999997</v>
       </c>
       <c r="KE39" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.27973646882679271</v>
       </c>
       <c r="KF39" s="2">
@@ -19270,7 +19275,7 @@
         <v>-19972</v>
       </c>
     </row>
-    <row r="40" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC40" s="2">
         <v>2.25</v>
       </c>
@@ -19281,7 +19286,7 @@
         <v>0.41959999999999997</v>
       </c>
       <c r="HF40" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0.22906520542400816</v>
       </c>
       <c r="HG40" s="2">
@@ -19300,7 +19305,7 @@
         <v>0.41820000000000002</v>
       </c>
       <c r="HM40" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.28844530505957</v>
       </c>
       <c r="HN40" s="2">
@@ -19319,7 +19324,7 @@
         <v>0.82809999999999995</v>
       </c>
       <c r="HT40" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.25766455501059926</v>
       </c>
       <c r="HU40" s="2">
@@ -19338,7 +19343,7 @@
         <v>1.4530000000000001</v>
       </c>
       <c r="IA40" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.29953110104063707</v>
       </c>
       <c r="IB40" s="2">
@@ -19357,7 +19362,7 @@
         <v>1.641</v>
       </c>
       <c r="IH40" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.29969285158747061</v>
       </c>
       <c r="II40" s="2">
@@ -19376,7 +19381,7 @@
         <v>0.75860000000000005</v>
       </c>
       <c r="IV40" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.26239942705547814</v>
       </c>
       <c r="IW40" s="2">
@@ -19395,7 +19400,7 @@
         <v>0.84079999999999999</v>
       </c>
       <c r="JC40" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.26474964867072931</v>
       </c>
       <c r="JD40" s="2">
@@ -19414,7 +19419,7 @@
         <v>1.0911</v>
       </c>
       <c r="JJ40" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.38836413657946267</v>
       </c>
       <c r="JK40" s="2">
@@ -19433,7 +19438,7 @@
         <v>0.9415</v>
       </c>
       <c r="JX40" s="2">
-        <f>$JU$2*JU40/(1+$JU$2*JU40)</f>
+        <f t="shared" si="43"/>
         <v>0.39798660774853906</v>
       </c>
       <c r="JY40" s="2">
@@ -19452,7 +19457,7 @@
         <v>0.74170000000000003</v>
       </c>
       <c r="KE40" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.30407105696177705</v>
       </c>
       <c r="KF40" s="2">
@@ -19462,7 +19467,7 @@
         <v>-22991</v>
       </c>
     </row>
-    <row r="41" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC41" s="2">
         <v>2.5</v>
       </c>
@@ -19473,7 +19478,7 @@
         <v>0.41189999999999999</v>
       </c>
       <c r="HF41" s="2">
-        <f t="shared" si="58"/>
+        <f>$HC$2*HC41/(1+$HC$2*HC41)</f>
         <v>0.24819979090556685</v>
       </c>
       <c r="HG41" s="2">
@@ -19492,7 +19497,7 @@
         <v>0.41139999999999999</v>
       </c>
       <c r="HM41" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.31054207198964617</v>
       </c>
       <c r="HN41" s="2">
@@ -19511,7 +19516,7 @@
         <v>0.83069999999999999</v>
       </c>
       <c r="HT41" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.27832565489872002</v>
       </c>
       <c r="HU41" s="2">
@@ -19530,7 +19535,7 @@
         <v>1.5137</v>
       </c>
       <c r="IA41" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>0.32209269240157601</v>
       </c>
       <c r="IB41" s="2">
@@ -19549,7 +19554,7 @@
         <v>1.7255</v>
       </c>
       <c r="IH41" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.32226102127266776</v>
       </c>
       <c r="II41" s="2">
@@ -19568,7 +19573,7 @@
         <v>0.77929999999999999</v>
       </c>
       <c r="IV41" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.28329530498221567</v>
       </c>
       <c r="IW41" s="2">
@@ -19587,7 +19592,7 @@
         <v>0.86280000000000001</v>
       </c>
       <c r="JC41" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.28576017562300193</v>
       </c>
       <c r="JD41" s="2">
@@ -19606,7 +19611,7 @@
         <v>1.1176999999999999</v>
       </c>
       <c r="JJ41" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.4136653957277785</v>
       </c>
       <c r="JK41" s="2">
@@ -19625,7 +19630,7 @@
         <v>0.96389999999999998</v>
       </c>
       <c r="JX41" s="2">
-        <f>$JU$2*JU41/(1+$JU$2*JU41)</f>
+        <f t="shared" si="43"/>
         <v>0.42348071385886349</v>
       </c>
       <c r="JY41" s="2">
@@ -19644,7 +19649,7 @@
         <v>0.75680000000000003</v>
       </c>
       <c r="KE41" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.32681506310536579</v>
       </c>
       <c r="KF41" s="2">
@@ -19654,7 +19659,7 @@
         <v>-26037</v>
       </c>
     </row>
-    <row r="42" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC42" s="2">
         <v>2.75</v>
       </c>
@@ -19665,8 +19670,8 @@
         <v>0.40479999999999999</v>
       </c>
       <c r="HF42" s="2">
-        <f t="shared" ref="HF42:HF44" si="74">$HC$2*HD42/(1+$HC$2*HD42)</f>
-        <v>7.90008357369088E-3</v>
+        <f t="shared" ref="HF42:HF44" si="75">$HC$2*HC42/(1+$HC$2*HC42)</f>
+        <v>0.26640754041349396</v>
       </c>
       <c r="HG42" s="2">
         <v>0.94161399999999995</v>
@@ -19684,7 +19689,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="HM42" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0.32008569032197381</v>
       </c>
       <c r="HN42" s="2">
@@ -19703,7 +19708,7 @@
         <v>0.8327</v>
       </c>
       <c r="HT42" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.29786779546401604</v>
       </c>
       <c r="HU42" s="2">
@@ -19722,7 +19727,7 @@
         <v>1.8067</v>
       </c>
       <c r="IH42" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.34342003430196982</v>
       </c>
       <c r="II42" s="2">
@@ -19741,7 +19746,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="IV42" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.30303985856504212</v>
       </c>
       <c r="IW42" s="2">
@@ -19760,7 +19765,7 @@
         <v>0.88560000000000005</v>
       </c>
       <c r="JC42" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.30560326880872757</v>
       </c>
       <c r="JD42" s="2">
@@ -19779,7 +19784,7 @@
         <v>1.1420999999999999</v>
       </c>
       <c r="JJ42" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.43695655468941208</v>
       </c>
       <c r="JK42" s="2">
@@ -19798,7 +19803,7 @@
         <v>0.77390000000000003</v>
       </c>
       <c r="KE42" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.34811949978679924</v>
       </c>
       <c r="KF42" s="2">
@@ -19808,7 +19813,7 @@
         <v>-29098</v>
       </c>
     </row>
-    <row r="43" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC43" s="2">
         <v>3</v>
       </c>
@@ -19819,8 +19824,8 @@
         <v>0.3982</v>
       </c>
       <c r="HF43" s="2">
-        <f t="shared" si="74"/>
-        <v>7.4579614976454656E-3</v>
+        <f t="shared" si="75"/>
+        <v>0.28375420234839094</v>
       </c>
       <c r="HG43" s="2">
         <v>0.93748100000000001</v>
@@ -19838,7 +19843,7 @@
         <v>0.83389999999999997</v>
       </c>
       <c r="HT43" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.3163794806488428</v>
       </c>
       <c r="HU43" s="2">
@@ -19857,7 +19862,7 @@
         <v>1.8844000000000001</v>
       </c>
       <c r="IH43" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.36329787658059076</v>
       </c>
       <c r="II43" s="2">
@@ -19876,7 +19881,7 @@
         <v>0.82950000000000002</v>
       </c>
       <c r="IV43" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.32172569045882921</v>
       </c>
       <c r="IW43" s="2">
@@ -19895,7 +19900,7 @@
         <v>0.89759999999999995</v>
       </c>
       <c r="JC43" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0.31541715514164492</v>
       </c>
       <c r="JD43" s="2">
@@ -19914,7 +19919,7 @@
         <v>1.1637999999999999</v>
       </c>
       <c r="JJ43" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0.45846800512003338</v>
       </c>
       <c r="JK43" s="2">
@@ -19933,7 +19938,7 @@
         <v>0.79249999999999998</v>
       </c>
       <c r="KE43" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.36811684944982059</v>
       </c>
       <c r="KF43" s="2">
@@ -19943,7 +19948,7 @@
         <v>-32165</v>
       </c>
     </row>
-    <row r="44" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HC44" s="2">
         <v>3.1070000000000002</v>
       </c>
@@ -19954,8 +19959,8 @@
         <v>0.39550000000000002</v>
       </c>
       <c r="HF44" s="2">
-        <f t="shared" si="74"/>
-        <v>7.2757966744353437E-3</v>
+        <f t="shared" si="75"/>
+        <v>0.29093038854005598</v>
       </c>
       <c r="HG44" s="2">
         <v>0.93574900000000005</v>
@@ -19973,7 +19978,7 @@
         <v>0.83450000000000002</v>
       </c>
       <c r="HT44" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.33394012054411643</v>
       </c>
       <c r="HU44" s="2">
@@ -19992,7 +19997,7 @@
         <v>1.9584999999999999</v>
       </c>
       <c r="IH44" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.38200749045237109</v>
       </c>
       <c r="II44" s="2">
@@ -20011,7 +20016,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="IV44" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.33943573173385883</v>
       </c>
       <c r="IW44" s="2">
@@ -20030,7 +20035,7 @@
         <v>0.81210000000000004</v>
       </c>
       <c r="KE44" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.38692382204171571</v>
       </c>
       <c r="KF44" s="2">
@@ -20040,7 +20045,7 @@
         <v>-35228</v>
       </c>
     </row>
-    <row r="45" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HQ45" s="2">
         <v>3.5</v>
       </c>
@@ -20051,7 +20056,7 @@
         <v>0.83430000000000004</v>
       </c>
       <c r="HT45" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.35062117013818206</v>
       </c>
       <c r="HU45" s="2">
@@ -20070,7 +20075,7 @@
         <v>2.0289000000000001</v>
       </c>
       <c r="IH45" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.39964892189373641</v>
       </c>
       <c r="II45" s="2">
@@ -20089,7 +20094,7 @@
         <v>0.89180000000000004</v>
       </c>
       <c r="IV45" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.3562444723931622</v>
       </c>
       <c r="IW45" s="2">
@@ -20108,7 +20113,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="KE45" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.39570097829718204</v>
       </c>
       <c r="KF45" s="2">
@@ -20118,7 +20123,7 @@
         <v>-36720</v>
       </c>
     </row>
-    <row r="46" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HQ46" s="2">
         <v>3.75</v>
       </c>
@@ -20129,7 +20134,7 @@
         <v>0.83360000000000001</v>
       </c>
       <c r="HT46" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.36648710113097416</v>
       </c>
       <c r="HU46" s="2">
@@ -20148,7 +20153,7 @@
         <v>2.0958999999999999</v>
       </c>
       <c r="IH46" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.41631111014737593</v>
       </c>
       <c r="II46" s="2">
@@ -20167,7 +20172,7 @@
         <v>0.92820000000000003</v>
       </c>
       <c r="IV46" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.3722190086810811</v>
       </c>
       <c r="IW46" s="2">
@@ -20177,7 +20182,7 @@
         <v>-40566</v>
       </c>
     </row>
-    <row r="47" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="HQ47" s="2">
         <v>3.806</v>
       </c>
@@ -20188,7 +20193,7 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="HT47" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>0.36993536551481065</v>
       </c>
       <c r="HU47" s="2">
@@ -20207,7 +20212,7 @@
         <v>2.1595</v>
       </c>
       <c r="IH47" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.43207338738601375</v>
       </c>
       <c r="II47" s="2">
@@ -20226,7 +20231,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="IV47" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.38741993823624765</v>
       </c>
       <c r="IW47" s="2">
@@ -20236,7 +20241,7 @@
         <v>-43370</v>
       </c>
     </row>
-    <row r="48" spans="211:293" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="211:293" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE48" s="2">
         <v>4.25</v>
       </c>
@@ -20247,7 +20252,7 @@
         <v>2.2202999999999999</v>
       </c>
       <c r="IH48" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.44700674177859806</v>
       </c>
       <c r="II48" s="2">
@@ -20266,7 +20271,7 @@
         <v>0.9778</v>
       </c>
       <c r="IV48" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0.39048971193229581</v>
       </c>
       <c r="IW48" s="2">
@@ -20276,7 +20281,7 @@
         <v>-43946</v>
       </c>
     </row>
-    <row r="49" spans="239:244" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="239:244" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE49" s="2">
         <v>4.5</v>
       </c>
@@ -20287,7 +20292,7 @@
         <v>2.2786</v>
       </c>
       <c r="IH49" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.46117488639168835</v>
       </c>
       <c r="II49" s="2">
@@ -20297,7 +20302,7 @@
         <v>14038</v>
       </c>
     </row>
-    <row r="50" spans="239:244" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="239:244" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE50" s="2">
         <v>4.75</v>
       </c>
@@ -20308,7 +20313,7 @@
         <v>2.3351000000000002</v>
       </c>
       <c r="IH50" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.47463516787878235</v>
       </c>
       <c r="II50" s="2">
@@ -20318,7 +20323,7 @@
         <v>17314</v>
       </c>
     </row>
-    <row r="51" spans="239:244" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="239:244" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE51" s="2">
         <v>5</v>
       </c>
@@ -20329,7 +20334,7 @@
         <v>2.3904000000000001</v>
       </c>
       <c r="IH51" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.48743934229036501</v>
       </c>
       <c r="II51" s="2">
@@ -20339,7 +20344,7 @@
         <v>20824</v>
       </c>
     </row>
-    <row r="52" spans="239:244" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="239:244" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE52" s="2">
         <v>5.25</v>
       </c>
@@ -20350,7 +20355,7 @@
         <v>2.4455</v>
       </c>
       <c r="IH52" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.49963424013502511</v>
       </c>
       <c r="II52" s="2">
@@ -20360,7 +20365,7 @@
         <v>24566</v>
       </c>
     </row>
-    <row r="53" spans="239:244" ht="49" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="239:244" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="IE53" s="2">
         <v>5.5</v>
       </c>
@@ -20371,7 +20376,7 @@
         <v>2.5011999999999999</v>
       </c>
       <c r="IH53" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.51126233870765236</v>
       </c>
       <c r="II53" s="2">

--- a/data/sources_list_.xlsx
+++ b/data/sources_list_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clara/Downloads/RE_ ML for AWH Discussion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16DCAF0-DF29-3140-9E7C-68E9C1424E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D524BBF-CCAF-DD4E-9D19-402C88391928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16580" yWindow="760" windowWidth="11740" windowHeight="17760" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="477">
   <si>
     <t xml:space="preserve">Data Source </t>
   </si>
@@ -1419,6 +1419,54 @@
   </si>
   <si>
     <t>Paper 23 (Ba(ClO4)2)</t>
+  </si>
+  <si>
+    <t>Paper 24 (CrCl3)</t>
+  </si>
+  <si>
+    <t>Paper 24 (Cr2(SO4)3)</t>
+  </si>
+  <si>
+    <t>Paper 24 (Cr(NO3)3)</t>
+  </si>
+  <si>
+    <t>Paper 24 (KCr(SO4)2)</t>
+  </si>
+  <si>
+    <t>Paper 24 (NH4Cr(SO4)2)</t>
+  </si>
+  <si>
+    <t>The Vapor Pressures of Chromic Salt Solutions</t>
+  </si>
+  <si>
+    <t>Chromic salts</t>
+  </si>
+  <si>
+    <t>TABLES OF OSMOTIC AND ACTIVITY COEFFICIENTS OF ELECTROLYTES IN AQUEOUS SOLUTION AT 25” C</t>
+  </si>
+  <si>
+    <t>2-1 and 1-2</t>
+  </si>
+  <si>
+    <t>Paper 25 (HBr)</t>
+  </si>
+  <si>
+    <t>Paper 25 (HI)</t>
+  </si>
+  <si>
+    <t>Paper 25 (HClO4)</t>
+  </si>
+  <si>
+    <t>Paper 25 (HNO3)</t>
+  </si>
+  <si>
+    <t>Paper 25 (NaF)</t>
+  </si>
+  <si>
+    <t>Paper 25 (NaClO3)</t>
+  </si>
+  <si>
+    <t>Paper 25 (NaBrO3)</t>
   </si>
 </sst>
 </file>
@@ -3185,10 +3233,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:LG54"/>
+  <dimension ref="A1:NO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="KY22" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="LB28" sqref="LB28"/>
+    <sheetView tabSelected="1" topLeftCell="NG1" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="NN24" sqref="NN24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3201,11 +3249,11 @@
     <col min="8" max="8" width="7.5" style="2" customWidth="1"/>
     <col min="9" max="14" width="8.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="8.5" style="6" customWidth="1"/>
-    <col min="16" max="346" width="8.5" style="2" customWidth="1"/>
-    <col min="347" max="16384" width="20.5" style="2"/>
+    <col min="16" max="386" width="8.5" style="2" customWidth="1"/>
+    <col min="387" max="16384" width="20.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:319" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:379" s="1" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>133</v>
       </c>
@@ -3466,8 +3514,44 @@
       <c r="LD1" s="1">
         <v>336.23</v>
       </c>
+      <c r="LI1" s="1">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>392.16</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>238.011</v>
+      </c>
+      <c r="LX1" s="1">
+        <v>283.22000000000003</v>
+      </c>
+      <c r="MC1" s="1">
+        <v>262.14999999999998</v>
+      </c>
+      <c r="MH1" s="1">
+        <v>80.91</v>
+      </c>
+      <c r="MM1" s="1">
+        <v>127.91</v>
+      </c>
+      <c r="MR1" s="1">
+        <v>100.46</v>
+      </c>
+      <c r="MW1" s="1">
+        <v>63.01</v>
+      </c>
+      <c r="NB1" s="1">
+        <v>41.99</v>
+      </c>
+      <c r="NG1" s="1">
+        <v>106.44</v>
+      </c>
+      <c r="NL1" s="1">
+        <v>150.88999999999999</v>
+      </c>
     </row>
-    <row r="2" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>457</v>
       </c>
@@ -3732,8 +3816,56 @@
         <f>LD1/1000</f>
         <v>0.33623000000000003</v>
       </c>
+      <c r="LI2" s="2">
+        <f>LI1/1000</f>
+        <v>0.15836</v>
+      </c>
+      <c r="LN2" s="2">
+        <f>LN1/1000</f>
+        <v>0.39216000000000001</v>
+      </c>
+      <c r="LS2" s="2">
+        <f>LS1/1000</f>
+        <v>0.238011</v>
+      </c>
+      <c r="LX2" s="2">
+        <f>LX1/1000</f>
+        <v>0.28322000000000003</v>
+      </c>
+      <c r="MC2" s="2">
+        <f>MC1/1000</f>
+        <v>0.26214999999999999</v>
+      </c>
+      <c r="MH2" s="2">
+        <f>MH1/1000</f>
+        <v>8.0909999999999996E-2</v>
+      </c>
+      <c r="MM2" s="2">
+        <f>MM1/1000</f>
+        <v>0.12791</v>
+      </c>
+      <c r="MR2" s="2">
+        <f>MR1/1000</f>
+        <v>0.10045999999999999</v>
+      </c>
+      <c r="MW2" s="2">
+        <f>MW1/1000</f>
+        <v>6.3009999999999997E-2</v>
+      </c>
+      <c r="NB2" s="2">
+        <f>NB1/1000</f>
+        <v>4.199E-2</v>
+      </c>
+      <c r="NG2" s="2">
+        <f>NG1/1000</f>
+        <v>0.10643999999999999</v>
+      </c>
+      <c r="NL2" s="2">
+        <f>NL1/1000</f>
+        <v>0.15089</v>
+      </c>
     </row>
-    <row r="3" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3913,7 +4045,7 @@
         <v>8.0043000000000003E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -4123,8 +4255,44 @@
       <c r="LD4" s="10" t="s">
         <v>460</v>
       </c>
+      <c r="LI4" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="LN4" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="LS4" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="LX4" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="MC4" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="MH4" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="MM4" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="MR4" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="MW4" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="NB4" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="NG4" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="NL4" s="10" t="s">
+        <v>476</v>
+      </c>
     </row>
-    <row r="5" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T5" s="2" t="s">
         <v>207</v>
       </c>
@@ -4150,7 +4318,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4263,7 +4431,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P7" s="2">
         <v>0.1</v>
       </c>
@@ -5006,8 +5174,152 @@
       <c r="LG7" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="LI7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="LJ7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="LK7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="LL7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="LN7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="LO7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="LP7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="LQ7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="LS7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="LT7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="LU7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="LV7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="LX7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="LY7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="LZ7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="MA7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="MC7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="MD7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="ME7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="MF7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="MH7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="MI7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="MJ7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="MK7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="MM7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="MN7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="MO7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="MP7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="MR7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="MS7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="MT7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="MU7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="MW7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="MX7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="MY7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="MZ7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="NB7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="NC7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="ND7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="NE7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="NG7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="NH7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="NI7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="NJ7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="NL7" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="NM7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="NN7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="NO7" s="2" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="8" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -5840,18 +6152,186 @@
         <v>0.1</v>
       </c>
       <c r="LE8" s="2">
-        <f>$KY$2*LD8/(1+$KY$2*LD8)</f>
-        <v>2.7853929219988881E-2</v>
+        <f>$LD$2*LD8/(1+$LD$2*LD8)</f>
+        <v>3.2529268408307485E-2</v>
       </c>
       <c r="LF8" s="2">
         <v>0.85699999999999998</v>
       </c>
       <c r="LG8">
-        <f t="shared" ref="LG8:LG27" si="44">EXP(-3*LD8*LF8/55.51)</f>
+        <f>EXP(-3*LD8*LF8/55.51)</f>
         <v>0.99537911139919688</v>
       </c>
+      <c r="LI8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="LJ8" s="2">
+        <f>$LI$2*LI8/(1+$LI$2*LI8)</f>
+        <v>1.5589130528943649E-2</v>
+      </c>
+      <c r="LK8" s="2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="LL8">
+        <f t="shared" ref="LL8:LL16" si="44">EXP(-3*LI8*LK8/55.51)</f>
+        <v>0.99560507429445921</v>
+      </c>
+      <c r="LN8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="LO8" s="2">
+        <f>$LN$2*LN8/(1+$LN$2*LN8)</f>
+        <v>3.7736139551354103E-2</v>
+      </c>
+      <c r="LP8" s="2">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="LQ8">
+        <f t="shared" ref="LQ8:LQ16" si="45">EXP(-3*LN8*LP8/55.51)</f>
+        <v>0.99777585125925683</v>
+      </c>
+      <c r="LS8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="LT8" s="2">
+        <f>$LS$2*LS8/(1+$LS$2*LS8)</f>
+        <v>2.3247777327060893E-2</v>
+      </c>
+      <c r="LU8" s="2">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="LV8">
+        <f t="shared" ref="LV8:LV17" si="46">EXP(-3*LS8*LU8/55.51)</f>
+        <v>0.99572345628226622</v>
+      </c>
+      <c r="LX8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="LY8" s="2">
+        <f>$LX$2*LX8/(1+$LX$2*LX8)</f>
+        <v>2.7541956702278086E-2</v>
+      </c>
+      <c r="LZ8" s="2">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="MA8">
+        <f t="shared" ref="MA8:MA14" si="47">EXP(-3*LX8*LZ8/55.51)</f>
+        <v>0.99716669479907394</v>
+      </c>
+      <c r="MC8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="MD8" s="2">
+        <f>$MC$2*MC8/(1+$MC$2*MC8)</f>
+        <v>2.5545329195149163E-2</v>
+      </c>
+      <c r="ME8" s="2">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="MF8">
+        <f t="shared" ref="MF8:MF13" si="48">EXP(-3*MC8*ME8/55.51)</f>
+        <v>0.99703736432523526</v>
+      </c>
+      <c r="MH8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="MI8" s="2">
+        <f>$MH$2*MH8/(1+$MH$2*MH8)</f>
+        <v>8.0260611393217461E-3</v>
+      </c>
+      <c r="MJ8" s="2">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="MK8">
+        <f t="shared" ref="MK8:MK17" si="49">EXP(-3*MH8*MJ8/55.51)</f>
+        <v>0.99488970104534546</v>
+      </c>
+      <c r="MM8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="MN8" s="2">
+        <f>$MM$2*MM8/(1+$MM$2*MM8)</f>
+        <v>1.2629456620368863E-2</v>
+      </c>
+      <c r="MO8" s="2">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="MP8">
+        <f t="shared" ref="MP8:MP24" si="50">EXP(-3*MM8*MO8/55.51)</f>
+        <v>0.99486281734171189</v>
+      </c>
+      <c r="MR8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="MS8" s="2">
+        <f>$MR$2*MR8/(1+$MR$2*MR8)</f>
+        <v>9.9460816636073989E-3</v>
+      </c>
+      <c r="MT8" s="2">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="MU8">
+        <f t="shared" ref="MU8:MU30" si="51">EXP(-3*MR8*MT8/55.51)</f>
+        <v>0.99489507787324749</v>
+      </c>
+      <c r="MW8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="MX8" s="2">
+        <f>$MW$2*MW8/(1+$MW$2*MW8)</f>
+        <v>6.2615459986624291E-3</v>
+      </c>
+      <c r="MY8" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="MZ8">
+        <f t="shared" ref="MZ8:MZ24" si="52">EXP(-3*MW8*MY8/55.51)</f>
+        <v>0.9949327164822156</v>
+      </c>
+      <c r="NB8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="NC8" s="2">
+        <f>$NB$2*NB8/(1+$NB$2*NB8)</f>
+        <v>4.1814421245191446E-3</v>
+      </c>
+      <c r="ND8" s="2">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="NE8">
+        <f t="shared" ref="NE8:NE17" si="53">EXP(-3*NB8*ND8/55.51)</f>
+        <v>0.99501875293553266</v>
+      </c>
+      <c r="NG8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="NH8" s="2">
+        <f>$NG$2*NG8/(1+$NG$2*NG8)</f>
+        <v>1.0531898472657038E-2</v>
+      </c>
+      <c r="NI8" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="NJ8">
+        <f t="shared" ref="NJ8:NJ25" si="54">EXP(-3*NG8*NI8/55.51)</f>
+        <v>0.99500262053383848</v>
+      </c>
+      <c r="NL8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="NM8" s="2">
+        <f>$NL$2*NL8/(1+$NL$2*NL8)</f>
+        <v>1.4864706444459551E-2</v>
+      </c>
+      <c r="NN8" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="NO8">
+        <f t="shared" ref="NO8:NO23" si="55">EXP(-3*NL8*NN8/55.51)</f>
+        <v>0.99505101852360966</v>
+      </c>
     </row>
-    <row r="9" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -6074,7 +6554,7 @@
         <v>0.3</v>
       </c>
       <c r="CS9" s="2">
-        <f t="shared" ref="CS9:CS18" si="45">$BX$3*CR9/(1+$BX$3*CR9)</f>
+        <f t="shared" ref="CS9:CS18" si="56">$BX$3*CR9/(1+$BX$3*CR9)</f>
         <v>4.5694604446998244E-2</v>
       </c>
       <c r="CT9" s="2">
@@ -6124,7 +6604,7 @@
         <v>0.2</v>
       </c>
       <c r="DM9" s="2">
-        <f t="shared" ref="DM9:DM23" si="46">$CC$3*DL9/(1+$CC$3*DL9)</f>
+        <f t="shared" ref="DM9:DM23" si="57">$CC$3*DL9/(1+$CC$3*DL9)</f>
         <v>3.1777076354059755E-2</v>
       </c>
       <c r="DN9" s="2">
@@ -6267,7 +6747,7 @@
         <v>1.37</v>
       </c>
       <c r="FL9">
-        <f t="shared" ref="FL9:FL15" si="47">EXP(-3*FI9*FK9/55.51)</f>
+        <f t="shared" ref="FL9:FL15" si="58">EXP(-3*FI9*FK9/55.51)</f>
         <v>0.91241312533455632</v>
       </c>
       <c r="FN9" s="2">
@@ -6281,7 +6761,7 @@
         <v>1.25</v>
       </c>
       <c r="FQ9">
-        <f t="shared" ref="FQ9:FQ12" si="48">EXP(-3*FN9*FP9/55.51)</f>
+        <f t="shared" ref="FQ9:FQ12" si="59">EXP(-3*FN9*FP9/55.51)</f>
         <v>0.90583229140256794</v>
       </c>
       <c r="FS9" s="2">
@@ -6295,7 +6775,7 @@
         <v>0.82</v>
       </c>
       <c r="FV9">
-        <f t="shared" ref="FV9:FV15" si="49">EXP(-3*FS9*FU9/55.51)</f>
+        <f t="shared" ref="FV9:FV15" si="60">EXP(-3*FS9*FU9/55.51)</f>
         <v>0.96213593702938704</v>
       </c>
       <c r="FX9" s="2">
@@ -6309,7 +6789,7 @@
         <v>1.29</v>
       </c>
       <c r="GA9">
-        <f t="shared" ref="GA9:GA15" si="50">EXP(-3*FX9*FZ9/55.51)</f>
+        <f t="shared" ref="GA9:GA15" si="61">EXP(-3*FX9*FZ9/55.51)</f>
         <v>0.9318126616980742</v>
       </c>
       <c r="GC9" s="2">
@@ -6323,7 +6803,7 @@
         <v>1.37</v>
       </c>
       <c r="GF9">
-        <f t="shared" ref="GF9:GF15" si="51">EXP(-3*GC9*GE9/55.51)</f>
+        <f t="shared" ref="GF9:GF15" si="62">EXP(-3*GC9*GE9/55.51)</f>
         <v>0.91065836619725982</v>
       </c>
       <c r="GH9" s="2">
@@ -6337,7 +6817,7 @@
         <v>1.27</v>
       </c>
       <c r="GK9">
-        <f t="shared" ref="GK9:GK12" si="52">EXP(-3*GH9*GJ9/55.51)</f>
+        <f t="shared" ref="GK9:GK12" si="63">EXP(-3*GH9*GJ9/55.51)</f>
         <v>0.95060792696283825</v>
       </c>
       <c r="GM9" s="2">
@@ -6351,29 +6831,29 @@
         <v>1.19</v>
       </c>
       <c r="GP9">
-        <f t="shared" ref="GP9:GP15" si="53">EXP(-3*GM9*GO9/55.51)</f>
+        <f t="shared" ref="GP9:GP15" si="64">EXP(-3*GM9*GO9/55.51)</f>
         <v>0.92186580697230458</v>
       </c>
       <c r="GR9" s="2">
-        <f t="shared" ref="GR9:GR30" si="54">(1/GS9)/$BI$3</f>
+        <f t="shared" ref="GR9:GR30" si="65">(1/GS9)/$BI$3</f>
         <v>2.6432998955896538</v>
       </c>
       <c r="GS9" s="2">
         <v>21</v>
       </c>
       <c r="GT9" s="2">
-        <f t="shared" ref="GT9:GT30" si="55">$CT$3*GR9/(1+$CT$3*GR9)</f>
+        <f t="shared" ref="GT9:GT30" si="66">$CT$3*GR9/(1+$CT$3*GR9)</f>
         <v>0.17462987446493788</v>
       </c>
       <c r="GU9" s="2">
         <v>0.93</v>
       </c>
       <c r="GV9" s="2">
-        <f t="shared" ref="GV9:GV29" si="56">1-(GR9/(55.51))/(GR9/(55.51) +1)</f>
+        <f t="shared" ref="GV9:GV29" si="67">1-(GR9/(55.51))/(GR9/(55.51) +1)</f>
         <v>0.95454600340246343</v>
       </c>
       <c r="GW9" s="2">
-        <f t="shared" ref="GW9:GW30" si="57">GU9/GV9</f>
+        <f t="shared" ref="GW9:GW30" si="68">GU9/GV9</f>
         <v>0.97428515407851524</v>
       </c>
       <c r="GY9" s="2">
@@ -6383,11 +6863,11 @@
         <v>0.879</v>
       </c>
       <c r="HA9" s="2">
-        <f t="shared" ref="HA9:HA23" si="58">$GY$2*GY9/(1+$GY$2*GY9)</f>
+        <f t="shared" ref="HA9:HA23" si="69">$GY$2*GY9/(1+$GY$2*GY9)</f>
         <v>2.295833357743091E-2</v>
       </c>
       <c r="HB9" s="2">
-        <f t="shared" ref="HB9:HB23" si="59">EXP(-2*GY9*GZ9/55.51)</f>
+        <f t="shared" ref="HB9:HB23" si="70">EXP(-2*GY9*GZ9/55.51)</f>
         <v>0.99368602357845226</v>
       </c>
       <c r="HD9" s="2">
@@ -6400,7 +6880,7 @@
         <v>0.94279999999999997</v>
       </c>
       <c r="HG9" s="2">
-        <f t="shared" ref="HG9:HG41" si="60">$HD$2*HD9/(1+$HD$2*HD9)</f>
+        <f t="shared" ref="HG9:HG41" si="71">$HD$2*HD9/(1+$HD$2*HD9)</f>
         <v>2.6404276300575567E-4</v>
       </c>
       <c r="HH9" s="2">
@@ -6419,7 +6899,7 @@
         <v>0.94430000000000003</v>
       </c>
       <c r="HN9" s="2">
-        <f t="shared" ref="HN9:HN43" si="61">$HK$2*HK9/(1+$HK$2*HK9)</f>
+        <f t="shared" ref="HN9:HN43" si="72">$HK$2*HK9/(1+$HK$2*HK9)</f>
         <v>3.6020206771896298E-4</v>
       </c>
       <c r="HO9" s="2">
@@ -6438,7 +6918,7 @@
         <v>0.94750000000000001</v>
       </c>
       <c r="HU9" s="2">
-        <f t="shared" ref="HU9:HU48" si="62">$HR$2*HR9/(1+$HR$2*HR9)</f>
+        <f t="shared" ref="HU9:HU48" si="73">$HR$2*HR9/(1+$HR$2*HR9)</f>
         <v>3.08438076600887E-4</v>
       </c>
       <c r="HV9" s="2">
@@ -6457,7 +6937,7 @@
         <v>0.95050000000000001</v>
       </c>
       <c r="IB9" s="2">
-        <f t="shared" ref="IB9:IB42" si="63">$HY$2*HY9/(1+$HY$2*HY9)</f>
+        <f t="shared" ref="IB9:IB42" si="74">$HY$2*HY9/(1+$HY$2*HY9)</f>
         <v>3.7995791710660626E-4</v>
       </c>
       <c r="IC9" s="2">
@@ -6476,7 +6956,7 @@
         <v>0.95050000000000001</v>
       </c>
       <c r="II9" s="2">
-        <f t="shared" ref="II9:II54" si="64">$IF$2*IF9/(1+$IF$2*IF9)</f>
+        <f t="shared" ref="II9:II54" si="75">$IF$2*IF9/(1+$IF$2*IF9)</f>
         <v>3.8025079433177988E-4</v>
       </c>
       <c r="IJ9" s="2">
@@ -6495,7 +6975,7 @@
         <v>0.9506</v>
       </c>
       <c r="IP9" s="2">
-        <f t="shared" ref="IP9:IP40" si="65">$IM$2*IM9/(1+$IM$2*IM9)</f>
+        <f t="shared" ref="IP9:IP40" si="76">$IM$2*IM9/(1+$IM$2*IM9)</f>
         <v>4.7625439367784457E-4</v>
       </c>
       <c r="IQ9" s="2">
@@ -6514,7 +6994,7 @@
         <v>0.94750000000000001</v>
       </c>
       <c r="IW9" s="2">
-        <f t="shared" ref="IW9:IW49" si="66">$IT$2*IT9/(1+$IT$2*IT9)</f>
+        <f t="shared" ref="IW9:IW49" si="77">$IT$2*IT9/(1+$IT$2*IT9)</f>
         <v>3.1611987662319337E-4</v>
       </c>
       <c r="IX9" s="2">
@@ -6533,7 +7013,7 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="JD9" s="2">
-        <f t="shared" ref="JD9:JD44" si="67">$JA$2*JA9/(1+$JA$2*JA9)</f>
+        <f t="shared" ref="JD9:JD44" si="78">$JA$2*JA9/(1+$JA$2*JA9)</f>
         <v>3.1996954672004101E-4</v>
       </c>
       <c r="JE9" s="2">
@@ -6552,7 +7032,7 @@
         <v>0.95069999999999999</v>
       </c>
       <c r="JK9" s="2">
-        <f t="shared" ref="JK9:JK44" si="68">$JH$2*JH9/(1+$JH$2*JH9)</f>
+        <f t="shared" ref="JK9:JK44" si="79">$JH$2*JH9/(1+$JH$2*JH9)</f>
         <v>5.640902625820588E-4</v>
       </c>
       <c r="JL9" s="2">
@@ -6571,7 +7051,7 @@
         <v>0.95069999999999999</v>
       </c>
       <c r="JR9" s="2">
-        <f t="shared" ref="JR9:JR39" si="69">$JO$2*JO9/(1+$JO$2*JO9)</f>
+        <f t="shared" ref="JR9:JR39" si="80">$JO$2*JO9/(1+$JO$2*JO9)</f>
         <v>3.7547328685667917E-4</v>
       </c>
       <c r="JS9" s="2">
@@ -6609,7 +7089,7 @@
         <v>0.94720000000000004</v>
       </c>
       <c r="KF9" s="2">
-        <f t="shared" ref="KF9:KF46" si="70">$KC$2*KC9/(1+$KC$2*KC9)</f>
+        <f t="shared" ref="KF9:KF46" si="81">$KC$2*KC9/(1+$KC$2*KC9)</f>
         <v>3.8822993897677467E-4</v>
       </c>
       <c r="KG9" s="2">
@@ -6628,18 +7108,18 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="KM9" s="2">
-        <f t="shared" ref="KM9:KM31" si="71">$KJ$2*KJ9/(1+$KJ$2*KJ9)</f>
+        <f t="shared" ref="KM9:KM31" si="82">$KJ$2*KJ9/(1+$KJ$2*KJ9)</f>
         <v>1.9212064435437017E-2</v>
       </c>
       <c r="KN9" s="2">
-        <f t="shared" ref="KN9:KN31" si="72">EXP(-2*KJ9*KL9/55.51)</f>
+        <f t="shared" ref="KN9:KN31" si="83">EXP(-2*KJ9*KL9/55.51)</f>
         <v>0.99340680678913751</v>
       </c>
       <c r="KP9" s="2">
         <v>0.127</v>
       </c>
       <c r="KQ9" s="2">
-        <f t="shared" ref="KQ9:KQ14" si="73">$KP$2*KP9/(1+$KP$2*KP9)</f>
+        <f t="shared" ref="KQ9:KQ14" si="84">$KP$2*KP9/(1+$KP$2*KP9)</f>
         <v>2.7565771601609175E-2</v>
       </c>
       <c r="KR9" s="2">
@@ -6649,46 +7129,214 @@
         <v>0.2</v>
       </c>
       <c r="KU9" s="2">
-        <f t="shared" ref="KU9:KU34" si="74">$KT$2*KT9/(1+$KT$2*KT9)</f>
+        <f t="shared" ref="KU9:KU34" si="85">$KT$2*KT9/(1+$KT$2*KT9)</f>
         <v>4.5615749630653304E-2</v>
       </c>
       <c r="KV9" s="2">
         <v>0.91100000000000003</v>
       </c>
       <c r="KW9">
-        <f t="shared" ref="KW9:KW32" si="75">EXP(-3*KT9*KV9/55.51)</f>
+        <f t="shared" ref="KW9:KW32" si="86">EXP(-3*KT9*KV9/55.51)</f>
         <v>0.9902014472949795</v>
       </c>
       <c r="KY9" s="2">
         <v>0.2</v>
       </c>
       <c r="KZ9" s="2">
-        <f t="shared" ref="KZ9:KZ34" si="76">$KY$2*KY9/(1+$KY$2*KY9)</f>
+        <f t="shared" ref="KZ9:KZ34" si="87">$KY$2*KY9/(1+$KY$2*KY9)</f>
         <v>5.419822491922853E-2</v>
       </c>
       <c r="LA9" s="2">
         <v>0.88600000000000001</v>
       </c>
       <c r="LB9">
-        <f t="shared" ref="LB9:LB34" si="77">EXP(-3*KY9*LA9/55.51)</f>
+        <f t="shared" ref="LB9:LB34" si="88">EXP(-3*KY9*LA9/55.51)</f>
         <v>0.9904690572516307</v>
       </c>
       <c r="LD9" s="2">
         <v>0.2</v>
       </c>
       <c r="LE9" s="2">
-        <f t="shared" ref="LE9:LE34" si="78">$KY$2*LD9/(1+$KY$2*LD9)</f>
-        <v>5.419822491922853E-2</v>
+        <f t="shared" ref="LE9:LE29" si="89">$LD$2*LD9/(1+$LD$2*LD9)</f>
+        <v>6.3008903289400967E-2</v>
       </c>
       <c r="LF9" s="2">
         <v>0.86799999999999999</v>
       </c>
       <c r="LG9">
+        <f t="shared" ref="LG8:LG27" si="90">EXP(-3*LD9*LF9/55.51)</f>
+        <v>0.99066178120216042</v>
+      </c>
+      <c r="LI9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="LJ9" s="2">
+        <f t="shared" ref="LJ9:LJ17" si="91">$LI$2*LI9/(1+$LI$2*LI9)</f>
+        <v>3.0699679743174189E-2</v>
+      </c>
+      <c r="LK9" s="2">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="LL9">
         <f t="shared" si="44"/>
-        <v>0.99066178120216042</v>
+        <v>0.99098307112315931</v>
+      </c>
+      <c r="LN9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="LO9" s="2">
+        <f t="shared" ref="LO9:LO17" si="92">$LN$2*LN9/(1+$LN$2*LN9)</f>
+        <v>7.2727812231091066E-2</v>
+      </c>
+      <c r="LP9" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="LQ9">
+        <f t="shared" si="45"/>
+        <v>0.99567502558599541</v>
+      </c>
+      <c r="LS9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="LT9" s="2">
+        <f t="shared" ref="LT9:LT17" si="93">$LS$2*LS9/(1+$LS$2*LS9)</f>
+        <v>4.5439194381226004E-2</v>
+      </c>
+      <c r="LU9" s="2">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="LV9">
+        <f t="shared" si="46"/>
+        <v>0.99121874995503589</v>
+      </c>
+      <c r="LX9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="LY9" s="2">
+        <f t="shared" ref="LY9:LY14" si="94">$LX$2*LX9/(1+$LX$2*LX9)</f>
+        <v>5.3607459087450467E-2</v>
+      </c>
+      <c r="LZ9" s="2">
+        <v>0.503</v>
+      </c>
+      <c r="MA9">
+        <f t="shared" si="47"/>
+        <v>0.99457789474122693</v>
+      </c>
+      <c r="MC9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="MD9" s="2">
+        <f t="shared" ref="MD9:MD13" si="95">$MC$2*MC9/(1+$MC$2*MC9)</f>
+        <v>4.981804015468963E-2</v>
+      </c>
+      <c r="ME9" s="2">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="MF9">
+        <f t="shared" si="48"/>
+        <v>0.99451339529390559</v>
+      </c>
+      <c r="MH9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="MI9" s="2">
+        <f t="shared" ref="MI9:MI17" si="96">$MH$2*MH9/(1+$MH$2*MH9)</f>
+        <v>1.5924312770743822E-2</v>
+      </c>
+      <c r="MJ9" s="2">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="MK9">
+        <f t="shared" si="49"/>
+        <v>0.98974132729259445</v>
+      </c>
+      <c r="MM9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="MN9" s="2">
+        <f t="shared" ref="MN9:MN24" si="97">$MM$2*MM9/(1+$MM$2*MM9)</f>
+        <v>2.4943885520611712E-2</v>
+      </c>
+      <c r="MO9" s="2">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="MP9">
+        <f t="shared" si="50"/>
+        <v>0.98958087062044353</v>
+      </c>
+      <c r="MR9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="MS9" s="2">
+        <f t="shared" ref="MS9:MS30" si="98">$MR$2*MR9/(1+$MR$2*MR9)</f>
+        <v>1.9696262690031878E-2</v>
+      </c>
+      <c r="MT9" s="2">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="MU9">
+        <f t="shared" si="51"/>
+        <v>0.98977342174898042</v>
+      </c>
+      <c r="MW9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="MX9" s="2">
+        <f t="shared" ref="MX9:MX24" si="99">$MW$2*MW9/(1+$MW$2*MW9)</f>
+        <v>1.2445166017843141E-2</v>
+      </c>
+      <c r="MY9" s="2">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="MZ9">
+        <f t="shared" si="52"/>
+        <v>0.98994460976064602</v>
+      </c>
+      <c r="NB9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="NC9" s="2">
+        <f t="shared" ref="NC9:NC17" si="100">$NB$2*NB9/(1+$NB$2*NB9)</f>
+        <v>8.3280609441906892E-3</v>
+      </c>
+      <c r="ND9" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="NE9">
+        <f t="shared" si="53"/>
+        <v>0.99023355667172985</v>
+      </c>
+      <c r="NG9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="NH9" s="2">
+        <f t="shared" ref="NH9:NH25" si="101">$NG$2*NG9/(1+$NG$2*NG9)</f>
+        <v>2.0844267239015835E-2</v>
+      </c>
+      <c r="NI9" s="2">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="NJ9">
+        <f t="shared" si="54"/>
+        <v>0.99018004162224837</v>
+      </c>
+      <c r="NL9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="NM9" s="2">
+        <f t="shared" ref="NM9:NM23" si="102">$NL$2*NL9/(1+$NL$2*NL9)</f>
+        <v>2.9293966673720463E-2</v>
+      </c>
+      <c r="NN9" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="NO9">
+        <f t="shared" si="55"/>
+        <v>0.99036200459121371</v>
       </c>
     </row>
-    <row r="10" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P10" s="2">
         <v>3</v>
       </c>
@@ -6899,7 +7547,7 @@
         <v>0.4</v>
       </c>
       <c r="CS10" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>6.001206342918277E-2</v>
       </c>
       <c r="CT10" s="2">
@@ -6949,7 +7597,7 @@
         <v>0.3</v>
       </c>
       <c r="DM10" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>4.6920122375456279E-2</v>
       </c>
       <c r="DN10" s="2">
@@ -6987,7 +7635,7 @@
         <v>0.4</v>
       </c>
       <c r="EA10" s="2">
-        <f t="shared" ref="EA10:EA13" si="79">$CF$3*DZ10/(1+$CF$3*DZ10)</f>
+        <f t="shared" ref="EA10:EA13" si="103">$CF$3*DZ10/(1+$CF$3*DZ10)</f>
         <v>4.6729328325484737E-2</v>
       </c>
       <c r="EB10" s="2">
@@ -7092,7 +7740,7 @@
         <v>1.47</v>
       </c>
       <c r="FL10">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>0.87304187908091491</v>
       </c>
       <c r="FN10" s="2">
@@ -7106,7 +7754,7 @@
         <v>1.37</v>
       </c>
       <c r="FQ10">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>0.87037916747218236</v>
       </c>
       <c r="FS10" s="2">
@@ -7120,7 +7768,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="FV10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>0.92438373590379708</v>
       </c>
       <c r="FX10" s="2">
@@ -7134,7 +7782,7 @@
         <v>1.22</v>
       </c>
       <c r="GA10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.91513716422800773</v>
       </c>
       <c r="GC10" s="2">
@@ -7148,7 +7796,7 @@
         <v>1.42</v>
       </c>
       <c r="GF10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>0.88894167468778684</v>
       </c>
       <c r="GH10" s="2">
@@ -7162,7 +7810,7 @@
         <v>1.2</v>
       </c>
       <c r="GK10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.93872580476906919</v>
       </c>
       <c r="GM10" s="2">
@@ -7176,29 +7824,29 @@
         <v>1.24</v>
       </c>
       <c r="GP10">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.907704307439411</v>
       </c>
       <c r="GR10" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>3.5812450198311443</v>
       </c>
       <c r="GS10" s="2">
         <v>15.5</v>
       </c>
       <c r="GT10" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.22279003160527228</v>
       </c>
       <c r="GU10" s="2">
         <v>0.91</v>
       </c>
       <c r="GV10" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.93939465958740132</v>
       </c>
       <c r="GW10" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.96870893475133024</v>
       </c>
       <c r="GY10" s="2">
@@ -7208,11 +7856,11 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="HA10" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>3.4046672928993604E-2</v>
       </c>
       <c r="HB10" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.99073673953203889</v>
       </c>
       <c r="HD10" s="2">
@@ -7225,7 +7873,7 @@
         <v>0.93089999999999995</v>
       </c>
       <c r="HG10" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>3.9601186247545796E-4</v>
       </c>
       <c r="HH10" s="2">
@@ -7244,7 +7892,7 @@
         <v>0.93310000000000004</v>
       </c>
       <c r="HN10" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>5.4020580995357489E-4</v>
       </c>
       <c r="HO10" s="2">
@@ -7263,7 +7911,7 @@
         <v>0.93759999999999999</v>
       </c>
       <c r="HU10" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>4.6258577536792173E-4</v>
       </c>
       <c r="HV10" s="2">
@@ -7282,7 +7930,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="IB10" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>5.6982862021208761E-4</v>
       </c>
       <c r="IC10" s="2">
@@ -7301,7 +7949,7 @@
         <v>0.94189999999999996</v>
       </c>
       <c r="II10" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>5.7026776911157657E-4</v>
       </c>
       <c r="IJ10" s="2">
@@ -7320,7 +7968,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="IP10" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>7.1421151733019482E-4</v>
       </c>
       <c r="IQ10" s="2">
@@ -7339,7 +7987,7 @@
         <v>0.93759999999999999</v>
       </c>
       <c r="IW10" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>4.7410487794702849E-4</v>
       </c>
       <c r="IX10" s="2">
@@ -7358,7 +8006,7 @@
         <v>0.9345</v>
       </c>
       <c r="JD10" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>4.7987754697946739E-4</v>
       </c>
       <c r="JE10" s="2">
@@ -7377,7 +8025,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="JK10" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>8.4589681279546467E-4</v>
       </c>
       <c r="JL10" s="2">
@@ -7396,7 +8044,7 @@
         <v>0.94230000000000003</v>
       </c>
       <c r="JR10" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>5.6310421498979607E-4</v>
       </c>
       <c r="JS10" s="2">
@@ -7434,7 +8082,7 @@
         <v>0.93720000000000003</v>
       </c>
       <c r="KF10" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>5.8223188853988295E-4</v>
       </c>
       <c r="KG10" s="2">
@@ -7453,18 +8101,18 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="KM10" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>2.8543903001305552E-2</v>
       </c>
       <c r="KN10" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.99018004162224837</v>
       </c>
       <c r="KP10" s="2">
         <v>0.25600000000000001</v>
       </c>
       <c r="KQ10" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>5.4052194964936504E-2</v>
       </c>
       <c r="KR10" s="2">
@@ -7474,46 +8122,214 @@
         <v>0.3</v>
       </c>
       <c r="KU10" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>6.689782717828037E-2</v>
       </c>
       <c r="KV10" s="2">
         <v>0.94199999999999995</v>
       </c>
       <c r="KW10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.98484311579740547</v>
       </c>
       <c r="KY10" s="2">
         <v>0.3</v>
       </c>
       <c r="KZ10" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>7.91523781810681E-2</v>
       </c>
       <c r="LA10" s="2">
         <v>0.91500000000000004</v>
       </c>
       <c r="LB10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.98527433407580034</v>
       </c>
       <c r="LD10" s="2">
         <v>0.3</v>
       </c>
       <c r="LE10" s="2">
-        <f t="shared" si="78"/>
-        <v>7.91523781810681E-2</v>
+        <f t="shared" si="89"/>
+        <v>9.1626705811499815E-2</v>
       </c>
       <c r="LF10" s="2">
         <v>0.88400000000000001</v>
       </c>
       <c r="LG10">
+        <f t="shared" si="90"/>
+        <v>0.98576966938960886</v>
+      </c>
+      <c r="LI10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="LJ10" s="2">
+        <f t="shared" si="91"/>
+        <v>4.5353352909953903E-2</v>
+      </c>
+      <c r="LK10" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="LL10">
         <f t="shared" si="44"/>
-        <v>0.98576966938960886</v>
+        <v>0.9858495855005992</v>
+      </c>
+      <c r="LN10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="LO10" s="2">
+        <f t="shared" si="92"/>
+        <v>0.10526391135670624</v>
+      </c>
+      <c r="LP10" s="2">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="LQ10">
+        <f t="shared" si="45"/>
+        <v>0.99331017310436931</v>
+      </c>
+      <c r="LS10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="LT10" s="2">
+        <f t="shared" si="93"/>
+        <v>6.6644651925190077E-2</v>
+      </c>
+      <c r="LU10" s="2">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="LV10">
+        <f t="shared" si="46"/>
+        <v>0.98616931473761282</v>
+      </c>
+      <c r="LX10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="LY10" s="2">
+        <f t="shared" si="94"/>
+        <v>7.8312131440063548E-2</v>
+      </c>
+      <c r="LZ10" s="2">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="MA10">
+        <f t="shared" si="47"/>
+        <v>0.99215130182923628</v>
+      </c>
+      <c r="MC10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="MD10" s="2">
+        <f t="shared" si="95"/>
+        <v>7.2910920645810243E-2</v>
+      </c>
+      <c r="ME10" s="2">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="MF10">
+        <f t="shared" si="48"/>
+        <v>0.99203870592727761</v>
+      </c>
+      <c r="MH10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="MI10" s="2">
+        <f t="shared" si="96"/>
+        <v>2.3697783696338768E-2</v>
+      </c>
+      <c r="MJ10" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="MK10">
+        <f t="shared" si="49"/>
+        <v>0.98449189229941503</v>
+      </c>
+      <c r="MM10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="MN10" s="2">
+        <f t="shared" si="97"/>
+        <v>3.6954928527610016E-2</v>
+      </c>
+      <c r="MO10" s="2">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="MP10">
+        <f t="shared" si="50"/>
+        <v>0.98417270690511516</v>
+      </c>
+      <c r="MR10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="MS10" s="2">
+        <f t="shared" si="98"/>
+        <v>2.92562744020704E-2</v>
+      </c>
+      <c r="MT10" s="2">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="MU10">
+        <f t="shared" si="51"/>
+        <v>0.98458766810213327</v>
+      </c>
+      <c r="MW10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="MX10" s="2">
+        <f t="shared" si="99"/>
+        <v>1.8552305764140454E-2</v>
+      </c>
+      <c r="MY10" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="MZ10">
+        <f t="shared" si="52"/>
+        <v>0.98493892576872655</v>
+      </c>
+      <c r="NB10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="NC10" s="2">
+        <f t="shared" si="100"/>
+        <v>1.2440289671014232E-2</v>
+      </c>
+      <c r="ND10" s="2">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="NE10">
+        <f t="shared" si="53"/>
+        <v>0.98554593874147511</v>
+      </c>
+      <c r="NG10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="NH10" s="2">
+        <f t="shared" si="101"/>
+        <v>3.0943899404224304E-2</v>
+      </c>
+      <c r="NI10" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="NJ10">
+        <f t="shared" si="54"/>
+        <v>0.98545006972294402</v>
+      </c>
+      <c r="NL10" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="NM10" s="2">
+        <f t="shared" si="102"/>
+        <v>4.3306638399566805E-2</v>
+      </c>
+      <c r="NN10" s="2">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="NO10">
+        <f t="shared" si="55"/>
+        <v>0.98578565209352964</v>
       </c>
     </row>
-    <row r="11" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -7739,7 +8555,7 @@
         <v>0.5</v>
       </c>
       <c r="CS11" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>7.3906262458854816E-2</v>
       </c>
       <c r="CT11" s="2">
@@ -7789,7 +8605,7 @@
         <v>0.4</v>
       </c>
       <c r="DM11" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>6.1596786907398379E-2</v>
       </c>
       <c r="DN11" s="2">
@@ -7827,7 +8643,7 @@
         <v>0.5</v>
       </c>
       <c r="EA11" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>5.7737155779604719E-2</v>
       </c>
       <c r="EB11" s="2">
@@ -7932,7 +8748,7 @@
         <v>1.71</v>
       </c>
       <c r="FL11">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>0.81195921311206065</v>
       </c>
       <c r="FN11" s="2">
@@ -7946,7 +8762,7 @@
         <v>1.38</v>
       </c>
       <c r="FQ11">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>0.84406736701409679</v>
       </c>
       <c r="FS11" s="2">
@@ -7960,7 +8776,7 @@
         <v>1.31</v>
       </c>
       <c r="FV11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>0.89905643086863507</v>
       </c>
       <c r="FX11" s="2">
@@ -7974,7 +8790,7 @@
         <v>1.36</v>
       </c>
       <c r="GA11">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.87956178088623849</v>
       </c>
       <c r="GC11" s="2">
@@ -7988,7 +8804,7 @@
         <v>1.6</v>
       </c>
       <c r="GF11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>0.84410112430152451</v>
       </c>
       <c r="GH11" s="2">
@@ -8002,7 +8818,7 @@
         <v>1.27</v>
       </c>
       <c r="GK11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.92005259136495299</v>
       </c>
       <c r="GM11" s="2">
@@ -8016,29 +8832,29 @@
         <v>1.3</v>
       </c>
       <c r="GP11">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.88704507129596977</v>
       </c>
       <c r="GR11" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>4.6257748172818944</v>
       </c>
       <c r="GS11" s="2">
         <v>12</v>
       </c>
       <c r="GT11" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.27021196868575359</v>
       </c>
       <c r="GU11" s="2">
         <v>0.89</v>
       </c>
       <c r="GV11" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.92307782129128679</v>
       </c>
       <c r="GW11" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.96416572847020154</v>
       </c>
       <c r="GY11" s="2">
@@ -8048,11 +8864,11 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="HA11" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>4.4886155816615425E-2</v>
       </c>
       <c r="HB11" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.9878531544285728</v>
       </c>
       <c r="HD11" s="2">
@@ -8065,7 +8881,7 @@
         <v>0.92110000000000003</v>
       </c>
       <c r="HG11" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>5.279461256577745E-4</v>
       </c>
       <c r="HH11" s="2">
@@ -8084,7 +8900,7 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="HN11" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>7.2014473781430838E-4</v>
       </c>
       <c r="HO11" s="2">
@@ -8103,7 +8919,7 @@
         <v>0.92979999999999996</v>
       </c>
       <c r="HU11" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>6.1668594377540902E-4</v>
       </c>
       <c r="HV11" s="2">
@@ -8122,7 +8938,7 @@
         <v>0.93540000000000001</v>
       </c>
       <c r="IB11" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>7.596272078415437E-4</v>
       </c>
       <c r="IC11" s="2">
@@ -8141,7 +8957,7 @@
         <v>0.93530000000000002</v>
       </c>
       <c r="II11" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>7.6021251725001443E-4</v>
       </c>
       <c r="IJ11" s="2">
@@ -8160,7 +8976,7 @@
         <v>0.93559999999999999</v>
       </c>
       <c r="IP11" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>9.5205536680422408E-4</v>
       </c>
       <c r="IQ11" s="2">
@@ -8179,7 +8995,7 @@
         <v>0.92969999999999997</v>
       </c>
       <c r="IW11" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>6.3203995285446952E-4</v>
       </c>
       <c r="IX11" s="2">
@@ -8198,7 +9014,7 @@
         <v>0.92579999999999996</v>
       </c>
       <c r="JD11" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>6.3973439791476015E-4</v>
       </c>
       <c r="JE11" s="2">
@@ -8217,7 +9033,7 @@
         <v>0.9355</v>
       </c>
       <c r="JK11" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>1.1275444882976409E-3</v>
       </c>
       <c r="JL11" s="2">
@@ -8236,7 +9052,7 @@
         <v>0.93579999999999997</v>
       </c>
       <c r="JR11" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>7.506647191639265E-4</v>
       </c>
       <c r="JS11" s="2">
@@ -8274,7 +9090,7 @@
         <v>0.92930000000000001</v>
       </c>
       <c r="KF11" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>7.761585499670593E-4</v>
       </c>
       <c r="KG11" s="2">
@@ -8293,18 +9109,18 @@
         <v>0.91</v>
       </c>
       <c r="KM11" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>3.7699837169959297E-2</v>
       </c>
       <c r="KN11" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.98697086956932889</v>
       </c>
       <c r="KP11" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="KQ11" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>7.9701523684246697E-2</v>
       </c>
       <c r="KR11" s="2">
@@ -8314,46 +9130,214 @@
         <v>0.4</v>
       </c>
       <c r="KU11" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>8.7251458572169219E-2</v>
       </c>
       <c r="KV11" s="2">
         <v>0.97599999999999998</v>
       </c>
       <c r="KW11">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.97912212352672057</v>
       </c>
       <c r="KY11" s="2">
         <v>0.4</v>
       </c>
       <c r="KZ11" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.1028235935862653</v>
       </c>
       <c r="LA11" s="2">
         <v>0.94699999999999995</v>
       </c>
       <c r="LB11">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.9797361414098692</v>
       </c>
       <c r="LD11" s="2">
         <v>0.4</v>
       </c>
       <c r="LE11" s="2">
-        <f t="shared" si="78"/>
-        <v>0.1028235935862653</v>
+        <f t="shared" si="89"/>
+        <v>0.1185482136498098</v>
       </c>
       <c r="LF11" s="2">
         <v>0.90500000000000003</v>
       </c>
       <c r="LG11">
+        <f t="shared" si="90"/>
+        <v>0.98062609141659807</v>
+      </c>
+      <c r="LI11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="LJ11" s="2">
+        <f t="shared" si="91"/>
+        <v>5.9570562301569381E-2</v>
+      </c>
+      <c r="LK11" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="LL11">
         <f t="shared" si="44"/>
+        <v>0.98009626193390309</v>
+      </c>
+      <c r="LN11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="LO11" s="2">
+        <f t="shared" si="92"/>
+        <v>0.1355941579995574</v>
+      </c>
+      <c r="LP11" s="2">
+        <v>0.441</v>
+      </c>
+      <c r="LQ11">
+        <f t="shared" si="45"/>
+        <v>0.9905118815558317</v>
+      </c>
+      <c r="LS11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="LT11" s="2">
+        <f t="shared" si="93"/>
+        <v>8.6928430893813066E-2</v>
+      </c>
+      <c r="LU11" s="2">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="LV11">
+        <f t="shared" si="46"/>
         <v>0.98062609141659807</v>
       </c>
+      <c r="LX11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="LY11" s="2">
+        <f t="shared" si="94"/>
+        <v>0.10175983213687743</v>
+      </c>
+      <c r="LZ11" s="2">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="MA11">
+        <f t="shared" si="47"/>
+        <v>0.98980551724609689</v>
+      </c>
+      <c r="MC11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="MD11" s="2">
+        <f t="shared" si="95"/>
+        <v>9.4907952138732515E-2</v>
+      </c>
+      <c r="ME11" s="2">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="MF11">
+        <f t="shared" si="48"/>
+        <v>0.98957017443392747</v>
+      </c>
+      <c r="MH11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="MI11" s="2">
+        <f t="shared" si="96"/>
+        <v>3.1349407767027902E-2</v>
+      </c>
+      <c r="MJ11" s="2">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="MK11">
+        <f t="shared" si="49"/>
+        <v>0.97907979165322301</v>
+      </c>
+      <c r="MM11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="MN11" s="2">
+        <f t="shared" si="97"/>
+        <v>4.8673660817912336E-2</v>
+      </c>
+      <c r="MO11" s="2">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="MP11">
+        <f t="shared" si="50"/>
+        <v>0.97859310663359056</v>
+      </c>
+      <c r="MR11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="MS11" s="2">
+        <f t="shared" si="98"/>
+        <v>3.8631626712197067E-2</v>
+      </c>
+      <c r="MT11" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="MU11">
+        <f t="shared" si="51"/>
+        <v>0.9793338103499506</v>
+      </c>
+      <c r="MW11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="MX11" s="2">
+        <f t="shared" si="99"/>
+        <v>2.4584375402358947E-2</v>
+      </c>
+      <c r="MY11" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="MZ11">
+        <f t="shared" si="52"/>
+        <v>0.97988441030378903</v>
+      </c>
+      <c r="NB11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="NC11" s="2">
+        <f t="shared" si="100"/>
+        <v>1.6518554360953428E-2</v>
+      </c>
+      <c r="ND11" s="2">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="NE11">
+        <f t="shared" si="53"/>
+        <v>0.98092292102529466</v>
+      </c>
+      <c r="NG11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="NH11" s="2">
+        <f t="shared" si="101"/>
+        <v>4.0837310661285132E-2</v>
+      </c>
+      <c r="NI11" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="NJ11">
+        <f t="shared" si="54"/>
+        <v>0.98079569733557748</v>
+      </c>
+      <c r="NL11" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="NM11" s="2">
+        <f t="shared" si="102"/>
+        <v>5.6920505943286966E-2</v>
+      </c>
+      <c r="NN11" s="2">
+        <v>0.873</v>
+      </c>
+      <c r="NO11">
+        <f t="shared" si="55"/>
+        <v>0.98130469111975993</v>
+      </c>
     </row>
-    <row r="12" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -8576,7 +9560,7 @@
         <v>0.6</v>
       </c>
       <c r="CS12" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>8.7395697085313417E-2</v>
       </c>
       <c r="CT12" s="2">
@@ -8616,7 +9600,7 @@
         <v>0.5</v>
       </c>
       <c r="DM12" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>7.5828288896076887E-2</v>
       </c>
       <c r="DN12" s="2">
@@ -8654,7 +9638,7 @@
         <v>0.6</v>
       </c>
       <c r="EA12" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>6.8493661099363778E-2</v>
       </c>
       <c r="EB12" s="2">
@@ -8759,7 +9743,7 @@
         <v>2.06</v>
       </c>
       <c r="FL12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>0.71430648117847162</v>
       </c>
       <c r="FN12" s="2">
@@ -8773,7 +9757,7 @@
         <v>1.75</v>
       </c>
       <c r="FQ12">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>0.75904549040402636</v>
       </c>
       <c r="FS12" s="2">
@@ -8787,7 +9771,7 @@
         <v>1.35</v>
       </c>
       <c r="FV12">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>0.87712233019881447</v>
       </c>
       <c r="FX12" s="2">
@@ -8801,7 +9785,7 @@
         <v>1.54</v>
       </c>
       <c r="GA12">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.84694156155146061</v>
       </c>
       <c r="GC12" s="2">
@@ -8815,7 +9799,7 @@
         <v>1.79</v>
       </c>
       <c r="GF12">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>0.79511207199004585</v>
       </c>
       <c r="GH12" s="2">
@@ -8829,7 +9813,7 @@
         <v>1.29</v>
       </c>
       <c r="GK12">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.90776710162251328</v>
       </c>
       <c r="GM12" s="2">
@@ -8843,29 +9827,29 @@
         <v>1.34</v>
       </c>
       <c r="GP12">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.87220761153081561</v>
       </c>
       <c r="GR12" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>5.7226080213796644</v>
       </c>
       <c r="GS12" s="2">
         <v>9.6999999999999993</v>
       </c>
       <c r="GT12" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.31415468123561313</v>
       </c>
       <c r="GU12" s="2">
         <v>0.87</v>
       </c>
       <c r="GV12" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.90654312781546742</v>
       </c>
       <c r="GW12" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.95968958707620799</v>
       </c>
       <c r="GY12" s="2">
@@ -8875,11 +9859,11 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="HA12" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>5.5485066930831127E-2</v>
       </c>
       <c r="HB12" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.98501700004425385</v>
       </c>
       <c r="HD12" s="2">
@@ -8892,7 +9876,7 @@
         <v>0.91259999999999997</v>
       </c>
       <c r="HG12" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>6.5984556634464701E-4</v>
       </c>
       <c r="HH12" s="2">
@@ -8911,7 +9895,7 @@
         <v>0.91620000000000001</v>
       </c>
       <c r="HN12" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>9.000188863016596E-4</v>
       </c>
       <c r="HO12" s="2">
@@ -8930,7 +9914,7 @@
         <v>0.92330000000000001</v>
       </c>
       <c r="HU12" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>7.7073860380343854E-4</v>
       </c>
       <c r="HV12" s="2">
@@ -8949,7 +9933,7 @@
         <v>0.93</v>
       </c>
       <c r="IB12" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>9.4935372107283122E-4</v>
       </c>
       <c r="IC12" s="2">
@@ -8968,7 +9952,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="II12" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>9.5008507991996608E-4</v>
       </c>
       <c r="IJ12" s="2">
@@ -8987,7 +9971,7 @@
         <v>0.93020000000000003</v>
       </c>
       <c r="IP12" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>1.1897860229631522E-3</v>
       </c>
       <c r="IQ12" s="2">
@@ -9006,7 +9990,7 @@
         <v>0.92310000000000003</v>
       </c>
       <c r="IW12" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>7.8992512500839461E-4</v>
       </c>
       <c r="IX12" s="2">
@@ -9025,7 +10009,7 @@
         <v>0.91849999999999998</v>
       </c>
       <c r="JD12" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>7.9954012406348101E-4</v>
       </c>
       <c r="JE12" s="2">
@@ -9044,7 +10028,7 @@
         <v>0.93010000000000004</v>
       </c>
       <c r="JK12" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>1.4090334234044544E-3</v>
       </c>
       <c r="JL12" s="2">
@@ -9063,7 +10047,7 @@
         <v>0.93049999999999999</v>
       </c>
       <c r="JR12" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>9.3815483902021666E-4</v>
       </c>
       <c r="JS12" s="2">
@@ -9101,7 +10085,7 @@
         <v>0.92259999999999998</v>
       </c>
       <c r="KF12" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>9.7000996707644917E-4</v>
       </c>
       <c r="KG12" s="2">
@@ -9120,18 +10104,18 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="KM12" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>4.6684794177745598E-2</v>
       </c>
       <c r="KN12" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.98375792059632738</v>
       </c>
       <c r="KP12" s="2">
         <v>0.52300000000000002</v>
       </c>
       <c r="KQ12" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>0.10453387413846615</v>
       </c>
       <c r="KR12" s="2">
@@ -9141,46 +10125,214 @@
         <v>0.5</v>
       </c>
       <c r="KU12" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.10673610304692314</v>
       </c>
       <c r="KV12" s="2">
         <v>1.014</v>
       </c>
       <c r="KW12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.97297151916177327</v>
       </c>
       <c r="KY12" s="2">
         <v>0.5</v>
       </c>
       <c r="KZ12" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.12530832881409304</v>
       </c>
       <c r="LA12" s="2">
         <v>0.98199999999999998</v>
       </c>
       <c r="LB12">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.97381322031176532</v>
       </c>
       <c r="LD12" s="2">
         <v>0.5</v>
       </c>
       <c r="LE12" s="2">
-        <f t="shared" si="78"/>
-        <v>0.12530832881409304</v>
+        <f t="shared" si="89"/>
+        <v>0.14391990514632549</v>
       </c>
       <c r="LF12" s="2">
         <v>0.92900000000000005</v>
       </c>
       <c r="LG12">
+        <f t="shared" si="90"/>
+        <v>0.97520888984223353</v>
+      </c>
+      <c r="LI12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="LJ12" s="2">
+        <f t="shared" si="91"/>
+        <v>7.3370522063047866E-2</v>
+      </c>
+      <c r="LK12" s="2">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="LL12">
         <f t="shared" si="44"/>
-        <v>0.97520888984223353</v>
+        <v>0.9735764182941864</v>
+      </c>
+      <c r="LN12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="LO12" s="2">
+        <f t="shared" si="92"/>
+        <v>0.16393552270751119</v>
+      </c>
+      <c r="LP12" s="2">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="LQ12">
+        <f t="shared" si="45"/>
+        <v>0.98719314528614943</v>
+      </c>
+      <c r="LS12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="LT12" s="2">
+        <f t="shared" si="93"/>
+        <v>0.10634934323379107</v>
+      </c>
+      <c r="LU12" s="2">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="LV12">
+        <f t="shared" si="46"/>
+        <v>0.97452397200324836</v>
+      </c>
+      <c r="LX12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="LY12" s="2">
+        <f t="shared" si="94"/>
+        <v>0.12404411313846236</v>
+      </c>
+      <c r="LZ12" s="2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="MA12">
+        <f t="shared" si="47"/>
+        <v>0.98743325928660286</v>
+      </c>
+      <c r="MC12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="MD12" s="2">
+        <f t="shared" si="95"/>
+        <v>0.11588533032734345</v>
+      </c>
+      <c r="ME12" s="2">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="MF12">
+        <f t="shared" si="48"/>
+        <v>0.98703310172477154</v>
+      </c>
+      <c r="MH12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="MI12" s="2">
+        <f t="shared" si="96"/>
+        <v>3.8882027574474627E-2</v>
+      </c>
+      <c r="MJ12" s="2">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="MK12">
+        <f t="shared" si="49"/>
+        <v>0.97352380344403522</v>
+      </c>
+      <c r="MM12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="MN12" s="2">
+        <f t="shared" si="97"/>
+        <v>6.0110624979439919E-2</v>
+      </c>
+      <c r="MO12" s="2">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="MP12">
+        <f t="shared" si="50"/>
+        <v>0.97284006909070775</v>
+      </c>
+      <c r="MR12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="MS12" s="2">
+        <f t="shared" si="98"/>
+        <v>4.7827618712091631E-2</v>
+      </c>
+      <c r="MT12" s="2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="MU12">
+        <f t="shared" si="51"/>
+        <v>0.97397112032101851</v>
+      </c>
+      <c r="MW12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="MX12" s="2">
+        <f t="shared" si="99"/>
+        <v>3.0542750641053606E-2</v>
+      </c>
+      <c r="MY12" s="2">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="MZ12">
+        <f t="shared" si="52"/>
+        <v>0.97481368620901032</v>
+      </c>
+      <c r="NB12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="NC12" s="2">
+        <f t="shared" si="100"/>
+        <v>2.0563274061087468E-2</v>
+      </c>
+      <c r="ND12" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="NE12">
+        <f t="shared" si="53"/>
+        <v>0.9763426951301849</v>
+      </c>
+      <c r="NG12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="NH12" s="2">
+        <f t="shared" si="101"/>
+        <v>5.053075330890032E-2</v>
+      </c>
+      <c r="NI12" s="2">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="NJ12">
+        <f t="shared" si="54"/>
+        <v>0.97618441064168326</v>
+      </c>
+      <c r="NL12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="NM12" s="2">
+        <f t="shared" si="102"/>
+        <v>7.0152355536545336E-2</v>
+      </c>
+      <c r="NN12" s="2">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="NO12">
+        <f t="shared" si="55"/>
+        <v>0.9768968929807923</v>
       </c>
     </row>
-    <row r="13" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -9403,7 +10555,7 @@
         <v>0.7</v>
       </c>
       <c r="CS13" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.10049780070812771</v>
       </c>
       <c r="CT13" s="2">
@@ -9443,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="DM13" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.14096727085301949</v>
       </c>
       <c r="DN13" s="2">
@@ -9453,7 +10605,7 @@
         <v>0.7</v>
       </c>
       <c r="DQ13" s="2">
-        <f t="shared" ref="DQ13:DQ33" si="80">$CD$3*DP13/(1+$CD$3*DP13)</f>
+        <f t="shared" ref="DQ13:DQ33" si="104">$CD$3*DP13/(1+$CD$3*DP13)</f>
         <v>6.9311187903279087E-2</v>
       </c>
       <c r="DR13" s="2">
@@ -9481,7 +10633,7 @@
         <v>0.7</v>
       </c>
       <c r="EA13" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="103"/>
         <v>7.9007354126277282E-2</v>
       </c>
       <c r="EB13" s="2">
@@ -9573,7 +10725,7 @@
         <v>2.21</v>
       </c>
       <c r="FL13">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>0.66816342815893837</v>
       </c>
       <c r="FS13" s="2">
@@ -9587,7 +10739,7 @@
         <v>1.39</v>
       </c>
       <c r="FV13">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>0.84683949529982472</v>
       </c>
       <c r="FX13" s="2">
@@ -9601,7 +10753,7 @@
         <v>1.62</v>
       </c>
       <c r="GA13">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.81083836913062435</v>
       </c>
       <c r="GC13" s="2">
@@ -9615,7 +10767,7 @@
         <v>1.96</v>
       </c>
       <c r="GF13">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>0.7329458308398954</v>
       </c>
       <c r="GM13" s="2">
@@ -9629,29 +10781,29 @@
         <v>1.37</v>
       </c>
       <c r="GP13">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.8468587175998441</v>
       </c>
       <c r="GR13" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>6.9386622259228421</v>
       </c>
       <c r="GS13" s="2">
         <v>8</v>
       </c>
       <c r="GT13" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.3570749856131476</v>
       </c>
       <c r="GU13" s="2">
         <v>0.85</v>
       </c>
       <c r="GV13" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.88889013825755647</v>
       </c>
       <c r="GW13" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.95624865595450215</v>
       </c>
       <c r="GY13" s="2">
@@ -9661,11 +10813,11 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="HA13" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>6.5851327256930367E-2</v>
       </c>
       <c r="HB13" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.98213236945692517</v>
       </c>
       <c r="HD13" s="2">
@@ -9678,7 +10830,7 @@
         <v>0.90510000000000002</v>
       </c>
       <c r="HG13" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>7.9171019832073814E-4</v>
       </c>
       <c r="HH13" s="2">
@@ -9697,7 +10849,7 @@
         <v>0.9093</v>
       </c>
       <c r="HN13" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.0798282903909284E-3</v>
       </c>
       <c r="HO13" s="2">
@@ -9716,7 +10868,7 @@
         <v>0.91759999999999997</v>
       </c>
       <c r="HU13" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>9.2474377741854968E-4</v>
       </c>
       <c r="HV13" s="2">
@@ -9735,7 +10887,7 @@
         <v>0.9254</v>
       </c>
       <c r="IB13" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.1390082009526163E-3</v>
       </c>
       <c r="IC13" s="2">
@@ -9754,7 +10906,7 @@
         <v>0.9254</v>
       </c>
       <c r="II13" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.1398854982630161E-3</v>
       </c>
       <c r="IJ13" s="2">
@@ -9773,7 +10925,7 @@
         <v>0.92569999999999997</v>
       </c>
       <c r="IP13" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>1.4274035665932507E-3</v>
       </c>
       <c r="IQ13" s="2">
@@ -9792,7 +10944,7 @@
         <v>0.91739999999999999</v>
       </c>
       <c r="IW13" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>9.4776041805673134E-4</v>
       </c>
       <c r="IX13" s="2">
@@ -9811,7 +10963,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="JD13" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>9.5929474994749979E-4</v>
       </c>
       <c r="JE13" s="2">
@@ -9830,7 +10982,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="JK13" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>1.6903637522804103E-3</v>
       </c>
       <c r="JL13" s="2">
@@ -9849,7 +11001,7 @@
         <v>0.92610000000000003</v>
       </c>
       <c r="JR13" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.1255746141700677E-3</v>
       </c>
       <c r="JS13" s="2">
@@ -9887,7 +11039,7 @@
         <v>0.91679999999999995</v>
       </c>
       <c r="KF13" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.1637861836522013E-3</v>
       </c>
       <c r="KG13" s="2">
@@ -9906,18 +11058,18 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="KM13" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>5.5503518941707859E-2</v>
       </c>
       <c r="KN13" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.98054129945595747</v>
       </c>
       <c r="KP13" s="2">
         <v>1.097</v>
       </c>
       <c r="KQ13" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>0.19669499014654782</v>
       </c>
       <c r="KR13" s="2">
@@ -9927,46 +11079,214 @@
         <v>0.6</v>
       </c>
       <c r="KU13" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.12540624879743356</v>
       </c>
       <c r="KV13" s="2">
         <v>1.0509999999999999</v>
       </c>
       <c r="KW13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.96649384771562896</v>
       </c>
       <c r="KY13" s="2">
         <v>0.6</v>
       </c>
       <c r="KZ13" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.1466936083938043</v>
       </c>
       <c r="LA13" s="2">
         <v>1.0169999999999999</v>
       </c>
       <c r="LB13">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.96755999871015086</v>
       </c>
       <c r="LD13" s="2">
         <v>0.6</v>
       </c>
       <c r="LE13" s="2">
-        <f t="shared" si="78"/>
-        <v>0.1466936083938043</v>
+        <f t="shared" si="89"/>
+        <v>0.16787186558134967</v>
       </c>
       <c r="LF13" s="2">
         <v>0.95399999999999996</v>
       </c>
       <c r="LG13">
+        <f t="shared" si="90"/>
+        <v>0.96953862334846896</v>
+      </c>
+      <c r="LI13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="LJ13" s="2">
+        <f t="shared" si="91"/>
+        <v>9.9790071044567594E-2</v>
+      </c>
+      <c r="LK13" s="2">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="LL13">
         <f t="shared" si="44"/>
-        <v>0.96953862334846896</v>
+        <v>0.95865940851853548</v>
+      </c>
+      <c r="LN13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="LO13" s="2">
+        <f t="shared" si="92"/>
+        <v>0.21538596733494855</v>
+      </c>
+      <c r="LP13" s="2">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="LQ13">
+        <f t="shared" si="45"/>
+        <v>0.9780749473880177</v>
+      </c>
+      <c r="LS13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="LT13" s="2">
+        <f t="shared" si="93"/>
+        <v>0.14281381821841224</v>
+      </c>
+      <c r="LU13" s="2">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="LV13">
+        <f t="shared" si="46"/>
+        <v>0.96080155511067278</v>
+      </c>
+      <c r="LX13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="LY13" s="2">
+        <f t="shared" si="94"/>
+        <v>0.16545239990853361</v>
+      </c>
+      <c r="LZ13" s="2">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="MA13">
+        <f t="shared" si="47"/>
+        <v>0.98252523018589955</v>
+      </c>
+      <c r="MC13" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="MD13" s="2">
+        <f t="shared" si="95"/>
+        <v>0.15505215440576928</v>
+      </c>
+      <c r="ME13" s="2">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="MF13">
+        <f t="shared" si="48"/>
+        <v>0.98170783185921862</v>
+      </c>
+      <c r="MH13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="MI13" s="2">
+        <f t="shared" si="96"/>
+        <v>4.6298397972048912E-2</v>
+      </c>
+      <c r="MJ13" s="2">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="MK13">
+        <f t="shared" si="49"/>
+        <v>0.96787379629621506</v>
+      </c>
+      <c r="MM13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="MN13" s="2">
+        <f t="shared" si="97"/>
+        <v>7.1275862645414981E-2</v>
+      </c>
+      <c r="MO13" s="2">
+        <v>1.038</v>
+      </c>
+      <c r="MP13">
+        <f t="shared" si="50"/>
+        <v>0.9669013548951565</v>
+      </c>
+      <c r="MR13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="MS13" s="2">
+        <f t="shared" si="98"/>
+        <v>5.6849348660160184E-2</v>
+      </c>
+      <c r="MT13" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="MU13">
+        <f t="shared" si="51"/>
+        <v>0.96847029211434577</v>
+      </c>
+      <c r="MW13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="MX13" s="2">
+        <f t="shared" si="99"/>
+        <v>3.6428773778528933E-2</v>
+      </c>
+      <c r="MY13" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="MZ13">
+        <f t="shared" si="52"/>
+        <v>0.9696643868294067</v>
+      </c>
+      <c r="NB13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="NC13" s="2">
+        <f t="shared" si="100"/>
+        <v>2.4574860953146427E-2</v>
+      </c>
+      <c r="ND13" s="2">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="NE13">
+        <f t="shared" si="53"/>
+        <v>0.97180486368023633</v>
+      </c>
+      <c r="NG13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="NH13" s="2">
+        <f t="shared" si="101"/>
+        <v>6.0030229427821595E-2</v>
+      </c>
+      <c r="NI13" s="2">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="NJ13">
+        <f t="shared" si="54"/>
+        <v>0.97161580816600712</v>
+      </c>
+      <c r="NL13" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="NM13" s="2">
+        <f t="shared" si="102"/>
+        <v>8.3018044370922861E-2</v>
+      </c>
+      <c r="NN13" s="2">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="NO13">
+        <f t="shared" si="55"/>
+        <v>0.97259299103269781</v>
       </c>
     </row>
-    <row r="14" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -10174,7 +11494,7 @@
         <v>0.8</v>
       </c>
       <c r="CS14" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.11322901974349477</v>
       </c>
       <c r="CT14" s="2">
@@ -10214,7 +11534,7 @@
         <v>1.5</v>
       </c>
       <c r="DM14" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.19752838743329451</v>
       </c>
       <c r="DN14" s="2">
@@ -10224,7 +11544,7 @@
         <v>0.8</v>
       </c>
       <c r="DQ14" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>7.843614299722057E-2</v>
       </c>
       <c r="DR14" s="2">
@@ -10274,7 +11594,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="FL14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>0.59280992485969486</v>
       </c>
       <c r="FS14" s="2">
@@ -10288,7 +11608,7 @@
         <v>1.54</v>
       </c>
       <c r="FV14">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>0.79920829736841181</v>
       </c>
       <c r="FX14" s="2">
@@ -10302,7 +11622,7 @@
         <v>1.81</v>
       </c>
       <c r="GA14">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.77119772580275148</v>
       </c>
       <c r="GC14" s="2">
@@ -10316,7 +11636,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="GF14">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>0.65079087504023392</v>
       </c>
       <c r="GM14" s="2">
@@ -10330,29 +11650,29 @@
         <v>1.42</v>
       </c>
       <c r="GP14">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.82523461455903513</v>
       </c>
       <c r="GR14" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>8.1631320304974615</v>
       </c>
       <c r="GS14" s="2">
         <v>6.8</v>
       </c>
       <c r="GT14" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.39518625490631709</v>
       </c>
       <c r="GU14" s="2">
         <v>0.83</v>
       </c>
       <c r="GV14" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.87179628565173184</v>
       </c>
       <c r="GW14" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.95205727950482599</v>
       </c>
       <c r="GY14" s="2">
@@ -10362,11 +11682,11 @@
         <v>0.82550000000000001</v>
       </c>
       <c r="HA14" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>7.599251381701197E-2</v>
       </c>
       <c r="HB14" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.97939556096062719</v>
       </c>
       <c r="HD14" s="2">
@@ -10379,7 +11699,7 @@
         <v>0.89829999999999999</v>
       </c>
       <c r="HG14" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>9.235400353634352E-4</v>
       </c>
       <c r="HH14" s="2">
@@ -10398,7 +11718,7 @@
         <v>0.90310000000000001</v>
       </c>
       <c r="HN14" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.2595729850322416E-3</v>
       </c>
       <c r="HO14" s="2">
@@ -10417,7 +11737,7 @@
         <v>0.91259999999999997</v>
       </c>
       <c r="HU14" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>1.078701486573741E-3</v>
       </c>
       <c r="HV14" s="2">
@@ -10436,7 +11756,7 @@
         <v>0.92149999999999999</v>
       </c>
       <c r="IB14" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.3285906884964013E-3</v>
       </c>
       <c r="IC14" s="2">
@@ -10455,7 +11775,7 @@
         <v>0.9214</v>
       </c>
       <c r="II14" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.32961381338949E-3</v>
       </c>
       <c r="IJ14" s="2">
@@ -10474,7 +11794,7 @@
         <v>0.92190000000000005</v>
       </c>
       <c r="IP14" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>1.6649080784039317E-3</v>
       </c>
       <c r="IQ14" s="2">
@@ -10493,7 +11813,7 @@
         <v>0.91239999999999999</v>
       </c>
       <c r="IW14" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.1055458556324671E-3</v>
       </c>
       <c r="IX14" s="2">
@@ -10512,7 +11832,7 @@
         <v>0.90620000000000001</v>
       </c>
       <c r="JD14" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.1189983000730063E-3</v>
       </c>
       <c r="JE14" s="2">
@@ -10531,7 +11851,7 @@
         <v>0.92159999999999997</v>
       </c>
       <c r="JK14" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>1.9715356089388659E-3</v>
       </c>
       <c r="JL14" s="2">
@@ -10550,7 +11870,7 @@
         <v>0.92230000000000001</v>
       </c>
       <c r="JR14" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.3129240841951619E-3</v>
       </c>
       <c r="JS14" s="2">
@@ -10588,7 +11908,7 @@
         <v>0.91169999999999995</v>
       </c>
       <c r="KF14" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.3574872434445008E-3</v>
       </c>
       <c r="KG14" s="2">
@@ -10607,18 +11927,18 @@
         <v>0.91</v>
       </c>
       <c r="KM14" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>6.4160582415094633E-2</v>
       </c>
       <c r="KN14" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.97731054704451703</v>
       </c>
       <c r="KP14" s="2">
         <v>1.7509999999999999</v>
       </c>
       <c r="KQ14" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="84"/>
         <v>0.28100693730431126</v>
       </c>
       <c r="KR14" s="2">
@@ -10628,46 +11948,200 @@
         <v>0.7</v>
       </c>
       <c r="KU14" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.14331192184263325</v>
       </c>
       <c r="KV14" s="2">
         <v>1.089</v>
       </c>
       <c r="KW14">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.95963911953532444</v>
       </c>
       <c r="KY14" s="2">
         <v>0.7</v>
       </c>
       <c r="KZ14" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.16705814933647853</v>
       </c>
       <c r="LA14" s="2">
         <v>1.052</v>
       </c>
       <c r="LB14">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.96098331282147376</v>
       </c>
       <c r="LD14" s="2">
         <v>0.7</v>
       </c>
       <c r="LE14" s="2">
-        <f t="shared" si="78"/>
-        <v>0.16705814933647853</v>
+        <f t="shared" si="89"/>
+        <v>0.19052001803521401</v>
       </c>
       <c r="LF14" s="2">
         <v>0.97699999999999998</v>
       </c>
       <c r="LG14">
+        <f t="shared" si="90"/>
+        <v>0.96371380816635566</v>
+      </c>
+      <c r="LI14" s="2">
+        <v>1</v>
+      </c>
+      <c r="LJ14" s="2">
+        <f t="shared" si="91"/>
+        <v>0.13671052177216064</v>
+      </c>
+      <c r="LK14" s="2">
+        <v>1.323</v>
+      </c>
+      <c r="LL14">
         <f t="shared" si="44"/>
-        <v>0.96371380816635566</v>
+        <v>0.93099569058604459</v>
+      </c>
+      <c r="LN14" s="2">
+        <v>1</v>
+      </c>
+      <c r="LO14" s="2">
+        <f t="shared" si="92"/>
+        <v>0.28169175956786574</v>
+      </c>
+      <c r="LP14" s="2">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="LQ14">
+        <f t="shared" si="45"/>
+        <v>0.95592773496654793</v>
+      </c>
+      <c r="LS14" s="2">
+        <v>1</v>
+      </c>
+      <c r="LT14" s="2">
+        <f t="shared" si="93"/>
+        <v>0.19225273442643079</v>
+      </c>
+      <c r="LU14" s="2">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="LV14">
+        <f t="shared" si="46"/>
+        <v>0.93563619986733582</v>
+      </c>
+      <c r="LX14" s="2">
+        <v>1</v>
+      </c>
+      <c r="LY14" s="2">
+        <f t="shared" si="94"/>
+        <v>0.22071040039899628</v>
+      </c>
+      <c r="LZ14" s="2">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="MA14">
+        <f t="shared" si="47"/>
+        <v>0.97460297642824512</v>
+      </c>
+      <c r="MH14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="MI14" s="2">
+        <f t="shared" si="96"/>
+        <v>5.3601189434025108E-2</v>
+      </c>
+      <c r="MJ14" s="2">
+        <v>1.0229999999999999</v>
+      </c>
+      <c r="MK14">
+        <f t="shared" si="49"/>
+        <v>0.96203818579498424</v>
+      </c>
+      <c r="MM14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="MN14" s="2">
+        <f t="shared" si="97"/>
+        <v>8.2178943900023588E-2</v>
+      </c>
+      <c r="MO14" s="2">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="MP14">
+        <f t="shared" si="50"/>
+        <v>0.96080155511067278</v>
+      </c>
+      <c r="MR14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="MS14" s="2">
+        <f t="shared" si="98"/>
+        <v>6.5701723406601006E-2</v>
+      </c>
+      <c r="MT14" s="2">
+        <v>1</v>
+      </c>
+      <c r="MU14">
+        <f t="shared" si="51"/>
+        <v>0.96287563248528429</v>
+      </c>
+      <c r="MW14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="MX14" s="2">
+        <f t="shared" si="99"/>
+        <v>4.2243754710963533E-2</v>
+      </c>
+      <c r="MY14" s="2">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="MZ14">
+        <f t="shared" si="52"/>
+        <v>0.96444324964144623</v>
+      </c>
+      <c r="NB14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="NC14" s="2">
+        <f t="shared" si="100"/>
+        <v>2.8553720493533566E-2</v>
+      </c>
+      <c r="ND14" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="NE14">
+        <f t="shared" si="53"/>
+        <v>0.96729335075429246</v>
+      </c>
+      <c r="NG14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="NH14" s="2">
+        <f t="shared" si="101"/>
+        <v>6.9341503274056582E-2</v>
+      </c>
+      <c r="NI14" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="NJ14">
+        <f t="shared" si="54"/>
+        <v>0.96707381349825816</v>
+      </c>
+      <c r="NL14" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="NM14" s="2">
+        <f t="shared" si="102"/>
+        <v>9.5532563993332265E-2</v>
+      </c>
+      <c r="NN14" s="2">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="NO14">
+        <f t="shared" si="55"/>
+        <v>0.96831851709537953</v>
       </c>
     </row>
-    <row r="15" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -10872,7 +12346,7 @@
         <v>0.9</v>
       </c>
       <c r="CS15" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.12560488249642324</v>
       </c>
       <c r="CT15" s="2">
@@ -10912,7 +12386,7 @@
         <v>2</v>
       </c>
       <c r="DM15" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.24710134015961449</v>
       </c>
       <c r="DN15" s="2">
@@ -10922,7 +12396,7 @@
         <v>0.9</v>
       </c>
       <c r="DQ15" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>8.7383903824865328E-2</v>
       </c>
       <c r="DR15" s="2">
@@ -10972,7 +12446,7 @@
         <v>2.7</v>
       </c>
       <c r="FL15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="58"/>
         <v>0.51137774732544228</v>
       </c>
       <c r="FS15" s="2">
@@ -10986,7 +12460,7 @@
         <v>1.87</v>
       </c>
       <c r="FV15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>0.72346408296627762</v>
       </c>
       <c r="FX15" s="2">
@@ -11000,7 +12474,7 @@
         <v>2.09</v>
       </c>
       <c r="GA15">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>0.68573655567773595</v>
       </c>
       <c r="GC15" s="2">
@@ -11014,7 +12488,7 @@
         <v>2.59</v>
       </c>
       <c r="GF15">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>0.55892768292238437</v>
       </c>
       <c r="GM15" s="2">
@@ -11028,29 +12502,29 @@
         <v>1.6</v>
       </c>
       <c r="GP15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>0.74540458635814377</v>
       </c>
       <c r="GR15" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>9.3292937491399552</v>
       </c>
       <c r="GS15" s="2">
         <v>5.95</v>
       </c>
       <c r="GT15" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.4275064792523724</v>
       </c>
       <c r="GU15" s="2">
         <v>0.81</v>
       </c>
       <c r="GV15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.85611666614947202</v>
       </c>
       <c r="GW15" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.9461327317024566</v>
       </c>
       <c r="GY15" s="2">
@@ -11060,11 +12534,11 @@
         <v>0.82</v>
       </c>
       <c r="HA15" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>8.5915878139921006E-2</v>
       </c>
       <c r="HB15" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.9766417469699995</v>
       </c>
       <c r="HD15" s="2">
@@ -11077,7 +12551,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="HG15" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>1.0553350912428567E-3</v>
       </c>
       <c r="HH15" s="2">
@@ -11096,7 +12570,7 @@
         <v>0.89749999999999996</v>
       </c>
       <c r="HN15" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.4392530051505739E-3</v>
       </c>
       <c r="HO15" s="2">
@@ -11115,7 +12589,7 @@
         <v>0.90820000000000001</v>
       </c>
       <c r="HU15" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>1.2326117532084819E-3</v>
       </c>
       <c r="HV15" s="2">
@@ -11134,7 +12608,7 @@
         <v>0.91810000000000003</v>
       </c>
       <c r="IB15" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.5181012246885562E-3</v>
       </c>
       <c r="IC15" s="2">
@@ -11153,7 +12627,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="II15" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.5192700663784846E-3</v>
       </c>
       <c r="IJ15" s="2">
@@ -11172,7 +12646,7 @@
         <v>0.91849999999999998</v>
       </c>
       <c r="IP15" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>1.9022996390278418E-3</v>
       </c>
       <c r="IQ15" s="2">
@@ -11191,7 +12665,7 @@
         <v>0.90780000000000005</v>
       </c>
       <c r="IW15" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.263281461353663E-3</v>
       </c>
       <c r="IX15" s="2">
@@ -11210,7 +12684,7 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="JD15" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.278650798930523E-3</v>
       </c>
       <c r="JE15" s="2">
@@ -11229,7 +12703,7 @@
         <v>0.91810000000000003</v>
       </c>
       <c r="JK15" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.2525491272422401E-3</v>
       </c>
       <c r="JL15" s="2">
@@ -11248,7 +12722,7 @@
         <v>0.91890000000000005</v>
       </c>
       <c r="JR15" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.5002032886474916E-3</v>
       </c>
       <c r="JS15" s="2">
@@ -11286,7 +12760,7 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="KF15" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.5511131901696017E-3</v>
       </c>
       <c r="KG15" s="2">
@@ -11305,57 +12779,197 @@
         <v>0.91</v>
       </c>
       <c r="KM15" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>7.2660389487532784E-2</v>
       </c>
       <c r="KN15" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.97411149737843716</v>
       </c>
       <c r="KT15" s="2">
         <v>0.8</v>
       </c>
       <c r="KU15" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.16049913363510593</v>
       </c>
       <c r="KV15" s="2">
         <v>1.131</v>
       </c>
       <c r="KW15">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.95227702161939176</v>
       </c>
       <c r="KY15" s="2">
         <v>0.8</v>
       </c>
       <c r="KZ15" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.18647332934162913</v>
       </c>
       <c r="LA15" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="LB15">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.95396657594187528</v>
       </c>
       <c r="LD15" s="2">
         <v>0.8</v>
       </c>
       <c r="LE15" s="2">
-        <f t="shared" si="78"/>
-        <v>0.18647332934162913</v>
+        <f t="shared" si="89"/>
+        <v>0.21196799959652765</v>
       </c>
       <c r="LF15" s="2">
         <v>1</v>
       </c>
       <c r="LG15">
+        <f t="shared" si="90"/>
+        <v>0.95768587343833</v>
+      </c>
+      <c r="LI15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="LJ15" s="2">
+        <f t="shared" si="91"/>
+        <v>0.15968646221278085</v>
+      </c>
+      <c r="LK15" s="2">
+        <v>1.446</v>
+      </c>
+      <c r="LL15">
         <f t="shared" si="44"/>
-        <v>0.95768587343833</v>
+        <v>0.91048514267541059</v>
+      </c>
+      <c r="LN15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="LO15" s="2">
+        <f t="shared" si="92"/>
+        <v>0.32000174079554361</v>
+      </c>
+      <c r="LP15" s="2">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="LQ15">
+        <f t="shared" si="45"/>
+        <v>0.93483760094127633</v>
+      </c>
+      <c r="LS15" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="LT15" s="2">
+        <f t="shared" si="93"/>
+        <v>0.22216106679676284</v>
+      </c>
+      <c r="LU15" s="2">
+        <v>1.349</v>
+      </c>
+      <c r="LV15">
+        <f t="shared" si="46"/>
+        <v>0.91623083819780271</v>
+      </c>
+      <c r="MH15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="MI15" s="2">
+        <f t="shared" si="96"/>
+        <v>6.0792991261617989E-2</v>
+      </c>
+      <c r="MJ15" s="2">
+        <v>1.038</v>
+      </c>
+      <c r="MK15">
+        <f t="shared" si="49"/>
+        <v>0.95611373791954757</v>
+      </c>
+      <c r="MM15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="MN15" s="2">
+        <f t="shared" si="97"/>
+        <v>9.2828994636805023E-2</v>
+      </c>
+      <c r="MO15" s="2">
+        <v>1.075</v>
+      </c>
+      <c r="MP15">
+        <f t="shared" si="50"/>
+        <v>0.95458545425820596</v>
+      </c>
+      <c r="MR15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="MS15" s="2">
+        <f t="shared" si="98"/>
+        <v>7.4389467292626216E-2</v>
+      </c>
+      <c r="MT15" s="2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="MU15">
+        <f t="shared" si="51"/>
+        <v>0.95714774690813709</v>
+      </c>
+      <c r="MW15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="MX15" s="2">
+        <f t="shared" si="99"/>
+        <v>4.7988971904250541E-2</v>
+      </c>
+      <c r="MY15" s="2">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="MZ15">
+        <f t="shared" si="52"/>
+        <v>0.95917764946916806</v>
+      </c>
+      <c r="NB15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="NC15" s="2">
+        <f t="shared" si="100"/>
+        <v>3.2500251549934599E-2</v>
+      </c>
+      <c r="ND15" s="2">
+        <v>0.876</v>
+      </c>
+      <c r="NE15">
+        <f t="shared" si="53"/>
+        <v>0.96283400302100319</v>
+      </c>
+      <c r="NG15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="NH15" s="2">
+        <f t="shared" si="101"/>
+        <v>7.8470112942702966E-2</v>
+      </c>
+      <c r="NI15" s="2">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="NJ15">
+        <f t="shared" si="54"/>
+        <v>0.96254264716191318</v>
+      </c>
+      <c r="NL15" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="NM15" s="2">
+        <f t="shared" si="102"/>
+        <v>0.10771009858018832</v>
+      </c>
+      <c r="NN15" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="NO15">
+        <f t="shared" si="55"/>
+        <v>0.9641253537206943</v>
       </c>
     </row>
-    <row r="16" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -11547,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="CS16" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.13764006234517406</v>
       </c>
       <c r="CT16" s="2">
@@ -11587,7 +13201,7 @@
         <v>2.5</v>
       </c>
       <c r="DM16" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.29090586775394434</v>
       </c>
       <c r="DN16" s="2">
@@ -11597,7 +13211,7 @@
         <v>1</v>
       </c>
       <c r="DQ16" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>9.6159582064190743E-2</v>
       </c>
       <c r="DR16" s="2">
@@ -11623,25 +13237,25 @@
       </c>
       <c r="EC16"/>
       <c r="GR16" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>10.674864962958218</v>
       </c>
       <c r="GS16" s="2">
         <v>5.2</v>
       </c>
       <c r="GT16" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.46075603985701208</v>
       </c>
       <c r="GU16" s="2">
         <v>0.79</v>
       </c>
       <c r="GV16" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.83871138863949279</v>
       </c>
       <c r="GW16" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.9419211551204647</v>
       </c>
       <c r="GY16" s="2">
@@ -11651,11 +13265,11 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="HA16" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>9.5628363553686327E-2</v>
       </c>
       <c r="HB16" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.97388690379687926</v>
       </c>
       <c r="HD16" s="2">
@@ -11668,7 +13282,7 @@
         <v>0.88629999999999998</v>
       </c>
       <c r="HG16" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>1.1870953797218544E-3</v>
       </c>
       <c r="HH16" s="2">
@@ -11687,7 +13301,7 @@
         <v>0.89229999999999998</v>
       </c>
       <c r="HN16" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.6188683856457726E-3</v>
       </c>
       <c r="HO16" s="2">
@@ -11706,7 +13320,7 @@
         <v>0.90410000000000001</v>
       </c>
       <c r="HU16" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>1.3864745992487224E-3</v>
       </c>
       <c r="HV16" s="2">
@@ -11725,7 +13339,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="IB16" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.7075398504823478E-3</v>
       </c>
       <c r="IC16" s="2">
@@ -11744,7 +13358,7 @@
         <v>0.91490000000000005</v>
       </c>
       <c r="II16" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.7088542982778981E-3</v>
       </c>
       <c r="IJ16" s="2">
@@ -11763,7 +13377,7 @@
         <v>0.91549999999999998</v>
       </c>
       <c r="IP16" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>2.1395783290209507E-3</v>
       </c>
       <c r="IQ16" s="2">
@@ -11782,7 +13396,7 @@
         <v>0.90369999999999995</v>
       </c>
       <c r="IW16" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.4209672588234631E-3</v>
       </c>
       <c r="IX16" s="2">
@@ -11801,7 +13415,7 @@
         <v>0.8962</v>
       </c>
       <c r="JD16" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.4382522709949167E-3</v>
       </c>
       <c r="JE16" s="2">
@@ -11820,7 +13434,7 @@
         <v>0.91490000000000005</v>
       </c>
       <c r="JK16" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.5334044409022318E-3</v>
       </c>
       <c r="JL16" s="2">
@@ -11839,7 +13453,7 @@
         <v>0.91590000000000005</v>
       </c>
       <c r="JR16" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.6874122670493864E-3</v>
       </c>
       <c r="JS16" s="2">
@@ -11877,7 +13491,7 @@
         <v>0.90280000000000005</v>
       </c>
       <c r="KF16" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.7446640675098607E-3</v>
       </c>
       <c r="KG16" s="2">
@@ -11896,57 +13510,197 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="KM16" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>8.1007186458553412E-2</v>
       </c>
       <c r="KN16" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.97089143601521077</v>
       </c>
       <c r="KT16" s="2">
         <v>0.9</v>
       </c>
       <c r="KU16" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.17701027584969573</v>
       </c>
       <c r="KV16" s="2">
         <v>1.175</v>
       </c>
       <c r="KW16">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.94445062992512163</v>
       </c>
       <c r="KY16" s="2">
         <v>0.9</v>
       </c>
       <c r="KZ16" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.20500402267964524</v>
       </c>
       <c r="LA16" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="LB16">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.9465201025631319</v>
       </c>
       <c r="LD16" s="2">
         <v>0.9</v>
       </c>
       <c r="LE16" s="2">
-        <f t="shared" si="78"/>
-        <v>0.20500402267964524</v>
+        <f t="shared" si="89"/>
+        <v>0.23230874699736759</v>
       </c>
       <c r="LF16" s="2">
         <v>1.024</v>
       </c>
       <c r="LG16">
+        <f t="shared" si="90"/>
+        <v>0.95141279931364664</v>
+      </c>
+      <c r="LI16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="LJ16" s="2">
+        <f t="shared" si="91"/>
+        <v>0.1814711255754258</v>
+      </c>
+      <c r="LK16" s="2">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="LL16">
         <f t="shared" si="44"/>
-        <v>0.95141279931364664</v>
+        <v>0.88900317088851011</v>
+      </c>
+      <c r="LN16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="LO16" s="2">
+        <f t="shared" si="92"/>
+        <v>0.35443221021753052</v>
+      </c>
+      <c r="LP16" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="LQ16">
+        <f t="shared" si="45"/>
+        <v>0.90906909642680478</v>
+      </c>
+      <c r="LS16" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="LT16" s="2">
+        <f t="shared" si="93"/>
+        <v>0.24993365663192907</v>
+      </c>
+      <c r="LU16" s="2">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="LV16">
+        <f t="shared" si="46"/>
+        <v>0.89480671852593363</v>
+      </c>
+      <c r="MH16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="MI16" s="2">
+        <f t="shared" si="96"/>
+        <v>6.7876314643942726E-2</v>
+      </c>
+      <c r="MJ16" s="2">
+        <v>1.054</v>
+      </c>
+      <c r="MK16">
+        <f t="shared" si="49"/>
+        <v>0.95002551345518937</v>
+      </c>
+      <c r="MM16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="MN16" s="2">
+        <f t="shared" si="97"/>
+        <v>0.10323472203415061</v>
+      </c>
+      <c r="MO16" s="2">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="MP16">
+        <f t="shared" si="50"/>
+        <v>0.94817894511743317</v>
+      </c>
+      <c r="MR16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="MS16" s="2">
+        <f t="shared" si="98"/>
+        <v>8.2917130557751462E-2</v>
+      </c>
+      <c r="MT16" s="2">
+        <v>1.026</v>
+      </c>
+      <c r="MU16">
+        <f t="shared" si="51"/>
+        <v>0.95132025059754666</v>
+      </c>
+      <c r="MW16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="MX16" s="2">
+        <f t="shared" si="99"/>
+        <v>5.3665673331068441E-2</v>
+      </c>
+      <c r="MY16" s="2">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="MZ16">
+        <f t="shared" si="52"/>
+        <v>0.9538686236753624</v>
+      </c>
+      <c r="NB16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="NC16" s="2">
+        <f t="shared" si="100"/>
+        <v>3.6414846534610537E-2</v>
+      </c>
+      <c r="ND16" s="2">
+        <v>0.874</v>
+      </c>
+      <c r="NE16">
+        <f t="shared" si="53"/>
+        <v>0.95837967484054953</v>
+      </c>
+      <c r="NG16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="NH16" s="2">
+        <f t="shared" si="101"/>
+        <v>8.7421381352003474E-2</v>
+      </c>
+      <c r="NI16" s="2">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="NJ16">
+        <f t="shared" si="54"/>
+        <v>0.95800682357191858</v>
+      </c>
+      <c r="NL16" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="NM16" s="2">
+        <f t="shared" si="102"/>
+        <v>0.11956407856657988</v>
+      </c>
+      <c r="NN16" s="2">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="NO16">
+        <f t="shared" si="55"/>
+        <v>0.96001260608504713</v>
       </c>
     </row>
-    <row r="17" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -12141,7 +13895,7 @@
         <v>1.2</v>
       </c>
       <c r="CS17" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.16074313576846283</v>
       </c>
       <c r="CT17" s="2">
@@ -12181,7 +13935,7 @@
         <v>3</v>
       </c>
       <c r="DM17" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.32989345305903639</v>
       </c>
       <c r="DN17" s="2">
@@ -12191,7 +13945,7 @@
         <v>1.2</v>
       </c>
       <c r="DQ17" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.11321417296580201</v>
       </c>
       <c r="DR17" s="2">
@@ -12217,25 +13971,25 @@
       </c>
       <c r="EC17"/>
       <c r="GR17" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>11.937483399437147</v>
       </c>
       <c r="GS17" s="2">
         <v>4.6500000000000004</v>
       </c>
       <c r="GT17" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.48862496966811186</v>
       </c>
       <c r="GU17" s="2">
         <v>0.77</v>
       </c>
       <c r="GV17" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.82301069220416956</v>
       </c>
       <c r="GW17" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.93558930314477762</v>
       </c>
       <c r="GY17" s="2">
@@ -12245,11 +13999,11 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="HA17" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.10513662138711662</v>
       </c>
       <c r="HB17" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.97120281484217019</v>
       </c>
       <c r="HD17" s="2">
@@ -12262,7 +14016,7 @@
         <v>0.88090000000000002</v>
       </c>
       <c r="HG17" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>1.3188209145560219E-3</v>
       </c>
       <c r="HH17" s="2">
@@ -12281,7 +14035,7 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="HN17" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.7984191613925787E-3</v>
       </c>
       <c r="HO17" s="2">
@@ -12300,7 +14054,7 @@
         <v>0.90039999999999998</v>
       </c>
       <c r="HU17" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>1.5402900466069029E-3</v>
       </c>
       <c r="HV17" s="2">
@@ -12319,7 +14073,7 @@
         <v>0.91220000000000001</v>
       </c>
       <c r="IB17" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.8969066067999697E-3</v>
       </c>
       <c r="IC17" s="2">
@@ -12338,7 +14092,7 @@
         <v>0.91220000000000001</v>
       </c>
       <c r="II17" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.898366550104459E-3</v>
       </c>
       <c r="IJ17" s="2">
@@ -12357,7 +14111,7 @@
         <v>0.91279999999999994</v>
       </c>
       <c r="IP17" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>2.3767442288626455E-3</v>
       </c>
       <c r="IQ17" s="2">
@@ -12376,7 +14130,7 @@
         <v>0.89990000000000003</v>
       </c>
       <c r="IW17" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.5786032716301082E-3</v>
       </c>
       <c r="IX17" s="2">
@@ -12395,7 +14149,7 @@
         <v>0.89180000000000004</v>
       </c>
       <c r="JD17" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.5978027407254132E-3</v>
       </c>
       <c r="JE17" s="2">
@@ -12414,7 +14168,7 @@
         <v>0.91210000000000002</v>
       </c>
       <c r="JK17" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.8141016834800272E-3</v>
       </c>
       <c r="JL17" s="2">
@@ -12433,7 +14187,7 @@
         <v>0.9133</v>
       </c>
       <c r="JR17" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.8745510588935421E-3</v>
       </c>
       <c r="JS17" s="2">
@@ -12471,7 +14225,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="KF17" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.9381399191137694E-3</v>
       </c>
       <c r="KG17" s="2">
@@ -12490,57 +14244,169 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="KM17" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>8.9205068111112146E-2</v>
       </c>
       <c r="KN17" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.96764018174766664</v>
       </c>
       <c r="KT17" s="2">
         <v>1</v>
       </c>
       <c r="KU17" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.19288446948296178</v>
       </c>
       <c r="KV17" s="2">
         <v>1.2190000000000001</v>
       </c>
       <c r="KW17">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.93624318649629623</v>
       </c>
       <c r="KY17" s="2">
         <v>1</v>
       </c>
       <c r="KZ17" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.22270932437894478</v>
       </c>
       <c r="LA17" s="2">
         <v>1.17</v>
       </c>
       <c r="LB17">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.93872580476906919</v>
       </c>
       <c r="LD17" s="2">
         <v>1</v>
       </c>
       <c r="LE17" s="2">
-        <f t="shared" si="78"/>
-        <v>0.22270932437894478</v>
+        <f t="shared" si="89"/>
+        <v>0.2516258428563945</v>
       </c>
       <c r="LF17" s="2">
         <v>1.046</v>
       </c>
       <c r="LG17">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.94503779754040906</v>
       </c>
+      <c r="LS17" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="LT17" s="2">
+        <f t="shared" si="93"/>
+        <v>0.26308928447074886</v>
+      </c>
+      <c r="LU17" s="2">
+        <v>1.524</v>
+      </c>
+      <c r="LV17">
+        <f t="shared" si="46"/>
+        <v>0.88378159870987083</v>
+      </c>
+      <c r="MH17" s="2">
+        <v>1</v>
+      </c>
+      <c r="MI17" s="2">
+        <f t="shared" si="96"/>
+        <v>7.4853595581500759E-2</v>
+      </c>
+      <c r="MJ17" s="2">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="MK17">
+        <f t="shared" si="49"/>
+        <v>0.94371080810606978</v>
+      </c>
+      <c r="MM17" s="2">
+        <v>1</v>
+      </c>
+      <c r="MN17" s="2">
+        <f t="shared" si="97"/>
+        <v>0.11340443829738188</v>
+      </c>
+      <c r="MO17" s="2">
+        <v>1.113</v>
+      </c>
+      <c r="MP17">
+        <f t="shared" si="50"/>
+        <v>0.94162203270939127</v>
+      </c>
+      <c r="MR17" s="2">
+        <v>1</v>
+      </c>
+      <c r="MS17" s="2">
+        <f t="shared" si="98"/>
+        <v>9.1289097286589238E-2</v>
+      </c>
+      <c r="MT17" s="2">
+        <v>1041</v>
+      </c>
+      <c r="MU17">
+        <f t="shared" si="51"/>
+        <v>3.6858236523030698E-25</v>
+      </c>
+      <c r="MW17" s="2">
+        <v>1</v>
+      </c>
+      <c r="MX17" s="2">
+        <f t="shared" si="99"/>
+        <v>5.9275077374624882E-2</v>
+      </c>
+      <c r="MY17" s="2">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="MZ17">
+        <f t="shared" si="52"/>
+        <v>0.94846595317046878</v>
+      </c>
+      <c r="NB17" s="2">
+        <v>1</v>
+      </c>
+      <c r="NC17" s="2">
+        <f t="shared" si="100"/>
+        <v>4.0297891534467702E-2</v>
+      </c>
+      <c r="ND17" s="2">
+        <v>0.872</v>
+      </c>
+      <c r="NE17">
+        <f t="shared" si="53"/>
+        <v>0.95396657594187528</v>
+      </c>
+      <c r="NG17" s="2">
+        <v>1</v>
+      </c>
+      <c r="NH17" s="2">
+        <f t="shared" si="101"/>
+        <v>9.6200426593398627E-2</v>
+      </c>
+      <c r="NI17" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="NJ17">
+        <f t="shared" si="54"/>
+        <v>0.95355421332046342</v>
+      </c>
+      <c r="NL17" s="2">
+        <v>1</v>
+      </c>
+      <c r="NM17" s="2">
+        <f t="shared" si="102"/>
+        <v>0.13110723005673869</v>
+      </c>
+      <c r="NN17" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="NO17">
+        <f t="shared" si="55"/>
+        <v>0.95597939882351035</v>
+      </c>
     </row>
-    <row r="18" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W18" s="2">
         <v>5</v>
       </c>
@@ -12710,7 +14576,7 @@
         <v>1.4</v>
       </c>
       <c r="CS18" s="2">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>0.18264062071448259</v>
       </c>
       <c r="CT18" s="2">
@@ -12750,7 +14616,7 @@
         <v>3.5</v>
       </c>
       <c r="DM18" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.36481722615682666</v>
       </c>
       <c r="DN18" s="2">
@@ -12760,7 +14626,7 @@
         <v>1.4</v>
       </c>
       <c r="DQ18" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.12963707606797881</v>
       </c>
       <c r="DR18" s="2">
@@ -12786,25 +14652,25 @@
       </c>
       <c r="EC18"/>
       <c r="GR18" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>13.705999458613022</v>
       </c>
       <c r="GS18" s="2">
         <v>4.05</v>
       </c>
       <c r="GT18" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.52314404058724051</v>
       </c>
       <c r="GU18" s="2">
         <v>0.75</v>
       </c>
       <c r="GV18" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.80198220692011568</v>
       </c>
       <c r="GW18" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.93518284262222595</v>
       </c>
       <c r="GY18" s="2">
@@ -12814,11 +14680,11 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="HA18" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.12356568983481966</v>
       </c>
       <c r="HB18" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.96596121284483361</v>
       </c>
       <c r="HD18" s="2">
@@ -12831,7 +14697,7 @@
         <v>0.84</v>
       </c>
       <c r="HG18" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>2.634167833480798E-3</v>
       </c>
       <c r="HH18" s="2">
@@ -12850,7 +14716,7 @@
         <v>0.8518</v>
       </c>
       <c r="HN18" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>3.5903813122365258E-3</v>
       </c>
       <c r="HO18" s="2">
@@ -12869,7 +14735,7 @@
         <v>0.87429999999999997</v>
       </c>
       <c r="HU18" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>3.0758424037743409E-3</v>
       </c>
       <c r="HV18" s="2">
@@ -12888,7 +14754,7 @@
         <v>0.89459999999999995</v>
       </c>
       <c r="IB18" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>3.7866303295103813E-3</v>
       </c>
       <c r="IC18" s="2">
@@ -12907,7 +14773,7 @@
         <v>0.89459999999999995</v>
       </c>
       <c r="II18" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>3.7895391658162221E-3</v>
       </c>
       <c r="IJ18" s="2">
@@ -12926,7 +14792,7 @@
         <v>0.89570000000000005</v>
       </c>
       <c r="IP18" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>4.7422174198406726E-3</v>
       </c>
       <c r="IQ18" s="2">
@@ -12945,7 +14811,7 @@
         <v>0.87290000000000001</v>
       </c>
       <c r="IW18" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>3.1522304220031102E-3</v>
       </c>
       <c r="IX18" s="2">
@@ -12964,7 +14830,7 @@
         <v>0.85970000000000002</v>
       </c>
       <c r="JD18" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>3.1905076795361587E-3</v>
       </c>
       <c r="JE18" s="2">
@@ -12983,7 +14849,7 @@
         <v>0.89349999999999996</v>
       </c>
       <c r="JK18" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>5.6124094760052479E-3</v>
       </c>
       <c r="JL18" s="2">
@@ -13002,7 +14868,7 @@
         <v>0.89680000000000004</v>
       </c>
       <c r="JR18" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>3.7420873839190869E-3</v>
       </c>
       <c r="JS18" s="2">
@@ -13040,7 +14906,7 @@
         <v>0.87150000000000005</v>
       </c>
       <c r="KF18" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>3.8687815981737852E-3</v>
       </c>
       <c r="KG18" s="2">
@@ -13059,57 +14925,127 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="KM18" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.10516974684718819</v>
       </c>
       <c r="KN18" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.96121185701281087</v>
       </c>
       <c r="KT18" s="2">
         <v>1.2</v>
       </c>
       <c r="KU18" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.22286396389115121</v>
       </c>
       <c r="KV18" s="2">
         <v>1.31</v>
       </c>
       <c r="KW18">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.91855117017985422</v>
       </c>
       <c r="KY18" s="2">
         <v>1.2</v>
       </c>
       <c r="KZ18" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.25585493338413362</v>
       </c>
       <c r="LA18" s="2">
         <v>1.2490000000000001</v>
       </c>
       <c r="LB18">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.92219219626599258</v>
       </c>
       <c r="LD18" s="2">
         <v>1.2</v>
       </c>
       <c r="LE18" s="2">
-        <f t="shared" si="78"/>
-        <v>0.25585493338413362</v>
+        <f t="shared" si="89"/>
+        <v>0.28748336273651992</v>
       </c>
       <c r="LF18" s="2">
         <v>1.0940000000000001</v>
       </c>
       <c r="LG18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.93150904532821477</v>
       </c>
+      <c r="MM18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="MN18" s="2">
+        <f t="shared" si="97"/>
+        <v>0.13306724277238161</v>
+      </c>
+      <c r="MO18" s="2">
+        <v>1.153</v>
+      </c>
+      <c r="MP18" s="2">
+        <f t="shared" si="50"/>
+        <v>0.92795158760376106</v>
+      </c>
+      <c r="MR18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="MS18" s="2">
+        <f t="shared" si="98"/>
+        <v>0.107582691387816</v>
+      </c>
+      <c r="MT18" s="2">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="MU18">
+        <f t="shared" si="51"/>
+        <v>0.93283904301825904</v>
+      </c>
+      <c r="MW18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="MX18" s="2">
+        <f t="shared" si="99"/>
+        <v>7.0296724097537025E-2</v>
+      </c>
+      <c r="MY18" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="MZ18">
+        <f t="shared" si="52"/>
+        <v>0.93756980941893442</v>
+      </c>
+      <c r="NG18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="NH18" s="2">
+        <f t="shared" si="101"/>
+        <v>0.1132613538016259</v>
+      </c>
+      <c r="NI18" s="2">
+        <v>0.878</v>
+      </c>
+      <c r="NJ18">
+        <f t="shared" si="54"/>
+        <v>0.94464971544087517</v>
+      </c>
+      <c r="NL18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="NM18" s="2">
+        <f t="shared" si="102"/>
+        <v>0.15330870026111959</v>
+      </c>
+      <c r="NN18" s="2">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="NO18">
+        <f t="shared" si="55"/>
+        <v>0.94796374607395961</v>
+      </c>
     </row>
-    <row r="19" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>13</v>
       </c>
@@ -13314,7 +15250,7 @@
         <v>4</v>
       </c>
       <c r="DM19" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.39628109152378649</v>
       </c>
       <c r="DN19" s="2">
@@ -13324,7 +15260,7 @@
         <v>1.6</v>
       </c>
       <c r="DQ19" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.14546274901215495</v>
       </c>
       <c r="DR19" s="2">
@@ -13349,25 +15285,25 @@
         <v>0.9481058402815703</v>
       </c>
       <c r="GR19" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>15.002512920914251</v>
       </c>
       <c r="GS19" s="2">
         <v>3.7</v>
       </c>
       <c r="GT19" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.54562930091309736</v>
       </c>
       <c r="GU19" s="2">
         <v>0.73199999999999998</v>
       </c>
       <c r="GV19" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.78723616136414198</v>
       </c>
       <c r="GW19" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.92983533522084727</v>
       </c>
       <c r="GY19" s="2">
@@ -13377,11 +15313,11 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="HA19" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.14125100842464705</v>
       </c>
       <c r="HB19" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.96088637109727248</v>
       </c>
       <c r="HD19" s="2">
@@ -13394,7 +15330,7 @@
         <v>0.81140000000000001</v>
       </c>
       <c r="HG19" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>3.9460544653503026E-3</v>
       </c>
       <c r="HH19" s="2">
@@ -13413,7 +15349,7 @@
         <v>0.8276</v>
       </c>
       <c r="HN19" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>5.3759211649115103E-3</v>
       </c>
       <c r="HO19" s="2">
@@ -13432,7 +15368,7 @@
         <v>0.85819999999999996</v>
       </c>
       <c r="HU19" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>4.606678896516273E-3</v>
       </c>
       <c r="HV19" s="2">
@@ -13451,7 +15387,7 @@
         <v>0.88570000000000004</v>
       </c>
       <c r="IB19" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>5.6692118894231171E-3</v>
       </c>
       <c r="IC19" s="2">
@@ -13470,7 +15406,7 @@
         <v>0.88570000000000004</v>
       </c>
       <c r="II19" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>5.6735586623440767E-3</v>
       </c>
       <c r="IJ19" s="2">
@@ -13489,7 +15425,7 @@
         <v>0.88739999999999997</v>
       </c>
       <c r="IP19" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>7.0964995578494464E-3</v>
       </c>
       <c r="IQ19" s="2">
@@ -13508,7 +15444,7 @@
         <v>0.85570000000000002</v>
       </c>
       <c r="IW19" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>4.7209049429144459E-3</v>
       </c>
       <c r="IX19" s="2">
@@ -13527,7 +15463,7 @@
         <v>0.83879999999999999</v>
       </c>
       <c r="JD19" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>4.7781391744392667E-3</v>
       </c>
       <c r="JE19" s="2">
@@ -13546,7 +15482,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="JK19" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>8.3950559681741851E-3</v>
       </c>
       <c r="JL19" s="2">
@@ -13565,7 +15501,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="JR19" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>5.6026482761632468E-3</v>
       </c>
       <c r="JS19" s="2">
@@ -13603,7 +15539,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="KF19" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>5.7919684667499952E-3</v>
       </c>
       <c r="KG19" s="2">
@@ -13622,57 +15558,127 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="KM19" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.12058439952640092</v>
       </c>
       <c r="KN19" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.95470239856898775</v>
       </c>
       <c r="KT19" s="2">
         <v>1.4</v>
       </c>
       <c r="KU19" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.25069610332001568</v>
       </c>
       <c r="KV19" s="2">
         <v>1.405</v>
       </c>
       <c r="KW19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.89915021231751469</v>
       </c>
       <c r="KY19" s="2">
         <v>1.4</v>
       </c>
       <c r="KZ19" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.28628933259488071</v>
       </c>
       <c r="LA19" s="2">
         <v>1.329</v>
       </c>
       <c r="LB19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.90433550374518967</v>
       </c>
       <c r="LD19" s="2">
         <v>1.4</v>
       </c>
       <c r="LE19" s="2">
-        <f t="shared" si="78"/>
-        <v>0.28628933259488071</v>
+        <f t="shared" si="89"/>
+        <v>0.32006184717438102</v>
       </c>
       <c r="LF19" s="2">
         <v>1.141</v>
       </c>
       <c r="LG19">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.91729111649333639</v>
       </c>
+      <c r="MM19" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="MN19" s="2">
+        <f t="shared" si="97"/>
+        <v>0.15187681180316079</v>
+      </c>
+      <c r="MO19" s="2">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="MP19" s="2">
+        <f t="shared" si="50"/>
+        <v>0.91368919266270154</v>
+      </c>
+      <c r="MR19" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="MS19" s="2">
+        <f t="shared" si="98"/>
+        <v>0.1233022748552572</v>
+      </c>
+      <c r="MT19" s="2">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="MU19">
+        <f t="shared" si="51"/>
+        <v>0.91972347992209569</v>
+      </c>
+      <c r="MW19" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="MX19" s="2">
+        <f t="shared" si="99"/>
+        <v>8.1063099721194534E-2</v>
+      </c>
+      <c r="MY19" s="2">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="MZ19">
+        <f t="shared" si="52"/>
+        <v>0.92649836194545343</v>
+      </c>
+      <c r="NG19" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="NH19" s="2">
+        <f t="shared" si="101"/>
+        <v>0.12969010005082607</v>
+      </c>
+      <c r="NI19" s="2">
+        <v>0.876</v>
+      </c>
+      <c r="NJ19">
+        <f t="shared" si="54"/>
+        <v>0.93586883154901956</v>
+      </c>
+      <c r="NL19" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="NM19" s="2">
+        <f t="shared" si="102"/>
+        <v>0.17440387832034118</v>
+      </c>
+      <c r="NN19" s="2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="NO19">
+        <f t="shared" si="55"/>
+        <v>0.94019820934271725</v>
+      </c>
     </row>
-    <row r="20" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -13855,7 +15861,7 @@
         <v>4.5</v>
       </c>
       <c r="DM20" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.42477494319652565</v>
       </c>
       <c r="DN20" s="2">
@@ -13865,7 +15871,7 @@
         <v>1.8</v>
       </c>
       <c r="DQ20" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.16072318804332683</v>
       </c>
       <c r="DR20" s="2">
@@ -13890,25 +15896,25 @@
         <v>0.94153043639048362</v>
       </c>
       <c r="GR20" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>16.326264060994923</v>
       </c>
       <c r="GS20" s="2">
         <v>3.4</v>
       </c>
       <c r="GT20" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.56649963905049039</v>
       </c>
       <c r="GU20" s="2">
         <v>0.71499999999999997</v>
       </c>
       <c r="GV20" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.77272949429646598</v>
       </c>
       <c r="GW20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.92529145746012187</v>
       </c>
       <c r="GY20" s="2">
@@ -13918,11 +15924,11 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="HA20" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.15823671035566289</v>
       </c>
       <c r="HB20" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.955865742023702</v>
       </c>
       <c r="HD20" s="2">
@@ -13935,7 +15941,7 @@
         <v>0.78890000000000005</v>
       </c>
       <c r="HG20" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>5.2544944467088723E-3</v>
       </c>
       <c r="HH20" s="2">
@@ -13954,7 +15960,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="HN20" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>7.1550731834275887E-3</v>
       </c>
       <c r="HO20" s="2">
@@ -13973,7 +15979,7 @@
         <v>0.84689999999999999</v>
       </c>
       <c r="HU20" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>6.1328212159977493E-3</v>
       </c>
       <c r="HV20" s="2">
@@ -13992,7 +15998,7 @@
         <v>0.88060000000000005</v>
       </c>
       <c r="IB20" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>7.544691700600464E-3</v>
       </c>
       <c r="IC20" s="2">
@@ -14011,7 +16017,7 @@
         <v>0.88080000000000003</v>
       </c>
       <c r="II20" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>7.5504655467229899E-3</v>
       </c>
       <c r="IJ20" s="2">
@@ -14030,7 +16036,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="IP20" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>9.4396698727731362E-3</v>
       </c>
       <c r="IQ20" s="2">
@@ -14049,7 +16055,7 @@
         <v>0.84319999999999995</v>
       </c>
       <c r="IW20" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>6.2846501785218372E-3</v>
       </c>
       <c r="IX20" s="2">
@@ -14068,7 +16074,7 @@
         <v>0.82340000000000002</v>
       </c>
       <c r="JD20" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>6.3607214285072737E-3</v>
       </c>
       <c r="JE20" s="2">
@@ -14087,7 +16093,7 @@
         <v>0.87660000000000005</v>
       </c>
       <c r="JK20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>1.1162172270586255E-2</v>
       </c>
       <c r="JL20" s="2">
@@ -14106,7 +16112,7 @@
         <v>0.8851</v>
       </c>
       <c r="JR20" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>7.4562727436730154E-3</v>
       </c>
       <c r="JS20" s="2">
@@ -14144,7 +16150,7 @@
         <v>0.84130000000000005</v>
       </c>
       <c r="KF20" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>7.7077436196683552E-3</v>
       </c>
       <c r="KG20" s="2">
@@ -14163,57 +16169,127 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="KM20" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.13547696959751918</v>
       </c>
       <c r="KN20" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.9482370230699626</v>
       </c>
       <c r="KT20" s="2">
         <v>1.6</v>
       </c>
       <c r="KU20" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.27660362508391401</v>
       </c>
       <c r="KV20" s="2">
         <v>1.5029999999999999</v>
       </c>
       <c r="KW20">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.87812548694419323</v>
       </c>
       <c r="KY20" s="2">
         <v>1.6</v>
       </c>
       <c r="KZ20" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.31433210461646482</v>
       </c>
       <c r="LA20" s="2">
         <v>1.413</v>
       </c>
       <c r="LB20">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.88498605569063116</v>
       </c>
       <c r="LD20" s="2">
         <v>1.6</v>
       </c>
       <c r="LE20" s="2">
-        <f t="shared" si="78"/>
-        <v>0.31433210461646482</v>
+        <f t="shared" si="89"/>
+        <v>0.3497914130853178</v>
       </c>
       <c r="LF20" s="2">
         <v>1.1879999999999999</v>
       </c>
       <c r="LG20">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.9023728938816622</v>
       </c>
+      <c r="MM20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="MN20" s="2">
+        <f t="shared" si="97"/>
+        <v>0.16988750315442749</v>
+      </c>
+      <c r="MO20" s="2">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="MP20" s="2">
+        <f t="shared" si="50"/>
+        <v>0.89886841152667762</v>
+      </c>
+      <c r="MR20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="MS20" s="2">
+        <f t="shared" si="98"/>
+        <v>0.13847765555647451</v>
+      </c>
+      <c r="MT20" s="2">
+        <v>1.141</v>
+      </c>
+      <c r="MU20">
+        <f t="shared" si="51"/>
+        <v>0.90604771939779283</v>
+      </c>
+      <c r="MW20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="MX20" s="2">
+        <f t="shared" si="99"/>
+        <v>9.1582971177744513E-2</v>
+      </c>
+      <c r="MY20" s="2">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="MZ20">
+        <f t="shared" si="52"/>
+        <v>0.9151816774767163</v>
+      </c>
+      <c r="NG20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="NH20" s="2">
+        <f t="shared" si="101"/>
+        <v>0.1455211637318167</v>
+      </c>
+      <c r="NI20" s="2">
+        <v>0.874</v>
+      </c>
+      <c r="NJ20">
+        <f t="shared" si="54"/>
+        <v>0.92720965682677237</v>
+      </c>
+      <c r="NL20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="NM20" s="2">
+        <f t="shared" si="102"/>
+        <v>0.194473443400482</v>
+      </c>
+      <c r="NN20" s="2">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="NO20">
+        <f t="shared" si="55"/>
+        <v>0.93251644506280873</v>
+      </c>
     </row>
-    <row r="21" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>15</v>
       </c>
@@ -14330,7 +16406,7 @@
         <v>5</v>
       </c>
       <c r="DM21" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.45070035704476791</v>
       </c>
       <c r="DN21" s="2">
@@ -14340,7 +16416,7 @@
         <v>2</v>
       </c>
       <c r="DQ21" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.17544814393377201</v>
       </c>
       <c r="DR21" s="2">
@@ -14365,14 +16441,14 @@
         <v>0.93492517765215333</v>
       </c>
       <c r="GR21" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>17.346655564807104</v>
       </c>
       <c r="GS21" s="2">
         <v>3.2</v>
       </c>
       <c r="GT21" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.58132339804344513</v>
       </c>
       <c r="GU21" s="2">
@@ -14383,7 +16459,7 @@
         <v>0.76190705666722525</v>
       </c>
       <c r="GW21" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.92662220912905446</v>
       </c>
       <c r="GY21" s="2">
@@ -14393,11 +16469,11 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="HA21" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.17456350480652827</v>
       </c>
       <c r="HB21" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.95098098232144823</v>
       </c>
       <c r="HD21" s="2">
@@ -14410,7 +16486,7 @@
         <v>0.77039999999999997</v>
       </c>
       <c r="HG21" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>6.5595013425417004E-3</v>
       </c>
       <c r="HH21" s="2">
@@ -14429,7 +16505,7 @@
         <v>0.79369999999999996</v>
       </c>
       <c r="HN21" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>8.927871585642606E-3</v>
       </c>
       <c r="HO21" s="2">
@@ -14448,7 +16524,7 @@
         <v>0.83830000000000005</v>
       </c>
       <c r="HU21" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>7.654290920559431E-3</v>
       </c>
       <c r="HV21" s="2">
@@ -14467,7 +16543,7 @@
         <v>0.87770000000000004</v>
       </c>
       <c r="IB21" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>9.4131098727671045E-3</v>
       </c>
       <c r="IC21" s="2">
@@ -14486,7 +16562,7 @@
         <v>0.878</v>
       </c>
       <c r="II21" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>9.4203000207171844E-3</v>
       </c>
       <c r="IJ21" s="2">
@@ -14505,7 +16581,7 @@
         <v>0.88070000000000004</v>
       </c>
       <c r="IP21" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>1.1771806848352797E-2</v>
       </c>
       <c r="IQ21" s="2">
@@ -14524,7 +16600,7 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="IW21" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>7.8434893265032848E-3</v>
       </c>
       <c r="IX21" s="2">
@@ -14543,7 +16619,7 @@
         <v>0.81130000000000002</v>
       </c>
       <c r="JD21" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>7.9382784911081299E-3</v>
       </c>
       <c r="JE21" s="2">
@@ -14562,7 +16638,7 @@
         <v>0.87209999999999999</v>
       </c>
       <c r="JK21" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>1.3913888034434319E-2</v>
       </c>
       <c r="JL21" s="2">
@@ -14581,7 +16657,7 @@
         <v>0.88339999999999996</v>
       </c>
       <c r="JR21" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>9.3029995041819091E-3</v>
       </c>
       <c r="JS21" s="2">
@@ -14619,7 +16695,7 @@
         <v>0.83130000000000004</v>
       </c>
       <c r="KF21" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>9.6161498202297826E-3</v>
       </c>
       <c r="KG21" s="2">
@@ -14638,57 +16714,127 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="KM21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.14987353918328328</v>
       </c>
       <c r="KN21" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.94177471304333682</v>
       </c>
       <c r="KT21" s="2">
         <v>1.8</v>
       </c>
       <c r="KU21" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.30077949102340712</v>
       </c>
       <c r="KV21" s="2">
         <v>1.605</v>
       </c>
       <c r="KW21">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.85544452753871625</v>
       </c>
       <c r="KY21" s="2">
         <v>1.8</v>
       </c>
       <c r="KZ21" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.34025450342275965</v>
       </c>
       <c r="LA21" s="2">
         <v>1.492</v>
       </c>
       <c r="LB21">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.86489997380095363</v>
       </c>
       <c r="LD21" s="2">
         <v>1.8</v>
       </c>
       <c r="LE21" s="2">
-        <f t="shared" si="78"/>
-        <v>0.34025450342275965</v>
+        <f t="shared" si="89"/>
+        <v>0.37703010315135549</v>
       </c>
       <c r="LF21" s="2">
         <v>1.2330000000000001</v>
       </c>
       <c r="LG21">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.88696837102108395</v>
       </c>
+      <c r="MM21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="MN21" s="2">
+        <f t="shared" si="97"/>
+        <v>0.18714915325327294</v>
+      </c>
+      <c r="MO21" s="2">
+        <v>1.2729999999999999</v>
+      </c>
+      <c r="MP21" s="2">
+        <f t="shared" si="50"/>
+        <v>0.88352371413173336</v>
+      </c>
+      <c r="MR21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="MS21" s="2">
+        <f t="shared" si="98"/>
+        <v>0.15313661261419953</v>
+      </c>
+      <c r="MT21" s="2">
+        <v>1.175</v>
+      </c>
+      <c r="MU21">
+        <f t="shared" si="51"/>
+        <v>0.89198699236595902</v>
+      </c>
+      <c r="MW21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="MX21" s="2">
+        <f t="shared" si="99"/>
+        <v>0.10186470849222842</v>
+      </c>
+      <c r="MY21" s="2">
+        <v>1.042</v>
+      </c>
+      <c r="MZ21">
+        <f t="shared" si="52"/>
+        <v>0.90360268790868348</v>
+      </c>
+      <c r="NG21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="NH21" s="2">
+        <f t="shared" si="101"/>
+        <v>0.16078657795621318</v>
+      </c>
+      <c r="NI21" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="NJ21">
+        <f t="shared" si="54"/>
+        <v>0.91840225484217652</v>
+      </c>
+      <c r="NL21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="NM21" s="2">
+        <f t="shared" si="102"/>
+        <v>0.21359041586911626</v>
+      </c>
+      <c r="NN21" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="NO21">
+        <f t="shared" si="55"/>
+        <v>0.92476749057544583</v>
+      </c>
     </row>
-    <row r="22" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>16</v>
       </c>
@@ -14815,7 +16961,7 @@
         <v>5.5</v>
       </c>
       <c r="DM22" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.47438963496360148</v>
       </c>
       <c r="DN22" s="2">
@@ -14825,7 +16971,7 @@
         <v>2.4</v>
       </c>
       <c r="DQ22" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.20340052384381552</v>
       </c>
       <c r="DR22" s="2">
@@ -14850,7 +16996,7 @@
         <v>0.92157439663809559</v>
       </c>
       <c r="GR22" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>18.503099269127578</v>
       </c>
       <c r="GS22" s="2">
@@ -14864,11 +17010,11 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="GV22" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.75000237185249707</v>
       </c>
       <c r="GW22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.92933039435384468</v>
       </c>
       <c r="GY22" s="2">
@@ -14878,11 +17024,11 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="HA22" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.19026900267797472</v>
       </c>
       <c r="HB22" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.94623027409842497</v>
       </c>
       <c r="HD22" s="2">
@@ -14895,7 +17041,7 @@
         <v>0.75449999999999995</v>
       </c>
       <c r="HG22" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>7.861088646743607E-3</v>
       </c>
       <c r="HH22" s="2">
@@ -14914,7 +17060,7 @@
         <v>0.78069999999999995</v>
       </c>
       <c r="HN22" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.0694350345455905E-2</v>
       </c>
       <c r="HO22" s="2">
@@ -14933,7 +17079,7 @@
         <v>0.83150000000000002</v>
       </c>
       <c r="HU22" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>9.1711094367327092E-3</v>
       </c>
       <c r="HV22" s="2">
@@ -14952,7 +17098,7 @@
         <v>0.87619999999999998</v>
       </c>
       <c r="IB22" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.1274506214169488E-2</v>
       </c>
       <c r="IC22" s="2">
@@ -14971,7 +17117,7 @@
         <v>0.87670000000000003</v>
       </c>
       <c r="II22" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.1283101983690477E-2</v>
       </c>
       <c r="IJ22" s="2">
@@ -14990,7 +17136,7 @@
         <v>0.87980000000000003</v>
       </c>
       <c r="IP22" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>1.4092988230949184E-2</v>
       </c>
       <c r="IQ22" s="2">
@@ -15009,7 +17155,7 @@
         <v>0.82520000000000004</v>
       </c>
       <c r="IW22" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>9.3974454392041825E-3</v>
       </c>
       <c r="IX22" s="2">
@@ -15028,7 +17174,7 @@
         <v>0.8014</v>
       </c>
       <c r="JD22" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>9.5108342591234164E-3</v>
       </c>
       <c r="JE22" s="2">
@@ -15047,7 +17193,7 @@
         <v>0.86880000000000002</v>
       </c>
       <c r="JK22" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>1.6650331471754338E-2</v>
       </c>
       <c r="JL22" s="2">
@@ -15066,7 +17212,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="JR22" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.1142866987805745E-2</v>
       </c>
       <c r="JS22" s="2">
@@ -15104,7 +17250,7 @@
         <v>0.82320000000000004</v>
       </c>
       <c r="KF22" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.1517229503392019E-2</v>
       </c>
       <c r="KG22" s="2">
@@ -15123,57 +17269,127 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="KM22" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.16379848152159376</v>
       </c>
       <c r="KN22" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.93524860889286388</v>
       </c>
       <c r="KT22" s="2">
         <v>2</v>
       </c>
       <c r="KU22" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.32339170207583429</v>
       </c>
       <c r="KV22" s="2">
         <v>1.71</v>
       </c>
       <c r="KW22">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.83124428528506278</v>
       </c>
       <c r="KY22" s="2">
         <v>2</v>
       </c>
       <c r="KZ22" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.36428825713268576</v>
       </c>
       <c r="LA22" s="2">
         <v>1.577</v>
       </c>
       <c r="LB22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.84328038394609628</v>
       </c>
       <c r="LD22" s="2">
         <v>2</v>
       </c>
       <c r="LE22" s="2">
-        <f t="shared" si="78"/>
-        <v>0.36428825713268576</v>
+        <f t="shared" si="89"/>
+        <v>0.40207837556653075</v>
       </c>
       <c r="LF22" s="2">
         <v>1.2789999999999999</v>
       </c>
       <c r="LG22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.87088498414764814</v>
       </c>
+      <c r="MM22" s="2">
+        <v>2</v>
+      </c>
+      <c r="MN22" s="2">
+        <f t="shared" si="97"/>
+        <v>0.20370753770444811</v>
+      </c>
+      <c r="MO22" s="2">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="MP22" s="2">
+        <f t="shared" si="50"/>
+        <v>0.86750278918051216</v>
+      </c>
+      <c r="MR22" s="2">
+        <v>2</v>
+      </c>
+      <c r="MS22" s="2">
+        <f t="shared" si="98"/>
+        <v>0.16730506611597773</v>
+      </c>
+      <c r="MT22" s="2">
+        <v>1.21</v>
+      </c>
+      <c r="MU22">
+        <f t="shared" si="51"/>
+        <v>0.87740442623855996</v>
+      </c>
+      <c r="MW22" s="2">
+        <v>2</v>
+      </c>
+      <c r="MX22" s="2">
+        <f t="shared" si="99"/>
+        <v>0.111916306992771</v>
+      </c>
+      <c r="MY22" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="MZ22">
+        <f t="shared" si="52"/>
+        <v>0.89174599079340822</v>
+      </c>
+      <c r="NG22" s="2">
+        <v>2</v>
+      </c>
+      <c r="NH22" s="2">
+        <f t="shared" si="101"/>
+        <v>0.17551612690455773</v>
+      </c>
+      <c r="NI22" s="2">
+        <v>0.876</v>
+      </c>
+      <c r="NJ22">
+        <f t="shared" si="54"/>
+        <v>0.90965884785627105</v>
+      </c>
+      <c r="NL22" s="2">
+        <v>2</v>
+      </c>
+      <c r="NM22" s="2">
+        <f t="shared" si="102"/>
+        <v>0.23182104503065035</v>
+      </c>
+      <c r="NN22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="NO22">
+        <f t="shared" si="55"/>
+        <v>0.91716223218333703</v>
+      </c>
     </row>
-    <row r="23" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>17</v>
       </c>
@@ -15293,7 +17509,7 @@
         <v>6</v>
       </c>
       <c r="DM23" s="2">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>0.49612012496220897</v>
       </c>
       <c r="DN23" s="2">
@@ -15303,7 +17519,7 @@
         <v>2.7</v>
       </c>
       <c r="DQ23" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.22315193672106418</v>
       </c>
       <c r="DR23" s="2">
@@ -15328,25 +17544,25 @@
         <v>0.91147768727147049</v>
       </c>
       <c r="GR23" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>19.141137174959567</v>
       </c>
       <c r="GS23" s="2">
         <v>2.9</v>
       </c>
       <c r="GT23" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.60507308001950311</v>
       </c>
       <c r="GU23" s="2">
         <v>0.68600000000000005</v>
       </c>
       <c r="GV23" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.74359215546712221</v>
       </c>
       <c r="GW23" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.9225487317964739</v>
       </c>
       <c r="GY23" s="2">
@@ -15356,11 +17572,11 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="HA23" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="69"/>
         <v>0.19789974347085218</v>
       </c>
       <c r="HB23" s="2">
-        <f t="shared" si="59"/>
+        <f t="shared" si="70"/>
         <v>0.9444046930725627</v>
       </c>
       <c r="HD23" s="2">
@@ -15373,7 +17589,7 @@
         <v>0.74050000000000005</v>
       </c>
       <c r="HG23" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>9.1592697825841566E-3</v>
       </c>
       <c r="HH23" s="2">
@@ -15392,7 +17608,7 @@
         <v>0.76939999999999997</v>
       </c>
       <c r="HN23" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.2454543194978606E-2</v>
       </c>
       <c r="HO23" s="2">
@@ -15411,7 +17627,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="HU23" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>1.0683298060245537E-2</v>
       </c>
       <c r="HV23" s="2">
@@ -15430,7 +17646,7 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="IB23" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.3128920234403055E-2</v>
       </c>
       <c r="IC23" s="2">
@@ -15449,7 +17665,7 @@
         <v>0.87629999999999997</v>
       </c>
       <c r="II23" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.3138911035444298E-2</v>
       </c>
       <c r="IJ23" s="2">
@@ -15468,7 +17684,7 @@
         <v>0.87990000000000002</v>
       </c>
       <c r="IP23" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>1.6403291038182395E-2</v>
       </c>
       <c r="IQ23" s="2">
@@ -15487,7 +17703,7 @@
         <v>0.81830000000000003</v>
       </c>
       <c r="IW23" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.0946541424773663E-2</v>
       </c>
       <c r="IX23" s="2">
@@ -15506,7 +17722,7 @@
         <v>0.79310000000000003</v>
       </c>
       <c r="JD23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.1078412478154998E-2</v>
       </c>
       <c r="JE23" s="2">
@@ -15525,7 +17741,7 @@
         <v>0.86639999999999995</v>
       </c>
       <c r="JK23" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>1.9371629375338838E-2</v>
       </c>
       <c r="JL23" s="2">
@@ -15544,7 +17760,7 @@
         <v>0.88370000000000004</v>
       </c>
       <c r="JR23" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.2975913339708427E-2</v>
       </c>
       <c r="JS23" s="2">
@@ -15582,7 +17798,7 @@
         <v>0.81630000000000003</v>
       </c>
       <c r="KF23" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.3411024778914954E-2</v>
       </c>
       <c r="KG23" s="2">
@@ -15601,57 +17817,127 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="KM23" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.19669357468728438</v>
       </c>
       <c r="KN23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.91906428563337328</v>
       </c>
       <c r="KT23" s="2">
         <v>2.5</v>
       </c>
       <c r="KU23" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.3740023161914301</v>
       </c>
       <c r="KV23" s="2">
         <v>1.992</v>
       </c>
       <c r="KW23">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.7640357517927816</v>
       </c>
       <c r="KY23" s="2">
         <v>2.5</v>
       </c>
       <c r="KZ23" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.41735127891394275</v>
       </c>
       <c r="LA23" s="2">
         <v>1.7889999999999999</v>
       </c>
       <c r="LB23">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.78528136016243166</v>
       </c>
       <c r="LD23" s="2">
         <v>2.5</v>
       </c>
       <c r="LE23" s="2">
-        <f t="shared" si="78"/>
-        <v>0.41735127891394275</v>
+        <f t="shared" si="89"/>
+        <v>0.45669152302948807</v>
       </c>
       <c r="LF23" s="2">
         <v>1.3939999999999999</v>
       </c>
       <c r="LG23">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.82832934630680732</v>
       </c>
+      <c r="MM23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="MN23" s="2">
+        <f t="shared" si="97"/>
+        <v>0.2422950881779091</v>
+      </c>
+      <c r="MO23" s="2">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="MP23" s="2">
+        <f t="shared" si="50"/>
+        <v>0.82497865462147968</v>
+      </c>
+      <c r="MR23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="MS23" s="2">
+        <f t="shared" si="98"/>
+        <v>0.2007353235023778</v>
+      </c>
+      <c r="MT23" s="2">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="MU23">
+        <f t="shared" si="51"/>
+        <v>0.83835001889727545</v>
+      </c>
+      <c r="MW23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="MX23" s="2">
+        <f t="shared" si="99"/>
+        <v>0.13608777348221421</v>
+      </c>
+      <c r="MY23" s="2">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="MZ23">
+        <f t="shared" si="52"/>
+        <v>0.86119653696114273</v>
+      </c>
+      <c r="NG23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="NH23" s="2">
+        <f t="shared" si="101"/>
+        <v>0.21017297211910591</v>
+      </c>
+      <c r="NI23" s="2">
+        <v>0.879</v>
+      </c>
+      <c r="NJ23">
+        <f t="shared" si="54"/>
+        <v>0.88801878213934382</v>
+      </c>
+      <c r="NL23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="NM23" s="2">
+        <f t="shared" si="102"/>
+        <v>0.27390223093539545</v>
+      </c>
+      <c r="NN23" s="2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="NO23">
+        <f t="shared" si="55"/>
+        <v>0.89851871272111217</v>
+      </c>
     </row>
-    <row r="24" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>18</v>
       </c>
@@ -15713,7 +17999,7 @@
         <v>3</v>
       </c>
       <c r="DQ24" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.24194758825625207</v>
       </c>
       <c r="DR24" s="2">
@@ -15738,25 +18024,25 @@
         <v>0.90126166538009622</v>
       </c>
       <c r="GR24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>19.824749216922406</v>
       </c>
       <c r="GS24" s="2">
         <v>2.8</v>
       </c>
       <c r="GT24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.61342683067019199</v>
       </c>
       <c r="GU24" s="2">
         <v>0.67600000000000005</v>
       </c>
       <c r="GV24" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.73684455814888161</v>
       </c>
       <c r="GW24" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.91742551739577649</v>
       </c>
       <c r="HD24" s="2">
@@ -15769,7 +18055,7 @@
         <v>0.72809999999999997</v>
       </c>
       <c r="HG24" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>1.0454058103169071E-2</v>
       </c>
       <c r="HH24" s="2">
@@ -15788,7 +18074,7 @@
         <v>0.75929999999999997</v>
       </c>
       <c r="HN24" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.4208483626680743E-2</v>
       </c>
       <c r="HO24" s="2">
@@ -15807,7 +18093,7 @@
         <v>0.82140000000000002</v>
       </c>
       <c r="HU24" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>1.2190877957019054E-2</v>
       </c>
       <c r="HV24" s="2">
@@ -15826,7 +18112,7 @@
         <v>0.87570000000000003</v>
       </c>
       <c r="IB24" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.4976391147207646E-2</v>
       </c>
       <c r="IC24" s="2">
@@ -15845,7 +18131,7 @@
         <v>0.87660000000000005</v>
       </c>
       <c r="II24" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.4987766479023784E-2</v>
       </c>
       <c r="IJ24" s="2">
@@ -15864,7 +18150,7 @@
         <v>0.88049999999999995</v>
       </c>
       <c r="IP24" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>1.8702791567450257E-2</v>
       </c>
       <c r="IQ24" s="2">
@@ -15883,7 +18169,7 @@
         <v>0.81240000000000001</v>
       </c>
       <c r="IW24" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.2490800048290306E-2</v>
       </c>
       <c r="IX24" s="2">
@@ -15902,7 +18188,7 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="JD24" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.2641036743720217E-2</v>
       </c>
       <c r="JE24" s="2">
@@ -15921,7 +18207,7 @@
         <v>0.86470000000000002</v>
       </c>
       <c r="JK24" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.2077907138320568E-2</v>
       </c>
       <c r="JL24" s="2">
@@ -15940,7 +18226,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="JR24" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.4802176422738128E-2</v>
       </c>
       <c r="JS24" s="2">
@@ -15978,7 +18264,7 @@
         <v>0.81030000000000002</v>
       </c>
       <c r="KF24" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.5297577434469797E-2</v>
       </c>
       <c r="KG24" s="2">
@@ -15997,47 +18283,47 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="KM24" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.22709852546861461</v>
       </c>
       <c r="KN24" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.90280215545979536</v>
       </c>
       <c r="KT24" s="2">
         <v>3</v>
       </c>
       <c r="KU24" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.41756846482695958</v>
       </c>
       <c r="KV24" s="2">
         <v>2.2610000000000001</v>
       </c>
       <c r="KW24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.69309888572347356</v>
       </c>
       <c r="KY24" s="2">
         <v>3</v>
       </c>
       <c r="KZ24" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.46223837897136955</v>
       </c>
       <c r="LA24" s="2">
         <v>2.008</v>
       </c>
       <c r="LB24">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.72212071293870039</v>
       </c>
       <c r="LD24" s="2">
         <v>3</v>
       </c>
       <c r="LE24" s="2">
-        <f t="shared" si="78"/>
-        <v>0.46223837897136955</v>
+        <f t="shared" si="89"/>
+        <v>0.50216310132474395</v>
       </c>
       <c r="LF24" s="2">
         <v>1.5089999999999999</v>
@@ -16046,8 +18332,64 @@
         <f>EXP(-3*LD24*LF24/55.51)</f>
         <v>0.78297178347703689</v>
       </c>
+      <c r="MM24" s="2">
+        <v>3</v>
+      </c>
+      <c r="MN24" s="2">
+        <f t="shared" si="97"/>
+        <v>0.27731566129230417</v>
+      </c>
+      <c r="MO24" s="2">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="MP24" s="2">
+        <f t="shared" si="50"/>
+        <v>0.77967814681512548</v>
+      </c>
+      <c r="MR24" s="2">
+        <v>3</v>
+      </c>
+      <c r="MS24" s="2">
+        <f t="shared" si="98"/>
+        <v>0.23158493291736462</v>
+      </c>
+      <c r="MT24" s="2">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="MU24">
+        <f t="shared" si="51"/>
+        <v>0.79615696026043392</v>
+      </c>
+      <c r="MW24" s="2">
+        <v>3</v>
+      </c>
+      <c r="MX24" s="2">
+        <f t="shared" si="99"/>
+        <v>0.15897832687148344</v>
+      </c>
+      <c r="MY24" s="2">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="MZ24">
+        <f t="shared" si="52"/>
+        <v>0.82935961584077211</v>
+      </c>
+      <c r="NG24" s="2">
+        <v>3</v>
+      </c>
+      <c r="NH24" s="2">
+        <f t="shared" si="101"/>
+        <v>0.2420337749749871</v>
+      </c>
+      <c r="NI24" s="2">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="NJ24">
+        <f t="shared" si="54"/>
+        <v>0.8668935164986612</v>
+      </c>
     </row>
-    <row r="25" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>19</v>
       </c>
@@ -16099,7 +18441,7 @@
         <v>3.4</v>
       </c>
       <c r="DQ25" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.26563787428601643</v>
       </c>
       <c r="DR25" s="2">
@@ -16124,14 +18466,14 @@
         <v>0.88750605177911046</v>
       </c>
       <c r="GR25" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>20.558999187919532</v>
       </c>
       <c r="GS25" s="2">
         <v>2.7</v>
       </c>
       <c r="GT25" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.62201447738054993</v>
       </c>
       <c r="GU25" s="2">
@@ -16142,7 +18484,7 @@
         <v>0.72973222459347808</v>
       </c>
       <c r="GW25" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.91129318068756071</v>
       </c>
       <c r="HD25" s="2">
@@ -16155,7 +18497,7 @@
         <v>0.71689999999999998</v>
       </c>
       <c r="HG25" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>1.1745466891898112E-2</v>
       </c>
       <c r="HH25" s="2">
@@ -16174,7 +18516,7 @@
         <v>0.75009999999999999</v>
       </c>
       <c r="HN25" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.5956204895515601E-2</v>
       </c>
       <c r="HO25" s="2">
@@ -16193,7 +18535,7 @@
         <v>0.8175</v>
       </c>
       <c r="HU25" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>1.3693870164155122E-2</v>
       </c>
       <c r="HV25" s="2">
@@ -16212,7 +18554,7 @@
         <v>0.87629999999999997</v>
       </c>
       <c r="IB25" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.6816957873231651E-2</v>
       </c>
       <c r="IC25" s="2">
@@ -16231,7 +18573,7 @@
         <v>0.87739999999999996</v>
       </c>
       <c r="II25" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.6829707323492399E-2</v>
       </c>
       <c r="IJ25" s="2">
@@ -16250,7 +18592,7 @@
         <v>0.88170000000000004</v>
       </c>
       <c r="IP25" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>2.0991565404327586E-2</v>
       </c>
       <c r="IQ25" s="2">
@@ -16269,7 +18611,7 @@
         <v>0.80720000000000003</v>
       </c>
       <c r="IW25" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.4030243932877304E-2</v>
       </c>
       <c r="IX25" s="2">
@@ -16288,7 +18630,7 @@
         <v>0.77990000000000004</v>
       </c>
       <c r="JD25" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.4198730502435813E-2</v>
       </c>
       <c r="JE25" s="2">
@@ -16307,7 +18649,7 @@
         <v>0.86339999999999995</v>
       </c>
       <c r="JK25" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.4769288773432877E-2</v>
       </c>
       <c r="JL25" s="2">
@@ -16326,7 +18668,7 @@
         <v>0.88680000000000003</v>
       </c>
       <c r="JR25" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.6621693820034283E-2</v>
       </c>
       <c r="JS25" s="2">
@@ -16364,7 +18706,7 @@
         <v>0.80510000000000004</v>
       </c>
       <c r="KF25" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.7176928938712727E-2</v>
       </c>
       <c r="KG25" s="2">
@@ -16383,57 +18725,85 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="KM25" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.25528577583581297</v>
       </c>
       <c r="KN25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.88665205248376588</v>
       </c>
       <c r="KT25" s="2">
         <v>3.5</v>
       </c>
       <c r="KU25" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.4554652232864852</v>
       </c>
       <c r="KV25" s="2">
         <v>2.5209999999999999</v>
       </c>
       <c r="KW25">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.62072940967490042</v>
       </c>
       <c r="KY25" s="2">
         <v>3.5</v>
       </c>
       <c r="KZ25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.50070400734963705</v>
       </c>
       <c r="LA25" s="2">
         <v>2.1960000000000002</v>
       </c>
       <c r="LB25">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.66008635250941805</v>
       </c>
       <c r="LD25" s="2">
         <v>3.5</v>
       </c>
       <c r="LE25" s="2">
-        <f t="shared" si="78"/>
-        <v>0.50070400734963705</v>
+        <f t="shared" si="89"/>
+        <v>0.54061112502038544</v>
       </c>
       <c r="LF25" s="2">
         <v>1.619</v>
       </c>
       <c r="LG25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.73620834818724368</v>
       </c>
+      <c r="MR25" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="MS25" s="2">
+        <f t="shared" si="98"/>
+        <v>0.26014160889605731</v>
+      </c>
+      <c r="MT25" s="2">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="MU25">
+        <f t="shared" si="51"/>
+        <v>0.75140283945681929</v>
+      </c>
+      <c r="NG25" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="NH25" s="2">
+        <f t="shared" si="101"/>
+        <v>0.27142378364200681</v>
+      </c>
+      <c r="NI25" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="NJ25">
+        <f t="shared" si="54"/>
+        <v>0.84569929572288705</v>
+      </c>
     </row>
-    <row r="26" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>20</v>
       </c>
@@ -16472,7 +18842,7 @@
         <v>3.7</v>
       </c>
       <c r="DQ26" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.28245612398584147</v>
       </c>
       <c r="DR26" s="2">
@@ -16497,25 +18867,25 @@
         <v>0.87710984737211428</v>
       </c>
       <c r="GR26" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>21.349729925916435</v>
       </c>
       <c r="GS26" s="2">
         <v>2.6</v>
       </c>
       <c r="GT26" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.63084598288173266</v>
       </c>
       <c r="GU26" s="2">
         <v>0.65400000000000003</v>
       </c>
       <c r="GV26" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.72222476000767877</v>
       </c>
       <c r="GW26" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.90553527961717439</v>
       </c>
       <c r="HD26" s="2">
@@ -16528,7 +18898,7 @@
         <v>0.70679999999999998</v>
       </c>
       <c r="HG26" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>1.3033509362919299E-2</v>
       </c>
       <c r="HH26" s="2">
@@ -16547,7 +18917,7 @@
         <v>0.74170000000000003</v>
       </c>
       <c r="HN26" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>1.7697740021021445E-2</v>
       </c>
       <c r="HO26" s="2">
@@ -16566,7 +18936,7 @@
         <v>0.81420000000000003</v>
       </c>
       <c r="HU26" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>1.5192295590914865E-2</v>
       </c>
       <c r="HV26" s="2">
@@ -16585,7 +18955,7 @@
         <v>0.87729999999999997</v>
       </c>
       <c r="IB26" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>1.8650659042765142E-2</v>
       </c>
       <c r="IC26" s="2">
@@ -16604,7 +18974,7 @@
         <v>0.87870000000000004</v>
       </c>
       <c r="II26" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>1.8664772286675516E-2</v>
       </c>
       <c r="IJ26" s="2">
@@ -16623,7 +18993,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="IP26" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>2.3269687430848108E-2</v>
       </c>
       <c r="IQ26" s="2">
@@ -16642,7 +19012,7 @@
         <v>0.80249999999999999</v>
       </c>
       <c r="IW26" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.556489556080724E-2</v>
       </c>
       <c r="IX26" s="2">
@@ -16661,7 +19031,7 @@
         <v>0.77449999999999997</v>
       </c>
       <c r="JD26" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1.5751517053190594E-2</v>
       </c>
       <c r="JE26" s="2">
@@ -16680,7 +19050,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="JK26" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>2.7445896931952821E-2</v>
       </c>
       <c r="JL26" s="2">
@@ -16699,7 +19069,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="JR26" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>1.8434502837605737E-2</v>
       </c>
       <c r="JS26" s="2">
@@ -16737,7 +19107,7 @@
         <v>0.80049999999999999</v>
       </c>
       <c r="KF26" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>1.9049120444323352E-2</v>
       </c>
       <c r="KG26" s="2">
@@ -16756,47 +19126,47 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="KM26" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.2814894229926086</v>
       </c>
       <c r="KN26" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.87066536871969902</v>
       </c>
       <c r="KT26" s="2">
         <v>4</v>
       </c>
       <c r="KU26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.48873164546607228</v>
       </c>
       <c r="KV26" s="2">
         <v>2.7690000000000001</v>
       </c>
       <c r="KW26">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.5495833420406826</v>
       </c>
       <c r="KY26" s="2">
         <v>4</v>
       </c>
       <c r="KZ26" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.53403414597778276</v>
       </c>
       <c r="LA26" s="2">
         <v>2.3719999999999999</v>
       </c>
       <c r="LB26">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.59883302653220938</v>
       </c>
       <c r="LD26" s="2">
         <v>4</v>
       </c>
       <c r="LE26" s="2">
-        <f t="shared" si="78"/>
-        <v>0.53403414597778276</v>
+        <f t="shared" si="89"/>
+        <v>0.57354621906077818</v>
       </c>
       <c r="LF26" s="2">
         <v>1.7130000000000001</v>
@@ -16805,29 +19175,43 @@
         <f>EXP(-3*LD26*LF26/55.51)</f>
         <v>0.69051909298616321</v>
       </c>
+      <c r="MR26" s="2">
+        <v>4</v>
+      </c>
+      <c r="MS26" s="2">
+        <f t="shared" si="98"/>
+        <v>0.28665182902471037</v>
+      </c>
+      <c r="MT26" s="2">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="MU26">
+        <f t="shared" si="51"/>
+        <v>0.70423756855888497</v>
+      </c>
     </row>
-    <row r="27" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="DS27"/>
       <c r="DX27"/>
       <c r="KT27" s="2">
         <v>4.5</v>
       </c>
       <c r="KU27" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.51816749461552181</v>
       </c>
       <c r="KV27" s="2">
         <v>3.0049999999999999</v>
       </c>
       <c r="KW27">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.48151674688262641</v>
       </c>
       <c r="KY27" s="2">
         <v>4.5</v>
       </c>
       <c r="KZ27" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.56319288528571543</v>
       </c>
       <c r="LA27" s="2">
@@ -16841,18 +19225,32 @@
         <v>4.5</v>
       </c>
       <c r="LE27" s="2">
-        <f t="shared" si="78"/>
-        <v>0.56319288528571543</v>
+        <f t="shared" si="89"/>
+        <v>0.60207478208620246</v>
       </c>
       <c r="LF27" s="2">
         <v>1.7909999999999999</v>
       </c>
       <c r="LG27">
-        <f t="shared" si="44"/>
+        <f t="shared" si="90"/>
         <v>0.64689572296674591</v>
       </c>
+      <c r="MR27" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="MS27" s="2">
+        <f t="shared" si="98"/>
+        <v>0.31132796628261722</v>
+      </c>
+      <c r="MT27" s="2">
+        <v>1.738</v>
+      </c>
+      <c r="MU27">
+        <f t="shared" si="51"/>
+        <v>0.65528789989646419</v>
+      </c>
     </row>
-    <row r="28" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>22</v>
       </c>
@@ -16891,7 +19289,7 @@
         <v>4</v>
       </c>
       <c r="DQ28" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.29852128286427793</v>
       </c>
       <c r="DR28" s="2">
@@ -16916,25 +19314,25 @@
         <v>0.8667217477376794</v>
       </c>
       <c r="GR28" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>22.203719122953096</v>
       </c>
       <c r="GS28" s="2">
         <v>2.5</v>
       </c>
       <c r="GT28" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.63993188386678979</v>
       </c>
       <c r="GU28" s="2">
         <v>0.64500000000000002</v>
       </c>
       <c r="GV28" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.71428829589504061</v>
       </c>
       <c r="GW28" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.90299673634128541</v>
       </c>
       <c r="HD28" s="2">
@@ -16947,7 +19345,7 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="HG28" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>2.5731645088652336E-2</v>
       </c>
       <c r="HH28" s="2">
@@ -16966,7 +19364,7 @@
         <v>0.68120000000000003</v>
       </c>
       <c r="HN28" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>3.4779953467629562E-2</v>
       </c>
       <c r="HO28" s="2">
@@ -16985,7 +19383,7 @@
         <v>0.79749999999999999</v>
       </c>
       <c r="HU28" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>2.9929887484167441E-2</v>
       </c>
       <c r="HV28" s="2">
@@ -17004,7 +19402,7 @@
         <v>0.89759999999999995</v>
       </c>
       <c r="IB28" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>3.6618361510297022E-2</v>
       </c>
       <c r="IC28" s="2">
@@ -17023,7 +19421,7 @@
         <v>0.90210000000000001</v>
       </c>
       <c r="II28" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>3.6645563475759077E-2</v>
       </c>
       <c r="IJ28" s="2">
@@ -17042,7 +19440,7 @@
         <v>0.90780000000000005</v>
       </c>
       <c r="IP28" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>4.5481045156867614E-2</v>
       </c>
       <c r="IQ28" s="2">
@@ -17061,7 +19459,7 @@
         <v>0.77190000000000003</v>
       </c>
       <c r="IW28" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>3.065268527662551E-2</v>
       </c>
       <c r="IX28" s="2">
@@ -17080,7 +19478,7 @@
         <v>0.74390000000000001</v>
       </c>
       <c r="JD28" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>3.1014508546120645E-2</v>
       </c>
       <c r="JE28" s="2">
@@ -17099,7 +19497,7 @@
         <v>0.86309999999999998</v>
       </c>
       <c r="JK28" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>5.3425483548883247E-2</v>
       </c>
       <c r="JL28" s="2">
@@ -17118,7 +19516,7 @@
         <v>0.92230000000000001</v>
       </c>
       <c r="JR28" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>3.6201646323337902E-2</v>
       </c>
       <c r="JS28" s="2">
@@ -17156,7 +19554,7 @@
         <v>0.77090000000000003</v>
       </c>
       <c r="KF28" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>3.738606915438502E-2</v>
       </c>
       <c r="KG28" s="2">
@@ -17175,47 +19573,47 @@
         <v>0.96799999999999997</v>
       </c>
       <c r="KM28" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.3059117361062817</v>
       </c>
       <c r="KN28" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.8547513298322934</v>
       </c>
       <c r="KT28" s="2">
         <v>5</v>
       </c>
       <c r="KU28" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.54439837805822588</v>
       </c>
       <c r="KV28" s="2">
         <v>3.2330000000000001</v>
       </c>
       <c r="KW28">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.41743502580096492</v>
       </c>
       <c r="KY28" s="2">
         <v>5</v>
       </c>
       <c r="KZ28" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.58891720792567626</v>
       </c>
       <c r="LA28" s="2">
         <v>2.6930000000000001</v>
       </c>
       <c r="LB28">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.48301541075669552</v>
       </c>
       <c r="LD28" s="2">
         <v>5</v>
       </c>
       <c r="LE28" s="2">
-        <f t="shared" si="78"/>
-        <v>0.58891720792567626</v>
+        <f t="shared" si="89"/>
+        <v>0.62702571657684203</v>
       </c>
       <c r="LF28" s="2">
         <v>1.8620000000000001</v>
@@ -17224,8 +19622,22 @@
         <f>EXP(-3*LD28*LF28/55.51)</f>
         <v>0.60462153110654226</v>
       </c>
+      <c r="MR28" s="2">
+        <v>5</v>
+      </c>
+      <c r="MS28" s="2">
+        <f t="shared" si="98"/>
+        <v>0.33435399054782666</v>
+      </c>
+      <c r="MT28" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="MU28">
+        <f t="shared" si="51"/>
+        <v>0.60494838299394793</v>
+      </c>
     </row>
-    <row r="29" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>23</v>
       </c>
@@ -17267,7 +19679,7 @@
         <v>4.5</v>
       </c>
       <c r="DQ29" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.32375545644816078</v>
       </c>
       <c r="DR29" s="2">
@@ -17292,25 +19704,25 @@
         <v>0.8490882556844872</v>
       </c>
       <c r="GR29" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>23.128874086409475</v>
       </c>
       <c r="GS29" s="2">
         <v>2.4</v>
       </c>
       <c r="GT29" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.64928333292774931</v>
       </c>
       <c r="GU29" s="2">
         <v>0.629</v>
       </c>
       <c r="GV29" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="67"/>
         <v>0.70588497921530324</v>
       </c>
       <c r="GW29" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.89108001802110537</v>
       </c>
       <c r="HD29" s="2">
@@ -17323,7 +19735,7 @@
         <v>0.59540000000000004</v>
       </c>
       <c r="HG29" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>3.8107187323214622E-2</v>
       </c>
       <c r="HH29" s="2">
@@ -17342,7 +19754,7 @@
         <v>0.63980000000000004</v>
       </c>
       <c r="HN29" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>5.1278203436727815E-2</v>
       </c>
       <c r="HO29" s="2">
@@ -17361,7 +19773,7 @@
         <v>0.79259999999999997</v>
       </c>
       <c r="HU29" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>4.4232888537734098E-2</v>
       </c>
       <c r="HV29" s="2">
@@ -17380,7 +19792,7 @@
         <v>0.92459999999999998</v>
       </c>
       <c r="IB29" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>5.3939946043413713E-2</v>
       </c>
       <c r="IC29" s="2">
@@ -17399,7 +19811,7 @@
         <v>0.93330000000000002</v>
       </c>
       <c r="II29" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>5.3979294384270869E-2</v>
       </c>
       <c r="IJ29" s="2">
@@ -17418,7 +19830,7 @@
         <v>0.93720000000000003</v>
       </c>
       <c r="IP29" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>6.6704668710405493E-2</v>
       </c>
       <c r="IQ29" s="2">
@@ -17437,7 +19849,7 @@
         <v>0.754</v>
       </c>
       <c r="IW29" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>4.5284974873657208E-2</v>
       </c>
       <c r="IX29" s="2">
@@ -17456,7 +19868,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="JD29" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>4.5811354496411792E-2</v>
       </c>
       <c r="JE29" s="2">
@@ -17475,7 +19887,7 @@
         <v>0.87</v>
       </c>
       <c r="JK29" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>7.8053210077849045E-2</v>
       </c>
       <c r="JL29" s="2">
@@ -17494,7 +19906,7 @@
         <v>0.96309999999999996</v>
       </c>
       <c r="JR29" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>5.3337025419911581E-2</v>
       </c>
       <c r="JS29" s="2">
@@ -17532,7 +19944,7 @@
         <v>0.75429999999999997</v>
       </c>
       <c r="KF29" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>5.5050051220633993E-2</v>
       </c>
       <c r="KG29" s="2">
@@ -17551,47 +19963,47 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="KM29" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.32872838769721585</v>
       </c>
       <c r="KN29" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.83891656091088329</v>
       </c>
       <c r="KT29" s="2">
         <v>5.5</v>
       </c>
       <c r="KU29" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.56792070480774626</v>
       </c>
       <c r="KV29" s="2">
         <v>3.4540000000000002</v>
       </c>
       <c r="KW29">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.35819423727316652</v>
       </c>
       <c r="KY29" s="2">
         <v>5.5</v>
       </c>
       <c r="KZ29" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.61178014333077113</v>
       </c>
       <c r="LA29" s="2">
         <v>2.8340000000000001</v>
       </c>
       <c r="LB29">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.43068050185120432</v>
       </c>
       <c r="LD29" s="2">
         <v>5.5</v>
       </c>
       <c r="LE29" s="2">
-        <f t="shared" si="78"/>
-        <v>0.61178014333077113</v>
+        <f t="shared" si="89"/>
+        <v>0.64903229429344067</v>
       </c>
       <c r="LF29" s="2">
         <v>1.9450000000000001</v>
@@ -17600,8 +20012,37 @@
         <f>EXP(-3*LD29*LF29/55.51)</f>
         <v>0.56094126604869909</v>
       </c>
+      <c r="MR29" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="MS29" s="2">
+        <f t="shared" si="98"/>
+        <v>0.35589006331600676</v>
+      </c>
+      <c r="MT29" s="2">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="MU29">
+        <f t="shared" si="51"/>
+        <v>0.55497076146088264</v>
+      </c>
     </row>
-    <row r="30" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1947</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="AY30" s="2">
         <v>8.9870000000000001</v>
       </c>
@@ -17628,7 +20069,7 @@
         <v>5</v>
       </c>
       <c r="DQ30" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.34723718137014914</v>
       </c>
       <c r="DR30" s="2">
@@ -17653,14 +20094,14 @@
         <v>0.83139404553783947</v>
       </c>
       <c r="GR30" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>24.134477307557713</v>
       </c>
       <c r="GS30" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="GT30" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="66"/>
         <v>0.65891214422423905</v>
       </c>
       <c r="GU30" s="2">
@@ -17671,7 +20112,7 @@
         <v>0.69697236866331325</v>
       </c>
       <c r="GW30" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="68"/>
         <v>0.88956180743444035</v>
       </c>
       <c r="HD30" s="2">
@@ -17684,7 +20125,7 @@
         <v>0.56640000000000001</v>
       </c>
       <c r="HG30" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>5.0172275003621224E-2</v>
       </c>
       <c r="HH30" s="2">
@@ -17703,7 +20144,7 @@
         <v>0.60709999999999997</v>
       </c>
       <c r="HN30" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>6.7221931292888268E-2</v>
       </c>
       <c r="HO30" s="2">
@@ -17722,7 +20163,7 @@
         <v>0.79169999999999996</v>
       </c>
       <c r="HU30" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>5.8120242645405391E-2</v>
       </c>
       <c r="HV30" s="2">
@@ -17741,7 +20182,7 @@
         <v>0.95320000000000005</v>
       </c>
       <c r="IB30" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>7.0649648645902896E-2</v>
       </c>
       <c r="IC30" s="2">
@@ -17760,7 +20201,7 @@
         <v>0.96709999999999996</v>
       </c>
       <c r="II30" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>7.0700275517295449E-2</v>
       </c>
       <c r="IJ30" s="2">
@@ -17779,7 +20220,7 @@
         <v>0.96730000000000005</v>
       </c>
       <c r="IP30" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>8.7005011458707954E-2</v>
       </c>
       <c r="IQ30" s="2">
@@ -17798,7 +20239,7 @@
         <v>0.74150000000000005</v>
       </c>
       <c r="IW30" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>5.9482084924463913E-2</v>
       </c>
       <c r="IX30" s="2">
@@ -17817,7 +20258,7 @@
         <v>0.72750000000000004</v>
       </c>
       <c r="JD30" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>6.0163088470705575E-2</v>
       </c>
       <c r="JE30" s="2">
@@ -17836,7 +20277,7 @@
         <v>0.879</v>
       </c>
       <c r="JK30" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.10143191783988029</v>
       </c>
       <c r="JL30" s="2">
@@ -17855,7 +20296,7 @@
         <v>1.0065999999999999</v>
       </c>
       <c r="JR30" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>6.9873747936589334E-2</v>
       </c>
       <c r="JS30" s="2">
@@ -17893,7 +20334,7 @@
         <v>0.74280000000000002</v>
       </c>
       <c r="KF30" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>7.2077445930732231E-2</v>
       </c>
       <c r="KG30" s="2">
@@ -17912,43 +20353,69 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="KM30" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.35009268604414934</v>
       </c>
       <c r="KN30" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.8233306428123488</v>
       </c>
       <c r="KT30" s="2">
         <v>6</v>
       </c>
       <c r="KU30" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.58913340016763349</v>
       </c>
       <c r="KV30" s="2">
         <v>3.6549999999999998</v>
       </c>
       <c r="KW30">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.30568752548197548</v>
       </c>
       <c r="KY30" s="2">
         <v>6</v>
       </c>
       <c r="KZ30" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.63223395804524984</v>
       </c>
       <c r="LA30" s="2">
         <v>2.9620000000000002</v>
       </c>
       <c r="LB30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.38271082924928823</v>
       </c>
+      <c r="MR30" s="2">
+        <v>6</v>
+      </c>
+      <c r="MS30" s="2">
+        <f t="shared" si="98"/>
+        <v>0.37607626843694625</v>
+      </c>
+      <c r="MT30" s="2">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="MU30">
+        <f t="shared" si="51"/>
+        <v>0.50514792022280608</v>
+      </c>
     </row>
-    <row r="31" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>468</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1949</v>
+      </c>
       <c r="AY31" s="2">
         <v>9.9670000000000005</v>
       </c>
@@ -17975,7 +20442,7 @@
         <v>5.5</v>
       </c>
       <c r="DQ31" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.36914288598203948</v>
       </c>
       <c r="DR31" s="2">
@@ -18009,7 +20476,7 @@
         <v>0.54449999999999998</v>
       </c>
       <c r="HG31" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>6.1938445573375467E-2</v>
       </c>
       <c r="HH31" s="2">
@@ -18028,7 +20495,7 @@
         <v>0.57989999999999997</v>
       </c>
       <c r="HN31" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>8.2638632005408885E-2</v>
       </c>
       <c r="HO31" s="2">
@@ -18047,7 +20514,7 @@
         <v>0.79269999999999996</v>
       </c>
       <c r="HU31" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>7.1609808446087331E-2</v>
       </c>
       <c r="HV31" s="2">
@@ -18066,7 +20533,7 @@
         <v>0.98219999999999996</v>
       </c>
       <c r="IB31" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>8.6779328539615827E-2</v>
       </c>
       <c r="IC31" s="2">
@@ -18085,7 +20552,7 @@
         <v>1.0022</v>
       </c>
       <c r="II31" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>8.6840433748602397E-2</v>
       </c>
       <c r="IJ31" s="2">
@@ -18104,7 +20571,7 @@
         <v>0.99729999999999996</v>
       </c>
       <c r="IP31" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.10644103838235162</v>
       </c>
       <c r="IQ31" s="2">
@@ -18123,7 +20590,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="IW31" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>7.3263145002363916E-2</v>
       </c>
       <c r="IX31" s="2">
@@ -18142,7 +20609,7 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="JD31" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>7.408949734253964E-2</v>
       </c>
       <c r="JE31" s="2">
@@ -18161,7 +20628,7 @@
         <v>0.88890000000000002</v>
       </c>
       <c r="JK31" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.12365427474083478</v>
       </c>
       <c r="JL31" s="2">
@@ -18180,7 +20647,7 @@
         <v>1.0513999999999999</v>
       </c>
       <c r="JR31" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>8.5842648033019497E-2</v>
       </c>
       <c r="JS31" s="2">
@@ -18218,7 +20685,7 @@
         <v>0.73409999999999997</v>
       </c>
       <c r="KF31" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>8.8502056858913561E-2</v>
       </c>
       <c r="KG31" s="2">
@@ -18237,43 +20704,43 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="KM31" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="82"/>
         <v>0.37013902430025059</v>
       </c>
       <c r="KN31" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="83"/>
         <v>0.80803428967687863</v>
       </c>
       <c r="KT31" s="2">
         <v>6.5</v>
       </c>
       <c r="KU31" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.60836071544664494</v>
       </c>
       <c r="KV31" s="2">
         <v>3.8279999999999998</v>
       </c>
       <c r="KW31">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.26060988608356023</v>
       </c>
       <c r="KY31" s="2">
         <v>6.5</v>
       </c>
       <c r="KZ31" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.6506403761904429</v>
       </c>
       <c r="LA31" s="2">
         <v>3.0739999999999998</v>
       </c>
       <c r="LB31">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.33964324733851287</v>
       </c>
     </row>
-    <row r="32" spans="1:319" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AY32" s="2">
         <v>11.013</v>
       </c>
@@ -18300,7 +20767,7 @@
         <v>6</v>
       </c>
       <c r="DQ32" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.38962608493963408</v>
       </c>
       <c r="DR32" s="2">
@@ -18334,7 +20801,7 @@
         <v>0.5272</v>
       </c>
       <c r="HG32" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>7.3416671782178797E-2</v>
       </c>
       <c r="HH32" s="2">
@@ -18353,7 +20820,7 @@
         <v>0.55669999999999997</v>
       </c>
       <c r="HN32" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>9.7554012380537389E-2</v>
       </c>
       <c r="HO32" s="2">
@@ -18372,7 +20839,7 @@
         <v>0.79449999999999998</v>
       </c>
       <c r="HU32" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>8.4718435941381884E-2</v>
       </c>
       <c r="HV32" s="2">
@@ -18391,7 +20858,7 @@
         <v>1.0113000000000001</v>
       </c>
       <c r="IB32" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.10235867090133394</v>
       </c>
       <c r="IC32" s="2">
@@ -18410,7 +20877,7 @@
         <v>1.0382</v>
       </c>
       <c r="II32" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.10242951578248087</v>
       </c>
       <c r="IJ32" s="2">
@@ -18429,7 +20896,7 @@
         <v>1.0274000000000001</v>
       </c>
       <c r="IP32" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.1250667980876998</v>
       </c>
       <c r="IQ32" s="2">
@@ -18448,7 +20915,7 @@
         <v>0.72470000000000001</v>
       </c>
       <c r="IW32" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>8.6646179677710905E-2</v>
       </c>
       <c r="IX32" s="2">
@@ -18467,7 +20934,7 @@
         <v>0.72870000000000001</v>
       </c>
       <c r="JD32" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>8.7609212310515175E-2</v>
       </c>
       <c r="JE32" s="2">
@@ -18486,7 +20953,7 @@
         <v>0.89939999999999998</v>
       </c>
       <c r="JK32" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.14480400289743142</v>
       </c>
       <c r="JL32" s="2">
@@ -18505,7 +20972,7 @@
         <v>1.0972</v>
       </c>
       <c r="JR32" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.10127247810101203</v>
       </c>
       <c r="JS32" s="2">
@@ -18543,7 +21010,7 @@
         <v>0.72740000000000005</v>
       </c>
       <c r="KF32" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.10435533585718357</v>
       </c>
       <c r="KG32" s="2">
@@ -18556,28 +21023,28 @@
         <v>7</v>
       </c>
       <c r="KU32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="85"/>
         <v>0.62586891943461309</v>
       </c>
       <c r="KV32" s="2">
         <v>3.9889999999999999</v>
       </c>
       <c r="KW32">
-        <f t="shared" si="75"/>
+        <f t="shared" si="86"/>
         <v>0.22111343134273481</v>
       </c>
       <c r="KY32" s="2">
         <v>7</v>
       </c>
       <c r="KZ32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.66729215741073444</v>
       </c>
       <c r="LA32" s="2">
         <v>3.1659999999999999</v>
       </c>
       <c r="LB32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.30187865749786363</v>
       </c>
     </row>
@@ -18608,7 +21075,7 @@
         <v>6.5</v>
       </c>
       <c r="DQ33" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="104"/>
         <v>0.40882098212570239</v>
       </c>
       <c r="DR33" s="2">
@@ -18642,7 +21109,7 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="HG33" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>8.4617395816587074E-2</v>
       </c>
       <c r="HH33" s="2">
@@ -18661,7 +21128,7 @@
         <v>0.53669999999999995</v>
       </c>
       <c r="HN33" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.11199213410446858</v>
       </c>
       <c r="HO33" s="2">
@@ -18680,7 +21147,7 @@
         <v>0.79669999999999996</v>
       </c>
       <c r="HU33" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>9.7462036712619757E-2</v>
       </c>
       <c r="HV33" s="2">
@@ -18699,7 +21166,7 @@
         <v>1.0402</v>
       </c>
       <c r="IB33" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.11741536919584357</v>
       </c>
       <c r="IC33" s="2">
@@ -18718,7 +21185,7 @@
         <v>1.0746</v>
       </c>
       <c r="II33" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.11749527112488546</v>
       </c>
       <c r="IJ33" s="2">
@@ -18737,7 +21204,7 @@
         <v>1.0577000000000001</v>
       </c>
       <c r="IP33" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.14293192474035177</v>
       </c>
       <c r="IQ33" s="2">
@@ -18756,7 +21223,7 @@
         <v>0.71919999999999995</v>
       </c>
       <c r="IW33" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>9.9648187168995553E-2</v>
       </c>
       <c r="IX33" s="2">
@@ -18775,7 +21242,7 @@
         <v>0.7319</v>
       </c>
       <c r="JD33" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.10073979205719176</v>
       </c>
       <c r="JE33" s="2">
@@ -18794,7 +21261,7 @@
         <v>0.91020000000000001</v>
       </c>
       <c r="JK33" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.16495693268720504</v>
       </c>
       <c r="JL33" s="2">
@@ -18813,7 +21280,7 @@
         <v>1.1437999999999999</v>
       </c>
       <c r="JR33" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.11619008153652036</v>
       </c>
       <c r="JS33" s="2">
@@ -18851,7 +21318,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="KF33" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.11966658407143803</v>
       </c>
       <c r="KG33" s="2">
@@ -18864,14 +21331,14 @@
         <v>7.5</v>
       </c>
       <c r="KZ33" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.68242878465495882</v>
       </c>
       <c r="LA33" s="2">
         <v>3.2410000000000001</v>
       </c>
       <c r="LB33">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.26882834670003947</v>
       </c>
     </row>
@@ -18886,7 +21353,7 @@
         <v>0.50109999999999999</v>
       </c>
       <c r="HG34" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>9.5550560984764568E-2</v>
       </c>
       <c r="HH34" s="2">
@@ -18905,7 +21372,7 @@
         <v>0.51949999999999996</v>
       </c>
       <c r="HN34" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.12597554327140209</v>
       </c>
       <c r="HO34" s="2">
@@ -18924,7 +21391,7 @@
         <v>0.79910000000000003</v>
       </c>
       <c r="HU34" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.1098556483525899</v>
       </c>
       <c r="HV34" s="2">
@@ -18943,7 +21410,7 @@
         <v>1.0689</v>
       </c>
       <c r="IB34" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.13197528946141546</v>
       </c>
       <c r="IC34" s="2">
@@ -18962,7 +21429,7 @@
         <v>1.1113999999999999</v>
       </c>
       <c r="II34" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.13206361693170857</v>
       </c>
       <c r="IJ34" s="2">
@@ -18981,7 +21448,7 @@
         <v>1.0885</v>
       </c>
       <c r="IP34" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.16008207973567931</v>
       </c>
       <c r="IQ34" s="2">
@@ -19000,7 +21467,7 @@
         <v>0.71509999999999996</v>
       </c>
       <c r="IW34" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.11228521137043052</v>
       </c>
       <c r="IX34" s="2">
@@ -19019,7 +21486,7 @@
         <v>0.73619999999999997</v>
       </c>
       <c r="JD34" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.11349779882921852</v>
       </c>
       <c r="JE34" s="2">
@@ -19038,7 +21505,7 @@
         <v>0.92130000000000001</v>
       </c>
       <c r="JK34" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.18418191119576011</v>
       </c>
       <c r="JL34" s="2">
@@ -19057,7 +21524,7 @@
         <v>1.1911</v>
       </c>
       <c r="JR34" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.1306205485859453</v>
       </c>
       <c r="JS34" s="2">
@@ -19095,7 +21562,7 @@
         <v>0.71779999999999999</v>
       </c>
       <c r="KF34" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.13446313268563848</v>
       </c>
       <c r="KG34" s="2">
@@ -19108,14 +21575,14 @@
         <v>8</v>
       </c>
       <c r="KZ34" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="87"/>
         <v>0.69624805598755835</v>
       </c>
       <c r="LA34" s="2">
         <v>3.3079999999999998</v>
       </c>
       <c r="LB34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="88"/>
         <v>0.23925417759106679</v>
       </c>
     </row>
@@ -19130,7 +21597,7 @@
         <v>0.4909</v>
       </c>
       <c r="HG35" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.10622564115741545</v>
       </c>
       <c r="HH35" s="2">
@@ -19149,7 +21616,7 @@
         <v>0.50470000000000004</v>
       </c>
       <c r="HN35" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.13952538786329832</v>
       </c>
       <c r="HO35" s="2">
@@ -19168,7 +21635,7 @@
         <v>0.80169999999999997</v>
       </c>
       <c r="HU35" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.12191349366053768</v>
       </c>
       <c r="HV35" s="2">
@@ -19187,7 +21654,7 @@
         <v>1.0972</v>
       </c>
       <c r="IB35" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.14606261859797245</v>
       </c>
       <c r="IC35" s="2">
@@ -19206,7 +21673,7 @@
         <v>1.1485000000000001</v>
       </c>
       <c r="II35" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.14615878679437022</v>
       </c>
       <c r="IJ35" s="2">
@@ -19225,7 +21692,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="IP35" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.17655934138199036</v>
       </c>
       <c r="IQ35" s="2">
@@ -19244,7 +21711,7 @@
         <v>0.71230000000000004</v>
       </c>
       <c r="IW35" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.12457240789776876</v>
       </c>
       <c r="IX35" s="2">
@@ -19263,7 +21730,7 @@
         <v>0.74119999999999997</v>
       </c>
       <c r="JD35" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.12589886813186377</v>
       </c>
       <c r="JE35" s="2">
@@ -19282,7 +21749,7 @@
         <v>0.93269999999999997</v>
       </c>
       <c r="JK35" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.20254158799845759</v>
       </c>
       <c r="JL35" s="2">
@@ -19301,7 +21768,7 @@
         <v>1.2390000000000001</v>
       </c>
       <c r="JR35" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.14458735717016852</v>
       </c>
       <c r="JS35" s="2">
@@ -19339,7 +21806,7 @@
         <v>0.7147</v>
       </c>
       <c r="KF35" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.14877050573971962</v>
       </c>
       <c r="KG35" s="2">
@@ -19360,7 +21827,7 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="HG36" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.11665166814811545</v>
       </c>
       <c r="HH36" s="2">
@@ -19379,7 +21846,7 @@
         <v>0.4919</v>
       </c>
       <c r="HN36" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.15266152446885159</v>
       </c>
       <c r="HO36" s="2">
@@ -19398,7 +21865,7 @@
         <v>0.80420000000000003</v>
       </c>
       <c r="HU36" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.13364903509035025</v>
       </c>
       <c r="HV36" s="2">
@@ -19417,7 +21884,7 @@
         <v>1.1253</v>
       </c>
       <c r="IB36" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.1596999984462853</v>
       </c>
       <c r="IC36" s="2">
@@ -19436,7 +21903,7 @@
         <v>1.1857</v>
       </c>
       <c r="II36" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.1598034652595369</v>
       </c>
       <c r="IJ36" s="2">
@@ -19455,7 +21922,7 @@
         <v>1.1525000000000001</v>
       </c>
       <c r="IP36" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.19240254959807249</v>
       </c>
       <c r="IQ36" s="2">
@@ -19474,7 +21941,7 @@
         <v>0.7107</v>
       </c>
       <c r="IW36" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.13652410472401444</v>
       </c>
       <c r="IX36" s="2">
@@ -19493,7 +21960,7 @@
         <v>0.74690000000000001</v>
       </c>
       <c r="JD36" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.13795777265460335</v>
       </c>
       <c r="JE36" s="2">
@@ -19512,7 +21979,7 @@
         <v>0.94420000000000004</v>
       </c>
       <c r="JK36" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.22009309717502748</v>
       </c>
       <c r="JL36" s="2">
@@ -19531,7 +21998,7 @@
         <v>1.2876000000000001</v>
       </c>
       <c r="JR36" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.15811250034896238</v>
       </c>
       <c r="JS36" s="2">
@@ -19569,7 +22036,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="KF36" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.16261256706175389</v>
       </c>
       <c r="KG36" s="2">
@@ -19590,7 +22057,7 @@
         <v>0.46389999999999998</v>
       </c>
       <c r="HG37" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.14168270423592999</v>
       </c>
       <c r="HH37" s="2">
@@ -19609,7 +22076,7 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="HN37" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.18381166339866556</v>
       </c>
       <c r="HO37" s="2">
@@ -19628,7 +22095,7 @@
         <v>0.81030000000000002</v>
       </c>
       <c r="HU37" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.16165987237403318</v>
       </c>
       <c r="HV37" s="2">
@@ -19647,7 +22114,7 @@
         <v>1.1942999999999999</v>
       </c>
       <c r="IB37" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.1919609569271051</v>
       </c>
       <c r="IC37" s="2">
@@ -19666,7 +22133,7 @@
         <v>1.2789999999999999</v>
       </c>
       <c r="II37" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.19208054730725899</v>
       </c>
       <c r="IJ37" s="2">
@@ -19685,7 +22152,7 @@
         <v>1.2378</v>
       </c>
       <c r="IP37" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.22946573870455045</v>
       </c>
       <c r="IQ37" s="2">
@@ -19704,7 +22171,7 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="IW37" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.16502273559593245</v>
       </c>
       <c r="IX37" s="2">
@@ -19723,7 +22190,7 @@
         <v>0.76270000000000004</v>
       </c>
       <c r="JD37" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.16669789813502614</v>
       </c>
       <c r="JE37" s="2">
@@ -19742,7 +22209,7 @@
         <v>0.97370000000000001</v>
       </c>
       <c r="JK37" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.26076805902974032</v>
       </c>
       <c r="JL37" s="2">
@@ -19761,7 +22228,7 @@
         <v>1.4117999999999999</v>
       </c>
       <c r="JR37" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.19012532770060098</v>
       </c>
       <c r="JS37" s="2">
@@ -19799,7 +22266,7 @@
         <v>0.71050000000000002</v>
       </c>
       <c r="KF37" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.19532512868058791</v>
       </c>
       <c r="KG37" s="2">
@@ -19820,7 +22287,7 @@
         <v>0.44969999999999999</v>
       </c>
       <c r="HG38" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.16533424451011641</v>
       </c>
       <c r="HH38" s="2">
@@ -19839,7 +22306,7 @@
         <v>0.44940000000000002</v>
       </c>
       <c r="HN38" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.21275271016866346</v>
       </c>
       <c r="HO38" s="2">
@@ -19858,7 +22325,7 @@
         <v>0.81579999999999997</v>
       </c>
       <c r="HU38" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.18791614678750224</v>
       </c>
       <c r="HV38" s="2">
@@ -19877,7 +22344,7 @@
         <v>1.2615000000000001</v>
       </c>
       <c r="IB38" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.22183636416332192</v>
       </c>
       <c r="IC38" s="2">
@@ -19896,7 +22363,7 @@
         <v>1.3720000000000001</v>
       </c>
       <c r="II38" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.22196945392945808</v>
       </c>
       <c r="IJ38" s="2">
@@ -19915,7 +22382,7 @@
         <v>1.3278000000000001</v>
       </c>
       <c r="IP38" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.26327630794811624</v>
       </c>
       <c r="IQ38" s="2">
@@ -19934,7 +22401,7 @@
         <v>0.71660000000000001</v>
       </c>
       <c r="IW38" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.19170030109487102</v>
       </c>
       <c r="IX38" s="2">
@@ -19953,7 +22420,7 @@
         <v>0.78049999999999997</v>
       </c>
       <c r="JD38" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.1935834857252221</v>
       </c>
       <c r="JE38" s="2">
@@ -19972,7 +22439,7 @@
         <v>1.0036</v>
       </c>
       <c r="JK38" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.2974106321781097</v>
       </c>
       <c r="JL38" s="2">
@@ -19991,7 +22458,7 @@
         <v>1.5401</v>
       </c>
       <c r="JR38" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.21979275916810995</v>
       </c>
       <c r="JS38" s="2">
@@ -20029,7 +22496,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="KF38" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.22557794614504859</v>
       </c>
       <c r="KG38" s="2">
@@ -20050,7 +22517,7 @@
         <v>0.43809999999999999</v>
       </c>
       <c r="HG39" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.1877172697654407</v>
       </c>
       <c r="HH39" s="2">
@@ -20069,7 +22536,7 @@
         <v>0.4365</v>
       </c>
       <c r="HN39" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.23971161265490212</v>
       </c>
       <c r="HO39" s="2">
@@ -20088,7 +22555,7 @@
         <v>0.82069999999999999</v>
       </c>
       <c r="HU39" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.2125777073103069</v>
       </c>
       <c r="HV39" s="2">
@@ -20107,7 +22574,7 @@
         <v>1.3269</v>
       </c>
       <c r="IB39" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.24958138694990778</v>
       </c>
       <c r="IC39" s="2">
@@ -20126,7 +22593,7 @@
         <v>1.4637</v>
       </c>
       <c r="II39" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.24972578039979282</v>
       </c>
       <c r="IJ39" s="2">
@@ -20145,7 +22612,7 @@
         <v>1.4180999999999999</v>
       </c>
       <c r="IP39" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.29424442815944829</v>
       </c>
       <c r="IQ39" s="2">
@@ -20164,7 +22631,7 @@
         <v>0.72689999999999999</v>
       </c>
       <c r="IW39" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.21672594641359016</v>
       </c>
       <c r="IX39" s="2">
@@ -20183,7 +22650,7 @@
         <v>0.79959999999999998</v>
       </c>
       <c r="JD39" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.21878842889576139</v>
       </c>
       <c r="JE39" s="2">
@@ -20202,7 +22669,7 @@
         <v>1.0335000000000001</v>
       </c>
       <c r="JK39" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.33059213490207195</v>
       </c>
       <c r="JL39" s="2">
@@ -20221,7 +22688,7 @@
         <v>1.6612</v>
       </c>
       <c r="JR39" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="80"/>
         <v>0.24512268841903323</v>
       </c>
       <c r="JS39" s="2">
@@ -20259,7 +22726,7 @@
         <v>0.71940000000000004</v>
       </c>
       <c r="KF39" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.25363839898480495</v>
       </c>
       <c r="KG39" s="2">
@@ -20280,7 +22747,7 @@
         <v>0.42830000000000001</v>
       </c>
       <c r="HG40" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.20893116712317933</v>
       </c>
       <c r="HH40" s="2">
@@ -20299,7 +22766,7 @@
         <v>0.4264</v>
       </c>
       <c r="HN40" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.26488526115972905</v>
       </c>
       <c r="HO40" s="2">
@@ -20318,7 +22785,7 @@
         <v>0.82469999999999999</v>
       </c>
       <c r="HU40" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.23578555788158653</v>
       </c>
       <c r="HV40" s="2">
@@ -20337,7 +22804,7 @@
         <v>1.3908</v>
       </c>
       <c r="IB40" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.27541605356599858</v>
       </c>
       <c r="IC40" s="2">
@@ -20356,7 +22823,7 @@
         <v>1.5536000000000001</v>
       </c>
       <c r="II40" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.27556990480930599</v>
       </c>
       <c r="IJ40" s="2">
@@ -20375,7 +22842,7 @@
         <v>1.4355</v>
       </c>
       <c r="IP40" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>0.30012823862263199</v>
       </c>
       <c r="IQ40" s="2">
@@ -20394,7 +22861,7 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="IW40" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.24024849830557179</v>
       </c>
       <c r="IX40" s="2">
@@ -20413,7 +22880,7 @@
         <v>0.81969999999999998</v>
       </c>
       <c r="JD40" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.24246553953013289</v>
       </c>
       <c r="JE40" s="2">
@@ -20432,7 +22899,7 @@
         <v>1.0628</v>
       </c>
       <c r="JK40" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.36078082514297544</v>
       </c>
       <c r="JL40" s="2">
@@ -20470,7 +22937,7 @@
         <v>0.72909999999999997</v>
       </c>
       <c r="KF40" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.27973646882679271</v>
       </c>
       <c r="KG40" s="2">
@@ -20491,7 +22958,7 @@
         <v>0.41959999999999997</v>
       </c>
       <c r="HG41" s="2">
-        <f t="shared" si="60"/>
+        <f t="shared" si="71"/>
         <v>0.22906520542400816</v>
       </c>
       <c r="HH41" s="2">
@@ -20510,7 +22977,7 @@
         <v>0.41820000000000002</v>
       </c>
       <c r="HN41" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.28844530505957</v>
       </c>
       <c r="HO41" s="2">
@@ -20529,7 +22996,7 @@
         <v>0.82809999999999995</v>
       </c>
       <c r="HU41" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.25766455501059926</v>
       </c>
       <c r="HV41" s="2">
@@ -20548,7 +23015,7 @@
         <v>1.4530000000000001</v>
       </c>
       <c r="IB41" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.29953110104063707</v>
       </c>
       <c r="IC41" s="2">
@@ -20567,7 +23034,7 @@
         <v>1.641</v>
       </c>
       <c r="II41" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.29969285158747061</v>
       </c>
       <c r="IJ41" s="2">
@@ -20586,7 +23053,7 @@
         <v>0.75860000000000005</v>
       </c>
       <c r="IW41" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.26239942705547814</v>
       </c>
       <c r="IX41" s="2">
@@ -20605,7 +23072,7 @@
         <v>0.84079999999999999</v>
       </c>
       <c r="JD41" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.26474964867072931</v>
       </c>
       <c r="JE41" s="2">
@@ -20624,7 +23091,7 @@
         <v>1.0911</v>
       </c>
       <c r="JK41" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.38836413657946267</v>
       </c>
       <c r="JL41" s="2">
@@ -20662,7 +23129,7 @@
         <v>0.74170000000000003</v>
       </c>
       <c r="KF41" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.30407105696177705</v>
       </c>
       <c r="KG41" s="2">
@@ -20702,7 +23169,7 @@
         <v>0.41139999999999999</v>
       </c>
       <c r="HN42" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.31054207198964617</v>
       </c>
       <c r="HO42" s="2">
@@ -20721,7 +23188,7 @@
         <v>0.83069999999999999</v>
       </c>
       <c r="HU42" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.27832565489872002</v>
       </c>
       <c r="HV42" s="2">
@@ -20740,7 +23207,7 @@
         <v>1.5137</v>
       </c>
       <c r="IB42" s="2">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>0.32209269240157601</v>
       </c>
       <c r="IC42" s="2">
@@ -20759,7 +23226,7 @@
         <v>1.7255</v>
       </c>
       <c r="II42" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.32226102127266776</v>
       </c>
       <c r="IJ42" s="2">
@@ -20778,7 +23245,7 @@
         <v>0.77929999999999999</v>
       </c>
       <c r="IW42" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.28329530498221567</v>
       </c>
       <c r="IX42" s="2">
@@ -20797,7 +23264,7 @@
         <v>0.86280000000000001</v>
       </c>
       <c r="JD42" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.28576017562300193</v>
       </c>
       <c r="JE42" s="2">
@@ -20816,7 +23283,7 @@
         <v>1.1176999999999999</v>
       </c>
       <c r="JK42" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.4136653957277785</v>
       </c>
       <c r="JL42" s="2">
@@ -20854,7 +23321,7 @@
         <v>0.75680000000000003</v>
       </c>
       <c r="KF42" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.32681506310536579</v>
       </c>
       <c r="KG42" s="2">
@@ -20875,7 +23342,7 @@
         <v>0.40479999999999999</v>
       </c>
       <c r="HG43" s="2">
-        <f t="shared" ref="HG43:HG45" si="81">$HD$2*HD43/(1+$HD$2*HD43)</f>
+        <f t="shared" ref="HG43:HG45" si="105">$HD$2*HD43/(1+$HD$2*HD43)</f>
         <v>0.26640754041349396</v>
       </c>
       <c r="HH43" s="2">
@@ -20894,7 +23361,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="HN43" s="2">
-        <f t="shared" si="61"/>
+        <f t="shared" si="72"/>
         <v>0.32008569032197381</v>
       </c>
       <c r="HO43" s="2">
@@ -20913,7 +23380,7 @@
         <v>0.8327</v>
       </c>
       <c r="HU43" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.29786779546401604</v>
       </c>
       <c r="HV43" s="2">
@@ -20932,7 +23399,7 @@
         <v>1.8067</v>
       </c>
       <c r="II43" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.34342003430196982</v>
       </c>
       <c r="IJ43" s="2">
@@ -20951,7 +23418,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="IW43" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.30303985856504212</v>
       </c>
       <c r="IX43" s="2">
@@ -20970,7 +23437,7 @@
         <v>0.88560000000000005</v>
       </c>
       <c r="JD43" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.30560326880872757</v>
       </c>
       <c r="JE43" s="2">
@@ -20989,7 +23456,7 @@
         <v>1.1420999999999999</v>
       </c>
       <c r="JK43" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.43695655468941208</v>
       </c>
       <c r="JL43" s="2">
@@ -21008,7 +23475,7 @@
         <v>0.77390000000000003</v>
       </c>
       <c r="KF43" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.34811949978679924</v>
       </c>
       <c r="KG43" s="2">
@@ -21029,7 +23496,7 @@
         <v>0.3982</v>
       </c>
       <c r="HG44" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>0.28375420234839094</v>
       </c>
       <c r="HH44" s="2">
@@ -21048,7 +23515,7 @@
         <v>0.83389999999999997</v>
       </c>
       <c r="HU44" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.3163794806488428</v>
       </c>
       <c r="HV44" s="2">
@@ -21067,7 +23534,7 @@
         <v>1.8844000000000001</v>
       </c>
       <c r="II44" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.36329787658059076</v>
       </c>
       <c r="IJ44" s="2">
@@ -21086,7 +23553,7 @@
         <v>0.82950000000000002</v>
       </c>
       <c r="IW44" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.32172569045882921</v>
       </c>
       <c r="IX44" s="2">
@@ -21105,7 +23572,7 @@
         <v>0.89759999999999995</v>
       </c>
       <c r="JD44" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0.31541715514164492</v>
       </c>
       <c r="JE44" s="2">
@@ -21124,7 +23591,7 @@
         <v>1.1637999999999999</v>
       </c>
       <c r="JK44" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="79"/>
         <v>0.45846800512003338</v>
       </c>
       <c r="JL44" s="2">
@@ -21143,7 +23610,7 @@
         <v>0.79249999999999998</v>
       </c>
       <c r="KF44" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.36811684944982059</v>
       </c>
       <c r="KG44" s="2">
@@ -21164,7 +23631,7 @@
         <v>0.39550000000000002</v>
       </c>
       <c r="HG45" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>0.29093038854005598</v>
       </c>
       <c r="HH45" s="2">
@@ -21183,7 +23650,7 @@
         <v>0.83450000000000002</v>
       </c>
       <c r="HU45" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.33394012054411643</v>
       </c>
       <c r="HV45" s="2">
@@ -21202,7 +23669,7 @@
         <v>1.9584999999999999</v>
       </c>
       <c r="II45" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.38200749045237109</v>
       </c>
       <c r="IJ45" s="2">
@@ -21221,7 +23688,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="IW45" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.33943573173385883</v>
       </c>
       <c r="IX45" s="2">
@@ -21240,7 +23707,7 @@
         <v>0.81210000000000004</v>
       </c>
       <c r="KF45" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.38692382204171571</v>
       </c>
       <c r="KG45" s="2">
@@ -21261,7 +23728,7 @@
         <v>0.83430000000000004</v>
       </c>
       <c r="HU46" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.35062117013818206</v>
       </c>
       <c r="HV46" s="2">
@@ -21280,7 +23747,7 @@
         <v>2.0289000000000001</v>
       </c>
       <c r="II46" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.39964892189373641</v>
       </c>
       <c r="IJ46" s="2">
@@ -21299,7 +23766,7 @@
         <v>0.89180000000000004</v>
       </c>
       <c r="IW46" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.3562444723931622</v>
       </c>
       <c r="IX46" s="2">
@@ -21318,7 +23785,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="KF46" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="81"/>
         <v>0.39570097829718204</v>
       </c>
       <c r="KG46" s="2">
@@ -21339,7 +23806,7 @@
         <v>0.83360000000000001</v>
       </c>
       <c r="HU47" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.36648710113097416</v>
       </c>
       <c r="HV47" s="2">
@@ -21358,7 +23825,7 @@
         <v>2.0958999999999999</v>
       </c>
       <c r="II47" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.41631111014737593</v>
       </c>
       <c r="IJ47" s="2">
@@ -21377,7 +23844,7 @@
         <v>0.92820000000000003</v>
       </c>
       <c r="IW47" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.3722190086810811</v>
       </c>
       <c r="IX47" s="2">
@@ -21398,7 +23865,7 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="HU48" s="2">
-        <f t="shared" si="62"/>
+        <f t="shared" si="73"/>
         <v>0.36993536551481065</v>
       </c>
       <c r="HV48" s="2">
@@ -21417,7 +23884,7 @@
         <v>2.1595</v>
       </c>
       <c r="II48" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.43207338738601375</v>
       </c>
       <c r="IJ48" s="2">
@@ -21436,7 +23903,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="IW48" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.38741993823624765</v>
       </c>
       <c r="IX48" s="2">
@@ -21457,7 +23924,7 @@
         <v>2.2202999999999999</v>
       </c>
       <c r="II49" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.44700674177859806</v>
       </c>
       <c r="IJ49" s="2">
@@ -21476,7 +23943,7 @@
         <v>0.9778</v>
       </c>
       <c r="IW49" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>0.39048971193229581</v>
       </c>
       <c r="IX49" s="2">
@@ -21497,7 +23964,7 @@
         <v>2.2786</v>
       </c>
       <c r="II50" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.46117488639168835</v>
       </c>
       <c r="IJ50" s="2">
@@ -21518,7 +23985,7 @@
         <v>2.3351000000000002</v>
       </c>
       <c r="II51" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.47463516787878235</v>
       </c>
       <c r="IJ51" s="2">
@@ -21539,7 +24006,7 @@
         <v>2.3904000000000001</v>
       </c>
       <c r="II52" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.48743934229036501</v>
       </c>
       <c r="IJ52" s="2">
@@ -21560,7 +24027,7 @@
         <v>2.4455</v>
       </c>
       <c r="II53" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.49963424013502511</v>
       </c>
       <c r="IJ53" s="2">
@@ -21581,7 +24048,7 @@
         <v>2.5011999999999999</v>
       </c>
       <c r="II54" s="2">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>0.51126233870765236</v>
       </c>
       <c r="IJ54" s="2">

--- a/data/sources_list_.xlsx
+++ b/data/sources_list_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clara/Downloads/RE_ ML for AWH Discussion/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D524BBF-CCAF-DD4E-9D19-402C88391928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C2B54-029F-2C49-9E70-7E63AA0FDF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16580" yWindow="760" windowWidth="11740" windowHeight="17760" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="1" r:id="rId1"/>
@@ -3235,8 +3235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:NO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="NG1" zoomScaleNormal="32" workbookViewId="0">
-      <selection activeCell="NN24" sqref="NN24"/>
+    <sheetView tabSelected="1" topLeftCell="MP11" zoomScaleNormal="32" workbookViewId="0">
+      <selection activeCell="NO8" sqref="NO8:NO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="49" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6173,8 +6173,8 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="LL8">
-        <f t="shared" ref="LL8:LL16" si="44">EXP(-3*LI8*LK8/55.51)</f>
-        <v>0.99560507429445921</v>
+        <f>EXP(-4*LI8*LK8/55.51)</f>
+        <v>0.9941443955639333</v>
       </c>
       <c r="LN8" s="2">
         <v>0.1</v>
@@ -6187,8 +6187,8 @@
         <v>0.41199999999999998</v>
       </c>
       <c r="LQ8">
-        <f t="shared" ref="LQ8:LQ16" si="45">EXP(-3*LN8*LP8/55.51)</f>
-        <v>0.99777585125925683</v>
+        <f>EXP(-5*LN8*LP8/55.51)</f>
+        <v>0.99629583435488844</v>
       </c>
       <c r="LS8" s="2">
         <v>0.1</v>
@@ -6201,8 +6201,8 @@
         <v>0.79300000000000004</v>
       </c>
       <c r="LV8">
-        <f t="shared" ref="LV8:LV17" si="46">EXP(-3*LS8*LU8/55.51)</f>
-        <v>0.99572345628226622</v>
+        <f>EXP(-4*LS8*LU8/55.51)</f>
+        <v>0.99430200976254823</v>
       </c>
       <c r="LX8" s="2">
         <v>0.1</v>
@@ -6215,8 +6215,8 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="MA8">
-        <f t="shared" ref="MA8:MA14" si="47">EXP(-3*LX8*LZ8/55.51)</f>
-        <v>0.99716669479907394</v>
+        <f>EXP(-4*LX8*LZ8/55.51)</f>
+        <v>0.9962240447718127</v>
       </c>
       <c r="MC8" s="2">
         <v>0.1</v>
@@ -6229,8 +6229,8 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="MF8">
-        <f t="shared" ref="MF8:MF13" si="48">EXP(-3*MC8*ME8/55.51)</f>
-        <v>0.99703736432523526</v>
+        <f>EXP(-4*MC8*ME8/55.51)</f>
+        <v>0.99605177087717611</v>
       </c>
       <c r="MH8" s="2">
         <v>0.1</v>
@@ -6243,8 +6243,8 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="MK8">
-        <f t="shared" ref="MK8:MK17" si="49">EXP(-3*MH8*MJ8/55.51)</f>
-        <v>0.99488970104534546</v>
+        <f>EXP(-2*MH8*MJ8/55.51)</f>
+        <v>0.99659022573615086</v>
       </c>
       <c r="MM8" s="2">
         <v>0.1</v>
@@ -6257,8 +6257,8 @@
         <v>0.95299999999999996</v>
       </c>
       <c r="MP8">
-        <f t="shared" ref="MP8:MP24" si="50">EXP(-3*MM8*MO8/55.51)</f>
-        <v>0.99486281734171189</v>
+        <f>EXP(-2*MM8*MO8/55.51)</f>
+        <v>0.99657227255205583</v>
       </c>
       <c r="MR8" s="2">
         <v>0.1</v>
@@ -6271,8 +6271,8 @@
         <v>0.94699999999999995</v>
       </c>
       <c r="MU8">
-        <f t="shared" ref="MU8:MU30" si="51">EXP(-3*MR8*MT8/55.51)</f>
-        <v>0.99489507787324749</v>
+        <f>EXP(-2*MR8*MT8/55.51)</f>
+        <v>0.9965938164117808</v>
       </c>
       <c r="MW8" s="2">
         <v>0.1</v>
@@ -6285,8 +6285,8 @@
         <v>0.94</v>
       </c>
       <c r="MZ8">
-        <f t="shared" ref="MZ8:MZ24" si="52">EXP(-3*MW8*MY8/55.51)</f>
-        <v>0.9949327164822156</v>
+        <f>EXP(-2*MW8*MY8/55.51)</f>
+        <v>0.99661895150343027</v>
       </c>
       <c r="NB8" s="2">
         <v>0.1</v>
@@ -6299,8 +6299,8 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="NE8">
-        <f t="shared" ref="NE8:NE17" si="53">EXP(-3*NB8*ND8/55.51)</f>
-        <v>0.99501875293553266</v>
+        <f>EXP(-2*NB8*ND8/55.51)</f>
+        <v>0.99667640552199199</v>
       </c>
       <c r="NG8" s="2">
         <v>0.1</v>
@@ -6313,8 +6313,8 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="NJ8">
-        <f t="shared" ref="NJ8:NJ25" si="54">EXP(-3*NG8*NI8/55.51)</f>
-        <v>0.99500262053383848</v>
+        <f>EXP(-2*NG8*NI8/55.51)</f>
+        <v>0.99666563264122376</v>
       </c>
       <c r="NL8" s="2">
         <v>0.1</v>
@@ -6327,8 +6327,8 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="NO8">
-        <f t="shared" ref="NO8:NO23" si="55">EXP(-3*NL8*NN8/55.51)</f>
-        <v>0.99505101852360966</v>
+        <f>EXP(-2*NL8*NN8/55.51)</f>
+        <v>0.99669795163285935</v>
       </c>
     </row>
     <row r="9" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -6554,7 +6554,7 @@
         <v>0.3</v>
       </c>
       <c r="CS9" s="2">
-        <f t="shared" ref="CS9:CS18" si="56">$BX$3*CR9/(1+$BX$3*CR9)</f>
+        <f t="shared" ref="CS9:CS18" si="44">$BX$3*CR9/(1+$BX$3*CR9)</f>
         <v>4.5694604446998244E-2</v>
       </c>
       <c r="CT9" s="2">
@@ -6604,7 +6604,7 @@
         <v>0.2</v>
       </c>
       <c r="DM9" s="2">
-        <f t="shared" ref="DM9:DM23" si="57">$CC$3*DL9/(1+$CC$3*DL9)</f>
+        <f t="shared" ref="DM9:DM23" si="45">$CC$3*DL9/(1+$CC$3*DL9)</f>
         <v>3.1777076354059755E-2</v>
       </c>
       <c r="DN9" s="2">
@@ -6747,7 +6747,7 @@
         <v>1.37</v>
       </c>
       <c r="FL9">
-        <f t="shared" ref="FL9:FL15" si="58">EXP(-3*FI9*FK9/55.51)</f>
+        <f t="shared" ref="FL9:FL15" si="46">EXP(-3*FI9*FK9/55.51)</f>
         <v>0.91241312533455632</v>
       </c>
       <c r="FN9" s="2">
@@ -6761,7 +6761,7 @@
         <v>1.25</v>
       </c>
       <c r="FQ9">
-        <f t="shared" ref="FQ9:FQ12" si="59">EXP(-3*FN9*FP9/55.51)</f>
+        <f t="shared" ref="FQ9:FQ12" si="47">EXP(-3*FN9*FP9/55.51)</f>
         <v>0.90583229140256794</v>
       </c>
       <c r="FS9" s="2">
@@ -6775,7 +6775,7 @@
         <v>0.82</v>
       </c>
       <c r="FV9">
-        <f t="shared" ref="FV9:FV15" si="60">EXP(-3*FS9*FU9/55.51)</f>
+        <f t="shared" ref="FV9:FV15" si="48">EXP(-3*FS9*FU9/55.51)</f>
         <v>0.96213593702938704</v>
       </c>
       <c r="FX9" s="2">
@@ -6789,7 +6789,7 @@
         <v>1.29</v>
       </c>
       <c r="GA9">
-        <f t="shared" ref="GA9:GA15" si="61">EXP(-3*FX9*FZ9/55.51)</f>
+        <f t="shared" ref="GA9:GA15" si="49">EXP(-3*FX9*FZ9/55.51)</f>
         <v>0.9318126616980742</v>
       </c>
       <c r="GC9" s="2">
@@ -6803,7 +6803,7 @@
         <v>1.37</v>
       </c>
       <c r="GF9">
-        <f t="shared" ref="GF9:GF15" si="62">EXP(-3*GC9*GE9/55.51)</f>
+        <f t="shared" ref="GF9:GF15" si="50">EXP(-3*GC9*GE9/55.51)</f>
         <v>0.91065836619725982</v>
       </c>
       <c r="GH9" s="2">
@@ -6817,7 +6817,7 @@
         <v>1.27</v>
       </c>
       <c r="GK9">
-        <f t="shared" ref="GK9:GK12" si="63">EXP(-3*GH9*GJ9/55.51)</f>
+        <f t="shared" ref="GK9:GK12" si="51">EXP(-3*GH9*GJ9/55.51)</f>
         <v>0.95060792696283825</v>
       </c>
       <c r="GM9" s="2">
@@ -6831,29 +6831,29 @@
         <v>1.19</v>
       </c>
       <c r="GP9">
-        <f t="shared" ref="GP9:GP15" si="64">EXP(-3*GM9*GO9/55.51)</f>
+        <f t="shared" ref="GP9:GP15" si="52">EXP(-3*GM9*GO9/55.51)</f>
         <v>0.92186580697230458</v>
       </c>
       <c r="GR9" s="2">
-        <f t="shared" ref="GR9:GR30" si="65">(1/GS9)/$BI$3</f>
+        <f t="shared" ref="GR9:GR30" si="53">(1/GS9)/$BI$3</f>
         <v>2.6432998955896538</v>
       </c>
       <c r="GS9" s="2">
         <v>21</v>
       </c>
       <c r="GT9" s="2">
-        <f t="shared" ref="GT9:GT30" si="66">$CT$3*GR9/(1+$CT$3*GR9)</f>
+        <f t="shared" ref="GT9:GT30" si="54">$CT$3*GR9/(1+$CT$3*GR9)</f>
         <v>0.17462987446493788</v>
       </c>
       <c r="GU9" s="2">
         <v>0.93</v>
       </c>
       <c r="GV9" s="2">
-        <f t="shared" ref="GV9:GV29" si="67">1-(GR9/(55.51))/(GR9/(55.51) +1)</f>
+        <f t="shared" ref="GV9:GV29" si="55">1-(GR9/(55.51))/(GR9/(55.51) +1)</f>
         <v>0.95454600340246343</v>
       </c>
       <c r="GW9" s="2">
-        <f t="shared" ref="GW9:GW30" si="68">GU9/GV9</f>
+        <f t="shared" ref="GW9:GW30" si="56">GU9/GV9</f>
         <v>0.97428515407851524</v>
       </c>
       <c r="GY9" s="2">
@@ -6863,11 +6863,11 @@
         <v>0.879</v>
       </c>
       <c r="HA9" s="2">
-        <f t="shared" ref="HA9:HA23" si="69">$GY$2*GY9/(1+$GY$2*GY9)</f>
+        <f t="shared" ref="HA9:HA23" si="57">$GY$2*GY9/(1+$GY$2*GY9)</f>
         <v>2.295833357743091E-2</v>
       </c>
       <c r="HB9" s="2">
-        <f t="shared" ref="HB9:HB23" si="70">EXP(-2*GY9*GZ9/55.51)</f>
+        <f t="shared" ref="HB9:HB23" si="58">EXP(-2*GY9*GZ9/55.51)</f>
         <v>0.99368602357845226</v>
       </c>
       <c r="HD9" s="2">
@@ -6880,7 +6880,7 @@
         <v>0.94279999999999997</v>
       </c>
       <c r="HG9" s="2">
-        <f t="shared" ref="HG9:HG41" si="71">$HD$2*HD9/(1+$HD$2*HD9)</f>
+        <f t="shared" ref="HG9:HG41" si="59">$HD$2*HD9/(1+$HD$2*HD9)</f>
         <v>2.6404276300575567E-4</v>
       </c>
       <c r="HH9" s="2">
@@ -6899,7 +6899,7 @@
         <v>0.94430000000000003</v>
       </c>
       <c r="HN9" s="2">
-        <f t="shared" ref="HN9:HN43" si="72">$HK$2*HK9/(1+$HK$2*HK9)</f>
+        <f t="shared" ref="HN9:HN43" si="60">$HK$2*HK9/(1+$HK$2*HK9)</f>
         <v>3.6020206771896298E-4</v>
       </c>
       <c r="HO9" s="2">
@@ -6918,7 +6918,7 @@
         <v>0.94750000000000001</v>
       </c>
       <c r="HU9" s="2">
-        <f t="shared" ref="HU9:HU48" si="73">$HR$2*HR9/(1+$HR$2*HR9)</f>
+        <f t="shared" ref="HU9:HU48" si="61">$HR$2*HR9/(1+$HR$2*HR9)</f>
         <v>3.08438076600887E-4</v>
       </c>
       <c r="HV9" s="2">
@@ -6937,7 +6937,7 @@
         <v>0.95050000000000001</v>
       </c>
       <c r="IB9" s="2">
-        <f t="shared" ref="IB9:IB42" si="74">$HY$2*HY9/(1+$HY$2*HY9)</f>
+        <f t="shared" ref="IB9:IB42" si="62">$HY$2*HY9/(1+$HY$2*HY9)</f>
         <v>3.7995791710660626E-4</v>
       </c>
       <c r="IC9" s="2">
@@ -6956,7 +6956,7 @@
         <v>0.95050000000000001</v>
       </c>
       <c r="II9" s="2">
-        <f t="shared" ref="II9:II54" si="75">$IF$2*IF9/(1+$IF$2*IF9)</f>
+        <f t="shared" ref="II9:II54" si="63">$IF$2*IF9/(1+$IF$2*IF9)</f>
         <v>3.8025079433177988E-4</v>
       </c>
       <c r="IJ9" s="2">
@@ -6975,7 +6975,7 @@
         <v>0.9506</v>
       </c>
       <c r="IP9" s="2">
-        <f t="shared" ref="IP9:IP40" si="76">$IM$2*IM9/(1+$IM$2*IM9)</f>
+        <f t="shared" ref="IP9:IP40" si="64">$IM$2*IM9/(1+$IM$2*IM9)</f>
         <v>4.7625439367784457E-4</v>
       </c>
       <c r="IQ9" s="2">
@@ -6994,7 +6994,7 @@
         <v>0.94750000000000001</v>
       </c>
       <c r="IW9" s="2">
-        <f t="shared" ref="IW9:IW49" si="77">$IT$2*IT9/(1+$IT$2*IT9)</f>
+        <f t="shared" ref="IW9:IW49" si="65">$IT$2*IT9/(1+$IT$2*IT9)</f>
         <v>3.1611987662319337E-4</v>
       </c>
       <c r="IX9" s="2">
@@ -7013,7 +7013,7 @@
         <v>0.94530000000000003</v>
       </c>
       <c r="JD9" s="2">
-        <f t="shared" ref="JD9:JD44" si="78">$JA$2*JA9/(1+$JA$2*JA9)</f>
+        <f t="shared" ref="JD9:JD44" si="66">$JA$2*JA9/(1+$JA$2*JA9)</f>
         <v>3.1996954672004101E-4</v>
       </c>
       <c r="JE9" s="2">
@@ -7032,7 +7032,7 @@
         <v>0.95069999999999999</v>
       </c>
       <c r="JK9" s="2">
-        <f t="shared" ref="JK9:JK44" si="79">$JH$2*JH9/(1+$JH$2*JH9)</f>
+        <f t="shared" ref="JK9:JK44" si="67">$JH$2*JH9/(1+$JH$2*JH9)</f>
         <v>5.640902625820588E-4</v>
       </c>
       <c r="JL9" s="2">
@@ -7051,7 +7051,7 @@
         <v>0.95069999999999999</v>
       </c>
       <c r="JR9" s="2">
-        <f t="shared" ref="JR9:JR39" si="80">$JO$2*JO9/(1+$JO$2*JO9)</f>
+        <f t="shared" ref="JR9:JR39" si="68">$JO$2*JO9/(1+$JO$2*JO9)</f>
         <v>3.7547328685667917E-4</v>
       </c>
       <c r="JS9" s="2">
@@ -7089,7 +7089,7 @@
         <v>0.94720000000000004</v>
       </c>
       <c r="KF9" s="2">
-        <f t="shared" ref="KF9:KF46" si="81">$KC$2*KC9/(1+$KC$2*KC9)</f>
+        <f t="shared" ref="KF9:KF46" si="69">$KC$2*KC9/(1+$KC$2*KC9)</f>
         <v>3.8822993897677467E-4</v>
       </c>
       <c r="KG9" s="2">
@@ -7108,18 +7108,18 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="KM9" s="2">
-        <f t="shared" ref="KM9:KM31" si="82">$KJ$2*KJ9/(1+$KJ$2*KJ9)</f>
+        <f t="shared" ref="KM9:KM31" si="70">$KJ$2*KJ9/(1+$KJ$2*KJ9)</f>
         <v>1.9212064435437017E-2</v>
       </c>
       <c r="KN9" s="2">
-        <f t="shared" ref="KN9:KN31" si="83">EXP(-2*KJ9*KL9/55.51)</f>
+        <f t="shared" ref="KN9:KN31" si="71">EXP(-2*KJ9*KL9/55.51)</f>
         <v>0.99340680678913751</v>
       </c>
       <c r="KP9" s="2">
         <v>0.127</v>
       </c>
       <c r="KQ9" s="2">
-        <f t="shared" ref="KQ9:KQ14" si="84">$KP$2*KP9/(1+$KP$2*KP9)</f>
+        <f t="shared" ref="KQ9:KQ14" si="72">$KP$2*KP9/(1+$KP$2*KP9)</f>
         <v>2.7565771601609175E-2</v>
       </c>
       <c r="KR9" s="2">
@@ -7129,211 +7129,211 @@
         <v>0.2</v>
       </c>
       <c r="KU9" s="2">
-        <f t="shared" ref="KU9:KU34" si="85">$KT$2*KT9/(1+$KT$2*KT9)</f>
+        <f t="shared" ref="KU9:KU32" si="73">$KT$2*KT9/(1+$KT$2*KT9)</f>
         <v>4.5615749630653304E-2</v>
       </c>
       <c r="KV9" s="2">
         <v>0.91100000000000003</v>
       </c>
       <c r="KW9">
-        <f t="shared" ref="KW9:KW32" si="86">EXP(-3*KT9*KV9/55.51)</f>
+        <f t="shared" ref="KW9:KW32" si="74">EXP(-3*KT9*KV9/55.51)</f>
         <v>0.9902014472949795</v>
       </c>
       <c r="KY9" s="2">
         <v>0.2</v>
       </c>
       <c r="KZ9" s="2">
-        <f t="shared" ref="KZ9:KZ34" si="87">$KY$2*KY9/(1+$KY$2*KY9)</f>
+        <f t="shared" ref="KZ9:KZ34" si="75">$KY$2*KY9/(1+$KY$2*KY9)</f>
         <v>5.419822491922853E-2</v>
       </c>
       <c r="LA9" s="2">
         <v>0.88600000000000001</v>
       </c>
       <c r="LB9">
-        <f t="shared" ref="LB9:LB34" si="88">EXP(-3*KY9*LA9/55.51)</f>
+        <f t="shared" ref="LB9:LB34" si="76">EXP(-3*KY9*LA9/55.51)</f>
         <v>0.9904690572516307</v>
       </c>
       <c r="LD9" s="2">
         <v>0.2</v>
       </c>
       <c r="LE9" s="2">
-        <f t="shared" ref="LE9:LE29" si="89">$LD$2*LD9/(1+$LD$2*LD9)</f>
+        <f t="shared" ref="LE9:LE29" si="77">$LD$2*LD9/(1+$LD$2*LD9)</f>
         <v>6.3008903289400967E-2</v>
       </c>
       <c r="LF9" s="2">
         <v>0.86799999999999999</v>
       </c>
       <c r="LG9">
-        <f t="shared" ref="LG8:LG27" si="90">EXP(-3*LD9*LF9/55.51)</f>
+        <f t="shared" ref="LG9:LG27" si="78">EXP(-3*LD9*LF9/55.51)</f>
         <v>0.99066178120216042</v>
       </c>
       <c r="LI9" s="2">
         <v>0.2</v>
       </c>
       <c r="LJ9" s="2">
-        <f t="shared" ref="LJ9:LJ17" si="91">$LI$2*LI9/(1+$LI$2*LI9)</f>
+        <f t="shared" ref="LJ9:LJ16" si="79">$LI$2*LI9/(1+$LI$2*LI9)</f>
         <v>3.0699679743174189E-2</v>
       </c>
       <c r="LK9" s="2">
         <v>0.83799999999999997</v>
       </c>
       <c r="LL9">
-        <f t="shared" si="44"/>
-        <v>0.99098307112315931</v>
+        <f t="shared" ref="LL9:LL16" si="80">EXP(-4*LI9*LK9/55.51)</f>
+        <v>0.98799553228361103</v>
       </c>
       <c r="LN9" s="2">
         <v>0.2</v>
       </c>
       <c r="LO9" s="2">
-        <f t="shared" ref="LO9:LO17" si="92">$LN$2*LN9/(1+$LN$2*LN9)</f>
+        <f t="shared" ref="LO9:LO16" si="81">$LN$2*LN9/(1+$LN$2*LN9)</f>
         <v>7.2727812231091066E-2</v>
       </c>
       <c r="LP9" s="2">
         <v>0.40100000000000002</v>
       </c>
       <c r="LQ9">
-        <f t="shared" si="45"/>
-        <v>0.99567502558599541</v>
+        <f t="shared" ref="LQ9:LQ16" si="82">EXP(-5*LN9*LP9/55.51)</f>
+        <v>0.99280210620199194</v>
       </c>
       <c r="LS9" s="2">
         <v>0.2</v>
       </c>
       <c r="LT9" s="2">
-        <f t="shared" ref="LT9:LT17" si="93">$LS$2*LS9/(1+$LS$2*LS9)</f>
+        <f t="shared" ref="LT9:LT17" si="83">$LS$2*LS9/(1+$LS$2*LS9)</f>
         <v>4.5439194381226004E-2</v>
       </c>
       <c r="LU9" s="2">
         <v>0.81599999999999995</v>
       </c>
       <c r="LV9">
-        <f t="shared" si="46"/>
-        <v>0.99121874995503589</v>
+        <f t="shared" ref="LV9:LV17" si="84">EXP(-4*LS9*LU9/55.51)</f>
+        <v>0.9883088358017782</v>
       </c>
       <c r="LX9" s="2">
         <v>0.2</v>
       </c>
       <c r="LY9" s="2">
-        <f t="shared" ref="LY9:LY14" si="94">$LX$2*LX9/(1+$LX$2*LX9)</f>
+        <f t="shared" ref="LY9:LY14" si="85">$LX$2*LX9/(1+$LX$2*LX9)</f>
         <v>5.3607459087450467E-2</v>
       </c>
       <c r="LZ9" s="2">
         <v>0.503</v>
       </c>
       <c r="MA9">
-        <f t="shared" si="47"/>
-        <v>0.99457789474122693</v>
+        <f t="shared" ref="MA9:MA14" si="86">EXP(-4*LX9*LZ9/55.51)</f>
+        <v>0.9927770673725661</v>
       </c>
       <c r="MC9" s="2">
         <v>0.2</v>
       </c>
       <c r="MD9" s="2">
-        <f t="shared" ref="MD9:MD13" si="95">$MC$2*MC9/(1+$MC$2*MC9)</f>
+        <f t="shared" ref="MD9:MD13" si="87">$MC$2*MC9/(1+$MC$2*MC9)</f>
         <v>4.981804015468963E-2</v>
       </c>
       <c r="ME9" s="2">
         <v>0.50900000000000001</v>
       </c>
       <c r="MF9">
-        <f t="shared" si="48"/>
-        <v>0.99451339529390559</v>
+        <f t="shared" ref="MF9:MF13" si="88">EXP(-4*MC9*ME9/55.51)</f>
+        <v>0.99269122475145055</v>
       </c>
       <c r="MH9" s="2">
         <v>0.2</v>
       </c>
       <c r="MI9" s="2">
-        <f t="shared" ref="MI9:MI17" si="96">$MH$2*MH9/(1+$MH$2*MH9)</f>
+        <f t="shared" ref="MI9:MI17" si="89">$MH$2*MH9/(1+$MH$2*MH9)</f>
         <v>1.5924312770743822E-2</v>
       </c>
       <c r="MJ9" s="2">
         <v>0.95399999999999996</v>
       </c>
       <c r="MK9">
-        <f t="shared" si="49"/>
-        <v>0.98974132729259445</v>
+        <f t="shared" ref="MK9:MK17" si="90">EXP(-2*MH9*MJ9/55.51)</f>
+        <v>0.99314913785162717</v>
       </c>
       <c r="MM9" s="2">
         <v>0.2</v>
       </c>
       <c r="MN9" s="2">
-        <f t="shared" ref="MN9:MN24" si="97">$MM$2*MM9/(1+$MM$2*MM9)</f>
+        <f t="shared" ref="MN9:MN24" si="91">$MM$2*MM9/(1+$MM$2*MM9)</f>
         <v>2.4943885520611712E-2</v>
       </c>
       <c r="MO9" s="2">
         <v>0.96899999999999997</v>
       </c>
       <c r="MP9">
-        <f t="shared" si="50"/>
-        <v>0.98958087062044353</v>
+        <f t="shared" ref="MP9:MP24" si="92">EXP(-2*MM9*MO9/55.51)</f>
+        <v>0.993041795520618</v>
       </c>
       <c r="MR9" s="2">
         <v>0.2</v>
       </c>
       <c r="MS9" s="2">
-        <f t="shared" ref="MS9:MS30" si="98">$MR$2*MR9/(1+$MR$2*MR9)</f>
+        <f t="shared" ref="MS9:MS30" si="93">$MR$2*MR9/(1+$MR$2*MR9)</f>
         <v>1.9696262690031878E-2</v>
       </c>
       <c r="MT9" s="2">
         <v>0.95099999999999996</v>
       </c>
       <c r="MU9">
-        <f t="shared" si="51"/>
-        <v>0.98977342174898042</v>
+        <f t="shared" ref="MU9:MU30" si="94">EXP(-2*MR9*MT9/55.51)</f>
+        <v>0.9931706077101623</v>
       </c>
       <c r="MW9" s="2">
         <v>0.2</v>
       </c>
       <c r="MX9" s="2">
-        <f t="shared" ref="MX9:MX24" si="99">$MW$2*MW9/(1+$MW$2*MW9)</f>
+        <f t="shared" ref="MX9:MX24" si="95">$MW$2*MW9/(1+$MW$2*MW9)</f>
         <v>1.2445166017843141E-2</v>
       </c>
       <c r="MY9" s="2">
         <v>0.93500000000000005</v>
       </c>
       <c r="MZ9">
-        <f t="shared" si="52"/>
-        <v>0.98994460976064602</v>
+        <f t="shared" ref="MZ9:MZ24" si="96">EXP(-2*MW9*MY9/55.51)</f>
+        <v>0.99328512146131187</v>
       </c>
       <c r="NB9" s="2">
         <v>0.2</v>
       </c>
       <c r="NC9" s="2">
-        <f t="shared" ref="NC9:NC17" si="100">$NB$2*NB9/(1+$NB$2*NB9)</f>
+        <f t="shared" ref="NC9:NC17" si="97">$NB$2*NB9/(1+$NB$2*NB9)</f>
         <v>8.3280609441906892E-3</v>
       </c>
       <c r="ND9" s="2">
         <v>0.90800000000000003</v>
       </c>
       <c r="NE9">
-        <f t="shared" si="53"/>
-        <v>0.99023355667172985</v>
+        <f t="shared" ref="NE9:NE17" si="98">EXP(-2*NB9*ND9/55.51)</f>
+        <v>0.99347839335729771</v>
       </c>
       <c r="NG9" s="2">
         <v>0.2</v>
       </c>
       <c r="NH9" s="2">
-        <f t="shared" ref="NH9:NH25" si="101">$NG$2*NG9/(1+$NG$2*NG9)</f>
+        <f t="shared" ref="NH9:NH25" si="99">$NG$2*NG9/(1+$NG$2*NG9)</f>
         <v>2.0844267239015835E-2</v>
       </c>
       <c r="NI9" s="2">
         <v>0.91300000000000003</v>
       </c>
       <c r="NJ9">
-        <f t="shared" si="54"/>
-        <v>0.99018004162224837</v>
+        <f t="shared" ref="NJ9:NJ25" si="100">EXP(-2*NG9*NI9/55.51)</f>
+        <v>0.99344259942840973</v>
       </c>
       <c r="NL9" s="2">
         <v>0.2</v>
       </c>
       <c r="NM9" s="2">
-        <f t="shared" ref="NM9:NM23" si="102">$NL$2*NL9/(1+$NL$2*NL9)</f>
+        <f t="shared" ref="NM9:NM23" si="101">$NL$2*NL9/(1+$NL$2*NL9)</f>
         <v>2.9293966673720463E-2</v>
       </c>
       <c r="NN9" s="2">
         <v>0.89600000000000002</v>
       </c>
       <c r="NO9">
-        <f t="shared" si="55"/>
-        <v>0.99036200459121371</v>
+        <f t="shared" ref="NO9:NO23" si="102">EXP(-2*NL9*NN9/55.51)</f>
+        <v>0.99356430404853902</v>
       </c>
     </row>
     <row r="10" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -7547,7 +7547,7 @@
         <v>0.4</v>
       </c>
       <c r="CS10" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>6.001206342918277E-2</v>
       </c>
       <c r="CT10" s="2">
@@ -7597,7 +7597,7 @@
         <v>0.3</v>
       </c>
       <c r="DM10" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>4.6920122375456279E-2</v>
       </c>
       <c r="DN10" s="2">
@@ -7740,7 +7740,7 @@
         <v>1.47</v>
       </c>
       <c r="FL10">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>0.87304187908091491</v>
       </c>
       <c r="FN10" s="2">
@@ -7754,7 +7754,7 @@
         <v>1.37</v>
       </c>
       <c r="FQ10">
-        <f t="shared" si="59"/>
+        <f t="shared" si="47"/>
         <v>0.87037916747218236</v>
       </c>
       <c r="FS10" s="2">
@@ -7768,7 +7768,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="FV10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>0.92438373590379708</v>
       </c>
       <c r="FX10" s="2">
@@ -7782,7 +7782,7 @@
         <v>1.22</v>
       </c>
       <c r="GA10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>0.91513716422800773</v>
       </c>
       <c r="GC10" s="2">
@@ -7796,7 +7796,7 @@
         <v>1.42</v>
       </c>
       <c r="GF10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>0.88894167468778684</v>
       </c>
       <c r="GH10" s="2">
@@ -7810,7 +7810,7 @@
         <v>1.2</v>
       </c>
       <c r="GK10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>0.93872580476906919</v>
       </c>
       <c r="GM10" s="2">
@@ -7824,29 +7824,29 @@
         <v>1.24</v>
       </c>
       <c r="GP10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>0.907704307439411</v>
       </c>
       <c r="GR10" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>3.5812450198311443</v>
       </c>
       <c r="GS10" s="2">
         <v>15.5</v>
       </c>
       <c r="GT10" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.22279003160527228</v>
       </c>
       <c r="GU10" s="2">
         <v>0.91</v>
       </c>
       <c r="GV10" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.93939465958740132</v>
       </c>
       <c r="GW10" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.96870893475133024</v>
       </c>
       <c r="GY10" s="2">
@@ -7856,11 +7856,11 @@
         <v>0.86099999999999999</v>
       </c>
       <c r="HA10" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>3.4046672928993604E-2</v>
       </c>
       <c r="HB10" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.99073673953203889</v>
       </c>
       <c r="HD10" s="2">
@@ -7873,7 +7873,7 @@
         <v>0.93089999999999995</v>
       </c>
       <c r="HG10" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>3.9601186247545796E-4</v>
       </c>
       <c r="HH10" s="2">
@@ -7892,7 +7892,7 @@
         <v>0.93310000000000004</v>
       </c>
       <c r="HN10" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>5.4020580995357489E-4</v>
       </c>
       <c r="HO10" s="2">
@@ -7911,7 +7911,7 @@
         <v>0.93759999999999999</v>
       </c>
       <c r="HU10" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>4.6258577536792173E-4</v>
       </c>
       <c r="HV10" s="2">
@@ -7930,7 +7930,7 @@
         <v>0.94199999999999995</v>
       </c>
       <c r="IB10" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>5.6982862021208761E-4</v>
       </c>
       <c r="IC10" s="2">
@@ -7949,7 +7949,7 @@
         <v>0.94189999999999996</v>
       </c>
       <c r="II10" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>5.7026776911157657E-4</v>
       </c>
       <c r="IJ10" s="2">
@@ -7968,7 +7968,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="IP10" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>7.1421151733019482E-4</v>
       </c>
       <c r="IQ10" s="2">
@@ -7987,7 +7987,7 @@
         <v>0.93759999999999999</v>
       </c>
       <c r="IW10" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>4.7410487794702849E-4</v>
       </c>
       <c r="IX10" s="2">
@@ -8006,7 +8006,7 @@
         <v>0.9345</v>
       </c>
       <c r="JD10" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>4.7987754697946739E-4</v>
       </c>
       <c r="JE10" s="2">
@@ -8025,7 +8025,7 @@
         <v>0.94210000000000005</v>
       </c>
       <c r="JK10" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>8.4589681279546467E-4</v>
       </c>
       <c r="JL10" s="2">
@@ -8044,7 +8044,7 @@
         <v>0.94230000000000003</v>
       </c>
       <c r="JR10" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>5.6310421498979607E-4</v>
       </c>
       <c r="JS10" s="2">
@@ -8082,7 +8082,7 @@
         <v>0.93720000000000003</v>
       </c>
       <c r="KF10" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>5.8223188853988295E-4</v>
       </c>
       <c r="KG10" s="2">
@@ -8101,18 +8101,18 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="KM10" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>2.8543903001305552E-2</v>
       </c>
       <c r="KN10" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.99018004162224837</v>
       </c>
       <c r="KP10" s="2">
         <v>0.25600000000000001</v>
       </c>
       <c r="KQ10" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>5.4052194964936504E-2</v>
       </c>
       <c r="KR10" s="2">
@@ -8122,211 +8122,211 @@
         <v>0.3</v>
       </c>
       <c r="KU10" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>6.689782717828037E-2</v>
       </c>
       <c r="KV10" s="2">
         <v>0.94199999999999995</v>
       </c>
       <c r="KW10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.98484311579740547</v>
       </c>
       <c r="KY10" s="2">
         <v>0.3</v>
       </c>
       <c r="KZ10" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>7.91523781810681E-2</v>
       </c>
       <c r="LA10" s="2">
         <v>0.91500000000000004</v>
       </c>
       <c r="LB10">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.98527433407580034</v>
       </c>
       <c r="LD10" s="2">
         <v>0.3</v>
       </c>
       <c r="LE10" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>9.1626705811499815E-2</v>
       </c>
       <c r="LF10" s="2">
         <v>0.88400000000000001</v>
       </c>
       <c r="LG10">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.98576966938960886</v>
       </c>
       <c r="LI10" s="2">
         <v>0.3</v>
       </c>
       <c r="LJ10" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>4.5353352909953903E-2</v>
       </c>
       <c r="LK10" s="2">
         <v>0.879</v>
       </c>
       <c r="LL10">
-        <f t="shared" si="44"/>
-        <v>0.9858495855005992</v>
+        <f t="shared" si="80"/>
+        <v>0.98117741791524504</v>
       </c>
       <c r="LN10" s="2">
         <v>0.3</v>
       </c>
       <c r="LO10" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>0.10526391135670624</v>
       </c>
       <c r="LP10" s="2">
         <v>0.41399999999999998</v>
       </c>
       <c r="LQ10">
-        <f t="shared" si="45"/>
-        <v>0.99331017310436931</v>
+        <f t="shared" si="82"/>
+        <v>0.98887517024307447</v>
       </c>
       <c r="LS10" s="2">
         <v>0.3</v>
       </c>
       <c r="LT10" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="83"/>
         <v>6.6644651925190077E-2</v>
       </c>
       <c r="LU10" s="2">
         <v>0.85899999999999999</v>
       </c>
       <c r="LV10">
-        <f t="shared" si="46"/>
-        <v>0.98616931473761282</v>
+        <f t="shared" si="84"/>
+        <v>0.98160172613649743</v>
       </c>
       <c r="LX10" s="2">
         <v>0.3</v>
       </c>
       <c r="LY10" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="85"/>
         <v>7.8312131440063548E-2</v>
       </c>
       <c r="LZ10" s="2">
         <v>0.48599999999999999</v>
       </c>
       <c r="MA10">
-        <f t="shared" si="47"/>
-        <v>0.99215130182923628</v>
+        <f t="shared" si="86"/>
+        <v>0.98954878240773292</v>
       </c>
       <c r="MC10" s="2">
         <v>0.3</v>
       </c>
       <c r="MD10" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="87"/>
         <v>7.2910920645810243E-2</v>
       </c>
       <c r="ME10" s="2">
         <v>0.49299999999999999</v>
       </c>
       <c r="MF10">
-        <f t="shared" si="48"/>
-        <v>0.99203870592727761</v>
+        <f t="shared" si="88"/>
+        <v>0.98939905117218663</v>
       </c>
       <c r="MH10" s="2">
         <v>0.3</v>
       </c>
       <c r="MI10" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>2.3697783696338768E-2</v>
       </c>
       <c r="MJ10" s="2">
         <v>0.96399999999999997</v>
       </c>
       <c r="MK10">
-        <f t="shared" si="49"/>
-        <v>0.98449189229941503</v>
+        <f t="shared" si="90"/>
+        <v>0.9896343532872629</v>
       </c>
       <c r="MM10" s="2">
         <v>0.3</v>
       </c>
       <c r="MN10" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>3.6954928527610016E-2</v>
       </c>
       <c r="MO10" s="2">
         <v>0.98399999999999999</v>
       </c>
       <c r="MP10">
-        <f t="shared" si="50"/>
-        <v>0.98417270690511516</v>
+        <f t="shared" si="92"/>
+        <v>0.98942043996149731</v>
       </c>
       <c r="MR10" s="2">
         <v>0.3</v>
       </c>
       <c r="MS10" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>2.92562744020704E-2</v>
       </c>
       <c r="MT10" s="2">
         <v>0.95799999999999996</v>
       </c>
       <c r="MU10">
-        <f t="shared" si="51"/>
-        <v>0.98458766810213327</v>
+        <f t="shared" si="94"/>
+        <v>0.98969853630293603</v>
       </c>
       <c r="MW10" s="2">
         <v>0.3</v>
       </c>
       <c r="MX10" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>1.8552305764140454E-2</v>
       </c>
       <c r="MY10" s="2">
         <v>0.93600000000000005</v>
       </c>
       <c r="MZ10">
-        <f t="shared" si="52"/>
-        <v>0.98493892576872655</v>
+        <f t="shared" si="96"/>
+        <v>0.98993390964254457</v>
       </c>
       <c r="NB10" s="2">
         <v>0.3</v>
       </c>
       <c r="NC10" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>1.2440289671014232E-2</v>
       </c>
       <c r="ND10" s="2">
         <v>0.89800000000000002</v>
       </c>
       <c r="NE10">
-        <f t="shared" si="53"/>
-        <v>0.98554593874147511</v>
+        <f t="shared" si="98"/>
+        <v>0.99034059544763642</v>
       </c>
       <c r="NG10" s="2">
         <v>0.3</v>
       </c>
       <c r="NH10" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>3.0943899404224304E-2</v>
       </c>
       <c r="NI10" s="2">
         <v>0.90400000000000003</v>
       </c>
       <c r="NJ10">
-        <f t="shared" si="54"/>
-        <v>0.98545006972294402</v>
+        <f t="shared" si="100"/>
+        <v>0.99027637079373654</v>
       </c>
       <c r="NL10" s="2">
         <v>0.3</v>
       </c>
       <c r="NM10" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>4.3306638399566805E-2</v>
       </c>
       <c r="NN10" s="2">
         <v>0.88300000000000001</v>
       </c>
       <c r="NO10">
-        <f t="shared" si="55"/>
-        <v>0.98578565209352964</v>
+        <f t="shared" si="102"/>
+        <v>0.99050117530620008</v>
       </c>
     </row>
     <row r="11" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -8555,7 +8555,7 @@
         <v>0.5</v>
       </c>
       <c r="CS11" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>7.3906262458854816E-2</v>
       </c>
       <c r="CT11" s="2">
@@ -8605,7 +8605,7 @@
         <v>0.4</v>
       </c>
       <c r="DM11" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>6.1596786907398379E-2</v>
       </c>
       <c r="DN11" s="2">
@@ -8748,7 +8748,7 @@
         <v>1.71</v>
       </c>
       <c r="FL11">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>0.81195921311206065</v>
       </c>
       <c r="FN11" s="2">
@@ -8762,7 +8762,7 @@
         <v>1.38</v>
       </c>
       <c r="FQ11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="47"/>
         <v>0.84406736701409679</v>
       </c>
       <c r="FS11" s="2">
@@ -8776,7 +8776,7 @@
         <v>1.31</v>
       </c>
       <c r="FV11">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>0.89905643086863507</v>
       </c>
       <c r="FX11" s="2">
@@ -8790,7 +8790,7 @@
         <v>1.36</v>
       </c>
       <c r="GA11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>0.87956178088623849</v>
       </c>
       <c r="GC11" s="2">
@@ -8804,7 +8804,7 @@
         <v>1.6</v>
       </c>
       <c r="GF11">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>0.84410112430152451</v>
       </c>
       <c r="GH11" s="2">
@@ -8818,7 +8818,7 @@
         <v>1.27</v>
       </c>
       <c r="GK11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>0.92005259136495299</v>
       </c>
       <c r="GM11" s="2">
@@ -8832,29 +8832,29 @@
         <v>1.3</v>
       </c>
       <c r="GP11">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>0.88704507129596977</v>
       </c>
       <c r="GR11" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>4.6257748172818944</v>
       </c>
       <c r="GS11" s="2">
         <v>12</v>
       </c>
       <c r="GT11" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.27021196868575359</v>
       </c>
       <c r="GU11" s="2">
         <v>0.89</v>
       </c>
       <c r="GV11" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.92307782129128679</v>
       </c>
       <c r="GW11" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.96416572847020154</v>
       </c>
       <c r="GY11" s="2">
@@ -8864,11 +8864,11 @@
         <v>0.84799999999999998</v>
       </c>
       <c r="HA11" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>4.4886155816615425E-2</v>
       </c>
       <c r="HB11" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.9878531544285728</v>
       </c>
       <c r="HD11" s="2">
@@ -8881,7 +8881,7 @@
         <v>0.92110000000000003</v>
       </c>
       <c r="HG11" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>5.279461256577745E-4</v>
       </c>
       <c r="HH11" s="2">
@@ -8900,7 +8900,7 @@
         <v>0.92400000000000004</v>
       </c>
       <c r="HN11" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>7.2014473781430838E-4</v>
       </c>
       <c r="HO11" s="2">
@@ -8919,7 +8919,7 @@
         <v>0.92979999999999996</v>
       </c>
       <c r="HU11" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>6.1668594377540902E-4</v>
       </c>
       <c r="HV11" s="2">
@@ -8938,7 +8938,7 @@
         <v>0.93540000000000001</v>
       </c>
       <c r="IB11" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>7.596272078415437E-4</v>
       </c>
       <c r="IC11" s="2">
@@ -8957,7 +8957,7 @@
         <v>0.93530000000000002</v>
       </c>
       <c r="II11" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>7.6021251725001443E-4</v>
       </c>
       <c r="IJ11" s="2">
@@ -8976,7 +8976,7 @@
         <v>0.93559999999999999</v>
       </c>
       <c r="IP11" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>9.5205536680422408E-4</v>
       </c>
       <c r="IQ11" s="2">
@@ -8995,7 +8995,7 @@
         <v>0.92969999999999997</v>
       </c>
       <c r="IW11" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>6.3203995285446952E-4</v>
       </c>
       <c r="IX11" s="2">
@@ -9014,7 +9014,7 @@
         <v>0.92579999999999996</v>
       </c>
       <c r="JD11" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>6.3973439791476015E-4</v>
       </c>
       <c r="JE11" s="2">
@@ -9033,7 +9033,7 @@
         <v>0.9355</v>
       </c>
       <c r="JK11" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>1.1275444882976409E-3</v>
       </c>
       <c r="JL11" s="2">
@@ -9052,7 +9052,7 @@
         <v>0.93579999999999997</v>
       </c>
       <c r="JR11" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>7.506647191639265E-4</v>
       </c>
       <c r="JS11" s="2">
@@ -9090,7 +9090,7 @@
         <v>0.92930000000000001</v>
       </c>
       <c r="KF11" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>7.761585499670593E-4</v>
       </c>
       <c r="KG11" s="2">
@@ -9109,18 +9109,18 @@
         <v>0.91</v>
       </c>
       <c r="KM11" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>3.7699837169959297E-2</v>
       </c>
       <c r="KN11" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.98697086956932889</v>
       </c>
       <c r="KP11" s="2">
         <v>0.38800000000000001</v>
       </c>
       <c r="KQ11" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>7.9701523684246697E-2</v>
       </c>
       <c r="KR11" s="2">
@@ -9130,211 +9130,211 @@
         <v>0.4</v>
       </c>
       <c r="KU11" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>8.7251458572169219E-2</v>
       </c>
       <c r="KV11" s="2">
         <v>0.97599999999999998</v>
       </c>
       <c r="KW11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.97912212352672057</v>
       </c>
       <c r="KY11" s="2">
         <v>0.4</v>
       </c>
       <c r="KZ11" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.1028235935862653</v>
       </c>
       <c r="LA11" s="2">
         <v>0.94699999999999995</v>
       </c>
       <c r="LB11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.9797361414098692</v>
       </c>
       <c r="LD11" s="2">
         <v>0.4</v>
       </c>
       <c r="LE11" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.1185482136498098</v>
       </c>
       <c r="LF11" s="2">
         <v>0.90500000000000003</v>
       </c>
       <c r="LG11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.98062609141659807</v>
       </c>
       <c r="LI11" s="2">
         <v>0.4</v>
       </c>
       <c r="LJ11" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>5.9570562301569381E-2</v>
       </c>
       <c r="LK11" s="2">
         <v>0.93</v>
       </c>
       <c r="LL11">
-        <f t="shared" si="44"/>
-        <v>0.98009626193390309</v>
+        <f t="shared" si="80"/>
+        <v>0.97355011051366913</v>
       </c>
       <c r="LN11" s="2">
         <v>0.4</v>
       </c>
       <c r="LO11" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>0.1355941579995574</v>
       </c>
       <c r="LP11" s="2">
         <v>0.441</v>
       </c>
       <c r="LQ11">
-        <f t="shared" si="45"/>
-        <v>0.9905118815558317</v>
+        <f t="shared" si="82"/>
+        <v>0.98423653570416847</v>
       </c>
       <c r="LS11" s="2">
         <v>0.4</v>
       </c>
       <c r="LT11" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="83"/>
         <v>8.6928430893813066E-2</v>
       </c>
       <c r="LU11" s="2">
         <v>0.90500000000000003</v>
       </c>
       <c r="LV11">
-        <f t="shared" si="46"/>
-        <v>0.98062609141659807</v>
+        <f t="shared" si="84"/>
+        <v>0.97425189466819928</v>
       </c>
       <c r="LX11" s="2">
         <v>0.4</v>
       </c>
       <c r="LY11" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="85"/>
         <v>0.10175983213687743</v>
       </c>
       <c r="LZ11" s="2">
         <v>0.47399999999999998</v>
       </c>
       <c r="MA11">
-        <f t="shared" si="47"/>
-        <v>0.98980551724609689</v>
+        <f t="shared" si="86"/>
+        <v>0.98643050386717535</v>
       </c>
       <c r="MC11" s="2">
         <v>0.4</v>
       </c>
       <c r="MD11" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="87"/>
         <v>9.4907952138732515E-2</v>
       </c>
       <c r="ME11" s="2">
         <v>0.48499999999999999</v>
       </c>
       <c r="MF11">
-        <f t="shared" si="48"/>
-        <v>0.98957017443392747</v>
+        <f t="shared" si="88"/>
+        <v>0.98611779579850944</v>
       </c>
       <c r="MH11" s="2">
         <v>0.4</v>
       </c>
       <c r="MI11" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>3.1349407767027902E-2</v>
       </c>
       <c r="MJ11" s="2">
         <v>0.97799999999999998</v>
       </c>
       <c r="MK11">
-        <f t="shared" si="49"/>
-        <v>0.97907979165322301</v>
+        <f t="shared" si="90"/>
+        <v>0.98600410835325103</v>
       </c>
       <c r="MM11" s="2">
         <v>0.4</v>
       </c>
       <c r="MN11" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>4.8673660817912336E-2</v>
       </c>
       <c r="MO11" s="2">
         <v>1.0009999999999999</v>
       </c>
       <c r="MP11">
-        <f t="shared" si="50"/>
-        <v>0.97859310663359056</v>
+        <f t="shared" si="92"/>
+        <v>0.98567732995176804</v>
       </c>
       <c r="MR11" s="2">
         <v>0.4</v>
       </c>
       <c r="MS11" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>3.8631626712197067E-2</v>
       </c>
       <c r="MT11" s="2">
         <v>0.96599999999999997</v>
       </c>
       <c r="MU11">
-        <f t="shared" si="51"/>
-        <v>0.9793338103499506</v>
+        <f t="shared" si="94"/>
+        <v>0.98617464443665581</v>
       </c>
       <c r="MW11" s="2">
         <v>0.4</v>
       </c>
       <c r="MX11" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>2.4584375402358947E-2</v>
       </c>
       <c r="MY11" s="2">
         <v>0.94</v>
       </c>
       <c r="MZ11">
-        <f t="shared" si="52"/>
-        <v>0.97988441030378903</v>
+        <f t="shared" si="96"/>
+        <v>0.98654424047634315</v>
       </c>
       <c r="NB11" s="2">
         <v>0.4</v>
       </c>
       <c r="NC11" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>1.6518554360953428E-2</v>
       </c>
       <c r="ND11" s="2">
         <v>0.89100000000000001</v>
       </c>
       <c r="NE11">
-        <f t="shared" si="53"/>
-        <v>0.98092292102529466</v>
+        <f t="shared" si="98"/>
+        <v>0.9872411634147068</v>
       </c>
       <c r="NG11" s="2">
         <v>0.4</v>
       </c>
       <c r="NH11" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>4.0837310661285132E-2</v>
       </c>
       <c r="NI11" s="2">
         <v>0.89700000000000002</v>
       </c>
       <c r="NJ11">
-        <f t="shared" si="54"/>
-        <v>0.98079569733557748</v>
+        <f t="shared" si="100"/>
+        <v>0.98715579946752674</v>
       </c>
       <c r="NL11" s="2">
         <v>0.4</v>
       </c>
       <c r="NM11" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>5.6920505943286966E-2</v>
       </c>
       <c r="NN11" s="2">
         <v>0.873</v>
       </c>
       <c r="NO11">
-        <f t="shared" si="55"/>
-        <v>0.98130469111975993</v>
+        <f t="shared" si="102"/>
+        <v>0.98749729954970245</v>
       </c>
     </row>
     <row r="12" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -9560,7 +9560,7 @@
         <v>0.6</v>
       </c>
       <c r="CS12" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>8.7395697085313417E-2</v>
       </c>
       <c r="CT12" s="2">
@@ -9600,7 +9600,7 @@
         <v>0.5</v>
       </c>
       <c r="DM12" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>7.5828288896076887E-2</v>
       </c>
       <c r="DN12" s="2">
@@ -9743,7 +9743,7 @@
         <v>2.06</v>
       </c>
       <c r="FL12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>0.71430648117847162</v>
       </c>
       <c r="FN12" s="2">
@@ -9757,7 +9757,7 @@
         <v>1.75</v>
       </c>
       <c r="FQ12">
-        <f t="shared" si="59"/>
+        <f t="shared" si="47"/>
         <v>0.75904549040402636</v>
       </c>
       <c r="FS12" s="2">
@@ -9771,7 +9771,7 @@
         <v>1.35</v>
       </c>
       <c r="FV12">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>0.87712233019881447</v>
       </c>
       <c r="FX12" s="2">
@@ -9785,7 +9785,7 @@
         <v>1.54</v>
       </c>
       <c r="GA12">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>0.84694156155146061</v>
       </c>
       <c r="GC12" s="2">
@@ -9799,7 +9799,7 @@
         <v>1.79</v>
       </c>
       <c r="GF12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>0.79511207199004585</v>
       </c>
       <c r="GH12" s="2">
@@ -9813,7 +9813,7 @@
         <v>1.29</v>
       </c>
       <c r="GK12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="51"/>
         <v>0.90776710162251328</v>
       </c>
       <c r="GM12" s="2">
@@ -9827,29 +9827,29 @@
         <v>1.34</v>
       </c>
       <c r="GP12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>0.87220761153081561</v>
       </c>
       <c r="GR12" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>5.7226080213796644</v>
       </c>
       <c r="GS12" s="2">
         <v>9.6999999999999993</v>
       </c>
       <c r="GT12" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.31415468123561313</v>
       </c>
       <c r="GU12" s="2">
         <v>0.87</v>
       </c>
       <c r="GV12" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.90654312781546742</v>
       </c>
       <c r="GW12" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.95968958707620799</v>
       </c>
       <c r="GY12" s="2">
@@ -9859,11 +9859,11 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="HA12" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>5.5485066930831127E-2</v>
       </c>
       <c r="HB12" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.98501700004425385</v>
       </c>
       <c r="HD12" s="2">
@@ -9876,7 +9876,7 @@
         <v>0.91259999999999997</v>
       </c>
       <c r="HG12" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>6.5984556634464701E-4</v>
       </c>
       <c r="HH12" s="2">
@@ -9895,7 +9895,7 @@
         <v>0.91620000000000001</v>
       </c>
       <c r="HN12" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>9.000188863016596E-4</v>
       </c>
       <c r="HO12" s="2">
@@ -9914,7 +9914,7 @@
         <v>0.92330000000000001</v>
       </c>
       <c r="HU12" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>7.7073860380343854E-4</v>
       </c>
       <c r="HV12" s="2">
@@ -9933,7 +9933,7 @@
         <v>0.93</v>
       </c>
       <c r="IB12" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>9.4935372107283122E-4</v>
       </c>
       <c r="IC12" s="2">
@@ -9952,7 +9952,7 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="II12" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>9.5008507991996608E-4</v>
       </c>
       <c r="IJ12" s="2">
@@ -9971,7 +9971,7 @@
         <v>0.93020000000000003</v>
       </c>
       <c r="IP12" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>1.1897860229631522E-3</v>
       </c>
       <c r="IQ12" s="2">
@@ -9990,7 +9990,7 @@
         <v>0.92310000000000003</v>
       </c>
       <c r="IW12" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>7.8992512500839461E-4</v>
       </c>
       <c r="IX12" s="2">
@@ -10009,7 +10009,7 @@
         <v>0.91849999999999998</v>
       </c>
       <c r="JD12" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>7.9954012406348101E-4</v>
       </c>
       <c r="JE12" s="2">
@@ -10028,7 +10028,7 @@
         <v>0.93010000000000004</v>
       </c>
       <c r="JK12" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>1.4090334234044544E-3</v>
       </c>
       <c r="JL12" s="2">
@@ -10047,7 +10047,7 @@
         <v>0.93049999999999999</v>
       </c>
       <c r="JR12" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>9.3815483902021666E-4</v>
       </c>
       <c r="JS12" s="2">
@@ -10085,7 +10085,7 @@
         <v>0.92259999999999998</v>
       </c>
       <c r="KF12" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>9.7000996707644917E-4</v>
       </c>
       <c r="KG12" s="2">
@@ -10104,18 +10104,18 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="KM12" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>4.6684794177745598E-2</v>
       </c>
       <c r="KN12" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.98375792059632738</v>
       </c>
       <c r="KP12" s="2">
         <v>0.52300000000000002</v>
       </c>
       <c r="KQ12" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>0.10453387413846615</v>
       </c>
       <c r="KR12" s="2">
@@ -10125,211 +10125,211 @@
         <v>0.5</v>
       </c>
       <c r="KU12" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.10673610304692314</v>
       </c>
       <c r="KV12" s="2">
         <v>1.014</v>
       </c>
       <c r="KW12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.97297151916177327</v>
       </c>
       <c r="KY12" s="2">
         <v>0.5</v>
       </c>
       <c r="KZ12" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.12530832881409304</v>
       </c>
       <c r="LA12" s="2">
         <v>0.98199999999999998</v>
       </c>
       <c r="LB12">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.97381322031176532</v>
       </c>
       <c r="LD12" s="2">
         <v>0.5</v>
       </c>
       <c r="LE12" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.14391990514632549</v>
       </c>
       <c r="LF12" s="2">
         <v>0.92900000000000005</v>
       </c>
       <c r="LG12">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.97520888984223353</v>
       </c>
       <c r="LI12" s="2">
         <v>0.5</v>
       </c>
       <c r="LJ12" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>7.3370522063047866E-2</v>
       </c>
       <c r="LK12" s="2">
         <v>0.99099999999999999</v>
       </c>
       <c r="LL12">
-        <f t="shared" si="44"/>
-        <v>0.9735764182941864</v>
+        <f t="shared" si="80"/>
+        <v>0.96492463578193655</v>
       </c>
       <c r="LN12" s="2">
         <v>0.5</v>
       </c>
       <c r="LO12" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>0.16393552270751119</v>
       </c>
       <c r="LP12" s="2">
         <v>0.47699999999999998</v>
       </c>
       <c r="LQ12">
-        <f t="shared" si="45"/>
-        <v>0.98719314528614943</v>
+        <f t="shared" si="82"/>
+        <v>0.97874649209994014</v>
       </c>
       <c r="LS12" s="2">
         <v>0.5</v>
       </c>
       <c r="LT12" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="83"/>
         <v>0.10634934323379107</v>
       </c>
       <c r="LU12" s="2">
         <v>0.95499999999999996</v>
       </c>
       <c r="LV12">
-        <f t="shared" si="46"/>
-        <v>0.97452397200324836</v>
+        <f t="shared" si="84"/>
+        <v>0.96617701642926312</v>
       </c>
       <c r="LX12" s="2">
         <v>0.5</v>
       </c>
       <c r="LY12" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="85"/>
         <v>0.12404411313846236</v>
       </c>
       <c r="LZ12" s="2">
         <v>0.46800000000000003</v>
       </c>
       <c r="MA12">
-        <f t="shared" si="47"/>
-        <v>0.98743325928660286</v>
+        <f t="shared" si="86"/>
+        <v>0.98327953822971581</v>
       </c>
       <c r="MC12" s="2">
         <v>0.5</v>
       </c>
       <c r="MD12" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="87"/>
         <v>0.11588533032734345</v>
       </c>
       <c r="ME12" s="2">
         <v>0.48299999999999998</v>
       </c>
       <c r="MF12">
-        <f t="shared" si="48"/>
-        <v>0.98703310172477154</v>
+        <f t="shared" si="88"/>
+        <v>0.98274827509726914</v>
       </c>
       <c r="MH12" s="2">
         <v>0.5</v>
       </c>
       <c r="MI12" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>3.8882027574474627E-2</v>
       </c>
       <c r="MJ12" s="2">
         <v>0.99299999999999999</v>
       </c>
       <c r="MK12">
-        <f t="shared" si="49"/>
-        <v>0.97352380344403522</v>
+        <f t="shared" si="90"/>
+        <v>0.98227038370165065</v>
       </c>
       <c r="MM12" s="2">
         <v>0.5</v>
       </c>
       <c r="MN12" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>6.0110624979439919E-2</v>
       </c>
       <c r="MO12" s="2">
         <v>1.0189999999999999</v>
       </c>
       <c r="MP12">
-        <f t="shared" si="50"/>
-        <v>0.97284006909070775</v>
+        <f t="shared" si="92"/>
+        <v>0.98181041162684479</v>
       </c>
       <c r="MR12" s="2">
         <v>0.5</v>
       </c>
       <c r="MS12" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>4.7827618712091631E-2</v>
       </c>
       <c r="MT12" s="2">
         <v>0.97599999999999998</v>
       </c>
       <c r="MU12">
-        <f t="shared" si="51"/>
-        <v>0.97397112032101851</v>
+        <f t="shared" si="94"/>
+        <v>0.98257125118077093</v>
       </c>
       <c r="MW12" s="2">
         <v>0.5</v>
       </c>
       <c r="MX12" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>3.0542750641053606E-2</v>
       </c>
       <c r="MY12" s="2">
         <v>0.94399999999999995</v>
       </c>
       <c r="MZ12">
-        <f t="shared" si="52"/>
-        <v>0.97481368620901032</v>
+        <f t="shared" si="96"/>
+        <v>0.98313783998616955</v>
       </c>
       <c r="NB12" s="2">
         <v>0.5</v>
       </c>
       <c r="NC12" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>2.0563274061087468E-2</v>
       </c>
       <c r="ND12" s="2">
         <v>0.88600000000000001</v>
       </c>
       <c r="NE12">
-        <f t="shared" si="53"/>
-        <v>0.9763426951301849</v>
+        <f t="shared" si="98"/>
+        <v>0.98416561507185274</v>
       </c>
       <c r="NG12" s="2">
         <v>0.5</v>
       </c>
       <c r="NH12" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>5.053075330890032E-2</v>
       </c>
       <c r="NI12" s="2">
         <v>0.89200000000000002</v>
       </c>
       <c r="NJ12">
-        <f t="shared" si="54"/>
-        <v>0.97618441064168326</v>
+        <f t="shared" si="100"/>
+        <v>0.98405924370506148</v>
       </c>
       <c r="NL12" s="2">
         <v>0.5</v>
       </c>
       <c r="NM12" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>7.0152355536545336E-2</v>
       </c>
       <c r="NN12" s="2">
         <v>0.86499999999999999</v>
       </c>
       <c r="NO12">
-        <f t="shared" si="55"/>
-        <v>0.9768968929807923</v>
+        <f t="shared" si="102"/>
+        <v>0.98453800541176517</v>
       </c>
     </row>
     <row r="13" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -10555,7 +10555,7 @@
         <v>0.7</v>
       </c>
       <c r="CS13" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>0.10049780070812771</v>
       </c>
       <c r="CT13" s="2">
@@ -10595,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="DM13" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.14096727085301949</v>
       </c>
       <c r="DN13" s="2">
@@ -10725,7 +10725,7 @@
         <v>2.21</v>
       </c>
       <c r="FL13">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>0.66816342815893837</v>
       </c>
       <c r="FS13" s="2">
@@ -10739,7 +10739,7 @@
         <v>1.39</v>
       </c>
       <c r="FV13">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>0.84683949529982472</v>
       </c>
       <c r="FX13" s="2">
@@ -10753,7 +10753,7 @@
         <v>1.62</v>
       </c>
       <c r="GA13">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>0.81083836913062435</v>
       </c>
       <c r="GC13" s="2">
@@ -10767,7 +10767,7 @@
         <v>1.96</v>
       </c>
       <c r="GF13">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>0.7329458308398954</v>
       </c>
       <c r="GM13" s="2">
@@ -10781,29 +10781,29 @@
         <v>1.37</v>
       </c>
       <c r="GP13">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>0.8468587175998441</v>
       </c>
       <c r="GR13" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>6.9386622259228421</v>
       </c>
       <c r="GS13" s="2">
         <v>8</v>
       </c>
       <c r="GT13" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.3570749856131476</v>
       </c>
       <c r="GU13" s="2">
         <v>0.85</v>
       </c>
       <c r="GV13" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.88889013825755647</v>
       </c>
       <c r="GW13" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.95624865595450215</v>
       </c>
       <c r="GY13" s="2">
@@ -10813,11 +10813,11 @@
         <v>0.83399999999999996</v>
       </c>
       <c r="HA13" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>6.5851327256930367E-2</v>
       </c>
       <c r="HB13" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.98213236945692517</v>
       </c>
       <c r="HD13" s="2">
@@ -10830,7 +10830,7 @@
         <v>0.90510000000000002</v>
       </c>
       <c r="HG13" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>7.9171019832073814E-4</v>
       </c>
       <c r="HH13" s="2">
@@ -10849,7 +10849,7 @@
         <v>0.9093</v>
       </c>
       <c r="HN13" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.0798282903909284E-3</v>
       </c>
       <c r="HO13" s="2">
@@ -10868,7 +10868,7 @@
         <v>0.91759999999999997</v>
       </c>
       <c r="HU13" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>9.2474377741854968E-4</v>
       </c>
       <c r="HV13" s="2">
@@ -10887,7 +10887,7 @@
         <v>0.9254</v>
       </c>
       <c r="IB13" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.1390082009526163E-3</v>
       </c>
       <c r="IC13" s="2">
@@ -10906,7 +10906,7 @@
         <v>0.9254</v>
       </c>
       <c r="II13" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.1398854982630161E-3</v>
       </c>
       <c r="IJ13" s="2">
@@ -10925,7 +10925,7 @@
         <v>0.92569999999999997</v>
       </c>
       <c r="IP13" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>1.4274035665932507E-3</v>
       </c>
       <c r="IQ13" s="2">
@@ -10944,7 +10944,7 @@
         <v>0.91739999999999999</v>
       </c>
       <c r="IW13" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>9.4776041805673134E-4</v>
       </c>
       <c r="IX13" s="2">
@@ -10963,7 +10963,7 @@
         <v>0.91200000000000003</v>
       </c>
       <c r="JD13" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>9.5929474994749979E-4</v>
       </c>
       <c r="JE13" s="2">
@@ -10982,7 +10982,7 @@
         <v>0.92559999999999998</v>
       </c>
       <c r="JK13" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>1.6903637522804103E-3</v>
       </c>
       <c r="JL13" s="2">
@@ -11001,7 +11001,7 @@
         <v>0.92610000000000003</v>
       </c>
       <c r="JR13" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.1255746141700677E-3</v>
       </c>
       <c r="JS13" s="2">
@@ -11039,7 +11039,7 @@
         <v>0.91679999999999995</v>
       </c>
       <c r="KF13" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.1637861836522013E-3</v>
       </c>
       <c r="KG13" s="2">
@@ -11058,18 +11058,18 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="KM13" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>5.5503518941707859E-2</v>
       </c>
       <c r="KN13" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.98054129945595747</v>
       </c>
       <c r="KP13" s="2">
         <v>1.097</v>
       </c>
       <c r="KQ13" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>0.19669499014654782</v>
       </c>
       <c r="KR13" s="2">
@@ -11079,211 +11079,211 @@
         <v>0.6</v>
       </c>
       <c r="KU13" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.12540624879743356</v>
       </c>
       <c r="KV13" s="2">
         <v>1.0509999999999999</v>
       </c>
       <c r="KW13">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.96649384771562896</v>
       </c>
       <c r="KY13" s="2">
         <v>0.6</v>
       </c>
       <c r="KZ13" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.1466936083938043</v>
       </c>
       <c r="LA13" s="2">
         <v>1.0169999999999999</v>
       </c>
       <c r="LB13">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.96755999871015086</v>
       </c>
       <c r="LD13" s="2">
         <v>0.6</v>
       </c>
       <c r="LE13" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.16787186558134967</v>
       </c>
       <c r="LF13" s="2">
         <v>0.95399999999999996</v>
       </c>
       <c r="LG13">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.96953862334846896</v>
       </c>
       <c r="LI13" s="2">
         <v>0.7</v>
       </c>
       <c r="LJ13" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>9.9790071044567594E-2</v>
       </c>
       <c r="LK13" s="2">
         <v>1.1160000000000001</v>
       </c>
       <c r="LL13">
-        <f t="shared" si="44"/>
-        <v>0.95865940851853548</v>
+        <f t="shared" si="80"/>
+        <v>0.94526254951720223</v>
       </c>
       <c r="LN13" s="2">
         <v>0.7</v>
       </c>
       <c r="LO13" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>0.21538596733494855</v>
       </c>
       <c r="LP13" s="2">
         <v>0.58599999999999997</v>
       </c>
       <c r="LQ13">
-        <f t="shared" si="45"/>
-        <v>0.9780749473880177</v>
+        <f t="shared" si="82"/>
+        <v>0.96372596100222674</v>
       </c>
       <c r="LS13" s="2">
         <v>0.7</v>
       </c>
       <c r="LT13" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="83"/>
         <v>0.14281381821841224</v>
       </c>
       <c r="LU13" s="2">
         <v>1.0569999999999999</v>
       </c>
       <c r="LV13">
-        <f t="shared" si="46"/>
-        <v>0.96080155511067278</v>
+        <f t="shared" si="84"/>
+        <v>0.94807987917282066</v>
       </c>
       <c r="LX13" s="2">
         <v>0.7</v>
       </c>
       <c r="LY13" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="85"/>
         <v>0.16545239990853361</v>
       </c>
       <c r="LZ13" s="2">
         <v>0.46600000000000003</v>
       </c>
       <c r="MA13">
-        <f t="shared" si="47"/>
-        <v>0.98252523018589955</v>
+        <f t="shared" si="86"/>
+        <v>0.97676843183099438</v>
       </c>
       <c r="MC13" s="2">
         <v>0.7</v>
       </c>
       <c r="MD13" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="87"/>
         <v>0.15505215440576928</v>
       </c>
       <c r="ME13" s="2">
         <v>0.48799999999999999</v>
       </c>
       <c r="MF13">
-        <f t="shared" si="48"/>
-        <v>0.98170783185921862</v>
+        <f t="shared" si="88"/>
+        <v>0.9756851033728231</v>
       </c>
       <c r="MH13" s="2">
         <v>0.6</v>
       </c>
       <c r="MI13" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>4.6298397972048912E-2</v>
       </c>
       <c r="MJ13" s="2">
         <v>1.0069999999999999</v>
       </c>
       <c r="MK13">
-        <f t="shared" si="49"/>
-        <v>0.96787379629621506</v>
+        <f t="shared" si="90"/>
+        <v>0.97846618511601857</v>
       </c>
       <c r="MM13" s="2">
         <v>0.6</v>
       </c>
       <c r="MN13" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>7.1275862645414981E-2</v>
       </c>
       <c r="MO13" s="2">
         <v>1.038</v>
       </c>
       <c r="MP13">
-        <f t="shared" si="50"/>
-        <v>0.9669013548951565</v>
+        <f t="shared" si="92"/>
+        <v>0.97781068613487121</v>
       </c>
       <c r="MR13" s="2">
         <v>0.6</v>
       </c>
       <c r="MS13" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>5.6849348660160184E-2</v>
       </c>
       <c r="MT13" s="2">
         <v>0.98799999999999999</v>
       </c>
       <c r="MU13">
-        <f t="shared" si="51"/>
-        <v>0.96847029211434577</v>
+        <f t="shared" si="94"/>
+        <v>0.97886815973712515</v>
       </c>
       <c r="MW13" s="2">
         <v>0.6</v>
       </c>
       <c r="MX13" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>3.6428773778528933E-2</v>
       </c>
       <c r="MY13" s="2">
         <v>0.95</v>
       </c>
       <c r="MZ13">
-        <f t="shared" si="52"/>
-        <v>0.9696643868294067</v>
+        <f t="shared" si="96"/>
+        <v>0.97967260446623128</v>
       </c>
       <c r="NB13" s="2">
         <v>0.6</v>
       </c>
       <c r="NC13" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>2.4574860953146427E-2</v>
       </c>
       <c r="ND13" s="2">
         <v>0.88200000000000001</v>
       </c>
       <c r="NE13">
-        <f t="shared" si="53"/>
-        <v>0.97180486368023633</v>
+        <f t="shared" si="98"/>
+        <v>0.98111378750327394</v>
       </c>
       <c r="NG13" s="2">
         <v>0.6</v>
       </c>
       <c r="NH13" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>6.0030229427821595E-2</v>
       </c>
       <c r="NI13" s="2">
         <v>0.88800000000000001</v>
       </c>
       <c r="NJ13">
-        <f t="shared" si="54"/>
-        <v>0.97161580816600712</v>
+        <f t="shared" si="100"/>
+        <v>0.98098653905856636</v>
       </c>
       <c r="NL13" s="2">
         <v>0.6</v>
       </c>
       <c r="NM13" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>8.3018044370922861E-2</v>
       </c>
       <c r="NN13" s="2">
         <v>0.85699999999999998</v>
       </c>
       <c r="NO13">
-        <f t="shared" si="55"/>
-        <v>0.97259299103269781</v>
+        <f t="shared" si="102"/>
+        <v>0.98164416704933211</v>
       </c>
     </row>
     <row r="14" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -11494,7 +11494,7 @@
         <v>0.8</v>
       </c>
       <c r="CS14" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>0.11322901974349477</v>
       </c>
       <c r="CT14" s="2">
@@ -11534,7 +11534,7 @@
         <v>1.5</v>
       </c>
       <c r="DM14" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.19752838743329451</v>
       </c>
       <c r="DN14" s="2">
@@ -11594,7 +11594,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="FL14">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>0.59280992485969486</v>
       </c>
       <c r="FS14" s="2">
@@ -11608,7 +11608,7 @@
         <v>1.54</v>
       </c>
       <c r="FV14">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>0.79920829736841181</v>
       </c>
       <c r="FX14" s="2">
@@ -11622,7 +11622,7 @@
         <v>1.81</v>
       </c>
       <c r="GA14">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>0.77119772580275148</v>
       </c>
       <c r="GC14" s="2">
@@ -11636,7 +11636,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="GF14">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>0.65079087504023392</v>
       </c>
       <c r="GM14" s="2">
@@ -11650,29 +11650,29 @@
         <v>1.42</v>
       </c>
       <c r="GP14">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>0.82523461455903513</v>
       </c>
       <c r="GR14" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>8.1631320304974615</v>
       </c>
       <c r="GS14" s="2">
         <v>6.8</v>
       </c>
       <c r="GT14" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.39518625490631709</v>
       </c>
       <c r="GU14" s="2">
         <v>0.83</v>
       </c>
       <c r="GV14" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.87179628565173184</v>
       </c>
       <c r="GW14" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.95205727950482599</v>
       </c>
       <c r="GY14" s="2">
@@ -11682,11 +11682,11 @@
         <v>0.82550000000000001</v>
       </c>
       <c r="HA14" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>7.599251381701197E-2</v>
       </c>
       <c r="HB14" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.97939556096062719</v>
       </c>
       <c r="HD14" s="2">
@@ -11699,7 +11699,7 @@
         <v>0.89829999999999999</v>
       </c>
       <c r="HG14" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>9.235400353634352E-4</v>
       </c>
       <c r="HH14" s="2">
@@ -11718,7 +11718,7 @@
         <v>0.90310000000000001</v>
       </c>
       <c r="HN14" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.2595729850322416E-3</v>
       </c>
       <c r="HO14" s="2">
@@ -11737,7 +11737,7 @@
         <v>0.91259999999999997</v>
       </c>
       <c r="HU14" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.078701486573741E-3</v>
       </c>
       <c r="HV14" s="2">
@@ -11756,7 +11756,7 @@
         <v>0.92149999999999999</v>
       </c>
       <c r="IB14" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.3285906884964013E-3</v>
       </c>
       <c r="IC14" s="2">
@@ -11775,7 +11775,7 @@
         <v>0.9214</v>
       </c>
       <c r="II14" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.32961381338949E-3</v>
       </c>
       <c r="IJ14" s="2">
@@ -11794,7 +11794,7 @@
         <v>0.92190000000000005</v>
       </c>
       <c r="IP14" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>1.6649080784039317E-3</v>
       </c>
       <c r="IQ14" s="2">
@@ -11813,7 +11813,7 @@
         <v>0.91239999999999999</v>
       </c>
       <c r="IW14" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>1.1055458556324671E-3</v>
       </c>
       <c r="IX14" s="2">
@@ -11832,7 +11832,7 @@
         <v>0.90620000000000001</v>
       </c>
       <c r="JD14" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>1.1189983000730063E-3</v>
       </c>
       <c r="JE14" s="2">
@@ -11851,7 +11851,7 @@
         <v>0.92159999999999997</v>
       </c>
       <c r="JK14" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>1.9715356089388659E-3</v>
       </c>
       <c r="JL14" s="2">
@@ -11870,7 +11870,7 @@
         <v>0.92230000000000001</v>
       </c>
       <c r="JR14" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.3129240841951619E-3</v>
       </c>
       <c r="JS14" s="2">
@@ -11908,7 +11908,7 @@
         <v>0.91169999999999995</v>
       </c>
       <c r="KF14" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.3574872434445008E-3</v>
       </c>
       <c r="KG14" s="2">
@@ -11927,18 +11927,18 @@
         <v>0.91</v>
       </c>
       <c r="KM14" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>6.4160582415094633E-2</v>
       </c>
       <c r="KN14" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.97731054704451703</v>
       </c>
       <c r="KP14" s="2">
         <v>1.7509999999999999</v>
       </c>
       <c r="KQ14" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>0.28100693730431126</v>
       </c>
       <c r="KR14" s="2">
@@ -11948,197 +11948,197 @@
         <v>0.7</v>
       </c>
       <c r="KU14" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.14331192184263325</v>
       </c>
       <c r="KV14" s="2">
         <v>1.089</v>
       </c>
       <c r="KW14">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.95963911953532444</v>
       </c>
       <c r="KY14" s="2">
         <v>0.7</v>
       </c>
       <c r="KZ14" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.16705814933647853</v>
       </c>
       <c r="LA14" s="2">
         <v>1.052</v>
       </c>
       <c r="LB14">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.96098331282147376</v>
       </c>
       <c r="LD14" s="2">
         <v>0.7</v>
       </c>
       <c r="LE14" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.19052001803521401</v>
       </c>
       <c r="LF14" s="2">
         <v>0.97699999999999998</v>
       </c>
       <c r="LG14">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.96371380816635566</v>
       </c>
       <c r="LI14" s="2">
         <v>1</v>
       </c>
       <c r="LJ14" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>0.13671052177216064</v>
       </c>
       <c r="LK14" s="2">
         <v>1.323</v>
       </c>
       <c r="LL14">
-        <f t="shared" si="44"/>
-        <v>0.93099569058604459</v>
+        <f t="shared" si="80"/>
+        <v>0.90906909642680478</v>
       </c>
       <c r="LN14" s="2">
         <v>1</v>
       </c>
       <c r="LO14" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>0.28169175956786574</v>
       </c>
       <c r="LP14" s="2">
         <v>0.83399999999999996</v>
       </c>
       <c r="LQ14">
-        <f t="shared" si="45"/>
-        <v>0.95592773496654793</v>
+        <f t="shared" si="82"/>
+        <v>0.9276306798467816</v>
       </c>
       <c r="LS14" s="2">
         <v>1</v>
       </c>
       <c r="LT14" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="83"/>
         <v>0.19225273442643079</v>
       </c>
       <c r="LU14" s="2">
         <v>1.2310000000000001</v>
       </c>
       <c r="LV14">
-        <f t="shared" si="46"/>
-        <v>0.93563619986733582</v>
+        <f t="shared" si="84"/>
+        <v>0.91511573269525781</v>
       </c>
       <c r="LX14" s="2">
         <v>1</v>
       </c>
       <c r="LY14" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="85"/>
         <v>0.22071040039899628</v>
       </c>
       <c r="LZ14" s="2">
         <v>0.47599999999999998</v>
       </c>
       <c r="MA14">
-        <f t="shared" si="47"/>
-        <v>0.97460297642824512</v>
+        <f t="shared" si="86"/>
+        <v>0.96628145482609473</v>
       </c>
       <c r="MH14" s="2">
         <v>0.7</v>
       </c>
       <c r="MI14" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>5.3601189434025108E-2</v>
       </c>
       <c r="MJ14" s="2">
         <v>1.0229999999999999</v>
       </c>
       <c r="MK14">
-        <f t="shared" si="49"/>
-        <v>0.96203818579498424</v>
+        <f t="shared" si="90"/>
+        <v>0.97452923876566266</v>
       </c>
       <c r="MM14" s="2">
         <v>0.7</v>
       </c>
       <c r="MN14" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>8.2178943900023588E-2</v>
       </c>
       <c r="MO14" s="2">
         <v>1.0569999999999999</v>
       </c>
       <c r="MP14">
-        <f t="shared" si="50"/>
-        <v>0.96080155511067278</v>
+        <f t="shared" si="92"/>
+        <v>0.97369393506009916</v>
       </c>
       <c r="MR14" s="2">
         <v>0.7</v>
       </c>
       <c r="MS14" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>6.5701723406601006E-2</v>
       </c>
       <c r="MT14" s="2">
         <v>1</v>
       </c>
       <c r="MU14">
-        <f t="shared" si="51"/>
-        <v>0.96287563248528429</v>
+        <f t="shared" si="94"/>
+        <v>0.97509470344931415</v>
       </c>
       <c r="MW14" s="2">
         <v>0.7</v>
       </c>
       <c r="MX14" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>4.2243754710963533E-2</v>
       </c>
       <c r="MY14" s="2">
         <v>0.95699999999999996</v>
       </c>
       <c r="MZ14">
-        <f t="shared" si="52"/>
-        <v>0.96444324964144623</v>
+        <f t="shared" si="96"/>
+        <v>0.97615275682344216</v>
       </c>
       <c r="NB14" s="2">
         <v>0.7</v>
       </c>
       <c r="NC14" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>2.8553720493533566E-2</v>
       </c>
       <c r="ND14" s="2">
         <v>0.879</v>
       </c>
       <c r="NE14">
-        <f t="shared" si="53"/>
-        <v>0.96729335075429246</v>
+        <f t="shared" si="98"/>
+        <v>0.9780749473880177</v>
       </c>
       <c r="NG14" s="2">
         <v>0.7</v>
       </c>
       <c r="NH14" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>6.9341503274056582E-2</v>
       </c>
       <c r="NI14" s="2">
         <v>0.88500000000000001</v>
       </c>
       <c r="NJ14">
-        <f t="shared" si="54"/>
-        <v>0.96707381349825816</v>
+        <f t="shared" si="100"/>
+        <v>0.97792695228870286</v>
       </c>
       <c r="NL14" s="2">
         <v>0.7</v>
       </c>
       <c r="NM14" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>9.5532563993332265E-2</v>
       </c>
       <c r="NN14" s="2">
         <v>0.85099999999999998</v>
       </c>
       <c r="NO14">
-        <f t="shared" si="55"/>
-        <v>0.96831851709537953</v>
+        <f t="shared" si="102"/>
+        <v>0.97876588737662318</v>
       </c>
     </row>
     <row r="15" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -12346,7 +12346,7 @@
         <v>0.9</v>
       </c>
       <c r="CS15" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>0.12560488249642324</v>
       </c>
       <c r="CT15" s="2">
@@ -12386,7 +12386,7 @@
         <v>2</v>
       </c>
       <c r="DM15" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.24710134015961449</v>
       </c>
       <c r="DN15" s="2">
@@ -12446,7 +12446,7 @@
         <v>2.7</v>
       </c>
       <c r="FL15">
-        <f t="shared" si="58"/>
+        <f t="shared" si="46"/>
         <v>0.51137774732544228</v>
       </c>
       <c r="FS15" s="2">
@@ -12460,7 +12460,7 @@
         <v>1.87</v>
       </c>
       <c r="FV15">
-        <f t="shared" si="60"/>
+        <f t="shared" si="48"/>
         <v>0.72346408296627762</v>
       </c>
       <c r="FX15" s="2">
@@ -12474,7 +12474,7 @@
         <v>2.09</v>
       </c>
       <c r="GA15">
-        <f t="shared" si="61"/>
+        <f t="shared" si="49"/>
         <v>0.68573655567773595</v>
       </c>
       <c r="GC15" s="2">
@@ -12488,7 +12488,7 @@
         <v>2.59</v>
       </c>
       <c r="GF15">
-        <f t="shared" si="62"/>
+        <f t="shared" si="50"/>
         <v>0.55892768292238437</v>
       </c>
       <c r="GM15" s="2">
@@ -12502,29 +12502,29 @@
         <v>1.6</v>
       </c>
       <c r="GP15">
-        <f t="shared" si="64"/>
+        <f t="shared" si="52"/>
         <v>0.74540458635814377</v>
       </c>
       <c r="GR15" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>9.3292937491399552</v>
       </c>
       <c r="GS15" s="2">
         <v>5.95</v>
       </c>
       <c r="GT15" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.4275064792523724</v>
       </c>
       <c r="GU15" s="2">
         <v>0.81</v>
       </c>
       <c r="GV15" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.85611666614947202</v>
       </c>
       <c r="GW15" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.9461327317024566</v>
       </c>
       <c r="GY15" s="2">
@@ -12534,11 +12534,11 @@
         <v>0.82</v>
       </c>
       <c r="HA15" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>8.5915878139921006E-2</v>
       </c>
       <c r="HB15" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.9766417469699995</v>
       </c>
       <c r="HD15" s="2">
@@ -12551,7 +12551,7 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="HG15" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>1.0553350912428567E-3</v>
       </c>
       <c r="HH15" s="2">
@@ -12570,7 +12570,7 @@
         <v>0.89749999999999996</v>
       </c>
       <c r="HN15" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.4392530051505739E-3</v>
       </c>
       <c r="HO15" s="2">
@@ -12589,7 +12589,7 @@
         <v>0.90820000000000001</v>
       </c>
       <c r="HU15" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.2326117532084819E-3</v>
       </c>
       <c r="HV15" s="2">
@@ -12608,7 +12608,7 @@
         <v>0.91810000000000003</v>
       </c>
       <c r="IB15" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.5181012246885562E-3</v>
       </c>
       <c r="IC15" s="2">
@@ -12627,7 +12627,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="II15" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.5192700663784846E-3</v>
       </c>
       <c r="IJ15" s="2">
@@ -12646,7 +12646,7 @@
         <v>0.91849999999999998</v>
       </c>
       <c r="IP15" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>1.9022996390278418E-3</v>
       </c>
       <c r="IQ15" s="2">
@@ -12665,7 +12665,7 @@
         <v>0.90780000000000005</v>
       </c>
       <c r="IW15" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>1.263281461353663E-3</v>
       </c>
       <c r="IX15" s="2">
@@ -12684,7 +12684,7 @@
         <v>0.90100000000000002</v>
       </c>
       <c r="JD15" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>1.278650798930523E-3</v>
       </c>
       <c r="JE15" s="2">
@@ -12703,7 +12703,7 @@
         <v>0.91810000000000003</v>
       </c>
       <c r="JK15" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>2.2525491272422401E-3</v>
       </c>
       <c r="JL15" s="2">
@@ -12722,7 +12722,7 @@
         <v>0.91890000000000005</v>
       </c>
       <c r="JR15" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.5002032886474916E-3</v>
       </c>
       <c r="JS15" s="2">
@@ -12760,7 +12760,7 @@
         <v>0.90700000000000003</v>
       </c>
       <c r="KF15" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.5511131901696017E-3</v>
       </c>
       <c r="KG15" s="2">
@@ -12779,194 +12779,194 @@
         <v>0.91</v>
       </c>
       <c r="KM15" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>7.2660389487532784E-2</v>
       </c>
       <c r="KN15" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.97411149737843716</v>
       </c>
       <c r="KT15" s="2">
         <v>0.8</v>
       </c>
       <c r="KU15" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.16049913363510593</v>
       </c>
       <c r="KV15" s="2">
         <v>1.131</v>
       </c>
       <c r="KW15">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.95227702161939176</v>
       </c>
       <c r="KY15" s="2">
         <v>0.8</v>
       </c>
       <c r="KZ15" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.18647332934162913</v>
       </c>
       <c r="LA15" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="LB15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.95396657594187528</v>
       </c>
       <c r="LD15" s="2">
         <v>0.8</v>
       </c>
       <c r="LE15" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.21196799959652765</v>
       </c>
       <c r="LF15" s="2">
         <v>1</v>
       </c>
       <c r="LG15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.95768587343833</v>
       </c>
       <c r="LI15" s="2">
         <v>1.2</v>
       </c>
       <c r="LJ15" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>0.15968646221278085</v>
       </c>
       <c r="LK15" s="2">
         <v>1.446</v>
       </c>
       <c r="LL15">
-        <f t="shared" si="44"/>
-        <v>0.91048514267541059</v>
+        <f t="shared" si="80"/>
+        <v>0.88246431232617206</v>
       </c>
       <c r="LN15" s="2">
         <v>1.2</v>
       </c>
       <c r="LO15" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>0.32000174079554361</v>
       </c>
       <c r="LP15" s="2">
         <v>1.0389999999999999</v>
       </c>
       <c r="LQ15">
-        <f t="shared" si="45"/>
-        <v>0.93483760094127633</v>
+        <f t="shared" si="82"/>
+        <v>0.89377242949239577</v>
       </c>
       <c r="LS15" s="2">
         <v>1.2</v>
       </c>
       <c r="LT15" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="83"/>
         <v>0.22216106679676284</v>
       </c>
       <c r="LU15" s="2">
         <v>1.349</v>
       </c>
       <c r="LV15">
-        <f t="shared" si="46"/>
-        <v>0.91623083819780271</v>
+        <f t="shared" si="84"/>
+        <v>0.88989726777302436</v>
       </c>
       <c r="MH15" s="2">
         <v>0.8</v>
       </c>
       <c r="MI15" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>6.0792991261617989E-2</v>
       </c>
       <c r="MJ15" s="2">
         <v>1.038</v>
       </c>
       <c r="MK15">
-        <f t="shared" si="49"/>
-        <v>0.95611373791954757</v>
+        <f t="shared" si="90"/>
+        <v>0.97052420733547629</v>
       </c>
       <c r="MM15" s="2">
         <v>0.8</v>
       </c>
       <c r="MN15" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>9.2828994636805023E-2</v>
       </c>
       <c r="MO15" s="2">
         <v>1.075</v>
       </c>
       <c r="MP15">
-        <f t="shared" si="50"/>
-        <v>0.95458545425820596</v>
+        <f t="shared" si="92"/>
+        <v>0.96948971973326925</v>
       </c>
       <c r="MR15" s="2">
         <v>0.8</v>
       </c>
       <c r="MS15" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>7.4389467292626216E-2</v>
       </c>
       <c r="MT15" s="2">
         <v>1.0129999999999999</v>
       </c>
       <c r="MU15">
-        <f t="shared" si="51"/>
-        <v>0.95714774690813709</v>
+        <f t="shared" si="94"/>
+        <v>0.97122381026596816</v>
       </c>
       <c r="MW15" s="2">
         <v>0.8</v>
       </c>
       <c r="MX15" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>4.7988971904250541E-2</v>
       </c>
       <c r="MY15" s="2">
         <v>0.96399999999999997</v>
       </c>
       <c r="MZ15">
-        <f t="shared" si="52"/>
-        <v>0.95917764946916806</v>
+        <f t="shared" si="96"/>
+        <v>0.97259649524722902</v>
       </c>
       <c r="NB15" s="2">
         <v>0.8</v>
       </c>
       <c r="NC15" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>3.2500251549934599E-2</v>
       </c>
       <c r="ND15" s="2">
         <v>0.876</v>
       </c>
       <c r="NE15">
-        <f t="shared" si="53"/>
-        <v>0.96283400302100319</v>
+        <f t="shared" si="98"/>
+        <v>0.97506659808017138</v>
       </c>
       <c r="NG15" s="2">
         <v>0.8</v>
       </c>
       <c r="NH15" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>7.8470112942702966E-2</v>
       </c>
       <c r="NI15" s="2">
         <v>0.88300000000000001</v>
       </c>
       <c r="NJ15">
-        <f t="shared" si="54"/>
-        <v>0.96254264716191318</v>
+        <f t="shared" si="100"/>
+        <v>0.97486988317730705</v>
       </c>
       <c r="NL15" s="2">
         <v>0.8</v>
       </c>
       <c r="NM15" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.10771009858018832</v>
       </c>
       <c r="NN15" s="2">
         <v>0.84499999999999997</v>
       </c>
       <c r="NO15">
-        <f t="shared" si="55"/>
-        <v>0.9641253537206943</v>
+        <f t="shared" si="102"/>
+        <v>0.97593824133000306</v>
       </c>
     </row>
     <row r="16" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -13161,7 +13161,7 @@
         <v>1</v>
       </c>
       <c r="CS16" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>0.13764006234517406</v>
       </c>
       <c r="CT16" s="2">
@@ -13201,7 +13201,7 @@
         <v>2.5</v>
       </c>
       <c r="DM16" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.29090586775394434</v>
       </c>
       <c r="DN16" s="2">
@@ -13237,25 +13237,25 @@
       </c>
       <c r="EC16"/>
       <c r="GR16" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>10.674864962958218</v>
       </c>
       <c r="GS16" s="2">
         <v>5.2</v>
       </c>
       <c r="GT16" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.46075603985701208</v>
       </c>
       <c r="GU16" s="2">
         <v>0.79</v>
       </c>
       <c r="GV16" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.83871138863949279</v>
       </c>
       <c r="GW16" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.9419211551204647</v>
       </c>
       <c r="GY16" s="2">
@@ -13265,11 +13265,11 @@
         <v>0.81599999999999995</v>
       </c>
       <c r="HA16" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>9.5628363553686327E-2</v>
       </c>
       <c r="HB16" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.97388690379687926</v>
       </c>
       <c r="HD16" s="2">
@@ -13282,7 +13282,7 @@
         <v>0.88629999999999998</v>
       </c>
       <c r="HG16" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>1.1870953797218544E-3</v>
       </c>
       <c r="HH16" s="2">
@@ -13301,7 +13301,7 @@
         <v>0.89229999999999998</v>
       </c>
       <c r="HN16" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.6188683856457726E-3</v>
       </c>
       <c r="HO16" s="2">
@@ -13320,7 +13320,7 @@
         <v>0.90410000000000001</v>
       </c>
       <c r="HU16" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.3864745992487224E-3</v>
       </c>
       <c r="HV16" s="2">
@@ -13339,7 +13339,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="IB16" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.7075398504823478E-3</v>
       </c>
       <c r="IC16" s="2">
@@ -13358,7 +13358,7 @@
         <v>0.91490000000000005</v>
       </c>
       <c r="II16" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.7088542982778981E-3</v>
       </c>
       <c r="IJ16" s="2">
@@ -13377,7 +13377,7 @@
         <v>0.91549999999999998</v>
       </c>
       <c r="IP16" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>2.1395783290209507E-3</v>
       </c>
       <c r="IQ16" s="2">
@@ -13396,7 +13396,7 @@
         <v>0.90369999999999995</v>
       </c>
       <c r="IW16" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>1.4209672588234631E-3</v>
       </c>
       <c r="IX16" s="2">
@@ -13415,7 +13415,7 @@
         <v>0.8962</v>
       </c>
       <c r="JD16" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>1.4382522709949167E-3</v>
       </c>
       <c r="JE16" s="2">
@@ -13434,7 +13434,7 @@
         <v>0.91490000000000005</v>
       </c>
       <c r="JK16" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>2.5334044409022318E-3</v>
       </c>
       <c r="JL16" s="2">
@@ -13453,7 +13453,7 @@
         <v>0.91590000000000005</v>
       </c>
       <c r="JR16" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.6874122670493864E-3</v>
       </c>
       <c r="JS16" s="2">
@@ -13491,7 +13491,7 @@
         <v>0.90280000000000005</v>
       </c>
       <c r="KF16" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.7446640675098607E-3</v>
       </c>
       <c r="KG16" s="2">
@@ -13510,194 +13510,194 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="KM16" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>8.1007186458553412E-2</v>
       </c>
       <c r="KN16" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.97089143601521077</v>
       </c>
       <c r="KT16" s="2">
         <v>0.9</v>
       </c>
       <c r="KU16" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.17701027584969573</v>
       </c>
       <c r="KV16" s="2">
         <v>1.175</v>
       </c>
       <c r="KW16">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.94445062992512163</v>
       </c>
       <c r="KY16" s="2">
         <v>0.9</v>
       </c>
       <c r="KZ16" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.20500402267964524</v>
       </c>
       <c r="LA16" s="2">
         <v>1.1299999999999999</v>
       </c>
       <c r="LB16">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.9465201025631319</v>
       </c>
       <c r="LD16" s="2">
         <v>0.9</v>
       </c>
       <c r="LE16" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.23230874699736759</v>
       </c>
       <c r="LF16" s="2">
         <v>1.024</v>
       </c>
       <c r="LG16">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.95141279931364664</v>
       </c>
       <c r="LI16" s="2">
         <v>1.4</v>
       </c>
       <c r="LJ16" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="79"/>
         <v>0.1814711255754258</v>
       </c>
       <c r="LK16" s="2">
         <v>1.5549999999999999</v>
       </c>
       <c r="LL16">
-        <f t="shared" si="44"/>
-        <v>0.88900317088851011</v>
+        <f t="shared" si="80"/>
+        <v>0.85481292465318137</v>
       </c>
       <c r="LN16" s="2">
         <v>1.4</v>
       </c>
       <c r="LO16" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="81"/>
         <v>0.35443221021753052</v>
       </c>
       <c r="LP16" s="2">
         <v>1.26</v>
       </c>
       <c r="LQ16">
-        <f t="shared" si="45"/>
-        <v>0.90906909642680478</v>
+        <f t="shared" si="82"/>
+        <v>0.85308994630104173</v>
       </c>
       <c r="LS16" s="2">
         <v>1.4</v>
       </c>
       <c r="LT16" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="83"/>
         <v>0.24993365663192907</v>
       </c>
       <c r="LU16" s="2">
         <v>1.4690000000000001</v>
       </c>
       <c r="LV16">
-        <f t="shared" si="46"/>
-        <v>0.89480671852593363</v>
+        <f t="shared" si="84"/>
+        <v>0.86226147304869183</v>
       </c>
       <c r="MH16" s="2">
         <v>0.9</v>
       </c>
       <c r="MI16" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>6.7876314643942726E-2</v>
       </c>
       <c r="MJ16" s="2">
         <v>1.054</v>
       </c>
       <c r="MK16">
-        <f t="shared" si="49"/>
-        <v>0.95002551345518937</v>
+        <f t="shared" si="90"/>
+        <v>0.96639983198997437</v>
       </c>
       <c r="MM16" s="2">
         <v>0.9</v>
       </c>
       <c r="MN16" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.10323472203415061</v>
       </c>
       <c r="MO16" s="2">
         <v>1.0940000000000001</v>
       </c>
       <c r="MP16">
-        <f t="shared" si="50"/>
-        <v>0.94817894511743317</v>
+        <f t="shared" si="92"/>
+        <v>0.96514716252404475</v>
       </c>
       <c r="MR16" s="2">
         <v>0.9</v>
       </c>
       <c r="MS16" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>8.2917130557751462E-2</v>
       </c>
       <c r="MT16" s="2">
         <v>1.026</v>
       </c>
       <c r="MU16">
-        <f t="shared" si="51"/>
-        <v>0.95132025059754666</v>
+        <f t="shared" si="94"/>
+        <v>0.9672776678690761</v>
       </c>
       <c r="MW16" s="2">
         <v>0.9</v>
       </c>
       <c r="MX16" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>5.3665673331068441E-2</v>
       </c>
       <c r="MY16" s="2">
         <v>0.97099999999999997</v>
       </c>
       <c r="MZ16">
-        <f t="shared" si="52"/>
-        <v>0.9538686236753624</v>
+        <f t="shared" si="96"/>
+        <v>0.96900431050147162</v>
       </c>
       <c r="NB16" s="2">
         <v>0.9</v>
       </c>
       <c r="NC16" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>3.6414846534610537E-2</v>
       </c>
       <c r="ND16" s="2">
         <v>0.874</v>
       </c>
       <c r="NE16">
-        <f t="shared" si="53"/>
-        <v>0.95837967484054953</v>
+        <f t="shared" si="98"/>
+        <v>0.97205699492331787</v>
       </c>
       <c r="NG16" s="2">
         <v>0.9</v>
       </c>
       <c r="NH16" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>8.7421381352003474E-2</v>
       </c>
       <c r="NI16" s="2">
         <v>0.88200000000000001</v>
       </c>
       <c r="NJ16">
-        <f t="shared" si="54"/>
-        <v>0.95800682357191858</v>
+        <f t="shared" si="100"/>
+        <v>0.97180486368023633</v>
       </c>
       <c r="NL16" s="2">
         <v>0.9</v>
       </c>
       <c r="NM16" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.11956407856657988</v>
       </c>
       <c r="NN16" s="2">
         <v>0.83899999999999997</v>
       </c>
       <c r="NO16">
-        <f t="shared" si="55"/>
-        <v>0.96001260608504713</v>
+        <f t="shared" si="102"/>
+        <v>0.97316083846816936</v>
       </c>
     </row>
     <row r="17" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -13895,7 +13895,7 @@
         <v>1.2</v>
       </c>
       <c r="CS17" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>0.16074313576846283</v>
       </c>
       <c r="CT17" s="2">
@@ -13935,7 +13935,7 @@
         <v>3</v>
       </c>
       <c r="DM17" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.32989345305903639</v>
       </c>
       <c r="DN17" s="2">
@@ -13971,25 +13971,25 @@
       </c>
       <c r="EC17"/>
       <c r="GR17" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>11.937483399437147</v>
       </c>
       <c r="GS17" s="2">
         <v>4.6500000000000004</v>
       </c>
       <c r="GT17" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.48862496966811186</v>
       </c>
       <c r="GU17" s="2">
         <v>0.77</v>
       </c>
       <c r="GV17" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.82301069220416956</v>
       </c>
       <c r="GW17" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.93558930314477762</v>
       </c>
       <c r="GY17" s="2">
@@ -13999,11 +13999,11 @@
         <v>0.81100000000000005</v>
       </c>
       <c r="HA17" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.10513662138711662</v>
       </c>
       <c r="HB17" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.97120281484217019</v>
       </c>
       <c r="HD17" s="2">
@@ -14016,7 +14016,7 @@
         <v>0.88090000000000002</v>
       </c>
       <c r="HG17" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>1.3188209145560219E-3</v>
       </c>
       <c r="HH17" s="2">
@@ -14035,7 +14035,7 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="HN17" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.7984191613925787E-3</v>
       </c>
       <c r="HO17" s="2">
@@ -14054,7 +14054,7 @@
         <v>0.90039999999999998</v>
       </c>
       <c r="HU17" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.5402900466069029E-3</v>
       </c>
       <c r="HV17" s="2">
@@ -14073,7 +14073,7 @@
         <v>0.91220000000000001</v>
       </c>
       <c r="IB17" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.8969066067999697E-3</v>
       </c>
       <c r="IC17" s="2">
@@ -14092,7 +14092,7 @@
         <v>0.91220000000000001</v>
       </c>
       <c r="II17" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.898366550104459E-3</v>
       </c>
       <c r="IJ17" s="2">
@@ -14111,7 +14111,7 @@
         <v>0.91279999999999994</v>
       </c>
       <c r="IP17" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>2.3767442288626455E-3</v>
       </c>
       <c r="IQ17" s="2">
@@ -14130,7 +14130,7 @@
         <v>0.89990000000000003</v>
       </c>
       <c r="IW17" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>1.5786032716301082E-3</v>
       </c>
       <c r="IX17" s="2">
@@ -14149,7 +14149,7 @@
         <v>0.89180000000000004</v>
       </c>
       <c r="JD17" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>1.5978027407254132E-3</v>
       </c>
       <c r="JE17" s="2">
@@ -14168,7 +14168,7 @@
         <v>0.91210000000000002</v>
       </c>
       <c r="JK17" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>2.8141016834800272E-3</v>
       </c>
       <c r="JL17" s="2">
@@ -14187,7 +14187,7 @@
         <v>0.9133</v>
       </c>
       <c r="JR17" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.8745510588935421E-3</v>
       </c>
       <c r="JS17" s="2">
@@ -14225,7 +14225,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="KF17" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.9381399191137694E-3</v>
       </c>
       <c r="KG17" s="2">
@@ -14244,166 +14244,166 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="KM17" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>8.9205068111112146E-2</v>
       </c>
       <c r="KN17" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.96764018174766664</v>
       </c>
       <c r="KT17" s="2">
         <v>1</v>
       </c>
       <c r="KU17" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.19288446948296178</v>
       </c>
       <c r="KV17" s="2">
         <v>1.2190000000000001</v>
       </c>
       <c r="KW17">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.93624318649629623</v>
       </c>
       <c r="KY17" s="2">
         <v>1</v>
       </c>
       <c r="KZ17" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.22270932437894478</v>
       </c>
       <c r="LA17" s="2">
         <v>1.17</v>
       </c>
       <c r="LB17">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.93872580476906919</v>
       </c>
       <c r="LD17" s="2">
         <v>1</v>
       </c>
       <c r="LE17" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.2516258428563945</v>
       </c>
       <c r="LF17" s="2">
         <v>1.046</v>
       </c>
       <c r="LG17">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.94503779754040906</v>
       </c>
       <c r="LS17" s="2">
         <v>1.5</v>
       </c>
       <c r="LT17" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="83"/>
         <v>0.26308928447074886</v>
       </c>
       <c r="LU17" s="2">
         <v>1.524</v>
       </c>
       <c r="LV17">
-        <f t="shared" si="46"/>
-        <v>0.88378159870987083</v>
+        <f t="shared" si="84"/>
+        <v>0.84812514603909517</v>
       </c>
       <c r="MH17" s="2">
         <v>1</v>
       </c>
       <c r="MI17" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="89"/>
         <v>7.4853595581500759E-2</v>
       </c>
       <c r="MJ17" s="2">
         <v>1.0720000000000001</v>
       </c>
       <c r="MK17">
-        <f t="shared" si="49"/>
-        <v>0.94371080810606978</v>
+        <f t="shared" si="90"/>
+        <v>0.9621127115457897</v>
       </c>
       <c r="MM17" s="2">
         <v>1</v>
       </c>
       <c r="MN17" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.11340443829738188</v>
       </c>
       <c r="MO17" s="2">
         <v>1.113</v>
       </c>
       <c r="MP17">
-        <f t="shared" si="50"/>
-        <v>0.94162203270939127</v>
+        <f t="shared" si="92"/>
+        <v>0.96069251698563929</v>
       </c>
       <c r="MR17" s="2">
         <v>1</v>
       </c>
       <c r="MS17" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>9.1289097286589238E-2</v>
       </c>
       <c r="MT17" s="2">
         <v>1041</v>
       </c>
       <c r="MU17">
-        <f t="shared" si="51"/>
-        <v>3.6858236523030698E-25</v>
+        <f t="shared" si="94"/>
+        <v>5.1407091730291891E-17</v>
       </c>
       <c r="MW17" s="2">
         <v>1</v>
       </c>
       <c r="MX17" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>5.9275077374624882E-2</v>
       </c>
       <c r="MY17" s="2">
         <v>0.97899999999999998</v>
       </c>
       <c r="MZ17">
-        <f t="shared" si="52"/>
-        <v>0.94846595317046878</v>
+        <f t="shared" si="96"/>
+        <v>0.965341915519908</v>
       </c>
       <c r="NB17" s="2">
         <v>1</v>
       </c>
       <c r="NC17" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="97"/>
         <v>4.0297891534467702E-2</v>
       </c>
       <c r="ND17" s="2">
         <v>0.872</v>
       </c>
       <c r="NE17">
-        <f t="shared" si="53"/>
-        <v>0.95396657594187528</v>
+        <f t="shared" si="98"/>
+        <v>0.96907064706097312</v>
       </c>
       <c r="NG17" s="2">
         <v>1</v>
       </c>
       <c r="NH17" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>9.6200426593398627E-2</v>
       </c>
       <c r="NI17" s="2">
         <v>0.88</v>
       </c>
       <c r="NJ17">
-        <f t="shared" si="54"/>
-        <v>0.95355421332046342</v>
+        <f t="shared" si="100"/>
+        <v>0.96879136592250192</v>
       </c>
       <c r="NL17" s="2">
         <v>1</v>
       </c>
       <c r="NM17" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.13110723005673869</v>
       </c>
       <c r="NN17" s="2">
         <v>0.83299999999999996</v>
       </c>
       <c r="NO17">
-        <f t="shared" si="55"/>
-        <v>0.95597939882351035</v>
+        <f t="shared" si="102"/>
+        <v>0.97043329597707373</v>
       </c>
     </row>
     <row r="18" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -14576,7 +14576,7 @@
         <v>1.4</v>
       </c>
       <c r="CS18" s="2">
-        <f t="shared" si="56"/>
+        <f t="shared" si="44"/>
         <v>0.18264062071448259</v>
       </c>
       <c r="CT18" s="2">
@@ -14616,7 +14616,7 @@
         <v>3.5</v>
       </c>
       <c r="DM18" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.36481722615682666</v>
       </c>
       <c r="DN18" s="2">
@@ -14652,25 +14652,25 @@
       </c>
       <c r="EC18"/>
       <c r="GR18" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>13.705999458613022</v>
       </c>
       <c r="GS18" s="2">
         <v>4.05</v>
       </c>
       <c r="GT18" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.52314404058724051</v>
       </c>
       <c r="GU18" s="2">
         <v>0.75</v>
       </c>
       <c r="GV18" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.80198220692011568</v>
       </c>
       <c r="GW18" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.93518284262222595</v>
       </c>
       <c r="GY18" s="2">
@@ -14680,11 +14680,11 @@
         <v>0.80100000000000005</v>
       </c>
       <c r="HA18" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.12356568983481966</v>
       </c>
       <c r="HB18" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.96596121284483361</v>
       </c>
       <c r="HD18" s="2">
@@ -14697,7 +14697,7 @@
         <v>0.84</v>
       </c>
       <c r="HG18" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>2.634167833480798E-3</v>
       </c>
       <c r="HH18" s="2">
@@ -14716,7 +14716,7 @@
         <v>0.8518</v>
       </c>
       <c r="HN18" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3.5903813122365258E-3</v>
       </c>
       <c r="HO18" s="2">
@@ -14735,7 +14735,7 @@
         <v>0.87429999999999997</v>
       </c>
       <c r="HU18" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>3.0758424037743409E-3</v>
       </c>
       <c r="HV18" s="2">
@@ -14754,7 +14754,7 @@
         <v>0.89459999999999995</v>
       </c>
       <c r="IB18" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>3.7866303295103813E-3</v>
       </c>
       <c r="IC18" s="2">
@@ -14773,7 +14773,7 @@
         <v>0.89459999999999995</v>
       </c>
       <c r="II18" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>3.7895391658162221E-3</v>
       </c>
       <c r="IJ18" s="2">
@@ -14792,7 +14792,7 @@
         <v>0.89570000000000005</v>
       </c>
       <c r="IP18" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>4.7422174198406726E-3</v>
       </c>
       <c r="IQ18" s="2">
@@ -14811,7 +14811,7 @@
         <v>0.87290000000000001</v>
       </c>
       <c r="IW18" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>3.1522304220031102E-3</v>
       </c>
       <c r="IX18" s="2">
@@ -14830,7 +14830,7 @@
         <v>0.85970000000000002</v>
       </c>
       <c r="JD18" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>3.1905076795361587E-3</v>
       </c>
       <c r="JE18" s="2">
@@ -14849,7 +14849,7 @@
         <v>0.89349999999999996</v>
       </c>
       <c r="JK18" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>5.6124094760052479E-3</v>
       </c>
       <c r="JL18" s="2">
@@ -14868,7 +14868,7 @@
         <v>0.89680000000000004</v>
       </c>
       <c r="JR18" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>3.7420873839190869E-3</v>
       </c>
       <c r="JS18" s="2">
@@ -14906,7 +14906,7 @@
         <v>0.87150000000000005</v>
       </c>
       <c r="KF18" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>3.8687815981737852E-3</v>
       </c>
       <c r="KG18" s="2">
@@ -14925,124 +14925,124 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="KM18" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.10516974684718819</v>
       </c>
       <c r="KN18" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.96121185701281087</v>
       </c>
       <c r="KT18" s="2">
         <v>1.2</v>
       </c>
       <c r="KU18" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.22286396389115121</v>
       </c>
       <c r="KV18" s="2">
         <v>1.31</v>
       </c>
       <c r="KW18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.91855117017985422</v>
       </c>
       <c r="KY18" s="2">
         <v>1.2</v>
       </c>
       <c r="KZ18" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.25585493338413362</v>
       </c>
       <c r="LA18" s="2">
         <v>1.2490000000000001</v>
       </c>
       <c r="LB18">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.92219219626599258</v>
       </c>
       <c r="LD18" s="2">
         <v>1.2</v>
       </c>
       <c r="LE18" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.28748336273651992</v>
       </c>
       <c r="LF18" s="2">
         <v>1.0940000000000001</v>
       </c>
       <c r="LG18">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.93150904532821477</v>
       </c>
       <c r="MM18" s="2">
         <v>1.2</v>
       </c>
       <c r="MN18" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.13306724277238161</v>
       </c>
       <c r="MO18" s="2">
         <v>1.153</v>
       </c>
-      <c r="MP18" s="2">
-        <f t="shared" si="50"/>
-        <v>0.92795158760376106</v>
+      <c r="MP18">
+        <f t="shared" si="92"/>
+        <v>0.95137166543943752</v>
       </c>
       <c r="MR18" s="2">
         <v>1.2</v>
       </c>
       <c r="MS18" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.107582691387816</v>
       </c>
       <c r="MT18" s="2">
         <v>1.0720000000000001</v>
       </c>
       <c r="MU18">
-        <f t="shared" si="51"/>
-        <v>0.93283904301825904</v>
+        <f t="shared" si="94"/>
+        <v>0.95470927809223272</v>
       </c>
       <c r="MW18" s="2">
         <v>1.2</v>
       </c>
       <c r="MX18" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>7.0296724097537025E-2</v>
       </c>
       <c r="MY18" s="2">
         <v>0.99399999999999999</v>
       </c>
       <c r="MZ18">
-        <f t="shared" si="52"/>
-        <v>0.93756980941893442</v>
+        <f t="shared" si="96"/>
+        <v>0.95793434156066193</v>
       </c>
       <c r="NG18" s="2">
         <v>1.2</v>
       </c>
       <c r="NH18" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.1132613538016259</v>
       </c>
       <c r="NI18" s="2">
         <v>0.878</v>
       </c>
       <c r="NJ18">
-        <f t="shared" si="54"/>
-        <v>0.94464971544087517</v>
+        <f t="shared" si="100"/>
+        <v>0.96275074949185258</v>
       </c>
       <c r="NL18" s="2">
         <v>1.2</v>
       </c>
       <c r="NM18" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.15330870026111959</v>
       </c>
       <c r="NN18" s="2">
         <v>0.82399999999999995</v>
       </c>
       <c r="NO18">
-        <f t="shared" si="55"/>
-        <v>0.94796374607395961</v>
+        <f t="shared" si="102"/>
+        <v>0.96500112356194612</v>
       </c>
     </row>
     <row r="19" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -15250,7 +15250,7 @@
         <v>4</v>
       </c>
       <c r="DM19" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.39628109152378649</v>
       </c>
       <c r="DN19" s="2">
@@ -15285,25 +15285,25 @@
         <v>0.9481058402815703</v>
       </c>
       <c r="GR19" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>15.002512920914251</v>
       </c>
       <c r="GS19" s="2">
         <v>3.7</v>
       </c>
       <c r="GT19" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.54562930091309736</v>
       </c>
       <c r="GU19" s="2">
         <v>0.73199999999999998</v>
       </c>
       <c r="GV19" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.78723616136414198</v>
       </c>
       <c r="GW19" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.92983533522084727</v>
       </c>
       <c r="GY19" s="2">
@@ -15313,11 +15313,11 @@
         <v>0.79100000000000004</v>
       </c>
       <c r="HA19" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.14125100842464705</v>
       </c>
       <c r="HB19" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.96088637109727248</v>
       </c>
       <c r="HD19" s="2">
@@ -15330,7 +15330,7 @@
         <v>0.81140000000000001</v>
       </c>
       <c r="HG19" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>3.9460544653503026E-3</v>
       </c>
       <c r="HH19" s="2">
@@ -15349,7 +15349,7 @@
         <v>0.8276</v>
       </c>
       <c r="HN19" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>5.3759211649115103E-3</v>
       </c>
       <c r="HO19" s="2">
@@ -15368,7 +15368,7 @@
         <v>0.85819999999999996</v>
       </c>
       <c r="HU19" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>4.606678896516273E-3</v>
       </c>
       <c r="HV19" s="2">
@@ -15387,7 +15387,7 @@
         <v>0.88570000000000004</v>
       </c>
       <c r="IB19" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>5.6692118894231171E-3</v>
       </c>
       <c r="IC19" s="2">
@@ -15406,7 +15406,7 @@
         <v>0.88570000000000004</v>
       </c>
       <c r="II19" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>5.6735586623440767E-3</v>
       </c>
       <c r="IJ19" s="2">
@@ -15425,7 +15425,7 @@
         <v>0.88739999999999997</v>
       </c>
       <c r="IP19" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>7.0964995578494464E-3</v>
       </c>
       <c r="IQ19" s="2">
@@ -15444,7 +15444,7 @@
         <v>0.85570000000000002</v>
       </c>
       <c r="IW19" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>4.7209049429144459E-3</v>
       </c>
       <c r="IX19" s="2">
@@ -15463,7 +15463,7 @@
         <v>0.83879999999999999</v>
       </c>
       <c r="JD19" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>4.7781391744392667E-3</v>
       </c>
       <c r="JE19" s="2">
@@ -15482,7 +15482,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="JK19" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>8.3950559681741851E-3</v>
       </c>
       <c r="JL19" s="2">
@@ -15501,7 +15501,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="JR19" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>5.6026482761632468E-3</v>
       </c>
       <c r="JS19" s="2">
@@ -15539,7 +15539,7 @@
         <v>0.85399999999999998</v>
       </c>
       <c r="KF19" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>5.7919684667499952E-3</v>
       </c>
       <c r="KG19" s="2">
@@ -15558,124 +15558,124 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="KM19" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.12058439952640092</v>
       </c>
       <c r="KN19" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.95470239856898775</v>
       </c>
       <c r="KT19" s="2">
         <v>1.4</v>
       </c>
       <c r="KU19" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.25069610332001568</v>
       </c>
       <c r="KV19" s="2">
         <v>1.405</v>
       </c>
       <c r="KW19">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.89915021231751469</v>
       </c>
       <c r="KY19" s="2">
         <v>1.4</v>
       </c>
       <c r="KZ19" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.28628933259488071</v>
       </c>
       <c r="LA19" s="2">
         <v>1.329</v>
       </c>
       <c r="LB19">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.90433550374518967</v>
       </c>
       <c r="LD19" s="2">
         <v>1.4</v>
       </c>
       <c r="LE19" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.32006184717438102</v>
       </c>
       <c r="LF19" s="2">
         <v>1.141</v>
       </c>
       <c r="LG19">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.91729111649333639</v>
       </c>
       <c r="MM19" s="2">
         <v>1.4</v>
       </c>
       <c r="MN19" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.15187681180316079</v>
       </c>
       <c r="MO19" s="2">
         <v>1.1930000000000001</v>
       </c>
-      <c r="MP19" s="2">
-        <f t="shared" si="50"/>
-        <v>0.91368919266270154</v>
+      <c r="MP19">
+        <f t="shared" si="92"/>
+        <v>0.94159828465999318</v>
       </c>
       <c r="MR19" s="2">
         <v>1.4</v>
       </c>
       <c r="MS19" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.1233022748552572</v>
       </c>
       <c r="MT19" s="2">
         <v>1.1060000000000001</v>
       </c>
       <c r="MU19">
-        <f t="shared" si="51"/>
-        <v>0.91972347992209569</v>
+        <f t="shared" si="94"/>
+        <v>0.94573947309412953</v>
       </c>
       <c r="MW19" s="2">
         <v>1.4</v>
       </c>
       <c r="MX19" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>8.1063099721194534E-2</v>
       </c>
       <c r="MY19" s="2">
         <v>1.0089999999999999</v>
       </c>
       <c r="MZ19">
-        <f t="shared" si="52"/>
-        <v>0.92649836194545343</v>
+        <f t="shared" si="96"/>
+        <v>0.95037813743968902</v>
       </c>
       <c r="NG19" s="2">
         <v>1.4</v>
       </c>
       <c r="NH19" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.12969010005082607</v>
       </c>
       <c r="NI19" s="2">
         <v>0.876</v>
       </c>
       <c r="NJ19">
-        <f t="shared" si="54"/>
-        <v>0.93586883154901956</v>
+        <f t="shared" si="100"/>
+        <v>0.95677537491291365</v>
       </c>
       <c r="NL19" s="2">
         <v>1.4</v>
       </c>
       <c r="NM19" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.17440387832034118</v>
       </c>
       <c r="NN19" s="2">
         <v>0.81499999999999995</v>
       </c>
       <c r="NO19">
-        <f t="shared" si="55"/>
-        <v>0.94019820934271725</v>
+        <f t="shared" si="102"/>
+        <v>0.95972383290643648</v>
       </c>
     </row>
     <row r="20" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -15861,7 +15861,7 @@
         <v>4.5</v>
       </c>
       <c r="DM20" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.42477494319652565</v>
       </c>
       <c r="DN20" s="2">
@@ -15896,25 +15896,25 @@
         <v>0.94153043639048362</v>
       </c>
       <c r="GR20" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>16.326264060994923</v>
       </c>
       <c r="GS20" s="2">
         <v>3.4</v>
       </c>
       <c r="GT20" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.56649963905049039</v>
       </c>
       <c r="GU20" s="2">
         <v>0.71499999999999997</v>
       </c>
       <c r="GV20" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.77272949429646598</v>
       </c>
       <c r="GW20" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.92529145746012187</v>
       </c>
       <c r="GY20" s="2">
@@ -15924,11 +15924,11 @@
         <v>0.78300000000000003</v>
       </c>
       <c r="HA20" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.15823671035566289</v>
       </c>
       <c r="HB20" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.955865742023702</v>
       </c>
       <c r="HD20" s="2">
@@ -15941,7 +15941,7 @@
         <v>0.78890000000000005</v>
       </c>
       <c r="HG20" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>5.2544944467088723E-3</v>
       </c>
       <c r="HH20" s="2">
@@ -15960,7 +15960,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="HN20" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>7.1550731834275887E-3</v>
       </c>
       <c r="HO20" s="2">
@@ -15979,7 +15979,7 @@
         <v>0.84689999999999999</v>
       </c>
       <c r="HU20" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>6.1328212159977493E-3</v>
       </c>
       <c r="HV20" s="2">
@@ -15998,7 +15998,7 @@
         <v>0.88060000000000005</v>
       </c>
       <c r="IB20" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>7.544691700600464E-3</v>
       </c>
       <c r="IC20" s="2">
@@ -16017,7 +16017,7 @@
         <v>0.88080000000000003</v>
       </c>
       <c r="II20" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>7.5504655467229899E-3</v>
       </c>
       <c r="IJ20" s="2">
@@ -16036,7 +16036,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="IP20" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>9.4396698727731362E-3</v>
       </c>
       <c r="IQ20" s="2">
@@ -16055,7 +16055,7 @@
         <v>0.84319999999999995</v>
       </c>
       <c r="IW20" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>6.2846501785218372E-3</v>
       </c>
       <c r="IX20" s="2">
@@ -16074,7 +16074,7 @@
         <v>0.82340000000000002</v>
       </c>
       <c r="JD20" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>6.3607214285072737E-3</v>
       </c>
       <c r="JE20" s="2">
@@ -16093,7 +16093,7 @@
         <v>0.87660000000000005</v>
       </c>
       <c r="JK20" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>1.1162172270586255E-2</v>
       </c>
       <c r="JL20" s="2">
@@ -16112,7 +16112,7 @@
         <v>0.8851</v>
       </c>
       <c r="JR20" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>7.4562727436730154E-3</v>
       </c>
       <c r="JS20" s="2">
@@ -16150,7 +16150,7 @@
         <v>0.84130000000000005</v>
       </c>
       <c r="KF20" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>7.7077436196683552E-3</v>
       </c>
       <c r="KG20" s="2">
@@ -16169,124 +16169,124 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="KM20" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.13547696959751918</v>
       </c>
       <c r="KN20" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.9482370230699626</v>
       </c>
       <c r="KT20" s="2">
         <v>1.6</v>
       </c>
       <c r="KU20" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.27660362508391401</v>
       </c>
       <c r="KV20" s="2">
         <v>1.5029999999999999</v>
       </c>
       <c r="KW20">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.87812548694419323</v>
       </c>
       <c r="KY20" s="2">
         <v>1.6</v>
       </c>
       <c r="KZ20" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.31433210461646482</v>
       </c>
       <c r="LA20" s="2">
         <v>1.413</v>
       </c>
       <c r="LB20">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.88498605569063116</v>
       </c>
       <c r="LD20" s="2">
         <v>1.6</v>
       </c>
       <c r="LE20" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.3497914130853178</v>
       </c>
       <c r="LF20" s="2">
         <v>1.1879999999999999</v>
       </c>
       <c r="LG20">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.9023728938816622</v>
       </c>
       <c r="MM20" s="2">
         <v>1.6</v>
       </c>
       <c r="MN20" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.16988750315442749</v>
       </c>
       <c r="MO20" s="2">
         <v>1.2330000000000001</v>
       </c>
-      <c r="MP20" s="2">
-        <f t="shared" si="50"/>
-        <v>0.89886841152667762</v>
+      <c r="MP20">
+        <f t="shared" si="92"/>
+        <v>0.93138823051676389</v>
       </c>
       <c r="MR20" s="2">
         <v>1.6</v>
       </c>
       <c r="MS20" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.13847765555647451</v>
       </c>
       <c r="MT20" s="2">
         <v>1.141</v>
       </c>
       <c r="MU20">
-        <f t="shared" si="51"/>
-        <v>0.90604771939779283</v>
+        <f t="shared" si="94"/>
+        <v>0.93634101561143179</v>
       </c>
       <c r="MW20" s="2">
         <v>1.6</v>
       </c>
       <c r="MX20" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>9.1582971177744513E-2</v>
       </c>
       <c r="MY20" s="2">
         <v>1.0249999999999999</v>
       </c>
       <c r="MZ20">
-        <f t="shared" si="52"/>
-        <v>0.9151816774767163</v>
+        <f t="shared" si="96"/>
+        <v>0.94262338804499535</v>
       </c>
       <c r="NG20" s="2">
         <v>1.6</v>
       </c>
       <c r="NH20" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.1455211637318167</v>
       </c>
       <c r="NI20" s="2">
         <v>0.874</v>
       </c>
       <c r="NJ20">
-        <f t="shared" si="54"/>
-        <v>0.92720965682677237</v>
+        <f t="shared" si="100"/>
+        <v>0.9508644938579115</v>
       </c>
       <c r="NL20" s="2">
         <v>1.6</v>
       </c>
       <c r="NM20" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.194473443400482</v>
       </c>
       <c r="NN20" s="2">
         <v>0.80800000000000005</v>
       </c>
       <c r="NO20">
-        <f t="shared" si="55"/>
-        <v>0.93251644506280873</v>
+        <f t="shared" si="102"/>
+        <v>0.9544891579348479</v>
       </c>
     </row>
     <row r="21" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -16406,7 +16406,7 @@
         <v>5</v>
       </c>
       <c r="DM21" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.45070035704476791</v>
       </c>
       <c r="DN21" s="2">
@@ -16441,14 +16441,14 @@
         <v>0.93492517765215333</v>
       </c>
       <c r="GR21" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>17.346655564807104</v>
       </c>
       <c r="GS21" s="2">
         <v>3.2</v>
       </c>
       <c r="GT21" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.58132339804344513</v>
       </c>
       <c r="GU21" s="2">
@@ -16459,7 +16459,7 @@
         <v>0.76190705666722525</v>
       </c>
       <c r="GW21" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.92662220912905446</v>
       </c>
       <c r="GY21" s="2">
@@ -16469,11 +16469,11 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="HA21" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.17456350480652827</v>
       </c>
       <c r="HB21" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.95098098232144823</v>
       </c>
       <c r="HD21" s="2">
@@ -16486,7 +16486,7 @@
         <v>0.77039999999999997</v>
       </c>
       <c r="HG21" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>6.5595013425417004E-3</v>
       </c>
       <c r="HH21" s="2">
@@ -16505,7 +16505,7 @@
         <v>0.79369999999999996</v>
       </c>
       <c r="HN21" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>8.927871585642606E-3</v>
       </c>
       <c r="HO21" s="2">
@@ -16524,7 +16524,7 @@
         <v>0.83830000000000005</v>
       </c>
       <c r="HU21" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>7.654290920559431E-3</v>
       </c>
       <c r="HV21" s="2">
@@ -16543,7 +16543,7 @@
         <v>0.87770000000000004</v>
       </c>
       <c r="IB21" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>9.4131098727671045E-3</v>
       </c>
       <c r="IC21" s="2">
@@ -16562,7 +16562,7 @@
         <v>0.878</v>
       </c>
       <c r="II21" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>9.4203000207171844E-3</v>
       </c>
       <c r="IJ21" s="2">
@@ -16581,7 +16581,7 @@
         <v>0.88070000000000004</v>
       </c>
       <c r="IP21" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>1.1771806848352797E-2</v>
       </c>
       <c r="IQ21" s="2">
@@ -16600,7 +16600,7 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="IW21" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>7.8434893265032848E-3</v>
       </c>
       <c r="IX21" s="2">
@@ -16619,7 +16619,7 @@
         <v>0.81130000000000002</v>
       </c>
       <c r="JD21" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>7.9382784911081299E-3</v>
       </c>
       <c r="JE21" s="2">
@@ -16638,7 +16638,7 @@
         <v>0.87209999999999999</v>
       </c>
       <c r="JK21" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>1.3913888034434319E-2</v>
       </c>
       <c r="JL21" s="2">
@@ -16657,7 +16657,7 @@
         <v>0.88339999999999996</v>
       </c>
       <c r="JR21" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>9.3029995041819091E-3</v>
       </c>
       <c r="JS21" s="2">
@@ -16695,7 +16695,7 @@
         <v>0.83130000000000004</v>
       </c>
       <c r="KF21" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>9.6161498202297826E-3</v>
       </c>
       <c r="KG21" s="2">
@@ -16714,124 +16714,124 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="KM21" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.14987353918328328</v>
       </c>
       <c r="KN21" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.94177471304333682</v>
       </c>
       <c r="KT21" s="2">
         <v>1.8</v>
       </c>
       <c r="KU21" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.30077949102340712</v>
       </c>
       <c r="KV21" s="2">
         <v>1.605</v>
       </c>
       <c r="KW21">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.85544452753871625</v>
       </c>
       <c r="KY21" s="2">
         <v>1.8</v>
       </c>
       <c r="KZ21" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.34025450342275965</v>
       </c>
       <c r="LA21" s="2">
         <v>1.492</v>
       </c>
       <c r="LB21">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.86489997380095363</v>
       </c>
       <c r="LD21" s="2">
         <v>1.8</v>
       </c>
       <c r="LE21" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.37703010315135549</v>
       </c>
       <c r="LF21" s="2">
         <v>1.2330000000000001</v>
       </c>
       <c r="LG21">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.88696837102108395</v>
       </c>
       <c r="MM21" s="2">
         <v>1.8</v>
       </c>
       <c r="MN21" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.18714915325327294</v>
       </c>
       <c r="MO21" s="2">
         <v>1.2729999999999999</v>
       </c>
-      <c r="MP21" s="2">
-        <f t="shared" si="50"/>
-        <v>0.88352371413173336</v>
+      <c r="MP21">
+        <f t="shared" si="92"/>
+        <v>0.92075794243931419</v>
       </c>
       <c r="MR21" s="2">
         <v>1.8</v>
       </c>
       <c r="MS21" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.15313661261419953</v>
       </c>
       <c r="MT21" s="2">
         <v>1.175</v>
       </c>
       <c r="MU21">
-        <f t="shared" si="51"/>
-        <v>0.89198699236595902</v>
+        <f t="shared" si="94"/>
+        <v>0.92662855821597656</v>
       </c>
       <c r="MW21" s="2">
         <v>1.8</v>
       </c>
       <c r="MX21" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>0.10186470849222842</v>
       </c>
       <c r="MY21" s="2">
         <v>1.042</v>
       </c>
       <c r="MZ21">
-        <f t="shared" si="52"/>
-        <v>0.90360268790868348</v>
+        <f t="shared" si="96"/>
+        <v>0.93465573706101379</v>
       </c>
       <c r="NG21" s="2">
         <v>1.8</v>
       </c>
       <c r="NH21" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.16078657795621318</v>
       </c>
       <c r="NI21" s="2">
         <v>0.875</v>
       </c>
       <c r="NJ21">
-        <f t="shared" si="54"/>
-        <v>0.91840225484217652</v>
+        <f t="shared" si="100"/>
+        <v>0.94483352393412745</v>
       </c>
       <c r="NL21" s="2">
         <v>1.8</v>
       </c>
       <c r="NM21" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.21359041586911626</v>
       </c>
       <c r="NN21" s="2">
         <v>0.80400000000000005</v>
       </c>
       <c r="NO21">
-        <f t="shared" si="55"/>
-        <v>0.92476749057544583</v>
+        <f t="shared" si="102"/>
+        <v>0.94919411309530544</v>
       </c>
     </row>
     <row r="22" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -16961,7 +16961,7 @@
         <v>5.5</v>
       </c>
       <c r="DM22" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.47438963496360148</v>
       </c>
       <c r="DN22" s="2">
@@ -16996,7 +16996,7 @@
         <v>0.92157439663809559</v>
       </c>
       <c r="GR22" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>18.503099269127578</v>
       </c>
       <c r="GS22" s="2">
@@ -17010,11 +17010,11 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="GV22" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.75000237185249707</v>
       </c>
       <c r="GW22" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.92933039435384468</v>
       </c>
       <c r="GY22" s="2">
@@ -17024,11 +17024,11 @@
         <v>0.76700000000000002</v>
       </c>
       <c r="HA22" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.19026900267797472</v>
       </c>
       <c r="HB22" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.94623027409842497</v>
       </c>
       <c r="HD22" s="2">
@@ -17041,7 +17041,7 @@
         <v>0.75449999999999995</v>
       </c>
       <c r="HG22" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>7.861088646743607E-3</v>
       </c>
       <c r="HH22" s="2">
@@ -17060,7 +17060,7 @@
         <v>0.78069999999999995</v>
       </c>
       <c r="HN22" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.0694350345455905E-2</v>
       </c>
       <c r="HO22" s="2">
@@ -17079,7 +17079,7 @@
         <v>0.83150000000000002</v>
       </c>
       <c r="HU22" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>9.1711094367327092E-3</v>
       </c>
       <c r="HV22" s="2">
@@ -17098,7 +17098,7 @@
         <v>0.87619999999999998</v>
       </c>
       <c r="IB22" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.1274506214169488E-2</v>
       </c>
       <c r="IC22" s="2">
@@ -17117,7 +17117,7 @@
         <v>0.87670000000000003</v>
       </c>
       <c r="II22" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.1283101983690477E-2</v>
       </c>
       <c r="IJ22" s="2">
@@ -17136,7 +17136,7 @@
         <v>0.87980000000000003</v>
       </c>
       <c r="IP22" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>1.4092988230949184E-2</v>
       </c>
       <c r="IQ22" s="2">
@@ -17155,7 +17155,7 @@
         <v>0.82520000000000004</v>
       </c>
       <c r="IW22" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>9.3974454392041825E-3</v>
       </c>
       <c r="IX22" s="2">
@@ -17174,7 +17174,7 @@
         <v>0.8014</v>
       </c>
       <c r="JD22" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>9.5108342591234164E-3</v>
       </c>
       <c r="JE22" s="2">
@@ -17193,7 +17193,7 @@
         <v>0.86880000000000002</v>
       </c>
       <c r="JK22" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>1.6650331471754338E-2</v>
       </c>
       <c r="JL22" s="2">
@@ -17212,7 +17212,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="JR22" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.1142866987805745E-2</v>
       </c>
       <c r="JS22" s="2">
@@ -17250,7 +17250,7 @@
         <v>0.82320000000000004</v>
       </c>
       <c r="KF22" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.1517229503392019E-2</v>
       </c>
       <c r="KG22" s="2">
@@ -17269,124 +17269,124 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="KM22" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.16379848152159376</v>
       </c>
       <c r="KN22" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.93524860889286388</v>
       </c>
       <c r="KT22" s="2">
         <v>2</v>
       </c>
       <c r="KU22" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.32339170207583429</v>
       </c>
       <c r="KV22" s="2">
         <v>1.71</v>
       </c>
       <c r="KW22">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.83124428528506278</v>
       </c>
       <c r="KY22" s="2">
         <v>2</v>
       </c>
       <c r="KZ22" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.36428825713268576</v>
       </c>
       <c r="LA22" s="2">
         <v>1.577</v>
       </c>
       <c r="LB22">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.84328038394609628</v>
       </c>
       <c r="LD22" s="2">
         <v>2</v>
       </c>
       <c r="LE22" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.40207837556653075</v>
       </c>
       <c r="LF22" s="2">
         <v>1.2789999999999999</v>
       </c>
       <c r="LG22">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.87088498414764814</v>
       </c>
       <c r="MM22" s="2">
         <v>2</v>
       </c>
       <c r="MN22" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.20370753770444811</v>
       </c>
       <c r="MO22" s="2">
         <v>1.3149999999999999</v>
       </c>
-      <c r="MP22" s="2">
-        <f t="shared" si="50"/>
-        <v>0.86750278918051216</v>
+      <c r="MP22">
+        <f t="shared" si="92"/>
+        <v>0.90959330103054237</v>
       </c>
       <c r="MR22" s="2">
         <v>2</v>
       </c>
       <c r="MS22" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.16730506611597773</v>
       </c>
       <c r="MT22" s="2">
         <v>1.21</v>
       </c>
       <c r="MU22">
-        <f t="shared" si="51"/>
-        <v>0.87740442623855996</v>
+        <f t="shared" si="94"/>
+        <v>0.91650157150081502</v>
       </c>
       <c r="MW22" s="2">
         <v>2</v>
       </c>
       <c r="MX22" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>0.111916306992771</v>
       </c>
       <c r="MY22" s="2">
         <v>1.06</v>
       </c>
       <c r="MZ22">
-        <f t="shared" si="52"/>
-        <v>0.89174599079340822</v>
+        <f t="shared" si="96"/>
+        <v>0.9264616432280075</v>
       </c>
       <c r="NG22" s="2">
         <v>2</v>
       </c>
       <c r="NH22" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.17551612690455773</v>
       </c>
       <c r="NI22" s="2">
         <v>0.876</v>
       </c>
       <c r="NJ22">
-        <f t="shared" si="54"/>
-        <v>0.90965884785627105</v>
+        <f t="shared" si="100"/>
+        <v>0.93882727584160297</v>
       </c>
       <c r="NL22" s="2">
         <v>2</v>
       </c>
       <c r="NM22" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.23182104503065035</v>
       </c>
       <c r="NN22" s="2">
         <v>0.8</v>
       </c>
       <c r="NO22">
-        <f t="shared" si="55"/>
-        <v>0.91716223218333703</v>
+        <f t="shared" si="102"/>
+        <v>0.94398285907405555</v>
       </c>
     </row>
     <row r="23" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -17509,7 +17509,7 @@
         <v>6</v>
       </c>
       <c r="DM23" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="45"/>
         <v>0.49612012496220897</v>
       </c>
       <c r="DN23" s="2">
@@ -17544,25 +17544,25 @@
         <v>0.91147768727147049</v>
       </c>
       <c r="GR23" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>19.141137174959567</v>
       </c>
       <c r="GS23" s="2">
         <v>2.9</v>
       </c>
       <c r="GT23" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.60507308001950311</v>
       </c>
       <c r="GU23" s="2">
         <v>0.68600000000000005</v>
       </c>
       <c r="GV23" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.74359215546712221</v>
       </c>
       <c r="GW23" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.9225487317964739</v>
       </c>
       <c r="GY23" s="2">
@@ -17572,11 +17572,11 @@
         <v>0.75600000000000001</v>
       </c>
       <c r="HA23" s="2">
-        <f t="shared" si="69"/>
+        <f t="shared" si="57"/>
         <v>0.19789974347085218</v>
       </c>
       <c r="HB23" s="2">
-        <f t="shared" si="70"/>
+        <f t="shared" si="58"/>
         <v>0.9444046930725627</v>
       </c>
       <c r="HD23" s="2">
@@ -17589,7 +17589,7 @@
         <v>0.74050000000000005</v>
       </c>
       <c r="HG23" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>9.1592697825841566E-3</v>
       </c>
       <c r="HH23" s="2">
@@ -17608,7 +17608,7 @@
         <v>0.76939999999999997</v>
       </c>
       <c r="HN23" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.2454543194978606E-2</v>
       </c>
       <c r="HO23" s="2">
@@ -17627,7 +17627,7 @@
         <v>0.82599999999999996</v>
       </c>
       <c r="HU23" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.0683298060245537E-2</v>
       </c>
       <c r="HV23" s="2">
@@ -17646,7 +17646,7 @@
         <v>0.87560000000000004</v>
       </c>
       <c r="IB23" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.3128920234403055E-2</v>
       </c>
       <c r="IC23" s="2">
@@ -17665,7 +17665,7 @@
         <v>0.87629999999999997</v>
       </c>
       <c r="II23" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.3138911035444298E-2</v>
       </c>
       <c r="IJ23" s="2">
@@ -17684,7 +17684,7 @@
         <v>0.87990000000000002</v>
       </c>
       <c r="IP23" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>1.6403291038182395E-2</v>
       </c>
       <c r="IQ23" s="2">
@@ -17703,7 +17703,7 @@
         <v>0.81830000000000003</v>
       </c>
       <c r="IW23" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>1.0946541424773663E-2</v>
       </c>
       <c r="IX23" s="2">
@@ -17722,7 +17722,7 @@
         <v>0.79310000000000003</v>
       </c>
       <c r="JD23" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>1.1078412478154998E-2</v>
       </c>
       <c r="JE23" s="2">
@@ -17741,7 +17741,7 @@
         <v>0.86639999999999995</v>
       </c>
       <c r="JK23" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>1.9371629375338838E-2</v>
       </c>
       <c r="JL23" s="2">
@@ -17760,7 +17760,7 @@
         <v>0.88370000000000004</v>
       </c>
       <c r="JR23" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.2975913339708427E-2</v>
       </c>
       <c r="JS23" s="2">
@@ -17798,7 +17798,7 @@
         <v>0.81630000000000003</v>
       </c>
       <c r="KF23" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.3411024778914954E-2</v>
       </c>
       <c r="KG23" s="2">
@@ -17817,124 +17817,124 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="KM23" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.19669357468728438</v>
       </c>
       <c r="KN23" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.91906428563337328</v>
       </c>
       <c r="KT23" s="2">
         <v>2.5</v>
       </c>
       <c r="KU23" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.3740023161914301</v>
       </c>
       <c r="KV23" s="2">
         <v>1.992</v>
       </c>
       <c r="KW23">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.7640357517927816</v>
       </c>
       <c r="KY23" s="2">
         <v>2.5</v>
       </c>
       <c r="KZ23" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.41735127891394275</v>
       </c>
       <c r="LA23" s="2">
         <v>1.7889999999999999</v>
       </c>
       <c r="LB23">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.78528136016243166</v>
       </c>
       <c r="LD23" s="2">
         <v>2.5</v>
       </c>
       <c r="LE23" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.45669152302948807</v>
       </c>
       <c r="LF23" s="2">
         <v>1.3939999999999999</v>
       </c>
       <c r="LG23">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.82832934630680732</v>
       </c>
       <c r="MM23" s="2">
         <v>2.5</v>
       </c>
       <c r="MN23" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.2422950881779091</v>
       </c>
       <c r="MO23" s="2">
         <v>1.4239999999999999</v>
       </c>
-      <c r="MP23" s="2">
-        <f t="shared" si="50"/>
-        <v>0.82497865462147968</v>
+      <c r="MP23">
+        <f t="shared" si="92"/>
+        <v>0.87962009280564779</v>
       </c>
       <c r="MR23" s="2">
         <v>2.5</v>
       </c>
       <c r="MS23" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.2007353235023778</v>
       </c>
       <c r="MT23" s="2">
         <v>1.3049999999999999</v>
       </c>
       <c r="MU23">
-        <f t="shared" si="51"/>
-        <v>0.83835001889727545</v>
+        <f t="shared" si="94"/>
+        <v>0.88909926721906551</v>
       </c>
       <c r="MW23" s="2">
         <v>2.5</v>
       </c>
       <c r="MX23" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>0.13608777348221421</v>
       </c>
       <c r="MY23" s="2">
         <v>1.1060000000000001</v>
       </c>
       <c r="MZ23">
-        <f t="shared" si="52"/>
-        <v>0.86119653696114273</v>
+        <f t="shared" si="96"/>
+        <v>0.90517979203125842</v>
       </c>
       <c r="NG23" s="2">
         <v>2.5</v>
       </c>
       <c r="NH23" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.21017297211910591</v>
       </c>
       <c r="NI23" s="2">
         <v>0.879</v>
       </c>
       <c r="NJ23">
-        <f t="shared" si="54"/>
-        <v>0.88801878213934382</v>
+        <f t="shared" si="100"/>
+        <v>0.92387830234153479</v>
       </c>
       <c r="NL23" s="2">
         <v>2.5</v>
       </c>
       <c r="NM23" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>0.27390223093539545</v>
       </c>
       <c r="NN23" s="2">
         <v>0.79200000000000004</v>
       </c>
       <c r="NO23">
-        <f t="shared" si="55"/>
-        <v>0.89851871272111217</v>
+        <f t="shared" si="102"/>
+        <v>0.93114664790012913</v>
       </c>
     </row>
     <row r="24" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -18024,25 +18024,25 @@
         <v>0.90126166538009622</v>
       </c>
       <c r="GR24" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>19.824749216922406</v>
       </c>
       <c r="GS24" s="2">
         <v>2.8</v>
       </c>
       <c r="GT24" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.61342683067019199</v>
       </c>
       <c r="GU24" s="2">
         <v>0.67600000000000005</v>
       </c>
       <c r="GV24" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.73684455814888161</v>
       </c>
       <c r="GW24" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.91742551739577649</v>
       </c>
       <c r="HD24" s="2">
@@ -18055,7 +18055,7 @@
         <v>0.72809999999999997</v>
       </c>
       <c r="HG24" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>1.0454058103169071E-2</v>
       </c>
       <c r="HH24" s="2">
@@ -18074,7 +18074,7 @@
         <v>0.75929999999999997</v>
       </c>
       <c r="HN24" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.4208483626680743E-2</v>
       </c>
       <c r="HO24" s="2">
@@ -18093,7 +18093,7 @@
         <v>0.82140000000000002</v>
       </c>
       <c r="HU24" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.2190877957019054E-2</v>
       </c>
       <c r="HV24" s="2">
@@ -18112,7 +18112,7 @@
         <v>0.87570000000000003</v>
       </c>
       <c r="IB24" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.4976391147207646E-2</v>
       </c>
       <c r="IC24" s="2">
@@ -18131,7 +18131,7 @@
         <v>0.87660000000000005</v>
       </c>
       <c r="II24" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.4987766479023784E-2</v>
       </c>
       <c r="IJ24" s="2">
@@ -18150,7 +18150,7 @@
         <v>0.88049999999999995</v>
       </c>
       <c r="IP24" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>1.8702791567450257E-2</v>
       </c>
       <c r="IQ24" s="2">
@@ -18169,7 +18169,7 @@
         <v>0.81240000000000001</v>
       </c>
       <c r="IW24" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>1.2490800048290306E-2</v>
       </c>
       <c r="IX24" s="2">
@@ -18188,7 +18188,7 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="JD24" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>1.2641036743720217E-2</v>
       </c>
       <c r="JE24" s="2">
@@ -18207,7 +18207,7 @@
         <v>0.86470000000000002</v>
       </c>
       <c r="JK24" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>2.2077907138320568E-2</v>
       </c>
       <c r="JL24" s="2">
@@ -18226,7 +18226,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="JR24" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.4802176422738128E-2</v>
       </c>
       <c r="JS24" s="2">
@@ -18264,7 +18264,7 @@
         <v>0.81030000000000002</v>
       </c>
       <c r="KF24" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.5297577434469797E-2</v>
       </c>
       <c r="KG24" s="2">
@@ -18283,46 +18283,46 @@
         <v>0.94599999999999995</v>
       </c>
       <c r="KM24" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.22709852546861461</v>
       </c>
       <c r="KN24" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.90280215545979536</v>
       </c>
       <c r="KT24" s="2">
         <v>3</v>
       </c>
       <c r="KU24" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.41756846482695958</v>
       </c>
       <c r="KV24" s="2">
         <v>2.2610000000000001</v>
       </c>
       <c r="KW24">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.69309888572347356</v>
       </c>
       <c r="KY24" s="2">
         <v>3</v>
       </c>
       <c r="KZ24" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.46223837897136955</v>
       </c>
       <c r="LA24" s="2">
         <v>2.008</v>
       </c>
       <c r="LB24">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.72212071293870039</v>
       </c>
       <c r="LD24" s="2">
         <v>3</v>
       </c>
       <c r="LE24" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.50216310132474395</v>
       </c>
       <c r="LF24" s="2">
@@ -18336,57 +18336,57 @@
         <v>3</v>
       </c>
       <c r="MN24" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>0.27731566129230417</v>
       </c>
       <c r="MO24" s="2">
         <v>1.5349999999999999</v>
       </c>
-      <c r="MP24" s="2">
-        <f t="shared" si="50"/>
-        <v>0.77967814681512548</v>
+      <c r="MP24">
+        <f t="shared" si="92"/>
+        <v>0.84711734572135555</v>
       </c>
       <c r="MR24" s="2">
         <v>3</v>
       </c>
       <c r="MS24" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.23158493291736462</v>
       </c>
       <c r="MT24" s="2">
         <v>1.4059999999999999</v>
       </c>
       <c r="MU24">
-        <f t="shared" si="51"/>
-        <v>0.79615696026043392</v>
+        <f t="shared" si="94"/>
+        <v>0.85901180226991125</v>
       </c>
       <c r="MW24" s="2">
         <v>3</v>
       </c>
       <c r="MX24" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="95"/>
         <v>0.15897832687148344</v>
       </c>
       <c r="MY24" s="2">
         <v>1.1539999999999999</v>
       </c>
       <c r="MZ24">
-        <f t="shared" si="52"/>
-        <v>0.82935961584077211</v>
+        <f t="shared" si="96"/>
+        <v>0.88273142895585299</v>
       </c>
       <c r="NG24" s="2">
         <v>3</v>
       </c>
       <c r="NH24" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.2420337749749871</v>
       </c>
       <c r="NI24" s="2">
         <v>0.88100000000000001</v>
       </c>
       <c r="NJ24">
-        <f t="shared" si="54"/>
-        <v>0.8668935164986612</v>
+        <f t="shared" si="100"/>
+        <v>0.90916736177303581</v>
       </c>
     </row>
     <row r="25" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -18466,14 +18466,14 @@
         <v>0.88750605177911046</v>
       </c>
       <c r="GR25" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>20.558999187919532</v>
       </c>
       <c r="GS25" s="2">
         <v>2.7</v>
       </c>
       <c r="GT25" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.62201447738054993</v>
       </c>
       <c r="GU25" s="2">
@@ -18484,7 +18484,7 @@
         <v>0.72973222459347808</v>
       </c>
       <c r="GW25" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.91129318068756071</v>
       </c>
       <c r="HD25" s="2">
@@ -18497,7 +18497,7 @@
         <v>0.71689999999999998</v>
       </c>
       <c r="HG25" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>1.1745466891898112E-2</v>
       </c>
       <c r="HH25" s="2">
@@ -18516,7 +18516,7 @@
         <v>0.75009999999999999</v>
       </c>
       <c r="HN25" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.5956204895515601E-2</v>
       </c>
       <c r="HO25" s="2">
@@ -18535,7 +18535,7 @@
         <v>0.8175</v>
       </c>
       <c r="HU25" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.3693870164155122E-2</v>
       </c>
       <c r="HV25" s="2">
@@ -18554,7 +18554,7 @@
         <v>0.87629999999999997</v>
       </c>
       <c r="IB25" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.6816957873231651E-2</v>
       </c>
       <c r="IC25" s="2">
@@ -18573,7 +18573,7 @@
         <v>0.87739999999999996</v>
       </c>
       <c r="II25" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.6829707323492399E-2</v>
       </c>
       <c r="IJ25" s="2">
@@ -18592,7 +18592,7 @@
         <v>0.88170000000000004</v>
       </c>
       <c r="IP25" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>2.0991565404327586E-2</v>
       </c>
       <c r="IQ25" s="2">
@@ -18611,7 +18611,7 @@
         <v>0.80720000000000003</v>
       </c>
       <c r="IW25" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>1.4030243932877304E-2</v>
       </c>
       <c r="IX25" s="2">
@@ -18630,7 +18630,7 @@
         <v>0.77990000000000004</v>
       </c>
       <c r="JD25" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>1.4198730502435813E-2</v>
       </c>
       <c r="JE25" s="2">
@@ -18649,7 +18649,7 @@
         <v>0.86339999999999995</v>
       </c>
       <c r="JK25" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>2.4769288773432877E-2</v>
       </c>
       <c r="JL25" s="2">
@@ -18668,7 +18668,7 @@
         <v>0.88680000000000003</v>
       </c>
       <c r="JR25" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.6621693820034283E-2</v>
       </c>
       <c r="JS25" s="2">
@@ -18706,7 +18706,7 @@
         <v>0.80510000000000004</v>
       </c>
       <c r="KF25" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.7176928938712727E-2</v>
       </c>
       <c r="KG25" s="2">
@@ -18725,82 +18725,82 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="KM25" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.25528577583581297</v>
       </c>
       <c r="KN25" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.88665205248376588</v>
       </c>
       <c r="KT25" s="2">
         <v>3.5</v>
       </c>
       <c r="KU25" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.4554652232864852</v>
       </c>
       <c r="KV25" s="2">
         <v>2.5209999999999999</v>
       </c>
       <c r="KW25">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.62072940967490042</v>
       </c>
       <c r="KY25" s="2">
         <v>3.5</v>
       </c>
       <c r="KZ25" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.50070400734963705</v>
       </c>
       <c r="LA25" s="2">
         <v>2.1960000000000002</v>
       </c>
       <c r="LB25">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.66008635250941805</v>
       </c>
       <c r="LD25" s="2">
         <v>3.5</v>
       </c>
       <c r="LE25" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.54061112502038544</v>
       </c>
       <c r="LF25" s="2">
         <v>1.619</v>
       </c>
       <c r="LG25">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.73620834818724368</v>
       </c>
       <c r="MR25" s="2">
         <v>3.5</v>
       </c>
       <c r="MS25" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.26014160889605731</v>
       </c>
       <c r="MT25" s="2">
         <v>1.5109999999999999</v>
       </c>
       <c r="MU25">
-        <f t="shared" si="51"/>
-        <v>0.75140283945681929</v>
+        <f t="shared" si="94"/>
+        <v>0.82651084133809749</v>
       </c>
       <c r="NG25" s="2">
         <v>3.5</v>
       </c>
       <c r="NH25" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="99"/>
         <v>0.27142378364200681</v>
       </c>
       <c r="NI25" s="2">
         <v>0.88600000000000001</v>
       </c>
       <c r="NJ25">
-        <f t="shared" si="54"/>
-        <v>0.84569929572288705</v>
+        <f t="shared" si="100"/>
+        <v>0.89428781344293951</v>
       </c>
     </row>
     <row r="26" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -18867,25 +18867,25 @@
         <v>0.87710984737211428</v>
       </c>
       <c r="GR26" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>21.349729925916435</v>
       </c>
       <c r="GS26" s="2">
         <v>2.6</v>
       </c>
       <c r="GT26" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.63084598288173266</v>
       </c>
       <c r="GU26" s="2">
         <v>0.65400000000000003</v>
       </c>
       <c r="GV26" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.72222476000767877</v>
       </c>
       <c r="GW26" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.90553527961717439</v>
       </c>
       <c r="HD26" s="2">
@@ -18898,7 +18898,7 @@
         <v>0.70679999999999998</v>
       </c>
       <c r="HG26" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>1.3033509362919299E-2</v>
       </c>
       <c r="HH26" s="2">
@@ -18917,7 +18917,7 @@
         <v>0.74170000000000003</v>
       </c>
       <c r="HN26" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>1.7697740021021445E-2</v>
       </c>
       <c r="HO26" s="2">
@@ -18936,7 +18936,7 @@
         <v>0.81420000000000003</v>
       </c>
       <c r="HU26" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>1.5192295590914865E-2</v>
       </c>
       <c r="HV26" s="2">
@@ -18955,7 +18955,7 @@
         <v>0.87729999999999997</v>
       </c>
       <c r="IB26" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>1.8650659042765142E-2</v>
       </c>
       <c r="IC26" s="2">
@@ -18974,7 +18974,7 @@
         <v>0.87870000000000004</v>
       </c>
       <c r="II26" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>1.8664772286675516E-2</v>
       </c>
       <c r="IJ26" s="2">
@@ -18993,7 +18993,7 @@
         <v>0.88319999999999999</v>
       </c>
       <c r="IP26" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>2.3269687430848108E-2</v>
       </c>
       <c r="IQ26" s="2">
@@ -19012,7 +19012,7 @@
         <v>0.80249999999999999</v>
       </c>
       <c r="IW26" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>1.556489556080724E-2</v>
       </c>
       <c r="IX26" s="2">
@@ -19031,7 +19031,7 @@
         <v>0.77449999999999997</v>
       </c>
       <c r="JD26" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>1.5751517053190594E-2</v>
       </c>
       <c r="JE26" s="2">
@@ -19050,7 +19050,7 @@
         <v>0.86250000000000004</v>
       </c>
       <c r="JK26" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>2.7445896931952821E-2</v>
       </c>
       <c r="JL26" s="2">
@@ -19069,7 +19069,7 @@
         <v>0.88900000000000001</v>
       </c>
       <c r="JR26" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>1.8434502837605737E-2</v>
       </c>
       <c r="JS26" s="2">
@@ -19107,7 +19107,7 @@
         <v>0.80049999999999999</v>
       </c>
       <c r="KF26" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>1.9049120444323352E-2</v>
       </c>
       <c r="KG26" s="2">
@@ -19126,46 +19126,46 @@
         <v>0.96099999999999997</v>
       </c>
       <c r="KM26" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.2814894229926086</v>
       </c>
       <c r="KN26" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.87066536871969902</v>
       </c>
       <c r="KT26" s="2">
         <v>4</v>
       </c>
       <c r="KU26" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.48873164546607228</v>
       </c>
       <c r="KV26" s="2">
         <v>2.7690000000000001</v>
       </c>
       <c r="KW26">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.5495833420406826</v>
       </c>
       <c r="KY26" s="2">
         <v>4</v>
       </c>
       <c r="KZ26" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.53403414597778276</v>
       </c>
       <c r="LA26" s="2">
         <v>2.3719999999999999</v>
       </c>
       <c r="LB26">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.59883302653220938</v>
       </c>
       <c r="LD26" s="2">
         <v>4</v>
       </c>
       <c r="LE26" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.57354621906077818</v>
       </c>
       <c r="LF26" s="2">
@@ -19179,15 +19179,15 @@
         <v>4</v>
       </c>
       <c r="MS26" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.28665182902471037</v>
       </c>
       <c r="MT26" s="2">
         <v>1.6220000000000001</v>
       </c>
       <c r="MU26">
-        <f t="shared" si="51"/>
-        <v>0.70423756855888497</v>
+        <f t="shared" si="94"/>
+        <v>0.79155201649387652</v>
       </c>
     </row>
     <row r="27" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -19197,21 +19197,21 @@
         <v>4.5</v>
       </c>
       <c r="KU27" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.51816749461552181</v>
       </c>
       <c r="KV27" s="2">
         <v>3.0049999999999999</v>
       </c>
       <c r="KW27">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.48151674688262641</v>
       </c>
       <c r="KY27" s="2">
         <v>4.5</v>
       </c>
       <c r="KZ27" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.56319288528571543</v>
       </c>
       <c r="LA27" s="2">
@@ -19225,29 +19225,29 @@
         <v>4.5</v>
       </c>
       <c r="LE27" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.60207478208620246</v>
       </c>
       <c r="LF27" s="2">
         <v>1.7909999999999999</v>
       </c>
       <c r="LG27">
-        <f t="shared" si="90"/>
+        <f t="shared" si="78"/>
         <v>0.64689572296674591</v>
       </c>
       <c r="MR27" s="2">
         <v>4.5</v>
       </c>
       <c r="MS27" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.31132796628261722</v>
       </c>
       <c r="MT27" s="2">
         <v>1.738</v>
       </c>
       <c r="MU27">
-        <f t="shared" si="51"/>
-        <v>0.65528789989646419</v>
+        <f t="shared" si="94"/>
+        <v>0.75443431260423632</v>
       </c>
     </row>
     <row r="28" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -19314,25 +19314,25 @@
         <v>0.8667217477376794</v>
       </c>
       <c r="GR28" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>22.203719122953096</v>
       </c>
       <c r="GS28" s="2">
         <v>2.5</v>
       </c>
       <c r="GT28" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.63993188386678979</v>
       </c>
       <c r="GU28" s="2">
         <v>0.64500000000000002</v>
       </c>
       <c r="GV28" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.71428829589504061</v>
       </c>
       <c r="GW28" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.90299673634128541</v>
       </c>
       <c r="HD28" s="2">
@@ -19345,7 +19345,7 @@
         <v>0.63700000000000001</v>
       </c>
       <c r="HG28" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>2.5731645088652336E-2</v>
       </c>
       <c r="HH28" s="2">
@@ -19364,7 +19364,7 @@
         <v>0.68120000000000003</v>
       </c>
       <c r="HN28" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>3.4779953467629562E-2</v>
       </c>
       <c r="HO28" s="2">
@@ -19383,7 +19383,7 @@
         <v>0.79749999999999999</v>
       </c>
       <c r="HU28" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>2.9929887484167441E-2</v>
       </c>
       <c r="HV28" s="2">
@@ -19402,7 +19402,7 @@
         <v>0.89759999999999995</v>
       </c>
       <c r="IB28" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>3.6618361510297022E-2</v>
       </c>
       <c r="IC28" s="2">
@@ -19421,7 +19421,7 @@
         <v>0.90210000000000001</v>
       </c>
       <c r="II28" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>3.6645563475759077E-2</v>
       </c>
       <c r="IJ28" s="2">
@@ -19440,7 +19440,7 @@
         <v>0.90780000000000005</v>
       </c>
       <c r="IP28" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>4.5481045156867614E-2</v>
       </c>
       <c r="IQ28" s="2">
@@ -19459,7 +19459,7 @@
         <v>0.77190000000000003</v>
       </c>
       <c r="IW28" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>3.065268527662551E-2</v>
       </c>
       <c r="IX28" s="2">
@@ -19478,7 +19478,7 @@
         <v>0.74390000000000001</v>
       </c>
       <c r="JD28" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>3.1014508546120645E-2</v>
       </c>
       <c r="JE28" s="2">
@@ -19497,7 +19497,7 @@
         <v>0.86309999999999998</v>
       </c>
       <c r="JK28" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>5.3425483548883247E-2</v>
       </c>
       <c r="JL28" s="2">
@@ -19516,7 +19516,7 @@
         <v>0.92230000000000001</v>
       </c>
       <c r="JR28" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>3.6201646323337902E-2</v>
       </c>
       <c r="JS28" s="2">
@@ -19554,7 +19554,7 @@
         <v>0.77090000000000003</v>
       </c>
       <c r="KF28" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>3.738606915438502E-2</v>
       </c>
       <c r="KG28" s="2">
@@ -19573,46 +19573,46 @@
         <v>0.96799999999999997</v>
       </c>
       <c r="KM28" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.3059117361062817</v>
       </c>
       <c r="KN28" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.8547513298322934</v>
       </c>
       <c r="KT28" s="2">
         <v>5</v>
       </c>
       <c r="KU28" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.54439837805822588</v>
       </c>
       <c r="KV28" s="2">
         <v>3.2330000000000001</v>
       </c>
       <c r="KW28">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.41743502580096492</v>
       </c>
       <c r="KY28" s="2">
         <v>5</v>
       </c>
       <c r="KZ28" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.58891720792567626</v>
       </c>
       <c r="LA28" s="2">
         <v>2.6930000000000001</v>
       </c>
       <c r="LB28">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.48301541075669552</v>
       </c>
       <c r="LD28" s="2">
         <v>5</v>
       </c>
       <c r="LE28" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.62702571657684203</v>
       </c>
       <c r="LF28" s="2">
@@ -19626,15 +19626,15 @@
         <v>5</v>
       </c>
       <c r="MS28" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.33435399054782666</v>
       </c>
       <c r="MT28" s="2">
         <v>1.86</v>
       </c>
       <c r="MU28">
-        <f t="shared" si="51"/>
-        <v>0.60494838299394793</v>
+        <f t="shared" si="94"/>
+        <v>0.71528460874328337</v>
       </c>
     </row>
     <row r="29" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -19704,25 +19704,25 @@
         <v>0.8490882556844872</v>
       </c>
       <c r="GR29" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>23.128874086409475</v>
       </c>
       <c r="GS29" s="2">
         <v>2.4</v>
       </c>
       <c r="GT29" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.64928333292774931</v>
       </c>
       <c r="GU29" s="2">
         <v>0.629</v>
       </c>
       <c r="GV29" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="55"/>
         <v>0.70588497921530324</v>
       </c>
       <c r="GW29" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.89108001802110537</v>
       </c>
       <c r="HD29" s="2">
@@ -19735,7 +19735,7 @@
         <v>0.59540000000000004</v>
       </c>
       <c r="HG29" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>3.8107187323214622E-2</v>
       </c>
       <c r="HH29" s="2">
@@ -19754,7 +19754,7 @@
         <v>0.63980000000000004</v>
       </c>
       <c r="HN29" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>5.1278203436727815E-2</v>
       </c>
       <c r="HO29" s="2">
@@ -19773,7 +19773,7 @@
         <v>0.79259999999999997</v>
       </c>
       <c r="HU29" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>4.4232888537734098E-2</v>
       </c>
       <c r="HV29" s="2">
@@ -19792,7 +19792,7 @@
         <v>0.92459999999999998</v>
       </c>
       <c r="IB29" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>5.3939946043413713E-2</v>
       </c>
       <c r="IC29" s="2">
@@ -19811,7 +19811,7 @@
         <v>0.93330000000000002</v>
       </c>
       <c r="II29" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>5.3979294384270869E-2</v>
       </c>
       <c r="IJ29" s="2">
@@ -19830,7 +19830,7 @@
         <v>0.93720000000000003</v>
       </c>
       <c r="IP29" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>6.6704668710405493E-2</v>
       </c>
       <c r="IQ29" s="2">
@@ -19849,7 +19849,7 @@
         <v>0.754</v>
       </c>
       <c r="IW29" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>4.5284974873657208E-2</v>
       </c>
       <c r="IX29" s="2">
@@ -19868,7 +19868,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="JD29" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>4.5811354496411792E-2</v>
       </c>
       <c r="JE29" s="2">
@@ -19887,7 +19887,7 @@
         <v>0.87</v>
       </c>
       <c r="JK29" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>7.8053210077849045E-2</v>
       </c>
       <c r="JL29" s="2">
@@ -19906,7 +19906,7 @@
         <v>0.96309999999999996</v>
       </c>
       <c r="JR29" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>5.3337025419911581E-2</v>
       </c>
       <c r="JS29" s="2">
@@ -19944,7 +19944,7 @@
         <v>0.75429999999999997</v>
       </c>
       <c r="KF29" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>5.5050051220633993E-2</v>
       </c>
       <c r="KG29" s="2">
@@ -19963,46 +19963,46 @@
         <v>0.97499999999999998</v>
       </c>
       <c r="KM29" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.32872838769721585</v>
       </c>
       <c r="KN29" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.83891656091088329</v>
       </c>
       <c r="KT29" s="2">
         <v>5.5</v>
       </c>
       <c r="KU29" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.56792070480774626</v>
       </c>
       <c r="KV29" s="2">
         <v>3.4540000000000002</v>
       </c>
       <c r="KW29">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.35819423727316652</v>
       </c>
       <c r="KY29" s="2">
         <v>5.5</v>
       </c>
       <c r="KZ29" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.61178014333077113</v>
       </c>
       <c r="LA29" s="2">
         <v>2.8340000000000001</v>
       </c>
       <c r="LB29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.43068050185120432</v>
       </c>
       <c r="LD29" s="2">
         <v>5.5</v>
       </c>
       <c r="LE29" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="77"/>
         <v>0.64903229429344067</v>
       </c>
       <c r="LF29" s="2">
@@ -20016,15 +20016,15 @@
         <v>5.5</v>
       </c>
       <c r="MS29" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.35589006331600676</v>
       </c>
       <c r="MT29" s="2">
         <v>1.9810000000000001</v>
       </c>
       <c r="MU29">
-        <f t="shared" si="51"/>
-        <v>0.55497076146088264</v>
+        <f t="shared" si="94"/>
+        <v>0.6753258937161507</v>
       </c>
     </row>
     <row r="30" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -20094,14 +20094,14 @@
         <v>0.83139404553783947</v>
       </c>
       <c r="GR30" s="2">
-        <f t="shared" si="65"/>
+        <f t="shared" si="53"/>
         <v>24.134477307557713</v>
       </c>
       <c r="GS30" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="GT30" s="2">
-        <f t="shared" si="66"/>
+        <f t="shared" si="54"/>
         <v>0.65891214422423905</v>
       </c>
       <c r="GU30" s="2">
@@ -20112,7 +20112,7 @@
         <v>0.69697236866331325</v>
       </c>
       <c r="GW30" s="2">
-        <f t="shared" si="68"/>
+        <f t="shared" si="56"/>
         <v>0.88956180743444035</v>
       </c>
       <c r="HD30" s="2">
@@ -20125,7 +20125,7 @@
         <v>0.56640000000000001</v>
       </c>
       <c r="HG30" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>5.0172275003621224E-2</v>
       </c>
       <c r="HH30" s="2">
@@ -20144,7 +20144,7 @@
         <v>0.60709999999999997</v>
       </c>
       <c r="HN30" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>6.7221931292888268E-2</v>
       </c>
       <c r="HO30" s="2">
@@ -20163,7 +20163,7 @@
         <v>0.79169999999999996</v>
       </c>
       <c r="HU30" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>5.8120242645405391E-2</v>
       </c>
       <c r="HV30" s="2">
@@ -20182,7 +20182,7 @@
         <v>0.95320000000000005</v>
       </c>
       <c r="IB30" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>7.0649648645902896E-2</v>
       </c>
       <c r="IC30" s="2">
@@ -20201,7 +20201,7 @@
         <v>0.96709999999999996</v>
       </c>
       <c r="II30" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>7.0700275517295449E-2</v>
       </c>
       <c r="IJ30" s="2">
@@ -20220,7 +20220,7 @@
         <v>0.96730000000000005</v>
       </c>
       <c r="IP30" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>8.7005011458707954E-2</v>
       </c>
       <c r="IQ30" s="2">
@@ -20239,7 +20239,7 @@
         <v>0.74150000000000005</v>
       </c>
       <c r="IW30" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>5.9482084924463913E-2</v>
       </c>
       <c r="IX30" s="2">
@@ -20258,7 +20258,7 @@
         <v>0.72750000000000004</v>
       </c>
       <c r="JD30" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>6.0163088470705575E-2</v>
       </c>
       <c r="JE30" s="2">
@@ -20277,7 +20277,7 @@
         <v>0.879</v>
       </c>
       <c r="JK30" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.10143191783988029</v>
       </c>
       <c r="JL30" s="2">
@@ -20296,7 +20296,7 @@
         <v>1.0065999999999999</v>
       </c>
       <c r="JR30" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>6.9873747936589334E-2</v>
       </c>
       <c r="JS30" s="2">
@@ -20334,7 +20334,7 @@
         <v>0.74280000000000002</v>
       </c>
       <c r="KF30" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>7.2077445930732231E-2</v>
       </c>
       <c r="KG30" s="2">
@@ -20353,54 +20353,54 @@
         <v>0.98099999999999998</v>
       </c>
       <c r="KM30" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.35009268604414934</v>
       </c>
       <c r="KN30" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.8233306428123488</v>
       </c>
       <c r="KT30" s="2">
         <v>6</v>
       </c>
       <c r="KU30" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.58913340016763349</v>
       </c>
       <c r="KV30" s="2">
         <v>3.6549999999999998</v>
       </c>
       <c r="KW30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.30568752548197548</v>
       </c>
       <c r="KY30" s="2">
         <v>6</v>
       </c>
       <c r="KZ30" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.63223395804524984</v>
       </c>
       <c r="LA30" s="2">
         <v>2.9620000000000002</v>
       </c>
       <c r="LB30">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.38271082924928823</v>
       </c>
       <c r="MR30" s="2">
         <v>6</v>
       </c>
       <c r="MS30" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.37607626843694625</v>
       </c>
       <c r="MT30" s="2">
         <v>2.1059999999999999</v>
       </c>
       <c r="MU30">
-        <f t="shared" si="51"/>
-        <v>0.50514792022280608</v>
+        <f t="shared" si="94"/>
+        <v>0.63427712089397181</v>
       </c>
     </row>
     <row r="31" spans="1:379" ht="49" customHeight="1" x14ac:dyDescent="0.2">
@@ -20476,7 +20476,7 @@
         <v>0.54449999999999998</v>
       </c>
       <c r="HG31" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>6.1938445573375467E-2</v>
       </c>
       <c r="HH31" s="2">
@@ -20495,7 +20495,7 @@
         <v>0.57989999999999997</v>
       </c>
       <c r="HN31" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>8.2638632005408885E-2</v>
       </c>
       <c r="HO31" s="2">
@@ -20514,7 +20514,7 @@
         <v>0.79269999999999996</v>
       </c>
       <c r="HU31" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>7.1609808446087331E-2</v>
       </c>
       <c r="HV31" s="2">
@@ -20533,7 +20533,7 @@
         <v>0.98219999999999996</v>
       </c>
       <c r="IB31" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>8.6779328539615827E-2</v>
       </c>
       <c r="IC31" s="2">
@@ -20552,7 +20552,7 @@
         <v>1.0022</v>
       </c>
       <c r="II31" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>8.6840433748602397E-2</v>
       </c>
       <c r="IJ31" s="2">
@@ -20571,7 +20571,7 @@
         <v>0.99729999999999996</v>
       </c>
       <c r="IP31" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.10644103838235162</v>
       </c>
       <c r="IQ31" s="2">
@@ -20590,7 +20590,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="IW31" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>7.3263145002363916E-2</v>
       </c>
       <c r="IX31" s="2">
@@ -20609,7 +20609,7 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="JD31" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>7.408949734253964E-2</v>
       </c>
       <c r="JE31" s="2">
@@ -20628,7 +20628,7 @@
         <v>0.88890000000000002</v>
       </c>
       <c r="JK31" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.12365427474083478</v>
       </c>
       <c r="JL31" s="2">
@@ -20647,7 +20647,7 @@
         <v>1.0513999999999999</v>
       </c>
       <c r="JR31" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>8.5842648033019497E-2</v>
       </c>
       <c r="JS31" s="2">
@@ -20685,7 +20685,7 @@
         <v>0.73409999999999997</v>
       </c>
       <c r="KF31" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>8.8502056858913561E-2</v>
       </c>
       <c r="KG31" s="2">
@@ -20704,39 +20704,39 @@
         <v>0.98599999999999999</v>
       </c>
       <c r="KM31" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="70"/>
         <v>0.37013902430025059</v>
       </c>
       <c r="KN31" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>0.80803428967687863</v>
       </c>
       <c r="KT31" s="2">
         <v>6.5</v>
       </c>
       <c r="KU31" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.60836071544664494</v>
       </c>
       <c r="KV31" s="2">
         <v>3.8279999999999998</v>
       </c>
       <c r="KW31">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.26060988608356023</v>
       </c>
       <c r="KY31" s="2">
         <v>6.5</v>
       </c>
       <c r="KZ31" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.6506403761904429</v>
       </c>
       <c r="LA31" s="2">
         <v>3.0739999999999998</v>
       </c>
       <c r="LB31">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.33964324733851287</v>
       </c>
     </row>
@@ -20801,7 +20801,7 @@
         <v>0.5272</v>
       </c>
       <c r="HG32" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>7.3416671782178797E-2</v>
       </c>
       <c r="HH32" s="2">
@@ -20820,7 +20820,7 @@
         <v>0.55669999999999997</v>
       </c>
       <c r="HN32" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>9.7554012380537389E-2</v>
       </c>
       <c r="HO32" s="2">
@@ -20839,7 +20839,7 @@
         <v>0.79449999999999998</v>
       </c>
       <c r="HU32" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>8.4718435941381884E-2</v>
       </c>
       <c r="HV32" s="2">
@@ -20858,7 +20858,7 @@
         <v>1.0113000000000001</v>
       </c>
       <c r="IB32" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.10235867090133394</v>
       </c>
       <c r="IC32" s="2">
@@ -20877,7 +20877,7 @@
         <v>1.0382</v>
       </c>
       <c r="II32" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.10242951578248087</v>
       </c>
       <c r="IJ32" s="2">
@@ -20896,7 +20896,7 @@
         <v>1.0274000000000001</v>
       </c>
       <c r="IP32" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.1250667980876998</v>
       </c>
       <c r="IQ32" s="2">
@@ -20915,7 +20915,7 @@
         <v>0.72470000000000001</v>
       </c>
       <c r="IW32" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>8.6646179677710905E-2</v>
       </c>
       <c r="IX32" s="2">
@@ -20934,7 +20934,7 @@
         <v>0.72870000000000001</v>
       </c>
       <c r="JD32" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>8.7609212310515175E-2</v>
       </c>
       <c r="JE32" s="2">
@@ -20953,7 +20953,7 @@
         <v>0.89939999999999998</v>
       </c>
       <c r="JK32" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.14480400289743142</v>
       </c>
       <c r="JL32" s="2">
@@ -20972,7 +20972,7 @@
         <v>1.0972</v>
       </c>
       <c r="JR32" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0.10127247810101203</v>
       </c>
       <c r="JS32" s="2">
@@ -21010,7 +21010,7 @@
         <v>0.72740000000000005</v>
       </c>
       <c r="KF32" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.10435533585718357</v>
       </c>
       <c r="KG32" s="2">
@@ -21023,28 +21023,28 @@
         <v>7</v>
       </c>
       <c r="KU32" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>0.62586891943461309</v>
       </c>
       <c r="KV32" s="2">
         <v>3.9889999999999999</v>
       </c>
       <c r="KW32">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>0.22111343134273481</v>
       </c>
       <c r="KY32" s="2">
         <v>7</v>
       </c>
       <c r="KZ32" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.66729215741073444</v>
       </c>
       <c r="LA32" s="2">
         <v>3.1659999999999999</v>
       </c>
       <c r="LB32">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.30187865749786363</v>
       </c>
     </row>
@@ -21109,7 +21109,7 @@
         <v>0.51300000000000001</v>
       </c>
       <c r="HG33" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>8.4617395816587074E-2</v>
       </c>
       <c r="HH33" s="2">
@@ -21128,7 +21128,7 @@
         <v>0.53669999999999995</v>
       </c>
       <c r="HN33" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.11199213410446858</v>
       </c>
       <c r="HO33" s="2">
@@ -21147,7 +21147,7 @@
         <v>0.79669999999999996</v>
       </c>
       <c r="HU33" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>9.7462036712619757E-2</v>
       </c>
       <c r="HV33" s="2">
@@ -21166,7 +21166,7 @@
         <v>1.0402</v>
       </c>
       <c r="IB33" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.11741536919584357</v>
       </c>
       <c r="IC33" s="2">
@@ -21185,7 +21185,7 @@
         <v>1.0746</v>
       </c>
       <c r="II33" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.11749527112488546</v>
       </c>
       <c r="IJ33" s="2">
@@ -21204,7 +21204,7 @@
         <v>1.0577000000000001</v>
       </c>
       <c r="IP33" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.14293192474035177</v>
       </c>
       <c r="IQ33" s="2">
@@ -21223,7 +21223,7 @@
         <v>0.71919999999999995</v>
       </c>
       <c r="IW33" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>9.9648187168995553E-2</v>
       </c>
       <c r="IX33" s="2">
@@ -21242,7 +21242,7 @@
         <v>0.7319</v>
       </c>
       <c r="JD33" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.10073979205719176</v>
       </c>
       <c r="JE33" s="2">
@@ -21261,7 +21261,7 @@
         <v>0.91020000000000001</v>
       </c>
       <c r="JK33" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.16495693268720504</v>
       </c>
       <c r="JL33" s="2">
@@ -21280,7 +21280,7 @@
         <v>1.1437999999999999</v>
       </c>
       <c r="JR33" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0.11619008153652036</v>
       </c>
       <c r="JS33" s="2">
@@ -21318,7 +21318,7 @@
         <v>0.72199999999999998</v>
       </c>
       <c r="KF33" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.11966658407143803</v>
       </c>
       <c r="KG33" s="2">
@@ -21331,14 +21331,14 @@
         <v>7.5</v>
       </c>
       <c r="KZ33" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.68242878465495882</v>
       </c>
       <c r="LA33" s="2">
         <v>3.2410000000000001</v>
       </c>
       <c r="LB33">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.26882834670003947</v>
       </c>
     </row>
@@ -21353,7 +21353,7 @@
         <v>0.50109999999999999</v>
       </c>
       <c r="HG34" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>9.5550560984764568E-2</v>
       </c>
       <c r="HH34" s="2">
@@ -21372,7 +21372,7 @@
         <v>0.51949999999999996</v>
       </c>
       <c r="HN34" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.12597554327140209</v>
       </c>
       <c r="HO34" s="2">
@@ -21391,7 +21391,7 @@
         <v>0.79910000000000003</v>
       </c>
       <c r="HU34" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.1098556483525899</v>
       </c>
       <c r="HV34" s="2">
@@ -21410,7 +21410,7 @@
         <v>1.0689</v>
       </c>
       <c r="IB34" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.13197528946141546</v>
       </c>
       <c r="IC34" s="2">
@@ -21429,7 +21429,7 @@
         <v>1.1113999999999999</v>
       </c>
       <c r="II34" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.13206361693170857</v>
       </c>
       <c r="IJ34" s="2">
@@ -21448,7 +21448,7 @@
         <v>1.0885</v>
       </c>
       <c r="IP34" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.16008207973567931</v>
       </c>
       <c r="IQ34" s="2">
@@ -21467,7 +21467,7 @@
         <v>0.71509999999999996</v>
       </c>
       <c r="IW34" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.11228521137043052</v>
       </c>
       <c r="IX34" s="2">
@@ -21486,7 +21486,7 @@
         <v>0.73619999999999997</v>
       </c>
       <c r="JD34" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.11349779882921852</v>
       </c>
       <c r="JE34" s="2">
@@ -21505,7 +21505,7 @@
         <v>0.92130000000000001</v>
       </c>
       <c r="JK34" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.18418191119576011</v>
       </c>
       <c r="JL34" s="2">
@@ -21524,7 +21524,7 @@
         <v>1.1911</v>
       </c>
       <c r="JR34" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0.1306205485859453</v>
       </c>
       <c r="JS34" s="2">
@@ -21562,7 +21562,7 @@
         <v>0.71779999999999999</v>
       </c>
       <c r="KF34" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.13446313268563848</v>
       </c>
       <c r="KG34" s="2">
@@ -21575,14 +21575,14 @@
         <v>8</v>
       </c>
       <c r="KZ34" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="75"/>
         <v>0.69624805598755835</v>
       </c>
       <c r="LA34" s="2">
         <v>3.3079999999999998</v>
       </c>
       <c r="LB34">
-        <f t="shared" si="88"/>
+        <f t="shared" si="76"/>
         <v>0.23925417759106679</v>
       </c>
     </row>
@@ -21597,7 +21597,7 @@
         <v>0.4909</v>
       </c>
       <c r="HG35" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>0.10622564115741545</v>
       </c>
       <c r="HH35" s="2">
@@ -21616,7 +21616,7 @@
         <v>0.50470000000000004</v>
       </c>
       <c r="HN35" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.13952538786329832</v>
       </c>
       <c r="HO35" s="2">
@@ -21635,7 +21635,7 @@
         <v>0.80169999999999997</v>
       </c>
       <c r="HU35" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.12191349366053768</v>
       </c>
       <c r="HV35" s="2">
@@ -21654,7 +21654,7 @@
         <v>1.0972</v>
       </c>
       <c r="IB35" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.14606261859797245</v>
       </c>
       <c r="IC35" s="2">
@@ -21673,7 +21673,7 @@
         <v>1.1485000000000001</v>
       </c>
       <c r="II35" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.14615878679437022</v>
       </c>
       <c r="IJ35" s="2">
@@ -21692,7 +21692,7 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="IP35" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.17655934138199036</v>
       </c>
       <c r="IQ35" s="2">
@@ -21711,7 +21711,7 @@
         <v>0.71230000000000004</v>
       </c>
       <c r="IW35" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.12457240789776876</v>
       </c>
       <c r="IX35" s="2">
@@ -21730,7 +21730,7 @@
         <v>0.74119999999999997</v>
       </c>
       <c r="JD35" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.12589886813186377</v>
       </c>
       <c r="JE35" s="2">
@@ -21749,7 +21749,7 @@
         <v>0.93269999999999997</v>
       </c>
       <c r="JK35" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.20254158799845759</v>
       </c>
       <c r="JL35" s="2">
@@ -21768,7 +21768,7 @@
         <v>1.2390000000000001</v>
       </c>
       <c r="JR35" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0.14458735717016852</v>
       </c>
       <c r="JS35" s="2">
@@ -21806,7 +21806,7 @@
         <v>0.7147</v>
       </c>
       <c r="KF35" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.14877050573971962</v>
       </c>
       <c r="KG35" s="2">
@@ -21827,7 +21827,7 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="HG36" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>0.11665166814811545</v>
       </c>
       <c r="HH36" s="2">
@@ -21846,7 +21846,7 @@
         <v>0.4919</v>
       </c>
       <c r="HN36" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.15266152446885159</v>
       </c>
       <c r="HO36" s="2">
@@ -21865,7 +21865,7 @@
         <v>0.80420000000000003</v>
       </c>
       <c r="HU36" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.13364903509035025</v>
       </c>
       <c r="HV36" s="2">
@@ -21884,7 +21884,7 @@
         <v>1.1253</v>
       </c>
       <c r="IB36" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.1596999984462853</v>
       </c>
       <c r="IC36" s="2">
@@ -21903,7 +21903,7 @@
         <v>1.1857</v>
       </c>
       <c r="II36" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.1598034652595369</v>
       </c>
       <c r="IJ36" s="2">
@@ -21922,7 +21922,7 @@
         <v>1.1525000000000001</v>
       </c>
       <c r="IP36" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.19240254959807249</v>
       </c>
       <c r="IQ36" s="2">
@@ -21941,7 +21941,7 @@
         <v>0.7107</v>
       </c>
       <c r="IW36" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.13652410472401444</v>
       </c>
       <c r="IX36" s="2">
@@ -21960,7 +21960,7 @@
         <v>0.74690000000000001</v>
       </c>
       <c r="JD36" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.13795777265460335</v>
       </c>
       <c r="JE36" s="2">
@@ -21979,7 +21979,7 @@
         <v>0.94420000000000004</v>
       </c>
       <c r="JK36" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.22009309717502748</v>
       </c>
       <c r="JL36" s="2">
@@ -21998,7 +21998,7 @@
         <v>1.2876000000000001</v>
       </c>
       <c r="JR36" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0.15811250034896238</v>
       </c>
       <c r="JS36" s="2">
@@ -22036,7 +22036,7 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="KF36" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.16261256706175389</v>
       </c>
       <c r="KG36" s="2">
@@ -22057,7 +22057,7 @@
         <v>0.46389999999999998</v>
       </c>
       <c r="HG37" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>0.14168270423592999</v>
       </c>
       <c r="HH37" s="2">
@@ -22076,7 +22076,7 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="HN37" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.18381166339866556</v>
       </c>
       <c r="HO37" s="2">
@@ -22095,7 +22095,7 @@
         <v>0.81030000000000002</v>
       </c>
       <c r="HU37" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.16165987237403318</v>
       </c>
       <c r="HV37" s="2">
@@ -22114,7 +22114,7 @@
         <v>1.1942999999999999</v>
       </c>
       <c r="IB37" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.1919609569271051</v>
       </c>
       <c r="IC37" s="2">
@@ -22133,7 +22133,7 @@
         <v>1.2789999999999999</v>
       </c>
       <c r="II37" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.19208054730725899</v>
       </c>
       <c r="IJ37" s="2">
@@ -22152,7 +22152,7 @@
         <v>1.2378</v>
       </c>
       <c r="IP37" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.22946573870455045</v>
       </c>
       <c r="IQ37" s="2">
@@ -22171,7 +22171,7 @@
         <v>0.71099999999999997</v>
       </c>
       <c r="IW37" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.16502273559593245</v>
       </c>
       <c r="IX37" s="2">
@@ -22190,7 +22190,7 @@
         <v>0.76270000000000004</v>
       </c>
       <c r="JD37" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.16669789813502614</v>
       </c>
       <c r="JE37" s="2">
@@ -22209,7 +22209,7 @@
         <v>0.97370000000000001</v>
       </c>
       <c r="JK37" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.26076805902974032</v>
       </c>
       <c r="JL37" s="2">
@@ -22228,7 +22228,7 @@
         <v>1.4117999999999999</v>
       </c>
       <c r="JR37" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0.19012532770060098</v>
       </c>
       <c r="JS37" s="2">
@@ -22266,7 +22266,7 @@
         <v>0.71050000000000002</v>
       </c>
       <c r="KF37" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.19532512868058791</v>
       </c>
       <c r="KG37" s="2">
@@ -22287,7 +22287,7 @@
         <v>0.44969999999999999</v>
       </c>
       <c r="HG38" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>0.16533424451011641</v>
       </c>
       <c r="HH38" s="2">
@@ -22306,7 +22306,7 @@
         <v>0.44940000000000002</v>
       </c>
       <c r="HN38" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.21275271016866346</v>
       </c>
       <c r="HO38" s="2">
@@ -22325,7 +22325,7 @@
         <v>0.81579999999999997</v>
       </c>
       <c r="HU38" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.18791614678750224</v>
       </c>
       <c r="HV38" s="2">
@@ -22344,7 +22344,7 @@
         <v>1.2615000000000001</v>
       </c>
       <c r="IB38" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.22183636416332192</v>
       </c>
       <c r="IC38" s="2">
@@ -22363,7 +22363,7 @@
         <v>1.3720000000000001</v>
       </c>
       <c r="II38" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.22196945392945808</v>
       </c>
       <c r="IJ38" s="2">
@@ -22382,7 +22382,7 @@
         <v>1.3278000000000001</v>
       </c>
       <c r="IP38" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.26327630794811624</v>
       </c>
       <c r="IQ38" s="2">
@@ -22401,7 +22401,7 @@
         <v>0.71660000000000001</v>
       </c>
       <c r="IW38" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.19170030109487102</v>
       </c>
       <c r="IX38" s="2">
@@ -22420,7 +22420,7 @@
         <v>0.78049999999999997</v>
       </c>
       <c r="JD38" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.1935834857252221</v>
       </c>
       <c r="JE38" s="2">
@@ -22439,7 +22439,7 @@
         <v>1.0036</v>
       </c>
       <c r="JK38" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.2974106321781097</v>
       </c>
       <c r="JL38" s="2">
@@ -22458,7 +22458,7 @@
         <v>1.5401</v>
       </c>
       <c r="JR38" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0.21979275916810995</v>
       </c>
       <c r="JS38" s="2">
@@ -22496,7 +22496,7 @@
         <v>0.71299999999999997</v>
       </c>
       <c r="KF38" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.22557794614504859</v>
       </c>
       <c r="KG38" s="2">
@@ -22517,7 +22517,7 @@
         <v>0.43809999999999999</v>
       </c>
       <c r="HG39" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>0.1877172697654407</v>
       </c>
       <c r="HH39" s="2">
@@ -22536,7 +22536,7 @@
         <v>0.4365</v>
       </c>
       <c r="HN39" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.23971161265490212</v>
       </c>
       <c r="HO39" s="2">
@@ -22555,7 +22555,7 @@
         <v>0.82069999999999999</v>
       </c>
       <c r="HU39" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.2125777073103069</v>
       </c>
       <c r="HV39" s="2">
@@ -22574,7 +22574,7 @@
         <v>1.3269</v>
       </c>
       <c r="IB39" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.24958138694990778</v>
       </c>
       <c r="IC39" s="2">
@@ -22593,7 +22593,7 @@
         <v>1.4637</v>
       </c>
       <c r="II39" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.24972578039979282</v>
       </c>
       <c r="IJ39" s="2">
@@ -22612,7 +22612,7 @@
         <v>1.4180999999999999</v>
       </c>
       <c r="IP39" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.29424442815944829</v>
       </c>
       <c r="IQ39" s="2">
@@ -22631,7 +22631,7 @@
         <v>0.72689999999999999</v>
       </c>
       <c r="IW39" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.21672594641359016</v>
       </c>
       <c r="IX39" s="2">
@@ -22650,7 +22650,7 @@
         <v>0.79959999999999998</v>
       </c>
       <c r="JD39" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.21878842889576139</v>
       </c>
       <c r="JE39" s="2">
@@ -22669,7 +22669,7 @@
         <v>1.0335000000000001</v>
       </c>
       <c r="JK39" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.33059213490207195</v>
       </c>
       <c r="JL39" s="2">
@@ -22688,7 +22688,7 @@
         <v>1.6612</v>
       </c>
       <c r="JR39" s="2">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>0.24512268841903323</v>
       </c>
       <c r="JS39" s="2">
@@ -22726,7 +22726,7 @@
         <v>0.71940000000000004</v>
       </c>
       <c r="KF39" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.25363839898480495</v>
       </c>
       <c r="KG39" s="2">
@@ -22747,7 +22747,7 @@
         <v>0.42830000000000001</v>
       </c>
       <c r="HG40" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>0.20893116712317933</v>
       </c>
       <c r="HH40" s="2">
@@ -22766,7 +22766,7 @@
         <v>0.4264</v>
       </c>
       <c r="HN40" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.26488526115972905</v>
       </c>
       <c r="HO40" s="2">
@@ -22785,7 +22785,7 @@
         <v>0.82469999999999999</v>
       </c>
       <c r="HU40" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.23578555788158653</v>
       </c>
       <c r="HV40" s="2">
@@ -22804,7 +22804,7 @@
         <v>1.3908</v>
       </c>
       <c r="IB40" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.27541605356599858</v>
       </c>
       <c r="IC40" s="2">
@@ -22823,7 +22823,7 @@
         <v>1.5536000000000001</v>
       </c>
       <c r="II40" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.27556990480930599</v>
       </c>
       <c r="IJ40" s="2">
@@ -22842,7 +22842,7 @@
         <v>1.4355</v>
       </c>
       <c r="IP40" s="2">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>0.30012823862263199</v>
       </c>
       <c r="IQ40" s="2">
@@ -22861,7 +22861,7 @@
         <v>0.74099999999999999</v>
       </c>
       <c r="IW40" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.24024849830557179</v>
       </c>
       <c r="IX40" s="2">
@@ -22880,7 +22880,7 @@
         <v>0.81969999999999998</v>
       </c>
       <c r="JD40" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.24246553953013289</v>
       </c>
       <c r="JE40" s="2">
@@ -22899,7 +22899,7 @@
         <v>1.0628</v>
       </c>
       <c r="JK40" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.36078082514297544</v>
       </c>
       <c r="JL40" s="2">
@@ -22937,7 +22937,7 @@
         <v>0.72909999999999997</v>
       </c>
       <c r="KF40" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.27973646882679271</v>
       </c>
       <c r="KG40" s="2">
@@ -22958,7 +22958,7 @@
         <v>0.41959999999999997</v>
       </c>
       <c r="HG41" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="59"/>
         <v>0.22906520542400816</v>
       </c>
       <c r="HH41" s="2">
@@ -22977,7 +22977,7 @@
         <v>0.41820000000000002</v>
       </c>
       <c r="HN41" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.28844530505957</v>
       </c>
       <c r="HO41" s="2">
@@ -22996,7 +22996,7 @@
         <v>0.82809999999999995</v>
       </c>
       <c r="HU41" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.25766455501059926</v>
       </c>
       <c r="HV41" s="2">
@@ -23015,7 +23015,7 @@
         <v>1.4530000000000001</v>
       </c>
       <c r="IB41" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.29953110104063707</v>
       </c>
       <c r="IC41" s="2">
@@ -23034,7 +23034,7 @@
         <v>1.641</v>
       </c>
       <c r="II41" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.29969285158747061</v>
       </c>
       <c r="IJ41" s="2">
@@ -23053,7 +23053,7 @@
         <v>0.75860000000000005</v>
       </c>
       <c r="IW41" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.26239942705547814</v>
       </c>
       <c r="IX41" s="2">
@@ -23072,7 +23072,7 @@
         <v>0.84079999999999999</v>
       </c>
       <c r="JD41" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.26474964867072931</v>
       </c>
       <c r="JE41" s="2">
@@ -23091,7 +23091,7 @@
         <v>1.0911</v>
       </c>
       <c r="JK41" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.38836413657946267</v>
       </c>
       <c r="JL41" s="2">
@@ -23129,7 +23129,7 @@
         <v>0.74170000000000003</v>
       </c>
       <c r="KF41" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.30407105696177705</v>
       </c>
       <c r="KG41" s="2">
@@ -23169,7 +23169,7 @@
         <v>0.41139999999999999</v>
       </c>
       <c r="HN42" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.31054207198964617</v>
       </c>
       <c r="HO42" s="2">
@@ -23188,7 +23188,7 @@
         <v>0.83069999999999999</v>
       </c>
       <c r="HU42" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.27832565489872002</v>
       </c>
       <c r="HV42" s="2">
@@ -23207,7 +23207,7 @@
         <v>1.5137</v>
       </c>
       <c r="IB42" s="2">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0.32209269240157601</v>
       </c>
       <c r="IC42" s="2">
@@ -23226,7 +23226,7 @@
         <v>1.7255</v>
       </c>
       <c r="II42" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.32226102127266776</v>
       </c>
       <c r="IJ42" s="2">
@@ -23245,7 +23245,7 @@
         <v>0.77929999999999999</v>
       </c>
       <c r="IW42" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.28329530498221567</v>
       </c>
       <c r="IX42" s="2">
@@ -23264,7 +23264,7 @@
         <v>0.86280000000000001</v>
       </c>
       <c r="JD42" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.28576017562300193</v>
       </c>
       <c r="JE42" s="2">
@@ -23283,7 +23283,7 @@
         <v>1.1176999999999999</v>
       </c>
       <c r="JK42" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.4136653957277785</v>
       </c>
       <c r="JL42" s="2">
@@ -23321,7 +23321,7 @@
         <v>0.75680000000000003</v>
       </c>
       <c r="KF42" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.32681506310536579</v>
       </c>
       <c r="KG42" s="2">
@@ -23361,7 +23361,7 @@
         <v>0.40899999999999997</v>
       </c>
       <c r="HN43" s="2">
-        <f t="shared" si="72"/>
+        <f t="shared" si="60"/>
         <v>0.32008569032197381</v>
       </c>
       <c r="HO43" s="2">
@@ -23380,7 +23380,7 @@
         <v>0.8327</v>
       </c>
       <c r="HU43" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.29786779546401604</v>
       </c>
       <c r="HV43" s="2">
@@ -23399,7 +23399,7 @@
         <v>1.8067</v>
       </c>
       <c r="II43" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.34342003430196982</v>
       </c>
       <c r="IJ43" s="2">
@@ -23418,7 +23418,7 @@
         <v>0.80300000000000005</v>
       </c>
       <c r="IW43" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.30303985856504212</v>
       </c>
       <c r="IX43" s="2">
@@ -23437,7 +23437,7 @@
         <v>0.88560000000000005</v>
       </c>
       <c r="JD43" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.30560326880872757</v>
       </c>
       <c r="JE43" s="2">
@@ -23456,7 +23456,7 @@
         <v>1.1420999999999999</v>
       </c>
       <c r="JK43" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.43695655468941208</v>
       </c>
       <c r="JL43" s="2">
@@ -23475,7 +23475,7 @@
         <v>0.77390000000000003</v>
       </c>
       <c r="KF43" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.34811949978679924</v>
       </c>
       <c r="KG43" s="2">
@@ -23515,7 +23515,7 @@
         <v>0.83389999999999997</v>
       </c>
       <c r="HU44" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.3163794806488428</v>
       </c>
       <c r="HV44" s="2">
@@ -23534,7 +23534,7 @@
         <v>1.8844000000000001</v>
       </c>
       <c r="II44" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.36329787658059076</v>
       </c>
       <c r="IJ44" s="2">
@@ -23553,7 +23553,7 @@
         <v>0.82950000000000002</v>
       </c>
       <c r="IW44" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.32172569045882921</v>
       </c>
       <c r="IX44" s="2">
@@ -23572,7 +23572,7 @@
         <v>0.89759999999999995</v>
       </c>
       <c r="JD44" s="2">
-        <f t="shared" si="78"/>
+        <f t="shared" si="66"/>
         <v>0.31541715514164492</v>
       </c>
       <c r="JE44" s="2">
@@ -23591,7 +23591,7 @@
         <v>1.1637999999999999</v>
       </c>
       <c r="JK44" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>0.45846800512003338</v>
       </c>
       <c r="JL44" s="2">
@@ -23610,7 +23610,7 @@
         <v>0.79249999999999998</v>
       </c>
       <c r="KF44" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.36811684944982059</v>
       </c>
       <c r="KG44" s="2">
@@ -23650,7 +23650,7 @@
         <v>0.83450000000000002</v>
       </c>
       <c r="HU45" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.33394012054411643</v>
       </c>
       <c r="HV45" s="2">
@@ -23669,7 +23669,7 @@
         <v>1.9584999999999999</v>
       </c>
       <c r="II45" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.38200749045237109</v>
       </c>
       <c r="IJ45" s="2">
@@ -23688,7 +23688,7 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="IW45" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.33943573173385883</v>
       </c>
       <c r="IX45" s="2">
@@ -23707,7 +23707,7 @@
         <v>0.81210000000000004</v>
       </c>
       <c r="KF45" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.38692382204171571</v>
       </c>
       <c r="KG45" s="2">
@@ -23728,7 +23728,7 @@
         <v>0.83430000000000004</v>
       </c>
       <c r="HU46" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.35062117013818206</v>
       </c>
       <c r="HV46" s="2">
@@ -23747,7 +23747,7 @@
         <v>2.0289000000000001</v>
       </c>
       <c r="II46" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.39964892189373641</v>
       </c>
       <c r="IJ46" s="2">
@@ -23766,7 +23766,7 @@
         <v>0.89180000000000004</v>
       </c>
       <c r="IW46" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.3562444723931622</v>
       </c>
       <c r="IX46" s="2">
@@ -23785,7 +23785,7 @@
         <v>0.82199999999999995</v>
       </c>
       <c r="KF46" s="2">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>0.39570097829718204</v>
       </c>
       <c r="KG46" s="2">
@@ -23806,7 +23806,7 @@
         <v>0.83360000000000001</v>
       </c>
       <c r="HU47" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.36648710113097416</v>
       </c>
       <c r="HV47" s="2">
@@ -23825,7 +23825,7 @@
         <v>2.0958999999999999</v>
       </c>
       <c r="II47" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.41631111014737593</v>
       </c>
       <c r="IJ47" s="2">
@@ -23844,7 +23844,7 @@
         <v>0.92820000000000003</v>
       </c>
       <c r="IW47" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.3722190086810811</v>
       </c>
       <c r="IX47" s="2">
@@ -23865,7 +23865,7 @@
         <v>0.83330000000000004</v>
       </c>
       <c r="HU48" s="2">
-        <f t="shared" si="73"/>
+        <f t="shared" si="61"/>
         <v>0.36993536551481065</v>
       </c>
       <c r="HV48" s="2">
@@ -23884,7 +23884,7 @@
         <v>2.1595</v>
       </c>
       <c r="II48" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.43207338738601375</v>
       </c>
       <c r="IJ48" s="2">
@@ -23903,7 +23903,7 @@
         <v>0.96879999999999999</v>
       </c>
       <c r="IW48" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.38741993823624765</v>
       </c>
       <c r="IX48" s="2">
@@ -23924,7 +23924,7 @@
         <v>2.2202999999999999</v>
       </c>
       <c r="II49" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.44700674177859806</v>
       </c>
       <c r="IJ49" s="2">
@@ -23943,7 +23943,7 @@
         <v>0.9778</v>
       </c>
       <c r="IW49" s="2">
-        <f t="shared" si="77"/>
+        <f t="shared" si="65"/>
         <v>0.39048971193229581</v>
       </c>
       <c r="IX49" s="2">
@@ -23964,7 +23964,7 @@
         <v>2.2786</v>
       </c>
       <c r="II50" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.46117488639168835</v>
       </c>
       <c r="IJ50" s="2">
@@ -23985,7 +23985,7 @@
         <v>2.3351000000000002</v>
       </c>
       <c r="II51" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.47463516787878235</v>
       </c>
       <c r="IJ51" s="2">
@@ -24006,7 +24006,7 @@
         <v>2.3904000000000001</v>
       </c>
       <c r="II52" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.48743934229036501</v>
       </c>
       <c r="IJ52" s="2">
@@ -24027,7 +24027,7 @@
         <v>2.4455</v>
       </c>
       <c r="II53" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.49963424013502511</v>
       </c>
       <c r="IJ53" s="2">
@@ -24048,7 +24048,7 @@
         <v>2.5011999999999999</v>
       </c>
       <c r="II54" s="2">
-        <f t="shared" si="75"/>
+        <f t="shared" si="63"/>
         <v>0.51126233870765236</v>
       </c>
       <c r="IJ54" s="2">
